--- a/xll_johnson/johnson.xlsx
+++ b/xll_johnson/johnson.xlsx
@@ -8,30 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\fms_johnson\xll_johnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2E446-E1A1-481E-B582-BAF27D3B1BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1429413-1496-455F-B121-CC976933529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="cdf">_xlfn.ANCHORARRAY(Sheet1!$J$3)</definedName>
-    <definedName name="delta">Sheet1!$C$3</definedName>
-    <definedName name="gamma">Sheet1!$C$2</definedName>
-    <definedName name="Johnson">Sheet1!$C$6</definedName>
-    <definedName name="lambda">Sheet1!$C$5</definedName>
-    <definedName name="mu">Sheet1!$C$12</definedName>
+    <definedName name="delta" localSheetId="1">Sheet2!$C$3</definedName>
+    <definedName name="delta">Sheet1!$C$4</definedName>
+    <definedName name="f">Sheet2!$C$9</definedName>
+    <definedName name="gamma" localSheetId="1">Sheet2!$C$2</definedName>
+    <definedName name="gamma">Sheet1!$C$3</definedName>
+    <definedName name="implied">Sheet2!$C$14</definedName>
+    <definedName name="Johnson" localSheetId="1">Sheet2!$C$6</definedName>
+    <definedName name="Johnson">Sheet1!$C$7</definedName>
+    <definedName name="k">Sheet2!$C$11</definedName>
+    <definedName name="lambda" localSheetId="1">Sheet2!$C$5</definedName>
+    <definedName name="lambda">Sheet1!$C$6</definedName>
+    <definedName name="mu">Sheet1!$C$13</definedName>
     <definedName name="ncdf">_xlfn.ANCHORARRAY(Sheet1!$L$3)</definedName>
-    <definedName name="Normal">Sheet1!$C$14</definedName>
+    <definedName name="Normal">Sheet1!$C$15</definedName>
     <definedName name="npdf">_xlfn.ANCHORARRAY(Sheet1!$K$3)</definedName>
     <definedName name="pdf">_xlfn.ANCHORARRAY(Sheet1!$I$3)</definedName>
-    <definedName name="sigma">Sheet1!$C$13</definedName>
+    <definedName name="s" localSheetId="1">Sheet2!$C$10</definedName>
+    <definedName name="s">Sheet1!$C$2</definedName>
+    <definedName name="sigma">Sheet1!$C$14</definedName>
+    <definedName name="value">Sheet2!$C$12</definedName>
     <definedName name="x">_xlfn.ANCHORARRAY(Sheet1!$H$3)</definedName>
-    <definedName name="xi">Sheet1!$C$4</definedName>
-    <definedName name="Z">Sheet1!$C$20</definedName>
+    <definedName name="xi" localSheetId="1">Sheet2!$C$4</definedName>
+    <definedName name="xi">Sheet1!$C$5</definedName>
+    <definedName name="Z">Sheet1!$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>xi</t>
   </si>
@@ -129,13 +142,41 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>put_value</t>
+  </si>
+  <si>
+    <t>put_delta</t>
+  </si>
+  <si>
+    <t>put_implied</t>
+  </si>
+  <si>
+    <t>johnson_put_value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -211,7 +252,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -223,6 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -730,307 +772,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4.5399836433269091E-4</c:v>
+                  <c:v>2.7945408264877118E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1211821774760813E-4</c:v>
+                  <c:v>3.1839727400048375E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7852629168763541E-4</c:v>
+                  <c:v>3.632998017687571E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5452935795671087E-4</c:v>
+                  <c:v>4.1515869297340332E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4166034456623633E-4</c:v>
+                  <c:v>4.7515248884680305E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4172099301256791E-4</c:v>
+                  <c:v>5.4467702104806913E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5683322055249427E-4</c:v>
+                  <c:v>6.2538877917287341E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0895010941344631E-3</c:v>
+                  <c:v>7.1925759255649568E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2426857667214234E-3</c:v>
+                  <c:v>8.2863076445332726E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4198962794959649E-3</c:v>
+                  <c:v>9.5631131683989639E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.625299822335634E-3</c:v>
+                  <c:v>1.1056536568830638E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8638559044121114E-3</c:v>
+                  <c:v>1.2806807964020411E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1414799598519774E-3</c:v>
+                  <c:v>1.4862282874762718E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4652432537375711E-3</c:v>
+                  <c:v>1.7281213362173133E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.843617627810908E-3</c:v>
+                  <c:v>2.0133931923232711E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2867757148734374E-3</c:v>
+                  <c:v>2.3505549713937267E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8069598556386285E-3</c:v>
+                  <c:v>2.7499296579260404E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.418936191114802E-3</c:v>
+                  <c:v>3.2240662915544159E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1405544175295729E-3</c:v>
+                  <c:v>3.7882544167237753E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.9934386381301956E-3</c:v>
+                  <c:v>4.4611639641612428E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0038407971688699E-3</c:v>
+                  <c:v>5.2656420440718964E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.2036955008012603E-3</c:v>
+                  <c:v>6.2297058931908567E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.6319237426882517E-3</c:v>
+                  <c:v>7.3877806466644868E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1336043180833468E-2</c:v>
+                  <c:v>8.7822418540801448E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3374153962431681E-2</c:v>
+                  <c:v>1.0465335719336001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5817381060070058E-2</c:v>
+                  <c:v>1.2501564574641506E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8752865321856195E-2</c:v>
+                  <c:v>1.4970640122302065E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2287403328615518E-2</c:v>
+                  <c:v>1.7971120372145401E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6551835924275985E-2</c:v>
+                  <c:v>2.162485386135931E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1706268651791748E-2</c:v>
+                  <c:v>2.6082349222530603E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7946160369435343E-2</c:v>
+                  <c:v>3.1529156554821171E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.5509216377232126E-2</c:v>
+                  <c:v>3.8193267748764997E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.4682833672723648E-2</c:v>
+                  <c:v>4.635338095207199E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.5811514016871256E-2</c:v>
+                  <c:v>5.6347575173483537E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.9303106330023757E-2</c:v>
+                  <c:v>6.8581423232842151E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.5631856999947168E-2</c:v>
+                  <c:v>8.3533721173020117E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.11533490846887444</c:v>
+                  <c:v>0.10175668714524692</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13899698174264619</c:v>
+                  <c:v>0.12386553954620814</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.16721550635297847</c:v>
+                  <c:v>0.1505097457110279</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.20053573830560054</c:v>
+                  <c:v>0.18231516708719597</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.23934344697746879</c:v>
+                  <c:v>0.21978371233224786</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.28370383266135807</c:v>
+                  <c:v>0.26313711634201442</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.33314353279466052</c:v>
+                  <c:v>0.31209818271004786</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.38639348936483231</c:v>
+                  <c:v>0.36562223394466031</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.44114844502398848</c:v>
+                  <c:v>0.42162902038545386</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.49394968253813593</c:v>
+                  <c:v>0.47683859327233863</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.54033731014439135</c:v>
+                  <c:v>0.52686165134711072</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.57539832144528535</c:v>
+                  <c:v>0.56668689277319728</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.59470715122605933</c:v>
+                  <c:v>0.59158980722526067</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.59542882121551766</c:v>
+                  <c:v>0.59826048564870093</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.57715962684987532</c:v>
+                  <c:v>0.58573254518205409</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.54210271839214386</c:v>
+                  <c:v>0.55568406301801265</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.49447256967407777</c:v>
+                  <c:v>0.51195466625293107</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.43940566781679591</c:v>
+                  <c:v>0.45951310375493226</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.38184618915061219</c:v>
+                  <c:v>0.40333290231099084</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.32577559423885932</c:v>
+                  <c:v>0.34756551619886417</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.27390284321552266</c:v>
+                  <c:v>0.29516008101077751</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.22772309026885401</c:v>
+                  <c:v>0.24786265305354699</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.18777406465475951</c:v>
+                  <c:v>0.20643464151232535</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.15394269159729695</c:v>
+                  <c:v>0.17094208255481272</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.12573535723614146</c:v>
+                  <c:v>0.14102310732675341</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.10247924379988503</c:v>
+                  <c:v>0.11609451902596506</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.3454771452459969E-2</c:v>
+                  <c:v>9.5492644712746544E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.7973055423371204E-2</c:v>
+                  <c:v>7.8559459413378926E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.5414890241784878E-2</c:v>
+                  <c:v>6.4689101103908325E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.5245345804669039E-2</c:v>
+                  <c:v>5.3348411896260793E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.7014277081999572E-2</c:v>
+                  <c:v>4.4081848771799527E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0349578854128156E-2</c:v>
+                  <c:v>3.6507840328979774E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4947380161910032E-2</c:v>
+                  <c:v>3.0311076692013831E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.0561569352483568E-2</c:v>
+                  <c:v>2.5233391274780408E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.6993892996149909E-2</c:v>
+                  <c:v>2.1064695581679397E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4085184456303192E-2</c:v>
+                  <c:v>1.7634688453057518E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1707890250092369E-2</c:v>
+                  <c:v>1.4805628237730175E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.7598597336093773E-3</c:v>
+                  <c:v>1.2466218036361576E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.1592698982939811E-3</c:v>
+                  <c:v>1.0526533731672923E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.8405242152831357E-3</c:v>
+                  <c:v>8.9138724753217869E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.7509635581052959E-3</c:v>
+                  <c:v>7.5693849518498517E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.8482414581218526E-3</c:v>
+                  <c:v>6.4453597493496573E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.0982359455794416E-3</c:v>
+                  <c:v>5.5030419650537775E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.4733910783840906E-3</c:v>
+                  <c:v>4.7108849258413223E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.9514005876051532E-3</c:v>
+                  <c:v>4.043150573963262E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.5141629147183366E-3</c:v>
+                  <c:v>3.4787892306154138E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.1469510690586085E-3</c:v>
+                  <c:v>3.0005425676843875E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8377523482641029E-3</c:v>
+                  <c:v>2.5942246219057556E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.5767423466555525E-3</c:v>
+                  <c:v>2.2481447322403158E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3558651751259989E-3</c:v>
+                  <c:v>1.9526436183371142E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1684977660526561E-3</c:v>
+                  <c:v>1.6997197136385473E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.0091808349999151E-3</c:v>
+                  <c:v>1.4827275743613338E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.7340276935282755E-4</c:v>
+                  <c:v>1.2961339288959828E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.574256199980884E-4</c:v>
+                  <c:v>1.1353199007592327E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.5814465358202286E-4</c:v>
+                  <c:v>9.9642028890174761E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.7297471375401332E-4</c:v>
+                  <c:v>8.7619264935989358E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9975804626297467E-4</c:v>
+                  <c:v>7.7191039433856864E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.3668934832442088E-4</c:v>
+                  <c:v>6.8127529043126569E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.8225467277555944E-4</c:v>
+                  <c:v>6.0234566151115142E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.3518150336470754E-4</c:v>
+                  <c:v>5.3347733494850847E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.943978590340524E-4</c:v>
+                  <c:v>4.7327495247416327E-4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.5899871342338073E-4</c:v>
+                  <c:v>4.2055173088343908E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.2821835536683484E-4</c:v>
+                  <c:v>3.7429612776366692E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0140758585771506E-4</c:v>
+                  <c:v>3.3364416311326613E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.7801486164813004E-4</c:v>
+                  <c:v>2.9785638450960893E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,307 +2086,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4.0249846724529077E-8</c:v>
+                  <c:v>2.4129955889966093E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8027052671946424E-8</c:v>
+                  <c:v>4.7431684654640798E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4917468310943208E-7</c:v>
+                  <c:v>9.1949531688809475E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.812639004358628E-7</c:v>
+                  <c:v>1.7579213595838451E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2300015296346179E-7</c:v>
+                  <c:v>3.3145022194775128E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5908828542361814E-7</c:v>
+                  <c:v>6.1631982102863674E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7345399488046493E-6</c:v>
+                  <c:v>1.1302197849724961E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0937055515946621E-6</c:v>
+                  <c:v>2.0440364018191555E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4418002509752153E-6</c:v>
+                  <c:v>3.6457198742106871E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4400689359710921E-6</c:v>
+                  <c:v>6.4127884815149315E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6150154630179564E-5</c:v>
+                  <c:v>1.1124473987528957E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.724878571889414E-5</c:v>
+                  <c:v>1.9031849904549581E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5340527891044492E-5</c:v>
+                  <c:v>3.2110825670618461E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.4403769813059637E-5</c:v>
+                  <c:v>5.3430703369420841E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2041268996905009E-4</c:v>
+                  <c:v>8.7679741268153059E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9218457433291009E-4</c:v>
+                  <c:v>1.4189809909383787E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0250582624115281E-4</c:v>
+                  <c:v>2.2647634381399296E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6958899518251198E-4</c:v>
+                  <c:v>3.5648237506747424E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.189042109841952E-4</c:v>
+                  <c:v>5.5337843369258552E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0854081895048198E-3</c:v>
+                  <c:v>8.4717932134422715E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6161590940232241E-3</c:v>
+                  <c:v>1.2790791308723813E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3732532063109467E-3</c:v>
+                  <c:v>1.9045326811821897E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.4369482416631019E-3</c:v>
+                  <c:v>2.7967161827415145E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.9087493569254593E-3</c:v>
+                  <c:v>4.0502078501963232E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9141320948501372E-3</c:v>
+                  <c:v>5.7846245512400349E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.6044707297148531E-3</c:v>
+                  <c:v>8.1478306098394133E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3157644610931496E-2</c:v>
+                  <c:v>1.1318210229330824E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7776727540917244E-2</c:v>
+                  <c:v>1.5505382026789284E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3686147538921953E-2</c:v>
+                  <c:v>2.0948654554711729E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1124758746852912E-2</c:v>
+                  <c:v>2.7912500845991409E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0335412919497708E-2</c:v>
+                  <c:v>3.667839412995362E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.1550866592650089E-2</c:v>
+                  <c:v>4.7532518548608807E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.4976211112027962E-2</c:v>
+                  <c:v>6.0749161720556701E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.0768449477460272E-2</c:v>
+                  <c:v>7.6570009734742317E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.9014331126980507E-2</c:v>
+                  <c:v>9.518007986163346E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.11970803997794603</c:v>
+                  <c:v>0.11668160036602157</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.14273074468823588</c:v>
+                  <c:v>0.14106771739328908</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.16783428900627631</c:v>
+                  <c:v>0.16819839635435682</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1946313541389823</c:v>
+                  <c:v>0.19778120212145192</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.22259421080404848</c:v>
+                  <c:v>0.2293597060532393</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.25106367154362719</c:v>
+                  <c:v>0.26231201537401122</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.27926906815860497</c:v>
+                  <c:v>0.29586132286154604</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.30635907240424409</c:v>
+                  <c:v>0.32909944888366083</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.33144204934714083</c:v>
+                  <c:v>0.361023161474819</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35363351273308435</c:v>
+                  <c:v>0.39058173000049884</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.37210728633127754</c:v>
+                  <c:v>0.41673284805446192</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.38614630456966198</c:v>
+                  <c:v>0.43850292359506593</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.39518872151042966</c:v>
+                  <c:v>0.45504694401087509</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.39886520272982412</c:v>
+                  <c:v>0.46570281238686317</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.39702395178508854</c:v>
+                  <c:v>0.47003529342785944</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.38974110802513773</c:v>
+                  <c:v>0.46786550543392069</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.37731552318190265</c:v>
+                  <c:v>0.45928317340728742</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.36024841612372832</c:v>
+                  <c:v>0.44464047362342363</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.33920983599314536</c:v>
+                  <c:v>0.42452805815285793</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.31499506041750763</c:v>
+                  <c:v>0.39973553396848466</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.28847487892577062</c:v>
+                  <c:v>0.37120008122633552</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.26054407761647447</c:v>
+                  <c:v>0.33994786568104446</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.23207232939372091</c:v>
+                  <c:v>0.30703333139918837</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.20386114863355567</c:v>
+                  <c:v>0.27348132826957205</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.17660968747111744</c:v>
+                  <c:v>0.2402363860289409</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.15089106605067718</c:v>
+                  <c:v>0.20812240753154615</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1271397875585551</c:v>
+                  <c:v>0.17781477557172073</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.10564972858903163</c:v>
+                  <c:v>0.14982552236305358</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.6581327377994829E-2</c:v>
+                  <c:v>0.12450096132240532</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.9975988703070452E-2</c:v>
+                  <c:v>0.10203015791040425</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.5775413262316602E-2</c:v>
+                  <c:v>8.2461904818584827E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.3843528634727978E-2</c:v>
+                  <c:v>6.5727500316870441E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.3988903389060465E-2</c:v>
+                  <c:v>5.16665923868425E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5985899553835238E-2</c:v>
+                  <c:v>4.0053592212178295E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.9593287345387095E-2</c:v>
+                  <c:v>3.0622600914242487E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.4569538978236743E-2</c:v>
+                  <c:v>2.3089345732782745E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.0684476824571722E-2</c:v>
+                  <c:v>1.7169202732841192E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.7273336186864392E-3</c:v>
+                  <c:v>1.2590923362052458E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.5115660199926931E-3</c:v>
+                  <c:v>9.106132848932677E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.8769420973590535E-3</c:v>
+                  <c:v>6.4950026568476515E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6895062966261762E-3</c:v>
+                  <c:v>4.568710441179645E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.8400294145894814E-3</c:v>
+                  <c:v>3.1693987659461372E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.241497689572178E-3</c:v>
+                  <c:v>2.168348504415149E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.2610645449592067E-4</c:v>
+                  <c:v>1.463019904504783E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.4211954457831233E-4</c:v>
+                  <c:v>9.7350981505563302E-4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.5085127892498511E-4</c:v>
+                  <c:v>6.3885071313540126E-4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2393398716512202E-4</c:v>
+                  <c:v>4.1345417627405937E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.4095676091077988E-4</c:v>
+                  <c:v>2.6389084995445336E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.7502560127317714E-5</c:v>
+                  <c:v>1.6610787810491804E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.3570359110430774E-5</c:v>
+                  <c:v>1.0311576754162756E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.2344266403547226E-5</c:v>
+                  <c:v>6.3128995187286524E-5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.92592336877485E-5</c:v>
+                  <c:v>3.8115500288447229E-5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1309662629486974E-5</c:v>
+                  <c:v>2.2695686401474357E-5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.5498182178739744E-6</c:v>
+                  <c:v>1.3327661967599159E-5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.7409145954420133E-6</c:v>
+                  <c:v>7.7185116848182121E-6</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.1071492103023972E-6</c:v>
+                  <c:v>4.4084113568267356E-6</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.1705278083347855E-6</c:v>
+                  <c:v>2.4831308687302349E-6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.4126440127278319E-7</c:v>
+                  <c:v>1.3793867654802345E-6</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.4646668191963948E-7</c:v>
+                  <c:v>7.5568612893329128E-7</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.8460980860359997E-7</c:v>
+                  <c:v>4.0828722933091742E-7</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.7010114438558822E-8</c:v>
+                  <c:v>2.1755000176195073E-7</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.0274552257759479E-8</c:v>
+                  <c:v>1.1431976841681189E-7</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.5694984247864265E-8</c:v>
+                  <c:v>5.9245112786729675E-8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.2951421863969333E-8</c:v>
+                  <c:v>3.0279777172615305E-8</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.4380670222978091E-9</c:v>
+                  <c:v>1.5262362659051862E-8</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.1561852577758855E-9</c:v>
+                  <c:v>7.5868205629954428E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2701,307 +2743,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
+                  <c:v>3.437040041465167E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.8888383886189786E-9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.3621834660249021E-8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.6574140887802855E-8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.1147335033974173E-8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9.7125529341379746E-8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.8196891743427202E-7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.3637339674763567E-7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>6.1349960017720306E-7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.1040358424141417E-6</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.9603643926502379E-6</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3.4346633864257292E-6</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>5.9379267369208399E-6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1.0129753677645681E-5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1.7052461216082726E-5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>2.8327666707850252E-5</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>4.6438932026160451E-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>7.5130149028268534E-5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1.199556345671815E-4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1.8902363669015543E-4</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>2.9397900284716671E-4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>4.5127159502306169E-4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>6.837527541089794E-4</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>1.0226305623681764E-3</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>1.5097936510474752E-3</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>2.200481002527066E-3</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>3.1662305551806158E-3</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>4.4979827366486425E-3</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>6.3091485395969649E-3</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>8.738379999018886E-3</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1.1951711127894171E-2</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>1.6143679195266492E-2</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>2.1537001230033159E-2</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>2.8380381049400383E-2</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>3.6944069202113072E-2</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>4.7512900186882034E-2</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>6.0376691115162584E-2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>7.5818099411116724E-2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>9.4098291512360543E-2</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>0.11544104856560938</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>0.1400162001061811</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>0.1679234992663976</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>0.19917819908999618</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>0.23369962916910997</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>0.27130398448337512</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>0.31170231708788843</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>0.35450437574156468</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>0.39922849533890892</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>0.4453172388022601</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>0.49215799108738634</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>0.5391072542633486</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>0.58551704670180216</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>0.6307616096276677</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>0.67426259492032903</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>0.71551105270225679</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>0.75408483827835626</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>0.78966047915550108</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>0.82201903463938053</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>0.8510459871231203</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>0.87672567135600432</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>0.89913112989631394</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>0.91841054758371254</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>0.93477154988264299</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>0.9484646509808301</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>0.95976702402819636</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>0.96896756518996463</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>0.97635396851130229</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>0.98220225408289652</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>0.9867689282952028</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>0.9902857260411948</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>0.99295670616128739</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>0.99495735016618658</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>0.99643524956985763</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>0.99751195232230505</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>0.99828556336816709</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>0.9988337461459853</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>0.99921683895094049</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>0.99948087211676628</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>0.99966034087037814</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>0.9997806490298029</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>0.99986018749144967</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>0.99991204780711773</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>0.9999453957451081</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>0.99996654420133968</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>0.99997977128828142</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>0.99998793007523878</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>0.99999289328717444</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>0.99999587095251719</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>0.99999763278569898</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>0.99999866087185763</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>0.99999925252893296</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>0.99999958833337033</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>0.99999977629907244</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>0.99999988006304719</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>0.99999993655549446</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>0.99999996688811787</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>0.99999998295032966</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>0.99999999133867901</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>0.99999999565907394</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>0.99999999785362736</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>0.99999999895299929</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.99999999949614815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F0A76B-08E5-40E0-BCFA-A9D795A3DB2C}">
   <dimension ref="B1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4162,17 +4204,17 @@
   <sheetData>
     <row r="1" spans="2:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I1" s="3">
-        <f>1-SUM(pdf)*D16</f>
-        <v>5.4997005830159651E-4</v>
+        <f>1-SUM(pdf)*D17</f>
+        <v>5.0550260541992742E-4</v>
       </c>
       <c r="K1" s="3">
-        <f>1-SUM(npdf)*D16</f>
-        <v>0.1514143591668492</v>
+        <f>1-SUM(npdf)*D17</f>
+        <v>3.0788288585270607E-9</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0.1</v>
@@ -4195,352 +4237,358 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H3" cm="1">
-        <f t="array" ref="H3:H103">_xlfn.SEQUENCE(1+(C16-B16)/D16,1,B16,D16)</f>
+        <f t="array" ref="H3:H103">_xlfn.SEQUENCE(1+(C17-B17)/D17,1,B17,D17)</f>
         <v>-5</v>
       </c>
       <c r="I3" cm="1">
-        <f t="array" ref="I3:I103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Johnson,_xlpm.x)))</f>
-        <v>4.5399836433269091E-4</v>
+        <f t="array" ref="I3:I103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Johnson,_xlpm.x,s)))</f>
+        <v>2.7945408264877118E-4</v>
       </c>
       <c r="J3" cm="1">
-        <f t="array" ref="J3:J103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Johnson,_xlpm.x)))</f>
+        <f t="array" ref="J3:J103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Johnson,_xlpm.x,s)))</f>
         <v>4.2047300610986715E-4</v>
       </c>
       <c r="K3" cm="1">
-        <f t="array" ref="K3:K103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Normal,_xlpm.x)))</f>
-        <v>4.0249846724529077E-8</v>
+        <f t="array" ref="K3:K103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Normal,_xlpm.x,s)))</f>
+        <v>2.4129955889966093E-8</v>
       </c>
       <c r="L3" cm="1">
-        <f t="array" ref="L3:L103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Normal,_xlpm.x)))</f>
-        <v>6.8888383886189786E-9</v>
+        <f t="array" ref="L3:L103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Normal,_xlpm.x,s)))</f>
+        <v>3.437040041465167E-9</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>-0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
         <v>-4.9000000000000004</v>
       </c>
       <c r="I4">
-        <v>5.1211821774760813E-4</v>
+        <v>3.1839727400048375E-4</v>
       </c>
       <c r="J4">
         <v>4.6871468417442053E-4</v>
       </c>
       <c r="K4">
-        <v>7.8027052671946424E-8</v>
+        <v>4.7431684654640798E-8</v>
       </c>
       <c r="L4">
-        <v>1.3621834660249021E-8</v>
+        <v>6.8888383886189786E-9</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="H5">
         <v>-4.8000000000000007</v>
       </c>
       <c r="I5">
-        <v>5.7852629168763541E-4</v>
+        <v>3.632998017687571E-4</v>
       </c>
       <c r="J5">
         <v>5.2317271261348441E-4</v>
       </c>
       <c r="K5">
-        <v>1.4917468310943208E-7</v>
+        <v>9.1949531688809475E-8</v>
       </c>
       <c r="L5">
-        <v>2.6574140887802855E-8</v>
+        <v>1.3621834660249021E-8</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" cm="1">
-        <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>2600763039440</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="H6">
         <v>-4.7000000000000011</v>
       </c>
       <c r="I6">
-        <v>6.5452935795671087E-4</v>
+        <v>4.1515869297340332E-4</v>
       </c>
       <c r="J6">
         <v>5.8473952524562556E-4</v>
       </c>
       <c r="K6">
-        <v>2.812639004358628E-7</v>
+        <v>1.7579213595838451E-7</v>
       </c>
       <c r="L6">
-        <v>5.1147335033974173E-8</v>
+        <v>2.6574140887802855E-8</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" cm="1">
+        <f t="array" ref="C7">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
+        <v>1815201892864</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="H7">
         <v>-4.6000000000000014</v>
       </c>
       <c r="I7">
-        <v>7.4166034456623633E-4</v>
+        <v>4.7515248884680305E-4</v>
       </c>
       <c r="J7">
         <v>6.5444921734547634E-4</v>
       </c>
       <c r="K7">
-        <v>5.2300015296346179E-7</v>
+        <v>3.3145022194775128E-7</v>
       </c>
       <c r="L7">
-        <v>9.7125529341379746E-8</v>
+        <v>5.1147335033974173E-8</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" cm="1">
-        <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,B8)</f>
-        <v>-0.18331827652210433</v>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H8">
         <v>-4.5000000000000018</v>
       </c>
       <c r="I8">
-        <v>8.4172099301256791E-4</v>
+        <v>5.4467702104806913E-4</v>
       </c>
       <c r="J8">
         <v>7.3350222853063585E-4</v>
       </c>
       <c r="K8">
-        <v>9.5908828542361814E-7</v>
+        <v>6.1631982102863674E-7</v>
       </c>
       <c r="L8">
-        <v>1.8196891743427202E-7</v>
+        <v>9.7125529341379746E-8</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xll.JOHNSON.MOMENT(Johnson,B9)</f>
-        <v>0.753703187708885</v>
+        <v>-0.18331827652210433</v>
       </c>
       <c r="H9">
         <v>-4.4000000000000021</v>
       </c>
       <c r="I9">
-        <v>9.5683322055249427E-4</v>
+        <v>6.2538877917287341E-4</v>
       </c>
       <c r="J9">
         <v>8.2329471234382501E-4</v>
       </c>
       <c r="K9">
-        <v>1.7345399488046493E-6</v>
+        <v>1.1302197849724961E-6</v>
       </c>
       <c r="L9">
-        <v>3.3637339674763567E-7</v>
+        <v>1.8196891743427202E-7</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.JOHNSON.MOMENT(Johnson,B10)</f>
-        <v>-0.53104345500307115</v>
+        <v>0.753703187708885</v>
       </c>
       <c r="H10">
         <v>-4.3000000000000025</v>
       </c>
       <c r="I10">
-        <v>1.0895010941344631E-3</v>
+        <v>7.1925759255649568E-4</v>
       </c>
       <c r="J10">
         <v>9.2545355505402327E-4</v>
       </c>
       <c r="K10">
-        <v>3.0937055515946621E-6</v>
+        <v>2.0440364018191555E-6</v>
       </c>
       <c r="L10">
-        <v>6.1349960017720306E-7</v>
+        <v>3.3637339674763567E-7</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.JOHNSON.MOMENT(Johnson,B11)</f>
-        <v>3.8482088381788087</v>
+        <v>-0.53104345500307115</v>
       </c>
       <c r="H11">
         <v>-4.2000000000000028</v>
       </c>
       <c r="I11">
-        <v>1.2426857667214234E-3</v>
+        <v>8.2863076445332726E-4</v>
       </c>
       <c r="J11">
         <v>1.0418782182627373E-3</v>
       </c>
       <c r="K11">
-        <v>5.4418002509752153E-6</v>
+        <v>3.6457198742106871E-6</v>
       </c>
       <c r="L11">
-        <v>1.1040358424141417E-6</v>
+        <v>6.1349960017720306E-7</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <f>C8</f>
-        <v>-0.18331827652210433</v>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">_xll.JOHNSON.MOMENT(Johnson,B12)</f>
+        <v>3.8482088381788087</v>
       </c>
       <c r="H12">
         <v>-4.1000000000000032</v>
       </c>
       <c r="I12">
-        <v>1.4198962794959649E-3</v>
+        <v>9.5631131683989639E-4</v>
       </c>
       <c r="J12">
         <v>1.1747908416026576E-3</v>
       </c>
       <c r="K12">
-        <v>9.4400689359710921E-6</v>
+        <v>6.4127884815149315E-6</v>
       </c>
       <c r="L12">
-        <v>1.9603643926502379E-6</v>
+        <v>1.1040358424141417E-6</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <f>SQRT(C9-C8^2)</f>
-        <v>0.84858564517781598</v>
+        <f>C9</f>
+        <v>-0.18331827652210433</v>
       </c>
       <c r="H13">
         <v>-4.0000000000000036</v>
       </c>
       <c r="I13">
-        <v>1.625299822335634E-3</v>
+        <v>1.1056536568830638E-3</v>
       </c>
       <c r="J13">
         <v>1.3267963653426085E-3</v>
       </c>
       <c r="K13">
-        <v>1.6150154630179564E-5</v>
+        <v>1.1124473987528957E-5</v>
       </c>
       <c r="L13">
-        <v>3.4346633864257292E-6</v>
+        <v>1.9603643926502379E-6</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" cm="1">
-        <f t="array" ref="C14">_xll.\VARIATE.NORMAL(mu, sigma)</f>
-        <v>2601613569904</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f>SQRT(C10-C9^2)</f>
+        <v>0.84858564517781598</v>
+      </c>
       <c r="H14">
         <v>-3.9000000000000035</v>
       </c>
       <c r="I14">
-        <v>1.8638559044121114E-3</v>
+        <v>1.2806807964020411E-3</v>
       </c>
       <c r="J14">
         <v>1.5009548333401734E-3</v>
       </c>
       <c r="K14">
-        <v>2.724878571889414E-5</v>
+        <v>1.9031849904549581E-5</v>
       </c>
       <c r="L14">
-        <v>5.9379267369208399E-6</v>
+        <v>3.4346633864257292E-6</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" cm="1">
+        <f t="array" ref="C15">_xll.\VARIATE.NORMAL(mu, sigma)</f>
+        <v>1815687643184</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="H15">
         <v>-3.8000000000000034</v>
       </c>
       <c r="I15">
-        <v>2.1414799598519774E-3</v>
+        <v>1.4862282874762718E-3</v>
       </c>
       <c r="J15">
         <v>1.7008685336363238E-3</v>
       </c>
       <c r="K15">
-        <v>4.5340527891044492E-5</v>
+        <v>3.2110825670618461E-5</v>
       </c>
       <c r="L15">
-        <v>1.0129753677645681E-5</v>
+        <v>5.9379267369208399E-6</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>-5</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
       <c r="H16">
         <v>-3.7000000000000033</v>
       </c>
       <c r="I16">
-        <v>2.4652432537375711E-3</v>
+        <v>1.7281213362173133E-3</v>
       </c>
       <c r="J16">
         <v>1.9307872510138657E-3</v>
       </c>
       <c r="K16">
-        <v>7.4403769813059637E-5</v>
+        <v>5.3430703369420841E-5</v>
       </c>
       <c r="L16">
-        <v>1.7052461216082726E-5</v>
+        <v>1.0129753677645681E-5</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>-5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
       <c r="H17">
         <v>-3.6000000000000032</v>
       </c>
       <c r="I17">
-        <v>2.843617627810908E-3</v>
+        <v>2.0133931923232711E-3</v>
       </c>
       <c r="J17">
         <v>2.1957356729779831E-3</v>
       </c>
       <c r="K17">
-        <v>1.2041268996905009E-4</v>
+        <v>8.7679741268153059E-5</v>
       </c>
       <c r="L17">
-        <v>2.8327666707850252E-5</v>
+        <v>1.7052461216082726E-5</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
@@ -4548,16 +4596,16 @@
         <v>-3.5000000000000031</v>
       </c>
       <c r="I18">
-        <v>3.2867757148734374E-3</v>
+        <v>2.3505549713937267E-3</v>
       </c>
       <c r="J18">
         <v>2.5016679451859702E-3</v>
       </c>
       <c r="K18">
-        <v>1.9218457433291009E-4</v>
+        <v>1.4189809909383787E-4</v>
       </c>
       <c r="L18">
-        <v>4.6438932026160451E-5</v>
+        <v>2.8327666707850252E-5</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
@@ -4565,346 +4613,346 @@
         <v>-3.400000000000003</v>
       </c>
       <c r="I19">
-        <v>3.8069598556386285E-3</v>
+        <v>2.7499296579260404E-3</v>
       </c>
       <c r="J19">
         <v>2.8556555607303635E-3</v>
       </c>
       <c r="K19">
-        <v>3.0250582624115281E-4</v>
+        <v>2.2647634381399296E-4</v>
       </c>
       <c r="L19">
-        <v>7.5130149028268534E-5</v>
+        <v>4.6438932026160451E-5</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.13088058689728799</v>
-      </c>
-      <c r="E20">
-        <f t="array" aca="1" ref="E20:F20" ca="1">_xll.MONTE.STDEV(Z)</f>
-        <v>-1.7390495397351106E-2</v>
-      </c>
-      <c r="F20">
-        <f ca="1"/>
-        <v>0.9987308393807125</v>
-      </c>
       <c r="H20">
         <v>-3.3000000000000029</v>
       </c>
       <c r="I20">
-        <v>4.418936191114802E-3</v>
+        <v>3.2240662915544159E-3</v>
       </c>
       <c r="J20">
         <v>3.266116247183648E-3</v>
       </c>
       <c r="K20">
-        <v>4.6958899518251198E-4</v>
+        <v>3.5648237506747424E-4</v>
       </c>
       <c r="L20">
-        <v>1.199556345671815E-4</v>
+        <v>7.5130149028268534E-5</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <f ca="1">(Z-gamma)/delta</f>
-        <v>-0.15392039126485865</v>
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.26850427979929986</v>
       </c>
       <c r="E21">
-        <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(C21)</f>
-        <v>-7.8260330264900979E-2</v>
+        <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(Z)</f>
+        <v>0</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>0.66582055958714037</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>-3.2000000000000028</v>
       </c>
       <c r="I21">
-        <v>5.1405544175295729E-3</v>
+        <v>3.7882544167237753E-3</v>
       </c>
       <c r="J21">
         <v>3.7430933562233037E-3</v>
       </c>
       <c r="K21">
-        <v>7.189042109841952E-4</v>
+        <v>5.5337843369258552E-4</v>
       </c>
       <c r="L21">
-        <v>1.8902363669015543E-4</v>
+        <v>1.199556345671815E-4</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <f ca="1">SINH(C21)</f>
-        <v>-0.15452887877067095</v>
+        <f ca="1">(Z-gamma)/delta</f>
+        <v>0.11233618653286657</v>
       </c>
       <c r="E22">
         <f t="array" aca="1" ref="E22:F22" ca="1">_xll.MONTE.STDEV(C22)</f>
-        <v>-9.7344366815959288E-2</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>0.83969355162122594</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>-3.1000000000000028</v>
       </c>
       <c r="I22">
-        <v>5.9934386381301956E-3</v>
+        <v>4.4611639641612428E-3</v>
       </c>
       <c r="J22">
         <v>4.2985975482454086E-3</v>
       </c>
       <c r="K22">
-        <v>1.0854081895048198E-3</v>
+        <v>8.4717932134422715E-4</v>
       </c>
       <c r="L22">
-        <v>2.9397900284716671E-4</v>
+        <v>1.8902363669015543E-4</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C23">
-        <f ca="1">POWER($C$22,B23)</f>
-        <v>-0.15452887877067095</v>
-      </c>
-      <c r="D23" cm="1">
-        <f t="array" ref="D23">_xll.JOHNSON.Esinh_k(Johnson,B23)</f>
-        <v>-8.3318276522104329E-2</v>
+        <f ca="1">SINH(C22)</f>
+        <v>0.11257260522102722</v>
       </c>
       <c r="E23">
         <f t="array" aca="1" ref="E23:F23" ca="1">_xll.MONTE.STDEV(C23)</f>
-        <v>-9.7344366815959288E-2</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>0.83969355162122594</v>
-      </c>
-      <c r="G23">
-        <f ca="1">(D23-E23)/F23</f>
-        <v>1.6703820419692747E-2</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>-3.0000000000000027</v>
       </c>
       <c r="I23">
-        <v>7.0038407971688699E-3</v>
+        <v>5.2656420440718964E-3</v>
       </c>
       <c r="J23">
         <v>4.9470254004463921E-3</v>
       </c>
       <c r="K23">
-        <v>1.6161590940232241E-3</v>
+        <v>1.2790791308723813E-3</v>
       </c>
       <c r="L23">
-        <v>4.5127159502306169E-4</v>
+        <v>2.9397900284716671E-4</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <f ca="1">POWER($C$22,B24)</f>
-        <v>2.387917437412072E-2</v>
+        <f ca="1">POWER($C$23,B24)</f>
+        <v>0.11257260522102722</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.JOHNSON.Esinh_k(Johnson,B24)</f>
-        <v>0.72703953240446417</v>
+        <v>-8.3318276522104329E-2</v>
       </c>
       <c r="E24">
         <f t="array" aca="1" ref="E24:F24" ca="1">_xll.MONTE.STDEV(C24)</f>
-        <v>0.71452280395362333</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>1.5455426281821139</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G26" ca="1" si="0">(D24-E24)/F24</f>
-        <v>8.0985980086250818E-3</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="e">
+        <f ca="1">(D24-E24)/F24</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="H24">
         <v>-2.9000000000000026</v>
       </c>
       <c r="I24">
-        <v>8.2036955008012603E-3</v>
+        <v>6.2297058931908567E-3</v>
       </c>
       <c r="J24">
         <v>5.7056730701632308E-3</v>
       </c>
       <c r="K24">
-        <v>2.3732532063109467E-3</v>
+        <v>1.9045326811821897E-3</v>
       </c>
       <c r="L24">
-        <v>6.837527541089794E-4</v>
+        <v>4.5127159502306169E-4</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <f ca="1">POWER($C$22,B25)</f>
-        <v>-3.6900220420022132E-3</v>
+        <f ca="1">POWER($C$23,B25)</f>
+        <v>1.2672591446249245E-2</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" ref="D25">_xll.JOHNSON.Esinh_k(Johnson,B25)</f>
-        <v>-0.30943204698606874</v>
+        <v>0.72703953240446417</v>
       </c>
       <c r="E25">
         <f t="array" aca="1" ref="E25:F25" ca="1">_xll.MONTE.STDEV(C25)</f>
-        <v>-0.34298526363508502</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>5.8665601633509512</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7194021223249238E-3</v>
+        <v>0</v>
+      </c>
+      <c r="G25" t="e">
+        <f ca="1">(D25-E25)/F25</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="H25">
         <v>-2.8000000000000025</v>
       </c>
       <c r="I25">
-        <v>9.6319237426882517E-3</v>
+        <v>7.3877806466644868E-3</v>
       </c>
       <c r="J25">
         <v>6.5953674494610981E-3</v>
       </c>
       <c r="K25">
-        <v>3.4369482416631019E-3</v>
+        <v>2.7967161827415145E-3</v>
       </c>
       <c r="L25">
-        <v>1.0226305623681764E-3</v>
+        <v>6.837527541089794E-4</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <f ca="1">POWER($C$22,B26)</f>
-        <v>5.7021496878966371E-4</v>
+        <f ca="1">POWER($C$23,B26)</f>
+        <v>1.4265866340059826E-3</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.JOHNSON.Esinh_k(Johnson,B26)</f>
-        <v>3.6803803743340247</v>
+        <v>-0.30943204698606874</v>
       </c>
       <c r="E26">
         <f t="array" aca="1" ref="E26:F26" ca="1">_xll.MONTE.STDEV(C26)</f>
-        <v>2.8991148201246335</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>28.449775935651537</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7461219939885588E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G26" t="e">
+        <f ca="1">(D26-E26)/F26</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="H26">
         <v>-2.7000000000000024</v>
       </c>
       <c r="I26">
-        <v>1.1336043180833468E-2</v>
+        <v>8.7822418540801448E-3</v>
       </c>
       <c r="J26">
         <v>7.6412424937365997E-3</v>
       </c>
       <c r="K26">
-        <v>4.9087493569254593E-3</v>
+        <v>4.0502078501963232E-3</v>
       </c>
       <c r="L26">
-        <v>1.5097936510474752E-3</v>
+        <v>1.0226305623681764E-3</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f ca="1">POWER($C$23,B27)</f>
+        <v>1.6059457396354953E-4</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">_xll.JOHNSON.Esinh_k(Johnson,B27)</f>
+        <v>3.6803803743340247</v>
+      </c>
+      <c r="E27">
+        <f t="array" aca="1" ref="E27:F27" ca="1">_xll.MONTE.STDEV(C27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="e">
+        <f ca="1">(D27-E27)/F27</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H27">
         <v>-2.6000000000000023</v>
       </c>
       <c r="I27">
-        <v>1.3374153962431681E-2</v>
+        <v>1.0465335719336001E-2</v>
       </c>
       <c r="J27">
         <v>8.8736947307866409E-3</v>
       </c>
       <c r="K27">
-        <v>6.9141320948501372E-3</v>
+        <v>5.7846245512400349E-3</v>
       </c>
       <c r="L27">
+        <v>1.5097936510474752E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>-2.5000000000000022</v>
+      </c>
+      <c r="I28">
+        <v>1.2501564574641506E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.0329559453804926E-2</v>
+      </c>
+      <c r="K28">
+        <v>8.1478306098394133E-3</v>
+      </c>
+      <c r="L28">
         <v>2.200481002527066E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" cm="1">
-        <f t="array" aca="1" ref="C28" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
-        <v>-0.25452887877067093</v>
-      </c>
-      <c r="D28">
+      <c r="C29" t="e" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D29">
         <f>mu</f>
         <v>-0.18331827652210433</v>
       </c>
-      <c r="E28">
-        <f t="array" aca="1" ref="E28:F28" ca="1">_xll.MONTE.STDEV(C28)</f>
-        <v>-0.1973443668159591</v>
-      </c>
-      <c r="F28">
+      <c r="E29" t="e">
+        <f t="array" aca="1" ref="E29:F29" ca="1">_xll.MONTE.STDEV(C29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" t="e">
         <f ca="1"/>
-        <v>0.83969355162122594</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ref="G28" ca="1" si="1">(D28-E28)/F28</f>
-        <v>1.6703820419692515E-2</v>
-      </c>
-      <c r="H28">
-        <v>-2.5000000000000022</v>
-      </c>
-      <c r="I28">
-        <v>1.5817381060070058E-2</v>
-      </c>
-      <c r="J28">
-        <v>1.0329559453804926E-2</v>
-      </c>
-      <c r="K28">
-        <v>9.6044707297148531E-3</v>
-      </c>
-      <c r="L28">
-        <v>3.1662305551806158E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" t="e">
+        <f ca="1">(D29-E29)/F29</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="H29">
         <v>-2.4000000000000021</v>
       </c>
       <c r="I29">
-        <v>1.8752865321856195E-2</v>
+        <v>1.4970640122302065E-2</v>
       </c>
       <c r="J29">
         <v>1.2053557774557189E-2</v>
       </c>
       <c r="K29">
-        <v>1.3157644610931496E-2</v>
+        <v>1.1318210229330824E-2</v>
       </c>
       <c r="L29">
-        <v>4.4979827366486425E-3</v>
+        <v>3.1662305551806158E-3</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
@@ -4912,16 +4960,16 @@
         <v>-2.300000000000002</v>
       </c>
       <c r="I30">
-        <v>2.2287403328615518E-2</v>
+        <v>1.7971120372145401E-2</v>
       </c>
       <c r="J30">
         <v>1.4100074371410087E-2</v>
       </c>
       <c r="K30">
-        <v>1.7776727540917244E-2</v>
+        <v>1.5505382026789284E-2</v>
       </c>
       <c r="L30">
-        <v>6.3091485395969649E-3</v>
+        <v>4.4979827366486425E-3</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
@@ -4929,16 +4977,16 @@
         <v>-2.200000000000002</v>
       </c>
       <c r="I31">
-        <v>2.6551835924275985E-2</v>
+        <v>2.162485386135931E-2</v>
       </c>
       <c r="J31">
         <v>1.6535335860321854E-2</v>
       </c>
       <c r="K31">
-        <v>2.3686147538921953E-2</v>
+        <v>2.0948654554711729E-2</v>
       </c>
       <c r="L31">
-        <v>8.738379999018886E-3</v>
+        <v>6.3091485395969649E-3</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
@@ -4946,16 +4994,16 @@
         <v>-2.1000000000000019</v>
       </c>
       <c r="I32">
-        <v>3.1706268651791748E-2</v>
+        <v>2.6082349222530603E-2</v>
       </c>
       <c r="J32">
         <v>1.9440069055922549E-2</v>
       </c>
       <c r="K32">
-        <v>3.1124758746852912E-2</v>
+        <v>2.7912500845991409E-2</v>
       </c>
       <c r="L32">
-        <v>1.1951711127894171E-2</v>
+        <v>8.738379999018886E-3</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.35">
@@ -4963,16 +5011,16 @@
         <v>-2.0000000000000018</v>
       </c>
       <c r="I33">
-        <v>3.7946160369435343E-2</v>
+        <v>3.1529156554821171E-2</v>
       </c>
       <c r="J33">
         <v>2.2912724696017739E-2</v>
       </c>
       <c r="K33">
-        <v>4.0335412919497708E-2</v>
+        <v>3.667839412995362E-2</v>
       </c>
       <c r="L33">
-        <v>1.6143679195266492E-2</v>
+        <v>1.1951711127894171E-2</v>
       </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.35">
@@ -4980,16 +5028,16 @@
         <v>-1.9000000000000017</v>
       </c>
       <c r="I34">
-        <v>4.5509216377232126E-2</v>
+        <v>3.8193267748764997E-2</v>
       </c>
       <c r="J34">
         <v>2.7073351399755086E-2</v>
       </c>
       <c r="K34">
-        <v>5.1550866592650089E-2</v>
+        <v>4.7532518548608807E-2</v>
       </c>
       <c r="L34">
-        <v>2.1537001230033159E-2</v>
+        <v>1.6143679195266492E-2</v>
       </c>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.35">
@@ -4997,16 +5045,16 @@
         <v>-1.8000000000000016</v>
       </c>
       <c r="I35">
-        <v>5.4682833672723648E-2</v>
+        <v>4.635338095207199E-2</v>
       </c>
       <c r="J35">
         <v>3.2068189760577293E-2</v>
       </c>
       <c r="K35">
-        <v>6.4976211112027962E-2</v>
+        <v>6.0749161720556701E-2</v>
       </c>
       <c r="L35">
-        <v>2.8380381049400383E-2</v>
+        <v>2.1537001230033159E-2</v>
       </c>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.35">
@@ -5014,16 +5062,16 @@
         <v>-1.7000000000000015</v>
       </c>
       <c r="I36">
-        <v>6.5811514016871256E-2</v>
+        <v>5.6347575173483537E-2</v>
       </c>
       <c r="J36">
         <v>3.8075016121317418E-2</v>
       </c>
       <c r="K36">
-        <v>8.0768449477460272E-2</v>
+        <v>7.6570009734742317E-2</v>
       </c>
       <c r="L36">
-        <v>3.6944069202113072E-2</v>
+        <v>2.8380381049400383E-2</v>
       </c>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.35">
@@ -5031,16 +5079,16 @@
         <v>-1.6000000000000014</v>
       </c>
       <c r="I37">
-        <v>7.9303106330023757E-2</v>
+        <v>6.8581423232842151E-2</v>
       </c>
       <c r="J37">
         <v>4.5309181693160505E-2</v>
       </c>
       <c r="K37">
-        <v>9.9014331126980507E-2</v>
+        <v>9.518007986163346E-2</v>
       </c>
       <c r="L37">
-        <v>4.7512900186882034E-2</v>
+        <v>3.6944069202113072E-2</v>
       </c>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.35">
@@ -5048,16 +5096,16 @@
         <v>-1.5000000000000013</v>
       </c>
       <c r="I38">
-        <v>9.5631856999947168E-2</v>
+        <v>8.3533721173020117E-2</v>
       </c>
       <c r="J38">
         <v>5.4030137936078082E-2</v>
       </c>
       <c r="K38">
-        <v>0.11970803997794603</v>
+        <v>0.11668160036602157</v>
       </c>
       <c r="L38">
-        <v>6.0376691115162584E-2</v>
+        <v>4.7512900186882034E-2</v>
       </c>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.35">
@@ -5065,16 +5113,16 @@
         <v>-1.4000000000000012</v>
       </c>
       <c r="I39">
-        <v>0.11533490846887444</v>
+        <v>0.10175668714524692</v>
       </c>
       <c r="J39">
         <v>6.4547974393468432E-2</v>
       </c>
       <c r="K39">
-        <v>0.14273074468823588</v>
+        <v>0.14106771739328908</v>
       </c>
       <c r="L39">
-        <v>7.5818099411116724E-2</v>
+        <v>6.0376691115162584E-2</v>
       </c>
     </row>
     <row r="40" spans="8:12" x14ac:dyDescent="0.35">
@@ -5082,16 +5130,16 @@
         <v>-1.3000000000000012</v>
       </c>
       <c r="I40">
-        <v>0.13899698174264619</v>
+        <v>0.12386553954620814</v>
       </c>
       <c r="J40">
         <v>7.7229068980227855E-2</v>
       </c>
       <c r="K40">
-        <v>0.16783428900627631</v>
+        <v>0.16819839635435682</v>
       </c>
       <c r="L40">
-        <v>9.4098291512360543E-2</v>
+        <v>7.5818099411116724E-2</v>
       </c>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.35">
@@ -5099,16 +5147,16 @@
         <v>-1.2000000000000011</v>
       </c>
       <c r="I41">
-        <v>0.16721550635297847</v>
+        <v>0.1505097457110279</v>
       </c>
       <c r="J41">
         <v>9.2499304803588034E-2</v>
       </c>
       <c r="K41">
-        <v>0.1946313541389823</v>
+        <v>0.19778120212145192</v>
       </c>
       <c r="L41">
-        <v>0.11544104856560938</v>
+        <v>9.4098291512360543E-2</v>
       </c>
     </row>
     <row r="42" spans="8:12" x14ac:dyDescent="0.35">
@@ -5116,16 +5164,16 @@
         <v>-1.100000000000001</v>
       </c>
       <c r="I42">
-        <v>0.20053573830560054</v>
+        <v>0.18231516708719597</v>
       </c>
       <c r="J42">
         <v>0.11084239711217125</v>
       </c>
       <c r="K42">
-        <v>0.22259421080404848</v>
+        <v>0.2293597060532393</v>
       </c>
       <c r="L42">
-        <v>0.1400162001061811</v>
+        <v>0.11544104856560938</v>
       </c>
     </row>
     <row r="43" spans="8:12" x14ac:dyDescent="0.35">
@@ -5133,16 +5181,16 @@
         <v>-1.0000000000000009</v>
       </c>
       <c r="I43">
-        <v>0.23934344697746879</v>
+        <v>0.21978371233224786</v>
       </c>
       <c r="J43">
         <v>0.1327897166111156</v>
       </c>
       <c r="K43">
-        <v>0.25106367154362719</v>
+        <v>0.26231201537401122</v>
       </c>
       <c r="L43">
-        <v>0.1679234992663976</v>
+        <v>0.1400162001061811</v>
       </c>
     </row>
     <row r="44" spans="8:12" x14ac:dyDescent="0.35">
@@ -5150,16 +5198,16 @@
         <v>-0.90000000000000091</v>
       </c>
       <c r="I44">
-        <v>0.28370383266135807</v>
+        <v>0.26313711634201442</v>
       </c>
       <c r="J44">
         <v>0.15889676819044174</v>
       </c>
       <c r="K44">
-        <v>0.27926906815860497</v>
+        <v>0.29586132286154604</v>
       </c>
       <c r="L44">
-        <v>0.19917819908999618</v>
+        <v>0.1679234992663976</v>
       </c>
     </row>
     <row r="45" spans="8:12" x14ac:dyDescent="0.35">
@@ -5167,16 +5215,16 @@
         <v>-0.80000000000000093</v>
       </c>
       <c r="I45">
-        <v>0.33314353279466052</v>
+        <v>0.31209818271004786</v>
       </c>
       <c r="J45">
         <v>0.18970067882141106</v>
       </c>
       <c r="K45">
-        <v>0.30635907240424409</v>
+        <v>0.32909944888366083</v>
       </c>
       <c r="L45">
-        <v>0.23369962916910997</v>
+        <v>0.19917819908999618</v>
       </c>
     </row>
     <row r="46" spans="8:12" x14ac:dyDescent="0.35">
@@ -5184,16 +5232,16 @@
         <v>-0.70000000000000095</v>
       </c>
       <c r="I46">
-        <v>0.38639348936483231</v>
+        <v>0.36562223394466031</v>
       </c>
       <c r="J46">
         <v>0.22565364994386311</v>
       </c>
       <c r="K46">
-        <v>0.33144204934714083</v>
+        <v>0.361023161474819</v>
       </c>
       <c r="L46">
-        <v>0.27130398448337512</v>
+        <v>0.23369962916910997</v>
       </c>
     </row>
     <row r="47" spans="8:12" x14ac:dyDescent="0.35">
@@ -5201,16 +5249,16 @@
         <v>-0.60000000000000098</v>
       </c>
       <c r="I47">
-        <v>0.44114844502398848</v>
+        <v>0.42162902038545386</v>
       </c>
       <c r="J47">
         <v>0.26703086079299182</v>
       </c>
       <c r="K47">
-        <v>0.35363351273308435</v>
+        <v>0.39058173000049884</v>
       </c>
       <c r="L47">
-        <v>0.31170231708788843</v>
+        <v>0.27130398448337512</v>
       </c>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.35">
@@ -5218,16 +5266,16 @@
         <v>-0.500000000000001</v>
       </c>
       <c r="I48">
-        <v>0.49394968253813593</v>
+        <v>0.47683859327233863</v>
       </c>
       <c r="J48">
         <v>0.31381938239430635</v>
       </c>
       <c r="K48">
-        <v>0.37210728633127754</v>
+        <v>0.41673284805446192</v>
       </c>
       <c r="L48">
-        <v>0.35450437574156468</v>
+        <v>0.31170231708788843</v>
       </c>
     </row>
     <row r="49" spans="8:12" x14ac:dyDescent="0.35">
@@ -5235,16 +5283,16 @@
         <v>-0.40000000000000102</v>
       </c>
       <c r="I49">
-        <v>0.54033731014439135</v>
+        <v>0.52686165134711072</v>
       </c>
       <c r="J49">
         <v>0.36560757076051598</v>
       </c>
       <c r="K49">
-        <v>0.38614630456966198</v>
+        <v>0.43850292359506593</v>
       </c>
       <c r="L49">
-        <v>0.39922849533890892</v>
+        <v>0.35450437574156468</v>
       </c>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.35">
@@ -5252,16 +5300,16 @@
         <v>-0.30000000000000104</v>
       </c>
       <c r="I50">
-        <v>0.57539832144528535</v>
+        <v>0.56668689277319728</v>
       </c>
       <c r="J50">
         <v>0.42150877521786989</v>
       </c>
       <c r="K50">
-        <v>0.39518872151042966</v>
+        <v>0.45504694401087509</v>
       </c>
       <c r="L50">
-        <v>0.4453172388022601</v>
+        <v>0.39922849533890892</v>
       </c>
     </row>
     <row r="51" spans="8:12" x14ac:dyDescent="0.35">
@@ -5269,16 +5317,16 @@
         <v>-0.20000000000000104</v>
       </c>
       <c r="I51">
-        <v>0.59470715122605933</v>
+        <v>0.59158980722526067</v>
       </c>
       <c r="J51">
         <v>0.48016036015686281</v>
       </c>
       <c r="K51">
-        <v>0.39886520272982412</v>
+        <v>0.46570281238686317</v>
       </c>
       <c r="L51">
-        <v>0.49215799108738634</v>
+        <v>0.4453172388022601</v>
       </c>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.35">
@@ -5286,16 +5334,16 @@
         <v>-0.10000000000000103</v>
       </c>
       <c r="I52">
-        <v>0.59542882121551766</v>
+        <v>0.59826048564870093</v>
       </c>
       <c r="J52">
         <v>0.53982783727702832</v>
       </c>
       <c r="K52">
-        <v>0.39702395178508854</v>
+        <v>0.47003529342785944</v>
       </c>
       <c r="L52">
-        <v>0.5391072542633486</v>
+        <v>0.49215799108738634</v>
       </c>
     </row>
     <row r="53" spans="8:12" x14ac:dyDescent="0.35">
@@ -5303,16 +5351,16 @@
         <v>-1.0269562977782698E-15</v>
       </c>
       <c r="I53">
-        <v>0.57715962684987532</v>
+        <v>0.58573254518205409</v>
       </c>
       <c r="J53">
         <v>0.59861008809060445</v>
       </c>
       <c r="K53">
-        <v>0.38974110802513773</v>
+        <v>0.46786550543392069</v>
       </c>
       <c r="L53">
-        <v>0.58551704670180216</v>
+        <v>0.5391072542633486</v>
       </c>
     </row>
     <row r="54" spans="8:12" x14ac:dyDescent="0.35">
@@ -5320,16 +5368,16 @@
         <v>9.9999999999998979E-2</v>
       </c>
       <c r="I54">
-        <v>0.54210271839214386</v>
+        <v>0.55568406301801265</v>
       </c>
       <c r="J54">
         <v>0.65469786778660533</v>
       </c>
       <c r="K54">
-        <v>0.37731552318190265</v>
+        <v>0.45928317340728742</v>
       </c>
       <c r="L54">
-        <v>0.6307616096276677</v>
+        <v>0.58551704670180216</v>
       </c>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.35">
@@ -5337,16 +5385,16 @@
         <v>0.19999999999999898</v>
       </c>
       <c r="I55">
-        <v>0.49447256967407777</v>
+        <v>0.51195466625293107</v>
       </c>
       <c r="J55">
         <v>0.70661049867299153</v>
       </c>
       <c r="K55">
-        <v>0.36024841612372832</v>
+        <v>0.44464047362342363</v>
       </c>
       <c r="L55">
-        <v>0.67426259492032903</v>
+        <v>0.6307616096276677</v>
       </c>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.35">
@@ -5354,16 +5402,16 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="I56">
-        <v>0.43940566781679591</v>
+        <v>0.45951310375493226</v>
       </c>
       <c r="J56">
         <v>0.75334475505344645</v>
       </c>
       <c r="K56">
-        <v>0.33920983599314536</v>
+        <v>0.42452805815285793</v>
       </c>
       <c r="L56">
-        <v>0.71551105270225679</v>
+        <v>0.67426259492032903</v>
       </c>
     </row>
     <row r="57" spans="8:12" x14ac:dyDescent="0.35">
@@ -5371,16 +5419,16 @@
         <v>0.39999999999999902</v>
       </c>
       <c r="I57">
-        <v>0.38184618915061219</v>
+        <v>0.40333290231099084</v>
       </c>
       <c r="J57">
         <v>0.79440968148262048</v>
       </c>
       <c r="K57">
-        <v>0.31499506041750763</v>
+        <v>0.39973553396848466</v>
       </c>
       <c r="L57">
-        <v>0.75408483827835626</v>
+        <v>0.71551105270225679</v>
       </c>
     </row>
     <row r="58" spans="8:12" x14ac:dyDescent="0.35">
@@ -5388,16 +5436,16 @@
         <v>0.499999999999999</v>
       </c>
       <c r="I58">
-        <v>0.32577559423885932</v>
+        <v>0.34756551619886417</v>
       </c>
       <c r="J58">
         <v>0.82976508640009961</v>
       </c>
       <c r="K58">
-        <v>0.28847487892577062</v>
+        <v>0.37120008122633552</v>
       </c>
       <c r="L58">
-        <v>0.78966047915550108</v>
+        <v>0.75408483827835626</v>
       </c>
     </row>
     <row r="59" spans="8:12" x14ac:dyDescent="0.35">
@@ -5405,16 +5453,16 @@
         <v>0.59999999999999898</v>
       </c>
       <c r="I59">
-        <v>0.27390284321552266</v>
+        <v>0.29516008101077751</v>
       </c>
       <c r="J59">
         <v>0.85970610254397384</v>
       </c>
       <c r="K59">
-        <v>0.26054407761647447</v>
+        <v>0.33994786568104446</v>
       </c>
       <c r="L59">
-        <v>0.82201903463938053</v>
+        <v>0.78966047915550108</v>
       </c>
     </row>
     <row r="60" spans="8:12" x14ac:dyDescent="0.35">
@@ -5422,16 +5470,16 @@
         <v>0.69999999999999896</v>
       </c>
       <c r="I60">
-        <v>0.22772309026885401</v>
+        <v>0.24786265305354699</v>
       </c>
       <c r="J60">
         <v>0.88473649070521498</v>
       </c>
       <c r="K60">
-        <v>0.23207232939372091</v>
+        <v>0.30703333139918837</v>
       </c>
       <c r="L60">
-        <v>0.8510459871231203</v>
+        <v>0.82201903463938053</v>
       </c>
     </row>
     <row r="61" spans="8:12" x14ac:dyDescent="0.35">
@@ -5439,16 +5487,16 @@
         <v>0.79999999999999893</v>
       </c>
       <c r="I61">
-        <v>0.18777406465475951</v>
+        <v>0.20643464151232535</v>
       </c>
       <c r="J61">
         <v>0.90545912867964717</v>
       </c>
       <c r="K61">
-        <v>0.20386114863355567</v>
+        <v>0.27348132826957205</v>
       </c>
       <c r="L61">
-        <v>0.87672567135600432</v>
+        <v>0.8510459871231203</v>
       </c>
     </row>
     <row r="62" spans="8:12" x14ac:dyDescent="0.35">
@@ -5456,16 +5504,16 @@
         <v>0.89999999999999891</v>
       </c>
       <c r="I62">
-        <v>0.15394269159729695</v>
+        <v>0.17094208255481272</v>
       </c>
       <c r="J62">
         <v>0.92249563844821658</v>
       </c>
       <c r="K62">
-        <v>0.17660968747111744</v>
+        <v>0.2402363860289409</v>
       </c>
       <c r="L62">
-        <v>0.89913112989631394</v>
+        <v>0.87672567135600432</v>
       </c>
     </row>
     <row r="63" spans="8:12" x14ac:dyDescent="0.35">
@@ -5473,16 +5521,16 @@
         <v>0.99999999999999889</v>
       </c>
       <c r="I63">
-        <v>0.12573535723614146</v>
+        <v>0.14102310732675341</v>
       </c>
       <c r="J63">
         <v>0.93643532470665591</v>
       </c>
       <c r="K63">
-        <v>0.15089106605067718</v>
+        <v>0.20812240753154615</v>
       </c>
       <c r="L63">
-        <v>0.91841054758371254</v>
+        <v>0.89913112989631394</v>
       </c>
     </row>
     <row r="64" spans="8:12" x14ac:dyDescent="0.35">
@@ -5490,16 +5538,16 @@
         <v>1.099999999999999</v>
       </c>
       <c r="I64">
-        <v>0.10247924379988503</v>
+        <v>0.11609451902596506</v>
       </c>
       <c r="J64">
         <v>0.9478077952472802</v>
       </c>
       <c r="K64">
-        <v>0.1271397875585551</v>
+        <v>0.17781477557172073</v>
       </c>
       <c r="L64">
-        <v>0.93477154988264299</v>
+        <v>0.91841054758371254</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.35">
@@ -5507,16 +5555,16 @@
         <v>1.1999999999999991</v>
       </c>
       <c r="I65">
-        <v>8.3454771452459969E-2</v>
+        <v>9.5492644712746544E-2</v>
       </c>
       <c r="J65">
         <v>0.95707218903654212</v>
       </c>
       <c r="K65">
-        <v>0.10564972858903163</v>
+        <v>0.14982552236305358</v>
       </c>
       <c r="L65">
-        <v>0.9484646509808301</v>
+        <v>0.93477154988264299</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.35">
@@ -5524,16 +5572,16 @@
         <v>1.2999999999999992</v>
       </c>
       <c r="I66">
-        <v>6.7973055423371204E-2</v>
+        <v>7.8559459413378926E-2</v>
       </c>
       <c r="J66">
         <v>0.96461676084963277</v>
       </c>
       <c r="K66">
-        <v>8.6581327377994829E-2</v>
+        <v>0.12450096132240532</v>
       </c>
       <c r="L66">
-        <v>0.95976702402819636</v>
+        <v>0.9484646509808301</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.35">
@@ -5541,16 +5589,16 @@
         <v>1.3999999999999992</v>
       </c>
       <c r="I67">
-        <v>5.5414890241784878E-2</v>
+        <v>6.4689101103908325E-2</v>
       </c>
       <c r="J67">
         <v>0.97076415638537239</v>
       </c>
       <c r="K67">
-        <v>6.9975988703070452E-2</v>
+        <v>0.10203015791040425</v>
       </c>
       <c r="L67">
-        <v>0.96896756518996463</v>
+        <v>0.95976702402819636</v>
       </c>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.35">
@@ -5558,16 +5606,16 @@
         <v>1.4999999999999993</v>
       </c>
       <c r="I68">
-        <v>4.5245345804669039E-2</v>
+        <v>5.3348411896260793E-2</v>
       </c>
       <c r="J68">
         <v>0.97577926447744701</v>
       </c>
       <c r="K68">
-        <v>5.5775413262316602E-2</v>
+        <v>8.2461904818584827E-2</v>
       </c>
       <c r="L68">
-        <v>0.97635396851130229</v>
+        <v>0.96896756518996463</v>
       </c>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.35">
@@ -5575,16 +5623,16 @@
         <v>1.5999999999999994</v>
       </c>
       <c r="I69">
-        <v>3.7014277081999572E-2</v>
+        <v>4.4081848771799527E-2</v>
       </c>
       <c r="J69">
         <v>0.97987775432362723</v>
       </c>
       <c r="K69">
-        <v>4.3843528634727978E-2</v>
+        <v>6.5727500316870441E-2</v>
       </c>
       <c r="L69">
-        <v>0.98220225408289652</v>
+        <v>0.97635396851130229</v>
       </c>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.35">
@@ -5592,16 +5640,16 @@
         <v>1.6999999999999995</v>
       </c>
       <c r="I70">
-        <v>3.0349578854128156E-2</v>
+        <v>3.6507840328979774E-2</v>
       </c>
       <c r="J70">
         <v>0.98323425636184081</v>
       </c>
       <c r="K70">
-        <v>3.3988903389060465E-2</v>
+        <v>5.16665923868425E-2</v>
       </c>
       <c r="L70">
-        <v>0.9867689282952028</v>
+        <v>0.98220225408289652</v>
       </c>
     </row>
     <row r="71" spans="8:12" x14ac:dyDescent="0.35">
@@ -5609,16 +5657,16 @@
         <v>1.7999999999999996</v>
       </c>
       <c r="I71">
-        <v>2.4947380161910032E-2</v>
+        <v>3.0311076692013831E-2</v>
       </c>
       <c r="J71">
         <v>0.98598968932458764</v>
       </c>
       <c r="K71">
-        <v>2.5985899553835238E-2</v>
+        <v>4.0053592212178295E-2</v>
       </c>
       <c r="L71">
-        <v>0.9902857260411948</v>
+        <v>0.9867689282952028</v>
       </c>
     </row>
     <row r="72" spans="8:12" x14ac:dyDescent="0.35">
@@ -5626,16 +5674,16 @@
         <v>1.8999999999999997</v>
       </c>
       <c r="I72">
-        <v>2.0561569352483568E-2</v>
+        <v>2.5233391274780408E-2</v>
       </c>
       <c r="J72">
         <v>0.98825755897140199</v>
       </c>
       <c r="K72">
-        <v>1.9593287345387095E-2</v>
+        <v>3.0622600914242487E-2</v>
       </c>
       <c r="L72">
-        <v>0.99295670616128739</v>
+        <v>0.9902857260411948</v>
       </c>
     </row>
     <row r="73" spans="8:12" x14ac:dyDescent="0.35">
@@ -5643,16 +5691,16 @@
         <v>1.9999999999999998</v>
       </c>
       <c r="I73">
-        <v>1.6993892996149909E-2</v>
+        <v>2.1064695581679397E-2</v>
       </c>
       <c r="J73">
         <v>0.99012923108926487</v>
       </c>
       <c r="K73">
-        <v>1.4569538978236743E-2</v>
+        <v>2.3089345732782745E-2</v>
       </c>
       <c r="L73">
-        <v>0.99495735016618658</v>
+        <v>0.99295670616128739</v>
       </c>
     </row>
     <row r="74" spans="8:12" x14ac:dyDescent="0.35">
@@ -5660,16 +5708,16 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="I74">
-        <v>1.4085184456303192E-2</v>
+        <v>1.7634688453057518E-2</v>
       </c>
       <c r="J74">
         <v>0.99167826820763394</v>
       </c>
       <c r="K74">
-        <v>1.0684476824571722E-2</v>
+        <v>1.7169202732841192E-2</v>
       </c>
       <c r="L74">
-        <v>0.99643524956985763</v>
+        <v>0.99495735016618658</v>
       </c>
     </row>
     <row r="75" spans="8:12" x14ac:dyDescent="0.35">
@@ -5677,16 +5725,16 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="I75">
-        <v>1.1707890250092369E-2</v>
+        <v>1.4805628237730175E-2</v>
       </c>
       <c r="J75">
         <v>0.99296395371698609</v>
       </c>
       <c r="K75">
-        <v>7.7273336186864392E-3</v>
+        <v>1.2590923362052458E-2</v>
       </c>
       <c r="L75">
-        <v>0.99751195232230505</v>
+        <v>0.99643524956985763</v>
       </c>
     </row>
     <row r="76" spans="8:12" x14ac:dyDescent="0.35">
@@ -5694,16 +5742,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I76">
-        <v>9.7598597336093773E-3</v>
+        <v>1.2466218036361576E-2</v>
       </c>
       <c r="J76">
         <v>0.99403413258985318</v>
       </c>
       <c r="K76">
-        <v>5.5115660199926931E-3</v>
+        <v>9.106132848932677E-3</v>
       </c>
       <c r="L76">
-        <v>0.99828556336816709</v>
+        <v>0.99751195232230505</v>
       </c>
     </row>
     <row r="77" spans="8:12" x14ac:dyDescent="0.35">
@@ -5711,16 +5759,16 @@
         <v>2.4</v>
       </c>
       <c r="I77">
-        <v>8.1592698982939811E-3</v>
+        <v>1.0526533731672923E-2</v>
       </c>
       <c r="J77">
         <v>0.99492748909742335</v>
       </c>
       <c r="K77">
-        <v>3.8769420973590535E-3</v>
+        <v>6.4950026568476515E-3</v>
       </c>
       <c r="L77">
-        <v>0.9988337461459853</v>
+        <v>0.99828556336816709</v>
       </c>
     </row>
     <row r="78" spans="8:12" x14ac:dyDescent="0.35">
@@ -5728,16 +5776,16 @@
         <v>2.5</v>
       </c>
       <c r="I78">
-        <v>6.8405242152831357E-3</v>
+        <v>8.9138724753217869E-3</v>
       </c>
       <c r="J78">
         <v>0.99567536708715021</v>
       </c>
       <c r="K78">
-        <v>2.6895062966261762E-3</v>
+        <v>4.568710441179645E-3</v>
       </c>
       <c r="L78">
-        <v>0.99921683895094049</v>
+        <v>0.9988337461459853</v>
       </c>
     </row>
     <row r="79" spans="8:12" x14ac:dyDescent="0.35">
@@ -5745,16 +5793,16 @@
         <v>2.6</v>
       </c>
       <c r="I79">
-        <v>5.7509635581052959E-3</v>
+        <v>7.5693849518498517E-3</v>
       </c>
       <c r="J79">
         <v>0.99630322205337885</v>
       </c>
       <c r="K79">
-        <v>1.8400294145894814E-3</v>
+        <v>3.1693987659461372E-3</v>
       </c>
       <c r="L79">
-        <v>0.99948087211676628</v>
+        <v>0.99921683895094049</v>
       </c>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.35">
@@ -5762,16 +5810,16 @@
         <v>2.7</v>
       </c>
       <c r="I80">
-        <v>4.8482414581218526E-3</v>
+        <v>6.4453597493496573E-3</v>
       </c>
       <c r="J80">
         <v>0.99683177866878769</v>
       </c>
       <c r="K80">
-        <v>1.241497689572178E-3</v>
+        <v>2.168348504415149E-3</v>
       </c>
       <c r="L80">
-        <v>0.99966034087037814</v>
+        <v>0.99948087211676628</v>
       </c>
     </row>
     <row r="81" spans="8:12" x14ac:dyDescent="0.35">
@@ -5779,16 +5827,16 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="I81">
-        <v>4.0982359455794416E-3</v>
+        <v>5.5030419650537775E-3</v>
       </c>
       <c r="J81">
         <v>0.99727795364724292</v>
       </c>
       <c r="K81">
-        <v>8.2610645449592067E-4</v>
+        <v>1.463019904504783E-3</v>
       </c>
       <c r="L81">
-        <v>0.9997806490298029</v>
+        <v>0.99966034087037814</v>
       </c>
     </row>
     <row r="82" spans="8:12" x14ac:dyDescent="0.35">
@@ -5796,16 +5844,16 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="I82">
-        <v>3.4733910783840906E-3</v>
+        <v>4.7108849258413223E-3</v>
       </c>
       <c r="J82">
         <v>0.9976555920820569</v>
       </c>
       <c r="K82">
-        <v>5.4211954457831233E-4</v>
+        <v>9.7350981505563302E-4</v>
       </c>
       <c r="L82">
-        <v>0.99986018749144967</v>
+        <v>0.9997806490298029</v>
       </c>
     </row>
     <row r="83" spans="8:12" x14ac:dyDescent="0.35">
@@ -5813,16 +5861,16 @@
         <v>3.0000000000000004</v>
       </c>
       <c r="I83">
-        <v>2.9514005876051532E-3</v>
+        <v>4.043150573963262E-3</v>
       </c>
       <c r="J83">
         <v>0.99797605569841419</v>
       </c>
       <c r="K83">
-        <v>3.5085127892498511E-4</v>
+        <v>6.3885071313540126E-4</v>
       </c>
       <c r="L83">
-        <v>0.99991204780711773</v>
+        <v>0.99986018749144967</v>
       </c>
     </row>
     <row r="84" spans="8:12" x14ac:dyDescent="0.35">
@@ -5830,16 +5878,16 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="I84">
-        <v>2.5141629147183366E-3</v>
+        <v>3.4787892306154138E-3</v>
       </c>
       <c r="J84">
         <v>0.99824869356626755</v>
       </c>
       <c r="K84">
-        <v>2.2393398716512202E-4</v>
+        <v>4.1345417627405937E-4</v>
       </c>
       <c r="L84">
-        <v>0.9999453957451081</v>
+        <v>0.99991204780711773</v>
       </c>
     </row>
     <row r="85" spans="8:12" x14ac:dyDescent="0.35">
@@ -5847,16 +5895,16 @@
         <v>3.2000000000000006</v>
       </c>
       <c r="I85">
-        <v>2.1469510690586085E-3</v>
+        <v>3.0005425676843875E-3</v>
       </c>
       <c r="J85">
         <v>0.99848121947733492</v>
       </c>
       <c r="K85">
-        <v>1.4095676091077988E-4</v>
+        <v>2.6389084995445336E-4</v>
       </c>
       <c r="L85">
-        <v>0.99996654420133968</v>
+        <v>0.9999453957451081</v>
       </c>
     </row>
     <row r="86" spans="8:12" x14ac:dyDescent="0.35">
@@ -5864,16 +5912,16 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="I86">
-        <v>1.8377523482641029E-3</v>
+        <v>2.5942246219057556E-3</v>
       </c>
       <c r="J86">
         <v>0.99868001513339677</v>
       </c>
       <c r="K86">
-        <v>8.7502560127317714E-5</v>
+        <v>1.6610787810491804E-4</v>
       </c>
       <c r="L86">
-        <v>0.99997977128828142</v>
+        <v>0.99996654420133968</v>
       </c>
     </row>
     <row r="87" spans="8:12" x14ac:dyDescent="0.35">
@@ -5881,16 +5929,16 @@
         <v>3.4000000000000008</v>
       </c>
       <c r="I87">
-        <v>1.5767423466555525E-3</v>
+        <v>2.2481447322403158E-3</v>
       </c>
       <c r="J87">
         <v>0.99885037428363677</v>
       </c>
       <c r="K87">
-        <v>5.3570359110430774E-5</v>
+        <v>1.0311576754162756E-4</v>
       </c>
       <c r="L87">
-        <v>0.99998793007523878</v>
+        <v>0.99997977128828142</v>
       </c>
     </row>
     <row r="88" spans="8:12" x14ac:dyDescent="0.35">
@@ -5898,16 +5946,16 @@
         <v>3.5000000000000009</v>
       </c>
       <c r="I88">
-        <v>1.3558651751259989E-3</v>
+        <v>1.9526436183371142E-3</v>
       </c>
       <c r="J88">
         <v>0.99899669978044936</v>
       </c>
       <c r="K88">
-        <v>3.2344266403547226E-5</v>
+        <v>6.3128995187286524E-5</v>
       </c>
       <c r="L88">
-        <v>0.99999289328717444</v>
+        <v>0.99998793007523878</v>
       </c>
     </row>
     <row r="89" spans="8:12" x14ac:dyDescent="0.35">
@@ -5915,16 +5963,16 @@
         <v>3.600000000000001</v>
       </c>
       <c r="I89">
-        <v>1.1684977660526561E-3</v>
+        <v>1.6997197136385473E-3</v>
       </c>
       <c r="J89">
         <v>0.99912266302459396</v>
       </c>
       <c r="K89">
-        <v>1.92592336877485E-5</v>
+        <v>3.8115500288447229E-5</v>
       </c>
       <c r="L89">
-        <v>0.99999587095251719</v>
+        <v>0.99999289328717444</v>
       </c>
     </row>
     <row r="90" spans="8:12" x14ac:dyDescent="0.35">
@@ -5932,16 +5980,16 @@
         <v>3.7000000000000011</v>
       </c>
       <c r="I90">
-        <v>1.0091808349999151E-3</v>
+        <v>1.4827275743613338E-3</v>
       </c>
       <c r="J90">
         <v>0.99923133330214875</v>
       </c>
       <c r="K90">
-        <v>1.1309662629486974E-5</v>
+        <v>2.2695686401474357E-5</v>
       </c>
       <c r="L90">
-        <v>0.99999763278569898</v>
+        <v>0.99999587095251719</v>
       </c>
     </row>
     <row r="91" spans="8:12" x14ac:dyDescent="0.35">
@@ -5949,16 +5997,16 @@
         <v>3.8000000000000012</v>
       </c>
       <c r="I91">
-        <v>8.7340276935282755E-4</v>
+        <v>1.2961339288959828E-3</v>
       </c>
       <c r="J91">
         <v>0.99932528296521794</v>
       </c>
       <c r="K91">
-        <v>6.5498182178739744E-6</v>
+        <v>1.3327661967599159E-5</v>
       </c>
       <c r="L91">
-        <v>0.99999866087185763</v>
+        <v>0.99999763278569898</v>
       </c>
     </row>
     <row r="92" spans="8:12" x14ac:dyDescent="0.35">
@@ -5966,16 +6014,16 @@
         <v>3.9000000000000012</v>
       </c>
       <c r="I92">
-        <v>7.574256199980884E-4</v>
+        <v>1.1353199007592327E-3</v>
       </c>
       <c r="J92">
         <v>0.99940667318650722</v>
       </c>
       <c r="K92">
-        <v>3.7409145954420133E-6</v>
+        <v>7.7185116848182121E-6</v>
       </c>
       <c r="L92">
-        <v>0.99999925252893296</v>
+        <v>0.99999866087185763</v>
       </c>
     </row>
     <row r="93" spans="8:12" x14ac:dyDescent="0.35">
@@ -5983,16 +6031,16 @@
         <v>4.0000000000000009</v>
       </c>
       <c r="I93">
-        <v>6.5814465358202286E-4</v>
+        <v>9.9642028890174761E-4</v>
       </c>
       <c r="J93">
         <v>0.99947732405415812</v>
       </c>
       <c r="K93">
-        <v>2.1071492103023972E-6</v>
+        <v>4.4084113568267356E-6</v>
       </c>
       <c r="L93">
-        <v>0.99999958833337033</v>
+        <v>0.99999925252893296</v>
       </c>
     </row>
     <row r="94" spans="8:12" x14ac:dyDescent="0.35">
@@ -6000,16 +6048,16 @@
         <v>4.1000000000000005</v>
       </c>
       <c r="I94">
-        <v>5.7297471375401332E-4</v>
+        <v>8.7619264935989358E-4</v>
       </c>
       <c r="J94">
         <v>0.99953877201214625</v>
       </c>
       <c r="K94">
-        <v>1.1705278083347855E-6</v>
+        <v>2.4831308687302349E-6</v>
       </c>
       <c r="L94">
-        <v>0.99999977629907244</v>
+        <v>0.99999958833337033</v>
       </c>
     </row>
     <row r="95" spans="8:12" x14ac:dyDescent="0.35">
@@ -6017,16 +6065,16 @@
         <v>4.2</v>
       </c>
       <c r="I95">
-        <v>4.9975804626297467E-4</v>
+        <v>7.7191039433856864E-4</v>
       </c>
       <c r="J95">
         <v>0.99959231704952622</v>
       </c>
       <c r="K95">
-        <v>6.4126440127278319E-7</v>
+        <v>1.3793867654802345E-6</v>
       </c>
       <c r="L95">
-        <v>0.99999988006304719</v>
+        <v>0.99999977629907244</v>
       </c>
     </row>
     <row r="96" spans="8:12" x14ac:dyDescent="0.35">
@@ -6034,16 +6082,16 @@
         <v>4.3</v>
       </c>
       <c r="I96">
-        <v>4.3668934832442088E-4</v>
+        <v>6.8127529043126569E-4</v>
       </c>
       <c r="J96">
         <v>0.99963906156478877</v>
       </c>
       <c r="K96">
-        <v>3.4646668191963948E-7</v>
+        <v>7.5568612893329128E-7</v>
       </c>
       <c r="L96">
-        <v>0.99999993655549446</v>
+        <v>0.99999988006304719</v>
       </c>
     </row>
     <row r="97" spans="8:12" x14ac:dyDescent="0.35">
@@ -6051,16 +6099,16 @@
         <v>4.3999999999999995</v>
       </c>
       <c r="I97">
-        <v>3.8225467277555944E-4</v>
+        <v>6.0234566151115142E-4</v>
       </c>
       <c r="J97">
         <v>0.99967994245286662</v>
       </c>
       <c r="K97">
-        <v>1.8460980860359997E-7</v>
+        <v>4.0828722933091742E-7</v>
       </c>
       <c r="L97">
-        <v>0.99999996688811787</v>
+        <v>0.99999993655549446</v>
       </c>
     </row>
     <row r="98" spans="8:12" x14ac:dyDescent="0.35">
@@ -6068,16 +6116,16 @@
         <v>4.4999999999999991</v>
       </c>
       <c r="I98">
-        <v>3.3518150336470754E-4</v>
+        <v>5.3347733494850847E-4</v>
       </c>
       <c r="J98">
         <v>0.99971575766102583</v>
       </c>
       <c r="K98">
-        <v>9.7010114438558822E-8</v>
+        <v>2.1755000176195073E-7</v>
       </c>
       <c r="L98">
-        <v>0.99999998295032966</v>
+        <v>0.99999996688811787</v>
       </c>
     </row>
     <row r="99" spans="8:12" x14ac:dyDescent="0.35">
@@ -6085,16 +6133,16 @@
         <v>4.5999999999999988</v>
       </c>
       <c r="I99">
-        <v>2.943978590340524E-4</v>
+        <v>4.7327495247416327E-4</v>
       </c>
       <c r="J99">
         <v>0.9997471882196507</v>
       </c>
       <c r="K99">
-        <v>5.0274552257759479E-8</v>
+        <v>1.1431976841681189E-7</v>
       </c>
       <c r="L99">
-        <v>0.99999999133867901</v>
+        <v>0.99999998295032966</v>
       </c>
     </row>
     <row r="100" spans="8:12" x14ac:dyDescent="0.35">
@@ -6102,16 +6150,16 @@
         <v>4.6999999999999984</v>
       </c>
       <c r="I100">
-        <v>2.5899871342338073E-4</v>
+        <v>4.2055173088343908E-4</v>
       </c>
       <c r="J100">
         <v>0.99977481656196399</v>
       </c>
       <c r="K100">
-        <v>2.5694984247864265E-8</v>
+        <v>5.9245112786729675E-8</v>
       </c>
       <c r="L100">
-        <v>0.99999999565907394</v>
+        <v>0.99999999133867901</v>
       </c>
     </row>
     <row r="101" spans="8:12" x14ac:dyDescent="0.35">
@@ -6119,16 +6167,16 @@
         <v>4.799999999999998</v>
       </c>
       <c r="I101">
-        <v>2.2821835536683484E-4</v>
+        <v>3.7429612776366692E-4</v>
       </c>
       <c r="J101">
         <v>0.99979914179298124</v>
       </c>
       <c r="K101">
-        <v>1.2951421863969333E-8</v>
+        <v>3.0279777172615305E-8</v>
       </c>
       <c r="L101">
-        <v>0.99999999785362736</v>
+        <v>0.99999999565907394</v>
       </c>
     </row>
     <row r="102" spans="8:12" x14ac:dyDescent="0.35">
@@ -6136,16 +6184,16 @@
         <v>4.8999999999999977</v>
       </c>
       <c r="I102">
-        <v>2.0140758585771506E-4</v>
+        <v>3.3364416311326613E-4</v>
       </c>
       <c r="J102">
         <v>0.99982059244457355</v>
       </c>
       <c r="K102">
-        <v>6.4380670222978091E-9</v>
+        <v>1.5262362659051862E-8</v>
       </c>
       <c r="L102">
-        <v>0.99999999895299929</v>
+        <v>0.99999999785362736</v>
       </c>
     </row>
     <row r="103" spans="8:12" x14ac:dyDescent="0.35">
@@ -6153,20 +6201,157 @@
         <v>4.9999999999999973</v>
       </c>
       <c r="I103">
-        <v>1.7801486164813004E-4</v>
+        <v>2.9785638450960893E-4</v>
       </c>
       <c r="J103">
         <v>0.99983953715420237</v>
       </c>
       <c r="K103">
-        <v>3.1561852577758855E-9</v>
+        <v>7.5868205629954428E-9</v>
       </c>
       <c r="L103">
-        <v>0.99999999949614815</v>
+        <v>0.99999999895299929</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F1E49-69B3-41E4-B5F7-85CA4F6581D0}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" cm="1">
+        <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
+        <v>1463763757296</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" cm="1">
+        <f t="array" ref="C7">_xll.JOHNSON.MOMENT(Johnson,1)</f>
+        <v>99.916681723477893</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" cm="1">
+        <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,2) - C7*C7</f>
+        <v>0.72009759720276634</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" cm="1">
+        <f t="array" ref="C12">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
+        <v>11.923538474048499</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" cm="1">
+        <f t="array" ref="C13">_xll.NORMAL.PUT.DELTA(f, s, k)</f>
+        <v>-0.4403823076297575</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">_xll.NORMAL.PUT.IMPLIED(f, value, k)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" cm="1">
+        <f t="array" ref="C15">_xll.JOHNSON.PUT.VALUE(Johnson,k)</f>
+        <v>0.35277488780918986</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xll_johnson/johnson.xlsx
+++ b/xll_johnson/johnson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\fms_johnson\xll_johnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1429413-1496-455F-B121-CC976933529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A91A57-C8E4-47A1-948B-93ACF0E2630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
   </bookViews>
@@ -29,6 +29,7 @@
     <definedName name="k">Sheet2!$C$11</definedName>
     <definedName name="lambda" localSheetId="1">Sheet2!$C$5</definedName>
     <definedName name="lambda">Sheet1!$C$6</definedName>
+    <definedName name="mean">Sheet2!$C$7</definedName>
     <definedName name="mu">Sheet1!$C$13</definedName>
     <definedName name="ncdf">_xlfn.ANCHORARRAY(Sheet1!$L$3)</definedName>
     <definedName name="Normal">Sheet1!$C$15</definedName>
@@ -38,13 +39,13 @@
     <definedName name="s">Sheet1!$C$2</definedName>
     <definedName name="sigma">Sheet1!$C$14</definedName>
     <definedName name="value">Sheet2!$C$12</definedName>
+    <definedName name="variance">Sheet2!$C$8</definedName>
     <definedName name="x">_xlfn.ANCHORARRAY(Sheet1!$H$3)</definedName>
     <definedName name="xi" localSheetId="1">Sheet2!$C$4</definedName>
     <definedName name="xi">Sheet1!$C$5</definedName>
     <definedName name="Z">Sheet1!$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -772,307 +773,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.7945408264877118E-4</c:v>
+                  <c:v>4.5399836433269091E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1839727400048375E-4</c:v>
+                  <c:v>5.1211821774760813E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.632998017687571E-4</c:v>
+                  <c:v>5.7852629168763541E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1515869297340332E-4</c:v>
+                  <c:v>6.5452935795671087E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7515248884680305E-4</c:v>
+                  <c:v>7.4166034456623633E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4467702104806913E-4</c:v>
+                  <c:v>8.4172099301256791E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2538877917287341E-4</c:v>
+                  <c:v>9.5683322055249427E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1925759255649568E-4</c:v>
+                  <c:v>1.0895010941344631E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2863076445332726E-4</c:v>
+                  <c:v>1.2426857667214234E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5631131683989639E-4</c:v>
+                  <c:v>1.4198962794959649E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1056536568830638E-3</c:v>
+                  <c:v>1.625299822335634E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2806807964020411E-3</c:v>
+                  <c:v>1.8638559044121114E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4862282874762718E-3</c:v>
+                  <c:v>2.1414799598519774E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7281213362173133E-3</c:v>
+                  <c:v>2.4652432537375711E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0133931923232711E-3</c:v>
+                  <c:v>2.843617627810908E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3505549713937267E-3</c:v>
+                  <c:v>3.2867757148734374E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7499296579260404E-3</c:v>
+                  <c:v>3.8069598556386285E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2240662915544159E-3</c:v>
+                  <c:v>4.418936191114802E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7882544167237753E-3</c:v>
+                  <c:v>5.1405544175295729E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4611639641612428E-3</c:v>
+                  <c:v>5.9934386381301956E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2656420440718964E-3</c:v>
+                  <c:v>7.0038407971688699E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.2297058931908567E-3</c:v>
+                  <c:v>8.2036955008012603E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.3877806466644868E-3</c:v>
+                  <c:v>9.6319237426882517E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.7822418540801448E-3</c:v>
+                  <c:v>1.1336043180833468E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0465335719336001E-2</c:v>
+                  <c:v>1.3374153962431681E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2501564574641506E-2</c:v>
+                  <c:v>1.5817381060070058E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4970640122302065E-2</c:v>
+                  <c:v>1.8752865321856195E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7971120372145401E-2</c:v>
+                  <c:v>2.2287403328615518E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.162485386135931E-2</c:v>
+                  <c:v>2.6551835924275985E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.6082349222530603E-2</c:v>
+                  <c:v>3.1706268651791748E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1529156554821171E-2</c:v>
+                  <c:v>3.7946160369435343E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8193267748764997E-2</c:v>
+                  <c:v>4.5509216377232126E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.635338095207199E-2</c:v>
+                  <c:v>5.4682833672723648E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.6347575173483537E-2</c:v>
+                  <c:v>6.5811514016871256E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.8581423232842151E-2</c:v>
+                  <c:v>7.9303106330023757E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.3533721173020117E-2</c:v>
+                  <c:v>9.5631856999947168E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.10175668714524692</c:v>
+                  <c:v>0.11533490846887444</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.12386553954620814</c:v>
+                  <c:v>0.13899698174264619</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1505097457110279</c:v>
+                  <c:v>0.16721550635297847</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.18231516708719597</c:v>
+                  <c:v>0.20053573830560054</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.21978371233224786</c:v>
+                  <c:v>0.23934344697746879</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26313711634201442</c:v>
+                  <c:v>0.28370383266135807</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.31209818271004786</c:v>
+                  <c:v>0.33314353279466052</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.36562223394466031</c:v>
+                  <c:v>0.38639348936483231</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.42162902038545386</c:v>
+                  <c:v>0.44114844502398848</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.47683859327233863</c:v>
+                  <c:v>0.49394968253813593</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.52686165134711072</c:v>
+                  <c:v>0.54033731014439135</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.56668689277319728</c:v>
+                  <c:v>0.57539832144528535</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.59158980722526067</c:v>
+                  <c:v>0.59470715122605933</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.59826048564870093</c:v>
+                  <c:v>0.59542882121551766</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.58573254518205409</c:v>
+                  <c:v>0.57715962684987532</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.55568406301801265</c:v>
+                  <c:v>0.54210271839214386</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.51195466625293107</c:v>
+                  <c:v>0.49447256967407777</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.45951310375493226</c:v>
+                  <c:v>0.43940566781679591</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.40333290231099084</c:v>
+                  <c:v>0.38184618915061219</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.34756551619886417</c:v>
+                  <c:v>0.32577559423885932</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.29516008101077751</c:v>
+                  <c:v>0.27390284321552266</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.24786265305354699</c:v>
+                  <c:v>0.22772309026885401</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.20643464151232535</c:v>
+                  <c:v>0.18777406465475951</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.17094208255481272</c:v>
+                  <c:v>0.15394269159729695</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.14102310732675341</c:v>
+                  <c:v>0.12573535723614146</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.11609451902596506</c:v>
+                  <c:v>0.10247924379988503</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.5492644712746544E-2</c:v>
+                  <c:v>8.3454771452459969E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.8559459413378926E-2</c:v>
+                  <c:v>6.7973055423371204E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.4689101103908325E-2</c:v>
+                  <c:v>5.5414890241784878E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.3348411896260793E-2</c:v>
+                  <c:v>4.5245345804669039E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.4081848771799527E-2</c:v>
+                  <c:v>3.7014277081999572E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.6507840328979774E-2</c:v>
+                  <c:v>3.0349578854128156E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0311076692013831E-2</c:v>
+                  <c:v>2.4947380161910032E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.5233391274780408E-2</c:v>
+                  <c:v>2.0561569352483568E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.1064695581679397E-2</c:v>
+                  <c:v>1.6993892996149909E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7634688453057518E-2</c:v>
+                  <c:v>1.4085184456303192E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.4805628237730175E-2</c:v>
+                  <c:v>1.1707890250092369E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.2466218036361576E-2</c:v>
+                  <c:v>9.7598597336093773E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0526533731672923E-2</c:v>
+                  <c:v>8.1592698982939811E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.9138724753217869E-3</c:v>
+                  <c:v>6.8405242152831357E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.5693849518498517E-3</c:v>
+                  <c:v>5.7509635581052959E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.4453597493496573E-3</c:v>
+                  <c:v>4.8482414581218526E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.5030419650537775E-3</c:v>
+                  <c:v>4.0982359455794416E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.7108849258413223E-3</c:v>
+                  <c:v>3.4733910783840906E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.043150573963262E-3</c:v>
+                  <c:v>2.9514005876051532E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.4787892306154138E-3</c:v>
+                  <c:v>2.5141629147183366E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.0005425676843875E-3</c:v>
+                  <c:v>2.1469510690586085E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.5942246219057556E-3</c:v>
+                  <c:v>1.8377523482641029E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.2481447322403158E-3</c:v>
+                  <c:v>1.5767423466555525E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9526436183371142E-3</c:v>
+                  <c:v>1.3558651751259989E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.6997197136385473E-3</c:v>
+                  <c:v>1.1684977660526561E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.4827275743613338E-3</c:v>
+                  <c:v>1.0091808349999151E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.2961339288959828E-3</c:v>
+                  <c:v>8.7340276935282755E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1353199007592327E-3</c:v>
+                  <c:v>7.574256199980884E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.9642028890174761E-4</c:v>
+                  <c:v>6.5814465358202286E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.7619264935989358E-4</c:v>
+                  <c:v>5.7297471375401332E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.7191039433856864E-4</c:v>
+                  <c:v>4.9975804626297467E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.8127529043126569E-4</c:v>
+                  <c:v>4.3668934832442088E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.0234566151115142E-4</c:v>
+                  <c:v>3.8225467277555944E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.3347733494850847E-4</c:v>
+                  <c:v>3.3518150336470754E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.7327495247416327E-4</c:v>
+                  <c:v>2.943978590340524E-4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2055173088343908E-4</c:v>
+                  <c:v>2.5899871342338073E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.7429612776366692E-4</c:v>
+                  <c:v>2.2821835536683484E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.3364416311326613E-4</c:v>
+                  <c:v>2.0140758585771506E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.9785638450960893E-4</c:v>
+                  <c:v>1.7801486164813004E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,7 +4191,7 @@
   <dimension ref="B1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4205,7 +4206,7 @@
     <row r="1" spans="2:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I1" s="3">
         <f>1-SUM(pdf)*D17</f>
-        <v>5.0550260541992742E-4</v>
+        <v>5.4997005830159651E-4</v>
       </c>
       <c r="K1" s="3">
         <f>1-SUM(npdf)*D17</f>
@@ -4248,7 +4249,7 @@
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3:I103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Johnson,_xlpm.x,s)))</f>
-        <v>2.7945408264877118E-4</v>
+        <v>4.5399836433269091E-4</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3:J103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Johnson,_xlpm.x,s)))</f>
@@ -4274,7 +4275,7 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="I4">
-        <v>3.1839727400048375E-4</v>
+        <v>5.1211821774760813E-4</v>
       </c>
       <c r="J4">
         <v>4.6871468417442053E-4</v>
@@ -4297,7 +4298,7 @@
         <v>-4.8000000000000007</v>
       </c>
       <c r="I5">
-        <v>3.632998017687571E-4</v>
+        <v>5.7852629168763541E-4</v>
       </c>
       <c r="J5">
         <v>5.2317271261348441E-4</v>
@@ -4320,7 +4321,7 @@
         <v>-4.7000000000000011</v>
       </c>
       <c r="I6">
-        <v>4.1515869297340332E-4</v>
+        <v>6.5452935795671087E-4</v>
       </c>
       <c r="J6">
         <v>5.8473952524562556E-4</v>
@@ -4338,7 +4339,7 @@
       </c>
       <c r="C7" s="2" cm="1">
         <f t="array" ref="C7">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>1815201892864</v>
+        <v>2046863984336</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4346,7 +4347,7 @@
         <v>-4.6000000000000014</v>
       </c>
       <c r="I7">
-        <v>4.7515248884680305E-4</v>
+        <v>7.4166034456623633E-4</v>
       </c>
       <c r="J7">
         <v>6.5444921734547634E-4</v>
@@ -4366,7 +4367,7 @@
         <v>-4.5000000000000018</v>
       </c>
       <c r="I8">
-        <v>5.4467702104806913E-4</v>
+        <v>8.4172099301256791E-4</v>
       </c>
       <c r="J8">
         <v>7.3350222853063585E-4</v>
@@ -4390,7 +4391,7 @@
         <v>-4.4000000000000021</v>
       </c>
       <c r="I9">
-        <v>6.2538877917287341E-4</v>
+        <v>9.5683322055249427E-4</v>
       </c>
       <c r="J9">
         <v>8.2329471234382501E-4</v>
@@ -4414,7 +4415,7 @@
         <v>-4.3000000000000025</v>
       </c>
       <c r="I10">
-        <v>7.1925759255649568E-4</v>
+        <v>1.0895010941344631E-3</v>
       </c>
       <c r="J10">
         <v>9.2545355505402327E-4</v>
@@ -4438,7 +4439,7 @@
         <v>-4.2000000000000028</v>
       </c>
       <c r="I11">
-        <v>8.2863076445332726E-4</v>
+        <v>1.2426857667214234E-3</v>
       </c>
       <c r="J11">
         <v>1.0418782182627373E-3</v>
@@ -4462,7 +4463,7 @@
         <v>-4.1000000000000032</v>
       </c>
       <c r="I12">
-        <v>9.5631131683989639E-4</v>
+        <v>1.4198962794959649E-3</v>
       </c>
       <c r="J12">
         <v>1.1747908416026576E-3</v>
@@ -4486,7 +4487,7 @@
         <v>-4.0000000000000036</v>
       </c>
       <c r="I13">
-        <v>1.1056536568830638E-3</v>
+        <v>1.625299822335634E-3</v>
       </c>
       <c r="J13">
         <v>1.3267963653426085E-3</v>
@@ -4510,7 +4511,7 @@
         <v>-3.9000000000000035</v>
       </c>
       <c r="I14">
-        <v>1.2806807964020411E-3</v>
+        <v>1.8638559044121114E-3</v>
       </c>
       <c r="J14">
         <v>1.5009548333401734E-3</v>
@@ -4528,7 +4529,7 @@
       </c>
       <c r="C15" s="2" cm="1">
         <f t="array" ref="C15">_xll.\VARIATE.NORMAL(mu, sigma)</f>
-        <v>1815687643184</v>
+        <v>2047804073264</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4536,7 +4537,7 @@
         <v>-3.8000000000000034</v>
       </c>
       <c r="I15">
-        <v>1.4862282874762718E-3</v>
+        <v>2.1414799598519774E-3</v>
       </c>
       <c r="J15">
         <v>1.7008685336363238E-3</v>
@@ -4553,7 +4554,7 @@
         <v>-3.7000000000000033</v>
       </c>
       <c r="I16">
-        <v>1.7281213362173133E-3</v>
+        <v>2.4652432537375711E-3</v>
       </c>
       <c r="J16">
         <v>1.9307872510138657E-3</v>
@@ -4579,7 +4580,7 @@
         <v>-3.6000000000000032</v>
       </c>
       <c r="I17">
-        <v>2.0133931923232711E-3</v>
+        <v>2.843617627810908E-3</v>
       </c>
       <c r="J17">
         <v>2.1957356729779831E-3</v>
@@ -4596,7 +4597,7 @@
         <v>-3.5000000000000031</v>
       </c>
       <c r="I18">
-        <v>2.3505549713937267E-3</v>
+        <v>3.2867757148734374E-3</v>
       </c>
       <c r="J18">
         <v>2.5016679451859702E-3</v>
@@ -4613,7 +4614,7 @@
         <v>-3.400000000000003</v>
       </c>
       <c r="I19">
-        <v>2.7499296579260404E-3</v>
+        <v>3.8069598556386285E-3</v>
       </c>
       <c r="J19">
         <v>2.8556555607303635E-3</v>
@@ -4630,7 +4631,7 @@
         <v>-3.3000000000000029</v>
       </c>
       <c r="I20">
-        <v>3.2240662915544159E-3</v>
+        <v>4.418936191114802E-3</v>
       </c>
       <c r="J20">
         <v>3.266116247183648E-3</v>
@@ -4648,7 +4649,7 @@
       </c>
       <c r="C21">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.26850427979929986</v>
+        <v>-0.71470218777855732</v>
       </c>
       <c r="E21">
         <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(Z)</f>
@@ -4662,7 +4663,7 @@
         <v>-3.2000000000000028</v>
       </c>
       <c r="I21">
-        <v>3.7882544167237753E-3</v>
+        <v>5.1405544175295729E-3</v>
       </c>
       <c r="J21">
         <v>3.7430933562233037E-3</v>
@@ -4680,7 +4681,7 @@
       </c>
       <c r="C22">
         <f ca="1">(Z-gamma)/delta</f>
-        <v>0.11233618653286657</v>
+        <v>-0.54313479185237157</v>
       </c>
       <c r="E22">
         <f t="array" aca="1" ref="E22:F22" ca="1">_xll.MONTE.STDEV(C22)</f>
@@ -4694,7 +4695,7 @@
         <v>-3.1000000000000028</v>
       </c>
       <c r="I22">
-        <v>4.4611639641612428E-3</v>
+        <v>5.9934386381301956E-3</v>
       </c>
       <c r="J22">
         <v>4.2985975482454086E-3</v>
@@ -4712,7 +4713,7 @@
       </c>
       <c r="C23">
         <f ca="1">SINH(C22)</f>
-        <v>0.11257260522102722</v>
+        <v>-0.57023515432115079</v>
       </c>
       <c r="E23">
         <f t="array" aca="1" ref="E23:F23" ca="1">_xll.MONTE.STDEV(C23)</f>
@@ -4726,7 +4727,7 @@
         <v>-3.0000000000000027</v>
       </c>
       <c r="I23">
-        <v>5.2656420440718964E-3</v>
+        <v>7.0038407971688699E-3</v>
       </c>
       <c r="J23">
         <v>4.9470254004463921E-3</v>
@@ -4744,7 +4745,7 @@
       </c>
       <c r="C24">
         <f ca="1">POWER($C$23,B24)</f>
-        <v>0.11257260522102722</v>
+        <v>-0.57023515432115079</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.JOHNSON.Esinh_k(Johnson,B24)</f>
@@ -4766,7 +4767,7 @@
         <v>-2.9000000000000026</v>
       </c>
       <c r="I24">
-        <v>6.2297058931908567E-3</v>
+        <v>8.2036955008012603E-3</v>
       </c>
       <c r="J24">
         <v>5.7056730701632308E-3</v>
@@ -4784,7 +4785,7 @@
       </c>
       <c r="C25">
         <f ca="1">POWER($C$23,B25)</f>
-        <v>1.2672591446249245E-2</v>
+        <v>0.32516813122366667</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" ref="D25">_xll.JOHNSON.Esinh_k(Johnson,B25)</f>
@@ -4806,7 +4807,7 @@
         <v>-2.8000000000000025</v>
       </c>
       <c r="I25">
-        <v>7.3877806466644868E-3</v>
+        <v>9.6319237426882517E-3</v>
       </c>
       <c r="J25">
         <v>6.5953674494610981E-3</v>
@@ -4824,7 +4825,7 @@
       </c>
       <c r="C26">
         <f ca="1">POWER($C$23,B26)</f>
-        <v>1.4265866340059826E-3</v>
+        <v>-0.18542229948864777</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.JOHNSON.Esinh_k(Johnson,B26)</f>
@@ -4846,7 +4847,7 @@
         <v>-2.7000000000000024</v>
       </c>
       <c r="I26">
-        <v>8.7822418540801448E-3</v>
+        <v>1.1336043180833468E-2</v>
       </c>
       <c r="J26">
         <v>7.6412424937365997E-3</v>
@@ -4864,7 +4865,7 @@
       </c>
       <c r="C27">
         <f ca="1">POWER($C$23,B27)</f>
-        <v>1.6059457396354953E-4</v>
+        <v>0.10573431356349171</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.JOHNSON.Esinh_k(Johnson,B27)</f>
@@ -4886,7 +4887,7 @@
         <v>-2.6000000000000023</v>
       </c>
       <c r="I27">
-        <v>1.0465335719336001E-2</v>
+        <v>1.3374153962431681E-2</v>
       </c>
       <c r="J27">
         <v>8.8736947307866409E-3</v>
@@ -4903,7 +4904,7 @@
         <v>-2.5000000000000022</v>
       </c>
       <c r="I28">
-        <v>1.2501564574641506E-2</v>
+        <v>1.5817381060070058E-2</v>
       </c>
       <c r="J28">
         <v>1.0329559453804926E-2</v>
@@ -4919,9 +4920,9 @@
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C29" t="e" cm="1">
+      <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
-        <v>#NUM!</v>
+        <v>-0.67023515432115066</v>
       </c>
       <c r="D29">
         <f>mu</f>
@@ -4943,7 +4944,7 @@
         <v>-2.4000000000000021</v>
       </c>
       <c r="I29">
-        <v>1.4970640122302065E-2</v>
+        <v>1.8752865321856195E-2</v>
       </c>
       <c r="J29">
         <v>1.2053557774557189E-2</v>
@@ -4960,7 +4961,7 @@
         <v>-2.300000000000002</v>
       </c>
       <c r="I30">
-        <v>1.7971120372145401E-2</v>
+        <v>2.2287403328615518E-2</v>
       </c>
       <c r="J30">
         <v>1.4100074371410087E-2</v>
@@ -4977,7 +4978,7 @@
         <v>-2.200000000000002</v>
       </c>
       <c r="I31">
-        <v>2.162485386135931E-2</v>
+        <v>2.6551835924275985E-2</v>
       </c>
       <c r="J31">
         <v>1.6535335860321854E-2</v>
@@ -4994,7 +4995,7 @@
         <v>-2.1000000000000019</v>
       </c>
       <c r="I32">
-        <v>2.6082349222530603E-2</v>
+        <v>3.1706268651791748E-2</v>
       </c>
       <c r="J32">
         <v>1.9440069055922549E-2</v>
@@ -5011,7 +5012,7 @@
         <v>-2.0000000000000018</v>
       </c>
       <c r="I33">
-        <v>3.1529156554821171E-2</v>
+        <v>3.7946160369435343E-2</v>
       </c>
       <c r="J33">
         <v>2.2912724696017739E-2</v>
@@ -5028,7 +5029,7 @@
         <v>-1.9000000000000017</v>
       </c>
       <c r="I34">
-        <v>3.8193267748764997E-2</v>
+        <v>4.5509216377232126E-2</v>
       </c>
       <c r="J34">
         <v>2.7073351399755086E-2</v>
@@ -5045,7 +5046,7 @@
         <v>-1.8000000000000016</v>
       </c>
       <c r="I35">
-        <v>4.635338095207199E-2</v>
+        <v>5.4682833672723648E-2</v>
       </c>
       <c r="J35">
         <v>3.2068189760577293E-2</v>
@@ -5062,7 +5063,7 @@
         <v>-1.7000000000000015</v>
       </c>
       <c r="I36">
-        <v>5.6347575173483537E-2</v>
+        <v>6.5811514016871256E-2</v>
       </c>
       <c r="J36">
         <v>3.8075016121317418E-2</v>
@@ -5079,7 +5080,7 @@
         <v>-1.6000000000000014</v>
       </c>
       <c r="I37">
-        <v>6.8581423232842151E-2</v>
+        <v>7.9303106330023757E-2</v>
       </c>
       <c r="J37">
         <v>4.5309181693160505E-2</v>
@@ -5096,7 +5097,7 @@
         <v>-1.5000000000000013</v>
       </c>
       <c r="I38">
-        <v>8.3533721173020117E-2</v>
+        <v>9.5631856999947168E-2</v>
       </c>
       <c r="J38">
         <v>5.4030137936078082E-2</v>
@@ -5113,7 +5114,7 @@
         <v>-1.4000000000000012</v>
       </c>
       <c r="I39">
-        <v>0.10175668714524692</v>
+        <v>0.11533490846887444</v>
       </c>
       <c r="J39">
         <v>6.4547974393468432E-2</v>
@@ -5130,7 +5131,7 @@
         <v>-1.3000000000000012</v>
       </c>
       <c r="I40">
-        <v>0.12386553954620814</v>
+        <v>0.13899698174264619</v>
       </c>
       <c r="J40">
         <v>7.7229068980227855E-2</v>
@@ -5147,7 +5148,7 @@
         <v>-1.2000000000000011</v>
       </c>
       <c r="I41">
-        <v>0.1505097457110279</v>
+        <v>0.16721550635297847</v>
       </c>
       <c r="J41">
         <v>9.2499304803588034E-2</v>
@@ -5164,7 +5165,7 @@
         <v>-1.100000000000001</v>
       </c>
       <c r="I42">
-        <v>0.18231516708719597</v>
+        <v>0.20053573830560054</v>
       </c>
       <c r="J42">
         <v>0.11084239711217125</v>
@@ -5181,7 +5182,7 @@
         <v>-1.0000000000000009</v>
       </c>
       <c r="I43">
-        <v>0.21978371233224786</v>
+        <v>0.23934344697746879</v>
       </c>
       <c r="J43">
         <v>0.1327897166111156</v>
@@ -5198,7 +5199,7 @@
         <v>-0.90000000000000091</v>
       </c>
       <c r="I44">
-        <v>0.26313711634201442</v>
+        <v>0.28370383266135807</v>
       </c>
       <c r="J44">
         <v>0.15889676819044174</v>
@@ -5215,7 +5216,7 @@
         <v>-0.80000000000000093</v>
       </c>
       <c r="I45">
-        <v>0.31209818271004786</v>
+        <v>0.33314353279466052</v>
       </c>
       <c r="J45">
         <v>0.18970067882141106</v>
@@ -5232,7 +5233,7 @@
         <v>-0.70000000000000095</v>
       </c>
       <c r="I46">
-        <v>0.36562223394466031</v>
+        <v>0.38639348936483231</v>
       </c>
       <c r="J46">
         <v>0.22565364994386311</v>
@@ -5249,7 +5250,7 @@
         <v>-0.60000000000000098</v>
       </c>
       <c r="I47">
-        <v>0.42162902038545386</v>
+        <v>0.44114844502398848</v>
       </c>
       <c r="J47">
         <v>0.26703086079299182</v>
@@ -5266,7 +5267,7 @@
         <v>-0.500000000000001</v>
       </c>
       <c r="I48">
-        <v>0.47683859327233863</v>
+        <v>0.49394968253813593</v>
       </c>
       <c r="J48">
         <v>0.31381938239430635</v>
@@ -5283,7 +5284,7 @@
         <v>-0.40000000000000102</v>
       </c>
       <c r="I49">
-        <v>0.52686165134711072</v>
+        <v>0.54033731014439135</v>
       </c>
       <c r="J49">
         <v>0.36560757076051598</v>
@@ -5300,7 +5301,7 @@
         <v>-0.30000000000000104</v>
       </c>
       <c r="I50">
-        <v>0.56668689277319728</v>
+        <v>0.57539832144528535</v>
       </c>
       <c r="J50">
         <v>0.42150877521786989</v>
@@ -5317,7 +5318,7 @@
         <v>-0.20000000000000104</v>
       </c>
       <c r="I51">
-        <v>0.59158980722526067</v>
+        <v>0.59470715122605933</v>
       </c>
       <c r="J51">
         <v>0.48016036015686281</v>
@@ -5334,7 +5335,7 @@
         <v>-0.10000000000000103</v>
       </c>
       <c r="I52">
-        <v>0.59826048564870093</v>
+        <v>0.59542882121551766</v>
       </c>
       <c r="J52">
         <v>0.53982783727702832</v>
@@ -5351,7 +5352,7 @@
         <v>-1.0269562977782698E-15</v>
       </c>
       <c r="I53">
-        <v>0.58573254518205409</v>
+        <v>0.57715962684987532</v>
       </c>
       <c r="J53">
         <v>0.59861008809060445</v>
@@ -5368,7 +5369,7 @@
         <v>9.9999999999998979E-2</v>
       </c>
       <c r="I54">
-        <v>0.55568406301801265</v>
+        <v>0.54210271839214386</v>
       </c>
       <c r="J54">
         <v>0.65469786778660533</v>
@@ -5385,7 +5386,7 @@
         <v>0.19999999999999898</v>
       </c>
       <c r="I55">
-        <v>0.51195466625293107</v>
+        <v>0.49447256967407777</v>
       </c>
       <c r="J55">
         <v>0.70661049867299153</v>
@@ -5402,7 +5403,7 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="I56">
-        <v>0.45951310375493226</v>
+        <v>0.43940566781679591</v>
       </c>
       <c r="J56">
         <v>0.75334475505344645</v>
@@ -5419,7 +5420,7 @@
         <v>0.39999999999999902</v>
       </c>
       <c r="I57">
-        <v>0.40333290231099084</v>
+        <v>0.38184618915061219</v>
       </c>
       <c r="J57">
         <v>0.79440968148262048</v>
@@ -5436,7 +5437,7 @@
         <v>0.499999999999999</v>
       </c>
       <c r="I58">
-        <v>0.34756551619886417</v>
+        <v>0.32577559423885932</v>
       </c>
       <c r="J58">
         <v>0.82976508640009961</v>
@@ -5453,7 +5454,7 @@
         <v>0.59999999999999898</v>
       </c>
       <c r="I59">
-        <v>0.29516008101077751</v>
+        <v>0.27390284321552266</v>
       </c>
       <c r="J59">
         <v>0.85970610254397384</v>
@@ -5470,7 +5471,7 @@
         <v>0.69999999999999896</v>
       </c>
       <c r="I60">
-        <v>0.24786265305354699</v>
+        <v>0.22772309026885401</v>
       </c>
       <c r="J60">
         <v>0.88473649070521498</v>
@@ -5487,7 +5488,7 @@
         <v>0.79999999999999893</v>
       </c>
       <c r="I61">
-        <v>0.20643464151232535</v>
+        <v>0.18777406465475951</v>
       </c>
       <c r="J61">
         <v>0.90545912867964717</v>
@@ -5504,7 +5505,7 @@
         <v>0.89999999999999891</v>
       </c>
       <c r="I62">
-        <v>0.17094208255481272</v>
+        <v>0.15394269159729695</v>
       </c>
       <c r="J62">
         <v>0.92249563844821658</v>
@@ -5521,7 +5522,7 @@
         <v>0.99999999999999889</v>
       </c>
       <c r="I63">
-        <v>0.14102310732675341</v>
+        <v>0.12573535723614146</v>
       </c>
       <c r="J63">
         <v>0.93643532470665591</v>
@@ -5538,7 +5539,7 @@
         <v>1.099999999999999</v>
       </c>
       <c r="I64">
-        <v>0.11609451902596506</v>
+        <v>0.10247924379988503</v>
       </c>
       <c r="J64">
         <v>0.9478077952472802</v>
@@ -5555,7 +5556,7 @@
         <v>1.1999999999999991</v>
       </c>
       <c r="I65">
-        <v>9.5492644712746544E-2</v>
+        <v>8.3454771452459969E-2</v>
       </c>
       <c r="J65">
         <v>0.95707218903654212</v>
@@ -5572,7 +5573,7 @@
         <v>1.2999999999999992</v>
       </c>
       <c r="I66">
-        <v>7.8559459413378926E-2</v>
+        <v>6.7973055423371204E-2</v>
       </c>
       <c r="J66">
         <v>0.96461676084963277</v>
@@ -5589,7 +5590,7 @@
         <v>1.3999999999999992</v>
       </c>
       <c r="I67">
-        <v>6.4689101103908325E-2</v>
+        <v>5.5414890241784878E-2</v>
       </c>
       <c r="J67">
         <v>0.97076415638537239</v>
@@ -5606,7 +5607,7 @@
         <v>1.4999999999999993</v>
       </c>
       <c r="I68">
-        <v>5.3348411896260793E-2</v>
+        <v>4.5245345804669039E-2</v>
       </c>
       <c r="J68">
         <v>0.97577926447744701</v>
@@ -5623,7 +5624,7 @@
         <v>1.5999999999999994</v>
       </c>
       <c r="I69">
-        <v>4.4081848771799527E-2</v>
+        <v>3.7014277081999572E-2</v>
       </c>
       <c r="J69">
         <v>0.97987775432362723</v>
@@ -5640,7 +5641,7 @@
         <v>1.6999999999999995</v>
       </c>
       <c r="I70">
-        <v>3.6507840328979774E-2</v>
+        <v>3.0349578854128156E-2</v>
       </c>
       <c r="J70">
         <v>0.98323425636184081</v>
@@ -5657,7 +5658,7 @@
         <v>1.7999999999999996</v>
       </c>
       <c r="I71">
-        <v>3.0311076692013831E-2</v>
+        <v>2.4947380161910032E-2</v>
       </c>
       <c r="J71">
         <v>0.98598968932458764</v>
@@ -5674,7 +5675,7 @@
         <v>1.8999999999999997</v>
       </c>
       <c r="I72">
-        <v>2.5233391274780408E-2</v>
+        <v>2.0561569352483568E-2</v>
       </c>
       <c r="J72">
         <v>0.98825755897140199</v>
@@ -5691,7 +5692,7 @@
         <v>1.9999999999999998</v>
       </c>
       <c r="I73">
-        <v>2.1064695581679397E-2</v>
+        <v>1.6993892996149909E-2</v>
       </c>
       <c r="J73">
         <v>0.99012923108926487</v>
@@ -5708,7 +5709,7 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="I74">
-        <v>1.7634688453057518E-2</v>
+        <v>1.4085184456303192E-2</v>
       </c>
       <c r="J74">
         <v>0.99167826820763394</v>
@@ -5725,7 +5726,7 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="I75">
-        <v>1.4805628237730175E-2</v>
+        <v>1.1707890250092369E-2</v>
       </c>
       <c r="J75">
         <v>0.99296395371698609</v>
@@ -5742,7 +5743,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I76">
-        <v>1.2466218036361576E-2</v>
+        <v>9.7598597336093773E-3</v>
       </c>
       <c r="J76">
         <v>0.99403413258985318</v>
@@ -5759,7 +5760,7 @@
         <v>2.4</v>
       </c>
       <c r="I77">
-        <v>1.0526533731672923E-2</v>
+        <v>8.1592698982939811E-3</v>
       </c>
       <c r="J77">
         <v>0.99492748909742335</v>
@@ -5776,7 +5777,7 @@
         <v>2.5</v>
       </c>
       <c r="I78">
-        <v>8.9138724753217869E-3</v>
+        <v>6.8405242152831357E-3</v>
       </c>
       <c r="J78">
         <v>0.99567536708715021</v>
@@ -5793,7 +5794,7 @@
         <v>2.6</v>
       </c>
       <c r="I79">
-        <v>7.5693849518498517E-3</v>
+        <v>5.7509635581052959E-3</v>
       </c>
       <c r="J79">
         <v>0.99630322205337885</v>
@@ -5810,7 +5811,7 @@
         <v>2.7</v>
       </c>
       <c r="I80">
-        <v>6.4453597493496573E-3</v>
+        <v>4.8482414581218526E-3</v>
       </c>
       <c r="J80">
         <v>0.99683177866878769</v>
@@ -5827,7 +5828,7 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="I81">
-        <v>5.5030419650537775E-3</v>
+        <v>4.0982359455794416E-3</v>
       </c>
       <c r="J81">
         <v>0.99727795364724292</v>
@@ -5844,7 +5845,7 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="I82">
-        <v>4.7108849258413223E-3</v>
+        <v>3.4733910783840906E-3</v>
       </c>
       <c r="J82">
         <v>0.9976555920820569</v>
@@ -5861,7 +5862,7 @@
         <v>3.0000000000000004</v>
       </c>
       <c r="I83">
-        <v>4.043150573963262E-3</v>
+        <v>2.9514005876051532E-3</v>
       </c>
       <c r="J83">
         <v>0.99797605569841419</v>
@@ -5878,7 +5879,7 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="I84">
-        <v>3.4787892306154138E-3</v>
+        <v>2.5141629147183366E-3</v>
       </c>
       <c r="J84">
         <v>0.99824869356626755</v>
@@ -5895,7 +5896,7 @@
         <v>3.2000000000000006</v>
       </c>
       <c r="I85">
-        <v>3.0005425676843875E-3</v>
+        <v>2.1469510690586085E-3</v>
       </c>
       <c r="J85">
         <v>0.99848121947733492</v>
@@ -5912,7 +5913,7 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="I86">
-        <v>2.5942246219057556E-3</v>
+        <v>1.8377523482641029E-3</v>
       </c>
       <c r="J86">
         <v>0.99868001513339677</v>
@@ -5929,7 +5930,7 @@
         <v>3.4000000000000008</v>
       </c>
       <c r="I87">
-        <v>2.2481447322403158E-3</v>
+        <v>1.5767423466555525E-3</v>
       </c>
       <c r="J87">
         <v>0.99885037428363677</v>
@@ -5946,7 +5947,7 @@
         <v>3.5000000000000009</v>
       </c>
       <c r="I88">
-        <v>1.9526436183371142E-3</v>
+        <v>1.3558651751259989E-3</v>
       </c>
       <c r="J88">
         <v>0.99899669978044936</v>
@@ -5963,7 +5964,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="I89">
-        <v>1.6997197136385473E-3</v>
+        <v>1.1684977660526561E-3</v>
       </c>
       <c r="J89">
         <v>0.99912266302459396</v>
@@ -5980,7 +5981,7 @@
         <v>3.7000000000000011</v>
       </c>
       <c r="I90">
-        <v>1.4827275743613338E-3</v>
+        <v>1.0091808349999151E-3</v>
       </c>
       <c r="J90">
         <v>0.99923133330214875</v>
@@ -5997,7 +5998,7 @@
         <v>3.8000000000000012</v>
       </c>
       <c r="I91">
-        <v>1.2961339288959828E-3</v>
+        <v>8.7340276935282755E-4</v>
       </c>
       <c r="J91">
         <v>0.99932528296521794</v>
@@ -6014,7 +6015,7 @@
         <v>3.9000000000000012</v>
       </c>
       <c r="I92">
-        <v>1.1353199007592327E-3</v>
+        <v>7.574256199980884E-4</v>
       </c>
       <c r="J92">
         <v>0.99940667318650722</v>
@@ -6031,7 +6032,7 @@
         <v>4.0000000000000009</v>
       </c>
       <c r="I93">
-        <v>9.9642028890174761E-4</v>
+        <v>6.5814465358202286E-4</v>
       </c>
       <c r="J93">
         <v>0.99947732405415812</v>
@@ -6048,7 +6049,7 @@
         <v>4.1000000000000005</v>
       </c>
       <c r="I94">
-        <v>8.7619264935989358E-4</v>
+        <v>5.7297471375401332E-4</v>
       </c>
       <c r="J94">
         <v>0.99953877201214625</v>
@@ -6065,7 +6066,7 @@
         <v>4.2</v>
       </c>
       <c r="I95">
-        <v>7.7191039433856864E-4</v>
+        <v>4.9975804626297467E-4</v>
       </c>
       <c r="J95">
         <v>0.99959231704952622</v>
@@ -6082,7 +6083,7 @@
         <v>4.3</v>
       </c>
       <c r="I96">
-        <v>6.8127529043126569E-4</v>
+        <v>4.3668934832442088E-4</v>
       </c>
       <c r="J96">
         <v>0.99963906156478877</v>
@@ -6099,7 +6100,7 @@
         <v>4.3999999999999995</v>
       </c>
       <c r="I97">
-        <v>6.0234566151115142E-4</v>
+        <v>3.8225467277555944E-4</v>
       </c>
       <c r="J97">
         <v>0.99967994245286662</v>
@@ -6116,7 +6117,7 @@
         <v>4.4999999999999991</v>
       </c>
       <c r="I98">
-        <v>5.3347733494850847E-4</v>
+        <v>3.3518150336470754E-4</v>
       </c>
       <c r="J98">
         <v>0.99971575766102583</v>
@@ -6133,7 +6134,7 @@
         <v>4.5999999999999988</v>
       </c>
       <c r="I99">
-        <v>4.7327495247416327E-4</v>
+        <v>2.943978590340524E-4</v>
       </c>
       <c r="J99">
         <v>0.9997471882196507</v>
@@ -6150,7 +6151,7 @@
         <v>4.6999999999999984</v>
       </c>
       <c r="I100">
-        <v>4.2055173088343908E-4</v>
+        <v>2.5899871342338073E-4</v>
       </c>
       <c r="J100">
         <v>0.99977481656196399</v>
@@ -6167,7 +6168,7 @@
         <v>4.799999999999998</v>
       </c>
       <c r="I101">
-        <v>3.7429612776366692E-4</v>
+        <v>2.2821835536683484E-4</v>
       </c>
       <c r="J101">
         <v>0.99979914179298124</v>
@@ -6184,7 +6185,7 @@
         <v>4.8999999999999977</v>
       </c>
       <c r="I102">
-        <v>3.3364416311326613E-4</v>
+        <v>2.0140758585771506E-4</v>
       </c>
       <c r="J102">
         <v>0.99982059244457355</v>
@@ -6201,7 +6202,7 @@
         <v>4.9999999999999973</v>
       </c>
       <c r="I103">
-        <v>2.9785638450960893E-4</v>
+        <v>1.7801486164813004E-4</v>
       </c>
       <c r="J103">
         <v>0.99983953715420237</v>
@@ -6237,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
@@ -6245,7 +6246,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
@@ -6261,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -6270,7 +6271,7 @@
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>1463763757296</v>
+        <v>2046863983184</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -6279,7 +6280,7 @@
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7">_xll.JOHNSON.MOMENT(Johnson,1)</f>
-        <v>99.916681723477893</v>
+        <v>100.03302941027492</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -6287,32 +6288,35 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" cm="1">
-        <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,2) - C7*C7</f>
-        <v>0.72009759720276634</v>
+        <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,2) - mean^2</f>
+        <v>0.12965566769526049</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
-        <v>100</v>
+      <c r="C9" s="5">
+        <f>mean</f>
+        <v>100.03302941027492</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
-        <v>0.3</v>
+      <c r="C10" s="5">
+        <f>SQRT(variance)</f>
+        <v>0.36007730794269788</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11">
-        <v>100</v>
+      <c r="C11" s="5">
+        <f>f</f>
+        <v>100.03302941027492</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
@@ -6321,7 +6325,7 @@
       </c>
       <c r="C12" s="5" cm="1">
         <f t="array" ref="C12">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
-        <v>11.923538474048499</v>
+        <v>14.292496918495097</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -6330,16 +6334,16 @@
       </c>
       <c r="C13" s="5" cm="1">
         <f t="array" ref="C13">_xll.NORMAL.PUT.DELTA(f, s, k)</f>
-        <v>-0.4403823076297575</v>
+        <v>-0.42856111125118518</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" cm="1">
+      <c r="C14" s="5" cm="1">
         <f t="array" ref="C14">_xll.NORMAL.PUT.IMPLIED(f, value, k)</f>
-        <v>0.3</v>
+        <v>0.36007730794269727</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
@@ -6348,7 +6352,7 @@
       </c>
       <c r="C15" s="5" cm="1">
         <f t="array" ref="C15">_xll.JOHNSON.PUT.VALUE(Johnson,k)</f>
-        <v>0.35277488780918986</v>
+        <v>-5205.8183162309806</v>
       </c>
     </row>
   </sheetData>

--- a/xll_johnson/johnson.xlsx
+++ b/xll_johnson/johnson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\fms_johnson\xll_johnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A91A57-C8E4-47A1-948B-93ACF0E2630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F765FB4F-5DB0-4F86-993B-153AA4357C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,30 +19,32 @@
   <definedNames>
     <definedName name="cdf">_xlfn.ANCHORARRAY(Sheet1!$J$3)</definedName>
     <definedName name="delta" localSheetId="1">Sheet2!$C$3</definedName>
-    <definedName name="delta">Sheet1!$C$4</definedName>
+    <definedName name="delta">Sheet1!$C$6</definedName>
     <definedName name="f">Sheet2!$C$9</definedName>
     <definedName name="gamma" localSheetId="1">Sheet2!$C$2</definedName>
-    <definedName name="gamma">Sheet1!$C$3</definedName>
+    <definedName name="gamma">Sheet1!$C$5</definedName>
     <definedName name="implied">Sheet2!$C$14</definedName>
     <definedName name="Johnson" localSheetId="1">Sheet2!$C$6</definedName>
-    <definedName name="Johnson">Sheet1!$C$7</definedName>
+    <definedName name="Johnson">Sheet1!$C$9</definedName>
     <definedName name="k">Sheet2!$C$11</definedName>
     <definedName name="lambda" localSheetId="1">Sheet2!$C$5</definedName>
-    <definedName name="lambda">Sheet1!$C$6</definedName>
+    <definedName name="lambda">Sheet1!$C$4</definedName>
+    <definedName name="mean" localSheetId="0">Sheet1!$C$15</definedName>
     <definedName name="mean">Sheet2!$C$7</definedName>
-    <definedName name="mu">Sheet1!$C$13</definedName>
+    <definedName name="mu">Sheet1!$C$7</definedName>
     <definedName name="ncdf">_xlfn.ANCHORARRAY(Sheet1!$L$3)</definedName>
-    <definedName name="Normal">Sheet1!$C$15</definedName>
+    <definedName name="Normal">Sheet1!$C$17</definedName>
     <definedName name="npdf">_xlfn.ANCHORARRAY(Sheet1!$K$3)</definedName>
     <definedName name="pdf">_xlfn.ANCHORARRAY(Sheet1!$I$3)</definedName>
     <definedName name="s" localSheetId="1">Sheet2!$C$10</definedName>
     <definedName name="s">Sheet1!$C$2</definedName>
-    <definedName name="sigma">Sheet1!$C$14</definedName>
+    <definedName name="sigma">Sheet1!$C$8</definedName>
     <definedName name="value">Sheet2!$C$12</definedName>
+    <definedName name="variance" localSheetId="0">Sheet1!$C$16</definedName>
     <definedName name="variance">Sheet2!$C$8</definedName>
     <definedName name="x">_xlfn.ANCHORARRAY(Sheet1!$H$3)</definedName>
     <definedName name="xi" localSheetId="1">Sheet2!$C$4</definedName>
-    <definedName name="xi">Sheet1!$C$5</definedName>
+    <definedName name="xi">Sheet1!$C$3</definedName>
     <definedName name="Z">Sheet1!$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -88,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>xi</t>
   </si>
@@ -773,307 +775,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4.5399836433269091E-4</c:v>
+                  <c:v>8.1325471509349561E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1211821774760813E-4</c:v>
+                  <c:v>8.3747258629299302E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7852629168763541E-4</c:v>
+                  <c:v>8.6254232474303633E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5452935795671087E-4</c:v>
+                  <c:v>8.8849868006336312E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4166034456623633E-4</c:v>
+                  <c:v>9.1537802129834696E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4172099301256791E-4</c:v>
+                  <c:v>9.4321842207431393E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5683322055249427E-4</c:v>
+                  <c:v>9.7205975075748729E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0895010941344631E-3</c:v>
+                  <c:v>1.0019437659376204E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2426857667214234E-3</c:v>
+                  <c:v>1.0329142175855919E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4198962794959649E-3</c:v>
+                  <c:v>1.065016954258232E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.625299822335634E-3</c:v>
+                  <c:v>1.0983000367506436E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8638559044121114E-3</c:v>
+                  <c:v>1.1328138586254344E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1414799598519774E-3</c:v>
+                  <c:v>1.1686112740796172E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4652432537375711E-3</c:v>
+                  <c:v>1.2057477336439642E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.843617627810908E-3</c:v>
+                  <c:v>1.2442814282461969E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2867757148734374E-3</c:v>
+                  <c:v>1.284273442209066E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8069598556386285E-3</c:v>
+                  <c:v>1.3257879157972124E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.418936191114802E-3</c:v>
+                  <c:v>1.368892217973088E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1405544175295729E-3</c:v>
+                  <c:v>1.4136571300723934E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.9934386381301956E-3</c:v>
+                  <c:v>1.4601570411638913E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0038407971688699E-3</c:v>
+                  <c:v>1.5084701559173164E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.2036955008012603E-3</c:v>
+                  <c:v>1.5586787158670251E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.6319237426882517E-3</c:v>
+                  <c:v>1.6108692350282403E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1336043180833468E-2</c:v>
+                  <c:v>1.6651327508980198E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3374153962431681E-2</c:v>
+                  <c:v>1.721565091954598E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5817381060070058E-2</c:v>
+                  <c:v>1.7802671628575889E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8752865321856195E-2</c:v>
+                  <c:v>1.8413452486478035E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2287403328615518E-2</c:v>
+                  <c:v>1.9049113393504295E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6551835924275985E-2</c:v>
+                  <c:v>1.9710834764993337E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1706268651791748E-2</c:v>
+                  <c:v>2.0399861232245941E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7946160369435343E-2</c:v>
+                  <c:v>2.1117505596806582E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.5509216377232126E-2</c:v>
+                  <c:v>2.1865153057401952E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.4682833672723648E-2</c:v>
+                  <c:v>2.2644265730395862E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.5811514016871256E-2</c:v>
+                  <c:v>2.3456387486377482E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.9303106330023757E-2</c:v>
+                  <c:v>2.4303149127418637E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.5631856999947168E-2</c:v>
+                  <c:v>2.5186273931632137E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.11533490846887444</c:v>
+                  <c:v>2.6107583593956138E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13899698174264619</c:v>
+                  <c:v>2.7069004594597394E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.16721550635297847</c:v>
+                  <c:v>2.8072575029314045E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.20053573830560054</c:v>
+                  <c:v>2.9120451938725427E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.23934344697746879</c:v>
+                  <c:v>3.0214919177136917E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.28370383266135807</c:v>
+                  <c:v>3.1358395864985425E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.33314353279466052</c:v>
+                  <c:v>3.2553445472984291E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.38639348936483231</c:v>
+                  <c:v>3.3802785590409312E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.44114844502398848</c:v>
+                  <c:v>3.5109298434767423E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.49394968253813593</c:v>
+                  <c:v>3.6476042165363838E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.54033731014439135</c:v>
+                  <c:v>3.790626306909701E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.57539832144528535</c:v>
+                  <c:v>3.9403408693210326E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.59470715122605933</c:v>
+                  <c:v>4.0971142006786758E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.59542882121551766</c:v>
+                  <c:v>4.2613356680561013E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.57715962684987532</c:v>
+                  <c:v>4.4334193583221102E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.54210271839214386</c:v>
+                  <c:v>4.6138058601875501E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.49447256967407777</c:v>
+                  <c:v>4.8029641904868324E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.43940566781679591</c:v>
+                  <c:v>5.0013938776761015E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.38184618915061219</c:v>
+                  <c:v>5.2096272168181709E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.32577559423885932</c:v>
+                  <c:v>5.4282317117530158E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.27390284321552266</c:v>
+                  <c:v>5.6578127217381724E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.22772309026885401</c:v>
+                  <c:v>5.8990163316033795E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.18777406465475951</c:v>
+                  <c:v>6.1525324664212812E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.15394269159729695</c:v>
+                  <c:v>6.4190982738727758E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.12573535723614146</c:v>
+                  <c:v>6.6995017999100018E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.10247924379988503</c:v>
+                  <c:v>6.9945859860222055E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.3454771452459969E-2</c:v>
+                  <c:v>7.3052530194237528E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.7973055423371204E-2</c:v>
+                  <c:v>7.6324690708499672E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.5414890241784878E-2</c:v>
+                  <c:v>7.9772694584083915E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.5245345804669039E-2</c:v>
+                  <c:v>8.3407642801426054E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.7014277081999572E-2</c:v>
+                  <c:v>8.7241445626796076E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0349578854128156E-2</c:v>
+                  <c:v>9.128688978616771E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4947380161910032E-2</c:v>
+                  <c:v>9.5557711912347377E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.0561569352483568E-2</c:v>
+                  <c:v>1.0006867891784866E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.6993892996149909E-2</c:v>
+                  <c:v>1.0483567602092266E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4085184456303192E-2</c:v>
+                  <c:v>1.0987580323649731E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1707890250092369E-2</c:v>
+                  <c:v>1.1520748123883687E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.7598597336093773E-3</c:v>
+                  <c:v>1.2085056760998375E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.1592698982939811E-3</c:v>
+                  <c:v>1.2682648460918813E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.8405242152831357E-3</c:v>
+                  <c:v>1.3315835973552292E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.7509635581052959E-3</c:v>
+                  <c:v>1.3987118051098106E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.8482414581218526E-3</c:v>
+                  <c:v>1.4699196508715442E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.0982359455794416E-3</c:v>
+                  <c:v>1.5454995047810504E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.4733910783840906E-3</c:v>
+                  <c:v>1.6257680044873617E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.9514005876051532E-3</c:v>
+                  <c:v>1.7110683534587493E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.5141629147183366E-3</c:v>
+                  <c:v>1.8017728645304777E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.1469510690586085E-3</c:v>
+                  <c:v>1.8982857778500318E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8377523482641029E-3</c:v>
+                  <c:v>2.001046386206776E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.5767423466555525E-3</c:v>
+                  <c:v>2.1105325051088749E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3558651751259989E-3</c:v>
+                  <c:v>2.2272643299805282E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1684977660526561E-3</c:v>
+                  <c:v>2.3518087285976808E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.0091808349999151E-3</c:v>
+                  <c:v>2.4847840234761783E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.7340276935282755E-4</c:v>
+                  <c:v>2.6268653265101582E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.574256199980884E-4</c:v>
+                  <c:v>2.7787904968896416E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.5814465358202286E-4</c:v>
+                  <c:v>2.9413668033931731E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.7297471375401332E-4</c:v>
+                  <c:v>3.11547838377419E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9975804626297467E-4</c:v>
+                  <c:v>3.3020946073983762E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.3668934832442088E-4</c:v>
+                  <c:v>3.5022794628494416E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.8225467277555944E-4</c:v>
+                  <c:v>3.7172021102631963E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.3518150336470754E-4</c:v>
+                  <c:v>3.9481487591000912E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.943978590340524E-4</c:v>
+                  <c:v>4.1965360564283453E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.5899871342338073E-4</c:v>
+                  <c:v>4.4639261991581856E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.2821835536683484E-4</c:v>
+                  <c:v>4.7520440167479238E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0140758585771506E-4</c:v>
+                  <c:v>5.0627963095296429E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.7801486164813004E-4</c:v>
+                  <c:v>5.3982937729660481E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,307 +1432,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4.2047300610986715E-4</c:v>
+                  <c:v>3.3409809180207084E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6871468417442053E-4</c:v>
+                  <c:v>3.4235103248658749E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2317271261348441E-4</c:v>
+                  <c:v>3.5085038291449155E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8473952524562556E-4</c:v>
+                  <c:v>3.5960483419117395E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5444921734547634E-4</c:v>
+                  <c:v>3.6862343294619127E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3350222853063585E-4</c:v>
+                  <c:v>3.7791559794958518E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2329471234382501E-4</c:v>
+                  <c:v>3.8749113760405685E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2545355505402327E-4</c:v>
+                  <c:v>3.9736026836517668E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0418782182627373E-3</c:v>
+                  <c:v>4.0753363414458565E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1747908416026576E-3</c:v>
+                  <c:v>4.1802232675458573E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3267963653426085E-3</c:v>
+                  <c:v>4.2883790745673611E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5009548333401734E-3</c:v>
+                  <c:v>4.3999242968095764E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7008685336363238E-3</c:v>
+                  <c:v>4.5149846298614404E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9307872510138657E-3</c:v>
+                  <c:v>4.6336911833849692E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1957356729779831E-3</c:v>
+                  <c:v>4.7561807478779805E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5016679451859702E-3</c:v>
+                  <c:v>4.8825960762854947E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8556555607303635E-3</c:v>
+                  <c:v>5.0130861813879601E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.266116247183648E-3</c:v>
+                  <c:v>5.1478066499416331E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7430933562233037E-3</c:v>
+                  <c:v>5.2869199746397033E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.2985975482454086E-3</c:v>
+                  <c:v>5.4305959050177099E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.9470254004463921E-3</c:v>
+                  <c:v>5.5790118185111703E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7056730701632308E-3</c:v>
+                  <c:v>5.7323531129627181E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.5953674494610981E-3</c:v>
+                  <c:v>5.8908136219676388E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6412424937365997E-3</c:v>
+                  <c:v>6.0545960545377309E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.8736947307866409E-3</c:v>
+                  <c:v>6.2239124606822127E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0329559453804926E-2</c:v>
+                  <c:v>6.3989847246143094E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2053557774557189E-2</c:v>
+                  <c:v>6.5800450874142768E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4100074371410087E-2</c:v>
+                  <c:v>6.7673367011206187E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6535335860321854E-2</c:v>
+                  <c:v>6.9611142163672479E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9440069055922549E-2</c:v>
+                  <c:v>7.1616444058353323E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2912724696017739E-2</c:v>
+                  <c:v>7.3692068259628707E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.7073351399755086E-2</c:v>
+                  <c:v>7.5840945195493337E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2068189760577293E-2</c:v>
+                  <c:v>7.8066147620731163E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8075016121317418E-2</c:v>
+                  <c:v>8.0370898547799108E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.5309181693160505E-2</c:v>
+                  <c:v>8.2758579678143818E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.4030137936078082E-2</c:v>
+                  <c:v>8.5232740369423077E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.4547974393468432E-2</c:v>
+                  <c:v>8.7797107176706968E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.7229068980227855E-2</c:v>
+                  <c:v>9.0455594008875817E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.2499304803588034E-2</c:v>
+                  <c:v>9.3212312944673803E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.11084239711217125</c:v>
+                  <c:v>9.6071585756402067E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1327897166111156</c:v>
+                  <c:v>9.9037956193170906E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.15889676819044174</c:v>
+                  <c:v>1.0211620307984393E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.18970067882141106</c:v>
+                  <c:v>1.0531135429236449E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.22565364994386311</c:v>
+                  <c:v>1.0862870167527294E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.26703086079299182</c:v>
+                  <c:v>1.1207381697263541E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.31381938239430635</c:v>
+                  <c:v>1.1565256884952801E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.36560757076051598</c:v>
+                  <c:v>1.1937114108799274E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.42150877521786989</c:v>
+                  <c:v>1.2323605204815347E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.48016036015686281</c:v>
+                  <c:v>1.2725417549344087E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.53982783727702832</c:v>
+                  <c:v>1.3143276288702377E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.59861008809060445</c:v>
+                  <c:v>1.3577946727624246E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.65469786778660533</c:v>
+                  <c:v>1.4030236889187586E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.70661049867299153</c:v>
+                  <c:v>1.4501000260063734E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.75334475505344645</c:v>
+                  <c:v>1.4991138736132337E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.79440968148262048</c:v>
+                  <c:v>1.5501605784903338E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.82976508640009961</c:v>
+                  <c:v>1.6033409842656776E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.85970610254397384</c:v>
+                  <c:v>1.6587617965870827E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.88473649070521498</c:v>
+                  <c:v>1.7165359758324339E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.90545912867964717</c:v>
+                  <c:v>1.7767831597259032E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.92249563844821658</c:v>
+                  <c:v>1.8396301184185337E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.93643532470665591</c:v>
+                  <c:v>1.9052112448371128E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.9478077952472802</c:v>
+                  <c:v>1.9736690833725423E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.95707218903654212</c:v>
+                  <c:v>2.0451549002782343E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.96461676084963277</c:v>
+                  <c:v>2.1198292994776269E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.97076415638537239</c:v>
+                  <c:v>2.197862887846902E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.97577926447744701</c:v>
+                  <c:v>2.2794369944418302E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.97987775432362723</c:v>
+                  <c:v>2.3647444485889735E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.98323425636184081</c:v>
+                  <c:v>2.453990422261354E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.98598968932458764</c:v>
+                  <c:v>2.547393342712756E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.98825755897140199</c:v>
+                  <c:v>2.6451858819647178E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99012923108926487</c:v>
+                  <c:v>2.7476160304289454E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99167826820763394</c:v>
+                  <c:v>2.8549482627171496E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99296395371698609</c:v>
+                  <c:v>2.9674648045471264E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99403413258985318</c:v>
+                  <c:v>3.085467010615961E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99492748909742335</c:v>
+                  <c:v>3.2092768643814384E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99567536708715021</c:v>
+                  <c:v>3.3392386118973882E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99630322205337885</c:v>
+                  <c:v>3.4757205431962257E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.99683177866878769</c:v>
+                  <c:v>3.6191169362248532E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.99727795364724292</c:v>
+                  <c:v>3.7698501800405571E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.9976555920820569</c:v>
+                  <c:v>3.9283730958890595E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.99797605569841419</c:v>
+                  <c:v>4.0951714769393299E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.99824869356626755</c:v>
+                  <c:v>4.2707668698832579E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.99848121947733492</c:v>
+                  <c:v>4.4557196243518171E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.99868001513339677</c:v>
+                  <c:v>4.6506322392025901E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.99885037428363677</c:v>
+                  <c:v>4.8561530382466578E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.99899669978044936</c:v>
+                  <c:v>5.0729802119631739E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.99912266302459396</c:v>
+                  <c:v>5.3018662662685512E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.99923133330214875</c:v>
+                  <c:v>5.5436229245410251E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.99932528296521794</c:v>
+                  <c:v>5.799126534942689E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.99940667318650722</c:v>
+                  <c:v>6.069324041737989E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.99947732405415812</c:v>
+                  <c:v>6.3552395869005962E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.99953877201214625</c:v>
+                  <c:v>6.6579818169792415E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.99959231704952622</c:v>
+                  <c:v>6.9787519801180475E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.99963906156478877</c:v>
+                  <c:v>7.31885290950407E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.99967994245286662</c:v>
+                  <c:v>7.6796990025644885E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.99971575766102583</c:v>
+                  <c:v>8.0628273202341671E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.9997471882196507</c:v>
+                  <c:v>8.4699099478720008E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.99977481656196399</c:v>
+                  <c:v>8.9027677792944959E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.99979914179298124</c:v>
+                  <c:v>9.3633859083501192E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99982059244457355</c:v>
+                  <c:v>9.8539308389918312E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.99983953715420237</c:v>
+                  <c:v>1.0376769755518545E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,307 +2089,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.4129955889966093E-8</c:v>
+                  <c:v>5.8980677169218135E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7431684654640798E-8</c:v>
+                  <c:v>6.0492681129785834E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1949531688809475E-8</c:v>
+                  <c:v>6.2004681152684267E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7579213595838451E-7</c:v>
+                  <c:v>6.3514764117297243E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3145022194775128E-7</c:v>
+                  <c:v>6.50209733424989E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1631982102863674E-7</c:v>
+                  <c:v>6.6521312474688676E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1302197849724961E-6</c:v>
+                  <c:v>6.8013749594635853E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0440364018191555E-6</c:v>
+                  <c:v>6.9496221532749078E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6457198742106871E-6</c:v>
+                  <c:v>7.0966638381221789E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4127884815149315E-6</c:v>
+                  <c:v>7.2422888190370627E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1124473987528957E-5</c:v>
+                  <c:v>7.3862841835390672E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9031849904549581E-5</c:v>
+                  <c:v>7.5284358038701038E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2110825670618461E-5</c:v>
+                  <c:v>7.6685288532059942E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3430703369420841E-5</c:v>
+                  <c:v>7.8063483341690262E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7679741268153059E-5</c:v>
+                  <c:v>7.9416796178787011E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4189809909383787E-4</c:v>
+                  <c:v>8.0743089916978511E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2647634381399296E-4</c:v>
+                  <c:v>8.2040242137593714E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5648237506747424E-4</c:v>
+                  <c:v>8.3306150722949876E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5337843369258552E-4</c:v>
+                  <c:v>8.4538739477327804E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.4717932134422715E-4</c:v>
+                  <c:v>8.5735963754845934E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2790791308723813E-3</c:v>
+                  <c:v>8.6895816073086982E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9045326811821897E-3</c:v>
+                  <c:v>8.8016331691074839E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.7967161827415145E-3</c:v>
+                  <c:v>8.909559413004578E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0502078501963232E-3</c:v>
+                  <c:v>9.0131740615411945E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7846245512400349E-3</c:v>
+                  <c:v>9.1122967418376583E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.1478306098394133E-3</c:v>
+                  <c:v>9.2067535075830792E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1318210229330824E-2</c:v>
+                  <c:v>9.2963773467442182E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5505382026789284E-2</c:v>
+                  <c:v>9.3810086729234451E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0948654554711729E-2</c:v>
+                  <c:v>9.4604957983454835E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.7912500845991409E-2</c:v>
+                  <c:v>9.5346953865130993E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.667839412995362E-2</c:v>
+                  <c:v>9.6034728826426163E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.7532518548608807E-2</c:v>
+                  <c:v>9.6667029200712296E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.0749161720556701E-2</c:v>
+                  <c:v>9.7242697009187348E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.6570009734742317E-2</c:v>
+                  <c:v>9.7760673493863956E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.518007986163346E-2</c:v>
+                  <c:v>9.8220002361844805E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.11668160036602157</c:v>
+                  <c:v>9.8619832726972223E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.14106771739328908</c:v>
+                  <c:v>9.8959421736187367E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.16819839635435682</c:v>
+                  <c:v>9.9238136869252938E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.19778120212145192</c:v>
+                  <c:v>9.9455457901874281E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2293597060532393</c:v>
+                  <c:v>9.9610978523690982E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26231201537401122</c:v>
+                  <c:v>9.9704407604095449E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.29586132286154604</c:v>
+                  <c:v>9.9735570100358162E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.32909944888366083</c:v>
+                  <c:v>9.9704407604095449E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.361023161474819</c:v>
+                  <c:v>9.9610978523690996E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.39058173000049884</c:v>
+                  <c:v>9.9455457901874281E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.41673284805446192</c:v>
+                  <c:v>9.9238136869252938E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.43850292359506593</c:v>
+                  <c:v>9.8959421736187367E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.45504694401087509</c:v>
+                  <c:v>9.8619832726972223E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.46570281238686317</c:v>
+                  <c:v>9.8220002361844805E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.47003529342785944</c:v>
+                  <c:v>9.7760673493863956E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.46786550543392069</c:v>
+                  <c:v>9.7242697009187362E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.45928317340728742</c:v>
+                  <c:v>9.6667029200712296E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.44464047362342363</c:v>
+                  <c:v>9.6034728826426205E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.42452805815285793</c:v>
+                  <c:v>9.5346953865131007E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.39973553396848466</c:v>
+                  <c:v>9.4604957983454849E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.37120008122633552</c:v>
+                  <c:v>9.3810086729234465E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.33994786568104446</c:v>
+                  <c:v>9.2963773467442223E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.30703333139918837</c:v>
+                  <c:v>9.2067535075830834E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.27348132826957205</c:v>
+                  <c:v>9.1122967418376624E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2402363860289409</c:v>
+                  <c:v>9.0131740615411987E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.20812240753154615</c:v>
+                  <c:v>8.9095594130045822E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.17781477557172073</c:v>
+                  <c:v>8.8016331691074867E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.14982552236305358</c:v>
+                  <c:v>8.6895816073087023E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.12450096132240532</c:v>
+                  <c:v>8.5735963754845962E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.10203015791040425</c:v>
+                  <c:v>8.4538739477327859E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.2461904818584827E-2</c:v>
+                  <c:v>8.3306150722949904E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.5727500316870441E-2</c:v>
+                  <c:v>8.2040242137593769E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.16665923868425E-2</c:v>
+                  <c:v>8.0743089916978567E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.0053592212178295E-2</c:v>
+                  <c:v>7.9416796178787052E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0622600914242487E-2</c:v>
+                  <c:v>7.8063483341690304E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.3089345732782745E-2</c:v>
+                  <c:v>7.6685288532059998E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7169202732841192E-2</c:v>
+                  <c:v>7.5284358038701094E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2590923362052458E-2</c:v>
+                  <c:v>7.3862841835390741E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.106132848932677E-3</c:v>
+                  <c:v>7.2422888190370682E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.4950026568476515E-3</c:v>
+                  <c:v>7.0966638381221817E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.568710441179645E-3</c:v>
+                  <c:v>6.9496221532749106E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.1693987659461372E-3</c:v>
+                  <c:v>6.8013749594635867E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.168348504415149E-3</c:v>
+                  <c:v>6.6521312474688704E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.463019904504783E-3</c:v>
+                  <c:v>6.5020973342498914E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.7350981505563302E-4</c:v>
+                  <c:v>6.3514764117297243E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.3885071313540126E-4</c:v>
+                  <c:v>6.2004681152684267E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.1345417627405937E-4</c:v>
+                  <c:v>6.0492681129785834E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.6389084995445336E-4</c:v>
+                  <c:v>5.8980677169218128E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.6610787810491804E-4</c:v>
+                  <c:v>5.7470535171058233E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0311576754162756E-4</c:v>
+                  <c:v>5.5964070390809847E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.3128995187286524E-5</c:v>
+                  <c:v>5.4463044258137625E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.8115500288447229E-5</c:v>
+                  <c:v>5.2969161443924849E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.2695686401474357E-5</c:v>
+                  <c:v>5.148406717999366E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3327661967599159E-5</c:v>
+                  <c:v>5.0009344834621924E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.7185116848182121E-6</c:v>
+                  <c:v>4.8546513745803224E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.4084113568267356E-6</c:v>
+                  <c:v>4.7097027313031573E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.4831308687302349E-6</c:v>
+                  <c:v>4.5662271347255458E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3793867654802345E-6</c:v>
+                  <c:v>4.4243562677544909E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.5568612893329128E-7</c:v>
+                  <c:v>4.2842148011951832E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.0828722933091742E-7</c:v>
+                  <c:v>4.1459203049026172E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.1755000176195073E-7</c:v>
+                  <c:v>4.0095831835479899E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.1431976841681189E-7</c:v>
+                  <c:v>3.8753066364573305E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.9245112786729675E-8</c:v>
+                  <c:v>3.7431866408936226E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.0279777172615305E-8</c:v>
+                  <c:v>3.6133119580733238E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.5262362659051862E-8</c:v>
+                  <c:v>3.4857641611340084E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.5868205629954428E-9</c:v>
+                  <c:v>3.3606176842019796E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,307 +2746,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>3.437040041465167E-9</c:v>
+                  <c:v>0.15268159383311036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8888383886189786E-9</c:v>
+                  <c:v>0.15865525393145713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3621834660249021E-8</c:v>
+                  <c:v>0.16478012998031044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6574140887802855E-8</c:v>
+                  <c:v>0.17105612630848172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1147335033974173E-8</c:v>
+                  <c:v>0.1774829537232322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7125529341379746E-8</c:v>
+                  <c:v>0.18406012534675942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8196891743427202E-7</c:v>
+                  <c:v>0.19078695285251052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3637339674763567E-7</c:v>
+                  <c:v>0.19766254312269227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1349960017720306E-7</c:v>
+                  <c:v>0.20468579534725251</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1040358424141417E-6</c:v>
+                  <c:v>0.21185539858339653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9603643926502379E-6</c:v>
+                  <c:v>0.21916982979337724</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4346633864257292E-6</c:v>
+                  <c:v>0.22662735237686799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9379267369208399E-6</c:v>
+                  <c:v>0.23422601521269465</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0129753677645681E-5</c:v>
+                  <c:v>0.24196365222307276</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7052461216082726E-5</c:v>
+                  <c:v>0.24983788247177674</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8327666707850252E-5</c:v>
+                  <c:v>0.2578461108058645</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6438932026160451E-5</c:v>
+                  <c:v>0.26598552904870032</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.5130149028268534E-5</c:v>
+                  <c:v>0.27425311775007333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.199556345671815E-4</c:v>
+                  <c:v>0.28264564849720042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8902363669015543E-4</c:v>
+                  <c:v>0.29115968678834614</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.9397900284716671E-4</c:v>
+                  <c:v>0.29979159546869572</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5127159502306169E-4</c:v>
+                  <c:v>0.30853753872598666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.837527541089794E-4</c:v>
+                  <c:v>0.31739348664125883</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0226305623681764E-3</c:v>
+                  <c:v>0.32635522028791986</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5097936510474752E-3</c:v>
+                  <c:v>0.33541833737016929</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.200481002527066E-3</c:v>
+                  <c:v>0.34457825838967565</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1662305551806158E-3</c:v>
+                  <c:v>0.35383023332727603</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.4979827366486425E-3</c:v>
+                  <c:v>0.36316934882438068</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.3091485395969649E-3</c:v>
+                  <c:v>0.37259053584671581</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.738379999018886E-3</c:v>
+                  <c:v>0.38208857781104716</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1951711127894171E-2</c:v>
+                  <c:v>0.39165811915360504</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6143679195266492E-2</c:v>
+                  <c:v>0.40129367431707608</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1537001230033159E-2</c:v>
+                  <c:v>0.41098963713127024</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.8380381049400383E-2</c:v>
+                  <c:v>0.42074029056089679</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.6944069202113072E-2</c:v>
+                  <c:v>0.43053981679232617</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.7512900186882034E-2</c:v>
+                  <c:v>0.44038230762975733</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.0376691115162584E-2</c:v>
+                  <c:v>0.45026177516988697</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.5818099411116724E-2</c:v>
+                  <c:v>0.4601721627229709</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.4098291512360543E-2</c:v>
+                  <c:v>0.47010735594710512</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.11544104856560938</c:v>
+                  <c:v>0.4800611941616274</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1400162001061811</c:v>
+                  <c:v>0.49002748180476186</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1679234992663976</c:v>
+                  <c:v>0.49999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.19917819908999618</c:v>
+                  <c:v>0.50997251819523792</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.23369962916910997</c:v>
+                  <c:v>0.51993880583837238</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.27130398448337512</c:v>
+                  <c:v>0.52989264405289471</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.31170231708788843</c:v>
+                  <c:v>0.53982783727702888</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.35450437574156468</c:v>
+                  <c:v>0.54973822483011281</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.39922849533890892</c:v>
+                  <c:v>0.55961769237024239</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.4453172388022601</c:v>
+                  <c:v>0.56946018320767355</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.49215799108738634</c:v>
+                  <c:v>0.57925970943910288</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5391072542633486</c:v>
+                  <c:v>0.58901036286872954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.58551704670180216</c:v>
+                  <c:v>0.5987063256829237</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.6307616096276677</c:v>
+                  <c:v>0.60834188084639473</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.67426259492032903</c:v>
+                  <c:v>0.61791142218895256</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.71551105270225679</c:v>
+                  <c:v>0.62740946415328391</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.75408483827835626</c:v>
+                  <c:v>0.63683065117561899</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.78966047915550108</c:v>
+                  <c:v>0.64616976667272374</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.82201903463938053</c:v>
+                  <c:v>0.65542174161032407</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.8510459871231203</c:v>
+                  <c:v>0.66458166262983043</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.87672567135600432</c:v>
+                  <c:v>0.67364477971207992</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.89913112989631394</c:v>
+                  <c:v>0.6826065133587409</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.91841054758371254</c:v>
+                  <c:v>0.69146246127401301</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.93477154988264299</c:v>
+                  <c:v>0.70020840453130395</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.9484646509808301</c:v>
+                  <c:v>0.70884031321165353</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.95976702402819636</c:v>
+                  <c:v>0.71735435150279925</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.96896756518996463</c:v>
+                  <c:v>0.72574688224992634</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.97635396851130229</c:v>
+                  <c:v>0.73401447095129935</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.98220225408289652</c:v>
+                  <c:v>0.74215388919413527</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.9867689282952028</c:v>
+                  <c:v>0.75016211752822293</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.9902857260411948</c:v>
+                  <c:v>0.75803634777692697</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99295670616128739</c:v>
+                  <c:v>0.76577398478730496</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99495735016618658</c:v>
+                  <c:v>0.77337264762313174</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99643524956985763</c:v>
+                  <c:v>0.78083017020662249</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99751195232230505</c:v>
+                  <c:v>0.78814460141660314</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99828556336816709</c:v>
+                  <c:v>0.79531420465274738</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.9988337461459853</c:v>
+                  <c:v>0.80233745687730762</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99921683895094049</c:v>
+                  <c:v>0.80921304714748943</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.99948087211676628</c:v>
+                  <c:v>0.81593987465324047</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.99966034087037814</c:v>
+                  <c:v>0.82251704627676769</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.9997806490298029</c:v>
+                  <c:v>0.82894387369151823</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.99986018749144967</c:v>
+                  <c:v>0.83521987001968956</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.99991204780711773</c:v>
+                  <c:v>0.84134474606854281</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.9999453957451081</c:v>
+                  <c:v>0.84731840616688969</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.99996654420133968</c:v>
+                  <c:v>0.85314094362410409</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.99997977128828142</c:v>
+                  <c:v>0.85881263583487111</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.99998793007523878</c:v>
+                  <c:v>0.86433393905361733</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.99999289328717444</c:v>
+                  <c:v>0.86970548286319116</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.99999587095251719</c:v>
+                  <c:v>0.87492806436284987</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.99999763278569898</c:v>
+                  <c:v>0.88000264210098744</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.99999866087185763</c:v>
+                  <c:v>0.88493032977829178</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.99999925252893296</c:v>
+                  <c:v>0.88971238974714872</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.99999958833337033</c:v>
+                  <c:v>0.89435022633314476</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.99999977629907244</c:v>
+                  <c:v>0.89884537900441408</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.99999988006304719</c:v>
+                  <c:v>0.9031995154143897</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.99999993655549446</c:v>
+                  <c:v>0.90741442434320507</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.99999996688811787</c:v>
+                  <c:v>0.91149200856259793</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.99999998295032966</c:v>
+                  <c:v>0.91543427764866436</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.99999999133867901</c:v>
+                  <c:v>0.91924334076622882</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.99999999565907394</c:v>
+                  <c:v>0.92292139944792806</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99999999785362736</c:v>
+                  <c:v>0.9264707403903516</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.99999999895299929</c:v>
+                  <c:v>0.9298937282887767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,8 +4192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F0A76B-08E5-40E0-BCFA-A9D795A3DB2C}">
   <dimension ref="B1:L103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4205,12 +4207,12 @@
   <sheetData>
     <row r="1" spans="2:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I1" s="3">
-        <f>1-SUM(pdf)*D17</f>
-        <v>5.4997005830159651E-4</v>
+        <f>1-SUM(pdf)*D19</f>
+        <v>0.98968046230571172</v>
       </c>
       <c r="K1" s="3">
-        <f>1-SUM(npdf)*D17</f>
-        <v>3.0788288585270607E-9</v>
+        <f>1-SUM(npdf)*D19</f>
+        <v>0.2181814449184053</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
@@ -4238,81 +4240,81 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H3" cm="1">
-        <f t="array" ref="H3:H103">_xlfn.SEQUENCE(1+(C17-B17)/D17,1,B17,D17)</f>
+        <f t="array" ref="H3:H103">_xlfn.SEQUENCE(1+(C19-B19)/D19,1,B19,D19)</f>
         <v>-5</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3:I103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Johnson,_xlpm.x,s)))</f>
-        <v>4.5399836433269091E-4</v>
+        <v>8.1325471509349561E-5</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3:J103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Johnson,_xlpm.x,s)))</f>
-        <v>4.2047300610986715E-4</v>
+        <v>3.3409809180207084E-4</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3:K103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Normal,_xlpm.x,s)))</f>
-        <v>2.4129955889966093E-8</v>
+        <v>5.8980677169218135E-2</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3:L103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Normal,_xlpm.x,s)))</f>
-        <v>3.437040041465167E-9</v>
+        <v>0.15268159383311036</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>-4.9000000000000004</v>
       </c>
       <c r="I4">
-        <v>5.1211821774760813E-4</v>
+        <v>8.3747258629299302E-5</v>
       </c>
       <c r="J4">
-        <v>4.6871468417442053E-4</v>
+        <v>3.4235103248658749E-4</v>
       </c>
       <c r="K4">
-        <v>4.7431684654640798E-8</v>
+        <v>6.0492681129785834E-2</v>
       </c>
       <c r="L4">
-        <v>6.8888383886189786E-9</v>
+        <v>0.15865525393145713</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-0.1</v>
       </c>
       <c r="H5">
         <v>-4.8000000000000007</v>
       </c>
       <c r="I5">
-        <v>5.7852629168763541E-4</v>
+        <v>8.6254232474303633E-5</v>
       </c>
       <c r="J5">
-        <v>5.2317271261348441E-4</v>
+        <v>3.5085038291449155E-4</v>
       </c>
       <c r="K5">
-        <v>9.1949531688809475E-8</v>
+        <v>6.2004681152684267E-2</v>
       </c>
       <c r="L5">
-        <v>1.3621834660249021E-8</v>
+        <v>0.16478012998031044</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4321,275 +4323,278 @@
         <v>-4.7000000000000011</v>
       </c>
       <c r="I6">
-        <v>6.5452935795671087E-4</v>
+        <v>8.8849868006336312E-5</v>
       </c>
       <c r="J6">
-        <v>5.8473952524562556E-4</v>
+        <v>3.5960483419117395E-4</v>
       </c>
       <c r="K6">
-        <v>1.7579213595838451E-7</v>
+        <v>6.3514764117297243E-2</v>
       </c>
       <c r="L6">
-        <v>2.6574140887802855E-8</v>
+        <v>0.17105612630848172</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" cm="1">
-        <f t="array" ref="C7">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>2046863984336</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="H7">
         <v>-4.6000000000000014</v>
       </c>
       <c r="I7">
-        <v>7.4166034456623633E-4</v>
+        <v>9.1537802129834696E-5</v>
       </c>
       <c r="J7">
-        <v>6.5444921734547634E-4</v>
+        <v>3.6862343294619127E-4</v>
       </c>
       <c r="K7">
-        <v>3.3145022194775128E-7</v>
+        <v>6.50209733424989E-2</v>
       </c>
       <c r="L7">
-        <v>5.1147335033974173E-8</v>
+        <v>0.1774829537232322</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>8</v>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
       </c>
       <c r="H8">
         <v>-4.5000000000000018</v>
       </c>
       <c r="I8">
-        <v>8.4172099301256791E-4</v>
+        <v>9.4321842207431393E-5</v>
       </c>
       <c r="J8">
-        <v>7.3350222853063585E-4</v>
+        <v>3.7791559794958518E-4</v>
       </c>
       <c r="K8">
-        <v>6.1631982102863674E-7</v>
+        <v>6.6521312474688676E-2</v>
       </c>
       <c r="L8">
-        <v>9.7125529341379746E-8</v>
+        <v>0.18406012534675942</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" cm="1">
-        <f t="array" ref="C9">_xll.JOHNSON.MOMENT(Johnson,B9)</f>
-        <v>-0.18331827652210433</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" cm="1">
+        <f t="array" ref="C9">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
+        <v>2540972209616</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="H9">
         <v>-4.4000000000000021</v>
       </c>
       <c r="I9">
-        <v>9.5683322055249427E-4</v>
+        <v>9.7205975075748729E-5</v>
       </c>
       <c r="J9">
-        <v>8.2329471234382501E-4</v>
+        <v>3.8749113760405685E-4</v>
       </c>
       <c r="K9">
-        <v>1.1302197849724961E-6</v>
+        <v>6.8013749594635853E-2</v>
       </c>
       <c r="L9">
-        <v>1.8196891743427202E-7</v>
+        <v>0.19078695285251052</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" cm="1">
-        <f t="array" ref="C10">_xll.JOHNSON.MOMENT(Johnson,B10)</f>
-        <v>0.753703187708885</v>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H10">
         <v>-4.3000000000000025</v>
       </c>
       <c r="I10">
-        <v>1.0895010941344631E-3</v>
+        <v>1.0019437659376204E-4</v>
       </c>
       <c r="J10">
-        <v>9.2545355505402327E-4</v>
+        <v>3.9736026836517668E-4</v>
       </c>
       <c r="K10">
-        <v>2.0440364018191555E-6</v>
+        <v>6.9496221532749078E-2</v>
       </c>
       <c r="L10">
-        <v>3.3637339674763567E-7</v>
+        <v>0.19766254312269227</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.JOHNSON.MOMENT(Johnson,B11)</f>
-        <v>-0.53104345500307115</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>-4.2000000000000028</v>
       </c>
       <c r="I11">
-        <v>1.2426857667214234E-3</v>
+        <v>1.0329142175855919E-4</v>
       </c>
       <c r="J11">
-        <v>1.0418782182627373E-3</v>
+        <v>4.0753363414458565E-4</v>
       </c>
       <c r="K11">
-        <v>3.6457198742106871E-6</v>
+        <v>7.0966638381221789E-2</v>
       </c>
       <c r="L11">
-        <v>6.1349960017720306E-7</v>
+        <v>0.20468579534725251</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.JOHNSON.MOMENT(Johnson,B12)</f>
-        <v>3.8482088381788087</v>
+        <v>103.19452804946532</v>
       </c>
       <c r="H12">
         <v>-4.1000000000000032</v>
       </c>
       <c r="I12">
-        <v>1.4198962794959649E-3</v>
+        <v>1.065016954258232E-4</v>
       </c>
       <c r="J12">
-        <v>1.1747908416026576E-3</v>
+        <v>4.1802232675458573E-4</v>
       </c>
       <c r="K12">
-        <v>6.4127884815149315E-6</v>
+        <v>7.2422888190370627E-2</v>
       </c>
       <c r="L12">
-        <v>1.1040358424141417E-6</v>
+        <v>0.21185539858339653</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <f>C9</f>
-        <v>-0.18331827652210433</v>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">_xll.JOHNSON.MOMENT(Johnson,B13)</f>
+        <v>1095.8358414839597</v>
       </c>
       <c r="H13">
         <v>-4.0000000000000036</v>
       </c>
       <c r="I13">
-        <v>1.625299822335634E-3</v>
+        <v>1.0983000367506436E-4</v>
       </c>
       <c r="J13">
-        <v>1.3267963653426085E-3</v>
+        <v>4.2883790745673611E-4</v>
       </c>
       <c r="K13">
-        <v>1.1124473987528957E-5</v>
+        <v>7.3862841835390672E-2</v>
       </c>
       <c r="L13">
-        <v>1.9603643926502379E-6</v>
+        <v>0.21916982979337724</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <f>SQRT(C10-C9^2)</f>
-        <v>0.84858564517781598</v>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">_xll.JOHNSON.MOMENT(Johnson,B14)</f>
+        <v>12286.017050009947</v>
       </c>
       <c r="H14">
         <v>-3.9000000000000035</v>
       </c>
       <c r="I14">
-        <v>1.8638559044121114E-3</v>
+        <v>1.1328138586254344E-4</v>
       </c>
       <c r="J14">
-        <v>1.5009548333401734E-3</v>
+        <v>4.3999242968095764E-4</v>
       </c>
       <c r="K14">
-        <v>1.9031849904549581E-5</v>
+        <v>7.5284358038701038E-2</v>
       </c>
       <c r="L14">
-        <v>3.4346633864257292E-6</v>
+        <v>0.22662735237686799</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" cm="1">
-        <f t="array" ref="C15">_xll.\VARIATE.NORMAL(mu, sigma)</f>
-        <v>2047804073264</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <f>C11</f>
+        <v>10</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="H15">
         <v>-3.8000000000000034</v>
       </c>
       <c r="I15">
-        <v>2.1414799598519774E-3</v>
+        <v>1.1686112740796172E-4</v>
       </c>
       <c r="J15">
-        <v>1.7008685336363238E-3</v>
+        <v>4.5149846298614404E-4</v>
       </c>
       <c r="K15">
-        <v>3.2110825670618461E-5</v>
+        <v>7.6685288532059942E-2</v>
       </c>
       <c r="L15">
-        <v>5.9379267369208399E-6</v>
+        <v>0.23422601521269465</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <f>SQRT(C12-C11^2)</f>
+        <v>1.787324270932759</v>
+      </c>
       <c r="H16">
         <v>-3.7000000000000033</v>
       </c>
       <c r="I16">
-        <v>2.4652432537375711E-3</v>
+        <v>1.2057477336439642E-4</v>
       </c>
       <c r="J16">
-        <v>1.9307872510138657E-3</v>
+        <v>4.6336911833849692E-4</v>
       </c>
       <c r="K16">
-        <v>5.3430703369420841E-5</v>
+        <v>7.8063483341690262E-2</v>
       </c>
       <c r="L16">
-        <v>1.0129753677645681E-5</v>
+        <v>0.24196365222307276</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>-5</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" cm="1">
+        <f t="array" ref="C17">_xll.\VARIATE.NORMAL(mu, sigma)</f>
+        <v>2541180997344</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="H17">
         <v>-3.6000000000000032</v>
       </c>
       <c r="I17">
-        <v>2.843617627810908E-3</v>
+        <v>1.2442814282461969E-4</v>
       </c>
       <c r="J17">
-        <v>2.1957356729779831E-3</v>
+        <v>4.7561807478779805E-4</v>
       </c>
       <c r="K17">
-        <v>8.7679741268153059E-5</v>
+        <v>7.9416796178787011E-2</v>
       </c>
       <c r="L17">
-        <v>1.7052461216082726E-5</v>
+        <v>0.24983788247177674</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
@@ -4597,33 +4602,42 @@
         <v>-3.5000000000000031</v>
       </c>
       <c r="I18">
-        <v>3.2867757148734374E-3</v>
+        <v>1.284273442209066E-4</v>
       </c>
       <c r="J18">
-        <v>2.5016679451859702E-3</v>
+        <v>4.8825960762854947E-4</v>
       </c>
       <c r="K18">
-        <v>1.4189809909383787E-4</v>
+        <v>8.0743089916978511E-2</v>
       </c>
       <c r="L18">
-        <v>2.8327666707850252E-5</v>
+        <v>0.2578461108058645</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>-5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
       <c r="H19">
         <v>-3.400000000000003</v>
       </c>
       <c r="I19">
-        <v>3.8069598556386285E-3</v>
+        <v>1.3257879157972124E-4</v>
       </c>
       <c r="J19">
-        <v>2.8556555607303635E-3</v>
+        <v>5.0130861813879601E-4</v>
       </c>
       <c r="K19">
-        <v>2.2647634381399296E-4</v>
+        <v>8.2040242137593714E-2</v>
       </c>
       <c r="L19">
-        <v>4.6438932026160451E-5</v>
+        <v>0.26598552904870032</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
@@ -4631,16 +4645,16 @@
         <v>-3.3000000000000029</v>
       </c>
       <c r="I20">
-        <v>4.418936191114802E-3</v>
+        <v>1.368892217973088E-4</v>
       </c>
       <c r="J20">
-        <v>3.266116247183648E-3</v>
+        <v>5.1478066499416331E-4</v>
       </c>
       <c r="K20">
-        <v>3.5648237506747424E-4</v>
+        <v>8.3306150722949876E-2</v>
       </c>
       <c r="L20">
-        <v>7.5130149028268534E-5</v>
+        <v>0.27425311775007333</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
@@ -4649,30 +4663,30 @@
       </c>
       <c r="C21">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.71470218777855732</v>
-      </c>
-      <c r="E21">
+        <v>0.79626444700830856</v>
+      </c>
+      <c r="E21" t="e">
         <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(Z)</f>
-        <v>0</v>
-      </c>
-      <c r="F21">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" t="e">
         <f ca="1"/>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="H21">
         <v>-3.2000000000000028</v>
       </c>
       <c r="I21">
-        <v>5.1405544175295729E-3</v>
+        <v>1.4136571300723934E-4</v>
       </c>
       <c r="J21">
-        <v>3.7430933562233037E-3</v>
+        <v>5.2869199746397033E-4</v>
       </c>
       <c r="K21">
-        <v>5.5337843369258552E-4</v>
+        <v>8.4538739477327804E-2</v>
       </c>
       <c r="L21">
-        <v>1.199556345671815E-4</v>
+        <v>0.28264564849720042</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
@@ -4681,30 +4695,30 @@
       </c>
       <c r="C22">
         <f ca="1">(Z-gamma)/delta</f>
-        <v>-0.54313479185237157</v>
-      </c>
-      <c r="E22">
+        <v>0.79626444700830856</v>
+      </c>
+      <c r="E22" t="e">
         <f t="array" aca="1" ref="E22:F22" ca="1">_xll.MONTE.STDEV(C22)</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" t="e">
         <f ca="1"/>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="H22">
         <v>-3.1000000000000028</v>
       </c>
       <c r="I22">
-        <v>5.9934386381301956E-3</v>
+        <v>1.4601570411638913E-4</v>
       </c>
       <c r="J22">
-        <v>4.2985975482454086E-3</v>
+        <v>5.4305959050177099E-4</v>
       </c>
       <c r="K22">
-        <v>8.4717932134422715E-4</v>
+        <v>8.5735963754845934E-2</v>
       </c>
       <c r="L22">
-        <v>1.8902363669015543E-4</v>
+        <v>0.29115968678834614</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
@@ -4713,30 +4727,30 @@
       </c>
       <c r="C23">
         <f ca="1">SINH(C22)</f>
-        <v>-0.57023515432115079</v>
-      </c>
-      <c r="E23">
+        <v>0.88311610793408302</v>
+      </c>
+      <c r="E23" t="e">
         <f t="array" aca="1" ref="E23:F23" ca="1">_xll.MONTE.STDEV(C23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
+        <v>#NAME?</v>
+      </c>
+      <c r="F23" t="e">
         <f ca="1"/>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="H23">
         <v>-3.0000000000000027</v>
       </c>
       <c r="I23">
-        <v>7.0038407971688699E-3</v>
+        <v>1.5084701559173164E-4</v>
       </c>
       <c r="J23">
-        <v>4.9470254004463921E-3</v>
+        <v>5.5790118185111703E-4</v>
       </c>
       <c r="K23">
-        <v>1.2790791308723813E-3</v>
+        <v>8.6895816073086982E-2</v>
       </c>
       <c r="L23">
-        <v>2.9397900284716671E-4</v>
+        <v>0.29979159546869572</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
@@ -4745,38 +4759,38 @@
       </c>
       <c r="C24">
         <f ca="1">POWER($C$23,B24)</f>
-        <v>-0.57023515432115079</v>
+        <v>0.88311610793408302</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.JOHNSON.Esinh_k(Johnson,B24)</f>
-        <v>-8.3318276522104329E-2</v>
-      </c>
-      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="e">
         <f t="array" aca="1" ref="E24:F24" ca="1">_xll.MONTE.STDEV(C24)</f>
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <v>#NAME?</v>
+      </c>
+      <c r="F24" t="e">
         <f ca="1"/>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G24" t="e">
         <f ca="1">(D24-E24)/F24</f>
-        <v>#DIV/0!</v>
+        <v>#NAME?</v>
       </c>
       <c r="H24">
         <v>-2.9000000000000026</v>
       </c>
       <c r="I24">
-        <v>8.2036955008012603E-3</v>
+        <v>1.5586787158670251E-4</v>
       </c>
       <c r="J24">
-        <v>5.7056730701632308E-3</v>
+        <v>5.7323531129627181E-4</v>
       </c>
       <c r="K24">
-        <v>1.9045326811821897E-3</v>
+        <v>8.8016331691074839E-2</v>
       </c>
       <c r="L24">
-        <v>4.5127159502306169E-4</v>
+        <v>0.30853753872598666</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
@@ -4785,38 +4799,38 @@
       </c>
       <c r="C25">
         <f ca="1">POWER($C$23,B25)</f>
-        <v>0.32516813122366667</v>
+        <v>0.77989406009264295</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" ref="D25">_xll.JOHNSON.Esinh_k(Johnson,B25)</f>
-        <v>0.72703953240446417</v>
-      </c>
-      <c r="E25">
+        <v>3.1945280494653252</v>
+      </c>
+      <c r="E25" t="e">
         <f t="array" aca="1" ref="E25:F25" ca="1">_xll.MONTE.STDEV(C25)</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
+        <v>#NAME?</v>
+      </c>
+      <c r="F25" t="e">
         <f ca="1"/>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G25" t="e">
         <f ca="1">(D25-E25)/F25</f>
-        <v>#DIV/0!</v>
+        <v>#NAME?</v>
       </c>
       <c r="H25">
         <v>-2.8000000000000025</v>
       </c>
       <c r="I25">
-        <v>9.6319237426882517E-3</v>
+        <v>1.6108692350282403E-4</v>
       </c>
       <c r="J25">
-        <v>6.5953674494610981E-3</v>
+        <v>5.8908136219676388E-4</v>
       </c>
       <c r="K25">
-        <v>2.7967161827415145E-3</v>
+        <v>8.909559413004578E-2</v>
       </c>
       <c r="L25">
-        <v>6.837527541089794E-4</v>
+        <v>0.31739348664125883</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
@@ -4825,38 +4839,38 @@
       </c>
       <c r="C26">
         <f ca="1">POWER($C$23,B26)</f>
-        <v>-0.18542229948864777</v>
+        <v>0.68873700694992468</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.JOHNSON.Esinh_k(Johnson,B26)</f>
-        <v>-0.30943204698606874</v>
-      </c>
-      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="e">
         <f t="array" aca="1" ref="E26:F26" ca="1">_xll.MONTE.STDEV(C26)</f>
-        <v>0</v>
-      </c>
-      <c r="F26">
+        <v>#NAME?</v>
+      </c>
+      <c r="F26" t="e">
         <f ca="1"/>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G26" t="e">
         <f ca="1">(D26-E26)/F26</f>
-        <v>#DIV/0!</v>
+        <v>#NAME?</v>
       </c>
       <c r="H26">
         <v>-2.7000000000000024</v>
       </c>
       <c r="I26">
-        <v>1.1336043180833468E-2</v>
+        <v>1.6651327508980198E-4</v>
       </c>
       <c r="J26">
-        <v>7.6412424937365997E-3</v>
+        <v>6.0545960545377309E-4</v>
       </c>
       <c r="K26">
-        <v>4.0502078501963232E-3</v>
+        <v>9.0131740615411945E-2</v>
       </c>
       <c r="L26">
-        <v>1.0226305623681764E-3</v>
+        <v>0.32635522028791986</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
@@ -4865,38 +4879,38 @@
       </c>
       <c r="C27">
         <f ca="1">POWER($C$23,B27)</f>
-        <v>0.10573431356349171</v>
+        <v>0.60823474496778696</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.JOHNSON.Esinh_k(Johnson,B27)</f>
-        <v>3.6803803743340247</v>
-      </c>
-      <c r="E27">
+        <v>369.30022033075073</v>
+      </c>
+      <c r="E27" t="e">
         <f t="array" aca="1" ref="E27:F27" ca="1">_xll.MONTE.STDEV(C27)</f>
-        <v>0</v>
-      </c>
-      <c r="F27">
+        <v>#NAME?</v>
+      </c>
+      <c r="F27" t="e">
         <f ca="1"/>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G27" t="e">
         <f ca="1">(D27-E27)/F27</f>
-        <v>#DIV/0!</v>
+        <v>#NAME?</v>
       </c>
       <c r="H27">
         <v>-2.6000000000000023</v>
       </c>
       <c r="I27">
-        <v>1.3374153962431681E-2</v>
+        <v>1.721565091954598E-4</v>
       </c>
       <c r="J27">
-        <v>8.8736947307866409E-3</v>
+        <v>6.2239124606822127E-4</v>
       </c>
       <c r="K27">
-        <v>5.7846245512400349E-3</v>
+        <v>9.1122967418376583E-2</v>
       </c>
       <c r="L27">
-        <v>1.5097936510474752E-3</v>
+        <v>0.33541833737016929</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
@@ -4904,16 +4918,16 @@
         <v>-2.5000000000000022</v>
       </c>
       <c r="I28">
-        <v>1.5817381060070058E-2</v>
+        <v>1.7802671628575889E-4</v>
       </c>
       <c r="J28">
-        <v>1.0329559453804926E-2</v>
+        <v>6.3989847246143094E-4</v>
       </c>
       <c r="K28">
-        <v>8.1478306098394133E-3</v>
+        <v>9.2067535075830792E-2</v>
       </c>
       <c r="L28">
-        <v>2.200481002527066E-3</v>
+        <v>0.34457825838967565</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
@@ -4922,38 +4936,38 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
-        <v>-0.67023515432115066</v>
+        <v>10.883116107934082</v>
       </c>
       <c r="D29">
         <f>mu</f>
-        <v>-0.18331827652210433</v>
+        <v>-1</v>
       </c>
       <c r="E29" t="e">
         <f t="array" aca="1" ref="E29:F29" ca="1">_xll.MONTE.STDEV(C29)</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="F29" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="G29" t="e">
         <f ca="1">(D29-E29)/F29</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="H29">
         <v>-2.4000000000000021</v>
       </c>
       <c r="I29">
-        <v>1.8752865321856195E-2</v>
+        <v>1.8413452486478035E-4</v>
       </c>
       <c r="J29">
-        <v>1.2053557774557189E-2</v>
+        <v>6.5800450874142768E-4</v>
       </c>
       <c r="K29">
-        <v>1.1318210229330824E-2</v>
+        <v>9.2963773467442182E-2</v>
       </c>
       <c r="L29">
-        <v>3.1662305551806158E-3</v>
+        <v>0.35383023332727603</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
@@ -4961,16 +4975,16 @@
         <v>-2.300000000000002</v>
       </c>
       <c r="I30">
-        <v>2.2287403328615518E-2</v>
+        <v>1.9049113393504295E-4</v>
       </c>
       <c r="J30">
-        <v>1.4100074371410087E-2</v>
+        <v>6.7673367011206187E-4</v>
       </c>
       <c r="K30">
-        <v>1.5505382026789284E-2</v>
+        <v>9.3810086729234451E-2</v>
       </c>
       <c r="L30">
-        <v>4.4979827366486425E-3</v>
+        <v>0.36316934882438068</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
@@ -4978,16 +4992,16 @@
         <v>-2.200000000000002</v>
       </c>
       <c r="I31">
-        <v>2.6551835924275985E-2</v>
+        <v>1.9710834764993337E-4</v>
       </c>
       <c r="J31">
-        <v>1.6535335860321854E-2</v>
+        <v>6.9611142163672479E-4</v>
       </c>
       <c r="K31">
-        <v>2.0948654554711729E-2</v>
+        <v>9.4604957983454835E-2</v>
       </c>
       <c r="L31">
-        <v>6.3091485395969649E-3</v>
+        <v>0.37259053584671581</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
@@ -4995,16 +5009,16 @@
         <v>-2.1000000000000019</v>
       </c>
       <c r="I32">
-        <v>3.1706268651791748E-2</v>
+        <v>2.0399861232245941E-4</v>
       </c>
       <c r="J32">
-        <v>1.9440069055922549E-2</v>
+        <v>7.1616444058353323E-4</v>
       </c>
       <c r="K32">
-        <v>2.7912500845991409E-2</v>
+        <v>9.5346953865130993E-2</v>
       </c>
       <c r="L32">
-        <v>8.738379999018886E-3</v>
+        <v>0.38208857781104716</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.35">
@@ -5012,16 +5026,16 @@
         <v>-2.0000000000000018</v>
       </c>
       <c r="I33">
-        <v>3.7946160369435343E-2</v>
+        <v>2.1117505596806582E-4</v>
       </c>
       <c r="J33">
-        <v>2.2912724696017739E-2</v>
+        <v>7.3692068259628707E-4</v>
       </c>
       <c r="K33">
-        <v>3.667839412995362E-2</v>
+        <v>9.6034728826426163E-2</v>
       </c>
       <c r="L33">
-        <v>1.1951711127894171E-2</v>
+        <v>0.39165811915360504</v>
       </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.35">
@@ -5029,16 +5043,16 @@
         <v>-1.9000000000000017</v>
       </c>
       <c r="I34">
-        <v>4.5509216377232126E-2</v>
+        <v>2.1865153057401952E-4</v>
       </c>
       <c r="J34">
-        <v>2.7073351399755086E-2</v>
+        <v>7.5840945195493337E-4</v>
       </c>
       <c r="K34">
-        <v>4.7532518548608807E-2</v>
+        <v>9.6667029200712296E-2</v>
       </c>
       <c r="L34">
-        <v>1.6143679195266492E-2</v>
+        <v>0.40129367431707608</v>
       </c>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.35">
@@ -5046,16 +5060,16 @@
         <v>-1.8000000000000016</v>
       </c>
       <c r="I35">
-        <v>5.4682833672723648E-2</v>
+        <v>2.2644265730395862E-4</v>
       </c>
       <c r="J35">
-        <v>3.2068189760577293E-2</v>
+        <v>7.8066147620731163E-4</v>
       </c>
       <c r="K35">
-        <v>6.0749161720556701E-2</v>
+        <v>9.7242697009187348E-2</v>
       </c>
       <c r="L35">
-        <v>2.1537001230033159E-2</v>
+        <v>0.41098963713127024</v>
       </c>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.35">
@@ -5063,16 +5077,16 @@
         <v>-1.7000000000000015</v>
       </c>
       <c r="I36">
-        <v>6.5811514016871256E-2</v>
+        <v>2.3456387486377482E-4</v>
       </c>
       <c r="J36">
-        <v>3.8075016121317418E-2</v>
+        <v>8.0370898547799108E-4</v>
       </c>
       <c r="K36">
-        <v>7.6570009734742317E-2</v>
+        <v>9.7760673493863956E-2</v>
       </c>
       <c r="L36">
-        <v>2.8380381049400383E-2</v>
+        <v>0.42074029056089679</v>
       </c>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.35">
@@ -5080,16 +5094,16 @@
         <v>-1.6000000000000014</v>
       </c>
       <c r="I37">
-        <v>7.9303106330023757E-2</v>
+        <v>2.4303149127418637E-4</v>
       </c>
       <c r="J37">
-        <v>4.5309181693160505E-2</v>
+        <v>8.2758579678143818E-4</v>
       </c>
       <c r="K37">
-        <v>9.518007986163346E-2</v>
+        <v>9.8220002361844805E-2</v>
       </c>
       <c r="L37">
-        <v>3.6944069202113072E-2</v>
+        <v>0.43053981679232617</v>
       </c>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.35">
@@ -5097,16 +5111,16 @@
         <v>-1.5000000000000013</v>
       </c>
       <c r="I38">
-        <v>9.5631856999947168E-2</v>
+        <v>2.5186273931632137E-4</v>
       </c>
       <c r="J38">
-        <v>5.4030137936078082E-2</v>
+        <v>8.5232740369423077E-4</v>
       </c>
       <c r="K38">
-        <v>0.11668160036602157</v>
+        <v>9.8619832726972223E-2</v>
       </c>
       <c r="L38">
-        <v>4.7512900186882034E-2</v>
+        <v>0.44038230762975733</v>
       </c>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.35">
@@ -5114,16 +5128,16 @@
         <v>-1.4000000000000012</v>
       </c>
       <c r="I39">
-        <v>0.11533490846887444</v>
+        <v>2.6107583593956138E-4</v>
       </c>
       <c r="J39">
-        <v>6.4547974393468432E-2</v>
+        <v>8.7797107176706968E-4</v>
       </c>
       <c r="K39">
-        <v>0.14106771739328908</v>
+        <v>9.8959421736187367E-2</v>
       </c>
       <c r="L39">
-        <v>6.0376691115162584E-2</v>
+        <v>0.45026177516988697</v>
       </c>
     </row>
     <row r="40" spans="8:12" x14ac:dyDescent="0.35">
@@ -5131,16 +5145,16 @@
         <v>-1.3000000000000012</v>
       </c>
       <c r="I40">
-        <v>0.13899698174264619</v>
+        <v>2.7069004594597394E-4</v>
       </c>
       <c r="J40">
-        <v>7.7229068980227855E-2</v>
+        <v>9.0455594008875817E-4</v>
       </c>
       <c r="K40">
-        <v>0.16819839635435682</v>
+        <v>9.9238136869252938E-2</v>
       </c>
       <c r="L40">
-        <v>7.5818099411116724E-2</v>
+        <v>0.4601721627229709</v>
       </c>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.35">
@@ -5148,16 +5162,16 @@
         <v>-1.2000000000000011</v>
       </c>
       <c r="I41">
-        <v>0.16721550635297847</v>
+        <v>2.8072575029314045E-4</v>
       </c>
       <c r="J41">
-        <v>9.2499304803588034E-2</v>
+        <v>9.3212312944673803E-4</v>
       </c>
       <c r="K41">
-        <v>0.19778120212145192</v>
+        <v>9.9455457901874281E-2</v>
       </c>
       <c r="L41">
-        <v>9.4098291512360543E-2</v>
+        <v>0.47010735594710512</v>
       </c>
     </row>
     <row r="42" spans="8:12" x14ac:dyDescent="0.35">
@@ -5165,16 +5179,16 @@
         <v>-1.100000000000001</v>
       </c>
       <c r="I42">
-        <v>0.20053573830560054</v>
+        <v>2.9120451938725427E-4</v>
       </c>
       <c r="J42">
-        <v>0.11084239711217125</v>
+        <v>9.6071585756402067E-4</v>
       </c>
       <c r="K42">
-        <v>0.2293597060532393</v>
+        <v>9.9610978523690982E-2</v>
       </c>
       <c r="L42">
-        <v>0.11544104856560938</v>
+        <v>0.4800611941616274</v>
       </c>
     </row>
     <row r="43" spans="8:12" x14ac:dyDescent="0.35">
@@ -5182,16 +5196,16 @@
         <v>-1.0000000000000009</v>
       </c>
       <c r="I43">
-        <v>0.23934344697746879</v>
+        <v>3.0214919177136917E-4</v>
       </c>
       <c r="J43">
-        <v>0.1327897166111156</v>
+        <v>9.9037956193170906E-4</v>
       </c>
       <c r="K43">
-        <v>0.26231201537401122</v>
+        <v>9.9704407604095449E-2</v>
       </c>
       <c r="L43">
-        <v>0.1400162001061811</v>
+        <v>0.49002748180476186</v>
       </c>
     </row>
     <row r="44" spans="8:12" x14ac:dyDescent="0.35">
@@ -5199,16 +5213,16 @@
         <v>-0.90000000000000091</v>
       </c>
       <c r="I44">
-        <v>0.28370383266135807</v>
+        <v>3.1358395864985425E-4</v>
       </c>
       <c r="J44">
-        <v>0.15889676819044174</v>
+        <v>1.0211620307984393E-3</v>
       </c>
       <c r="K44">
-        <v>0.29586132286154604</v>
+        <v>9.9735570100358162E-2</v>
       </c>
       <c r="L44">
-        <v>0.1679234992663976</v>
+        <v>0.49999999999999989</v>
       </c>
     </row>
     <row r="45" spans="8:12" x14ac:dyDescent="0.35">
@@ -5216,16 +5230,16 @@
         <v>-0.80000000000000093</v>
       </c>
       <c r="I45">
-        <v>0.33314353279466052</v>
+        <v>3.2553445472984291E-4</v>
       </c>
       <c r="J45">
-        <v>0.18970067882141106</v>
+        <v>1.0531135429236449E-3</v>
       </c>
       <c r="K45">
-        <v>0.32909944888366083</v>
+        <v>9.9704407604095449E-2</v>
       </c>
       <c r="L45">
-        <v>0.19917819908999618</v>
+        <v>0.50997251819523792</v>
       </c>
     </row>
     <row r="46" spans="8:12" x14ac:dyDescent="0.35">
@@ -5233,16 +5247,16 @@
         <v>-0.70000000000000095</v>
       </c>
       <c r="I46">
-        <v>0.38639348936483231</v>
+        <v>3.3802785590409312E-4</v>
       </c>
       <c r="J46">
-        <v>0.22565364994386311</v>
+        <v>1.0862870167527294E-3</v>
       </c>
       <c r="K46">
-        <v>0.361023161474819</v>
+        <v>9.9610978523690996E-2</v>
       </c>
       <c r="L46">
-        <v>0.23369962916910997</v>
+        <v>0.51993880583837238</v>
       </c>
     </row>
     <row r="47" spans="8:12" x14ac:dyDescent="0.35">
@@ -5250,16 +5264,16 @@
         <v>-0.60000000000000098</v>
       </c>
       <c r="I47">
-        <v>0.44114844502398848</v>
+        <v>3.5109298434767423E-4</v>
       </c>
       <c r="J47">
-        <v>0.26703086079299182</v>
+        <v>1.1207381697263541E-3</v>
       </c>
       <c r="K47">
-        <v>0.39058173000049884</v>
+        <v>9.9455457901874281E-2</v>
       </c>
       <c r="L47">
-        <v>0.27130398448337512</v>
+        <v>0.52989264405289471</v>
       </c>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.35">
@@ -5267,16 +5281,16 @@
         <v>-0.500000000000001</v>
       </c>
       <c r="I48">
-        <v>0.49394968253813593</v>
+        <v>3.6476042165363838E-4</v>
       </c>
       <c r="J48">
-        <v>0.31381938239430635</v>
+        <v>1.1565256884952801E-3</v>
       </c>
       <c r="K48">
-        <v>0.41673284805446192</v>
+        <v>9.9238136869252938E-2</v>
       </c>
       <c r="L48">
-        <v>0.31170231708788843</v>
+        <v>0.53982783727702888</v>
       </c>
     </row>
     <row r="49" spans="8:12" x14ac:dyDescent="0.35">
@@ -5284,16 +5298,16 @@
         <v>-0.40000000000000102</v>
       </c>
       <c r="I49">
-        <v>0.54033731014439135</v>
+        <v>3.790626306909701E-4</v>
       </c>
       <c r="J49">
-        <v>0.36560757076051598</v>
+        <v>1.1937114108799274E-3</v>
       </c>
       <c r="K49">
-        <v>0.43850292359506593</v>
+        <v>9.8959421736187367E-2</v>
       </c>
       <c r="L49">
-        <v>0.35450437574156468</v>
+        <v>0.54973822483011281</v>
       </c>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.35">
@@ -5301,16 +5315,16 @@
         <v>-0.30000000000000104</v>
       </c>
       <c r="I50">
-        <v>0.57539832144528535</v>
+        <v>3.9403408693210326E-4</v>
       </c>
       <c r="J50">
-        <v>0.42150877521786989</v>
+        <v>1.2323605204815347E-3</v>
       </c>
       <c r="K50">
-        <v>0.45504694401087509</v>
+        <v>9.8619832726972223E-2</v>
       </c>
       <c r="L50">
-        <v>0.39922849533890892</v>
+        <v>0.55961769237024239</v>
       </c>
     </row>
     <row r="51" spans="8:12" x14ac:dyDescent="0.35">
@@ -5318,16 +5332,16 @@
         <v>-0.20000000000000104</v>
       </c>
       <c r="I51">
-        <v>0.59470715122605933</v>
+        <v>4.0971142006786758E-4</v>
       </c>
       <c r="J51">
-        <v>0.48016036015686281</v>
+        <v>1.2725417549344087E-3</v>
       </c>
       <c r="K51">
-        <v>0.46570281238686317</v>
+        <v>9.8220002361844805E-2</v>
       </c>
       <c r="L51">
-        <v>0.4453172388022601</v>
+        <v>0.56946018320767355</v>
       </c>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.35">
@@ -5335,16 +5349,16 @@
         <v>-0.10000000000000103</v>
       </c>
       <c r="I52">
-        <v>0.59542882121551766</v>
+        <v>4.2613356680561013E-4</v>
       </c>
       <c r="J52">
-        <v>0.53982783727702832</v>
+        <v>1.3143276288702377E-3</v>
       </c>
       <c r="K52">
-        <v>0.47003529342785944</v>
+        <v>9.7760673493863956E-2</v>
       </c>
       <c r="L52">
-        <v>0.49215799108738634</v>
+        <v>0.57925970943910288</v>
       </c>
     </row>
     <row r="53" spans="8:12" x14ac:dyDescent="0.35">
@@ -5352,16 +5366,16 @@
         <v>-1.0269562977782698E-15</v>
       </c>
       <c r="I53">
-        <v>0.57715962684987532</v>
+        <v>4.4334193583221102E-4</v>
       </c>
       <c r="J53">
-        <v>0.59861008809060445</v>
+        <v>1.3577946727624246E-3</v>
       </c>
       <c r="K53">
-        <v>0.46786550543392069</v>
+        <v>9.7242697009187362E-2</v>
       </c>
       <c r="L53">
-        <v>0.5391072542633486</v>
+        <v>0.58901036286872954</v>
       </c>
     </row>
     <row r="54" spans="8:12" x14ac:dyDescent="0.35">
@@ -5369,16 +5383,16 @@
         <v>9.9999999999998979E-2</v>
       </c>
       <c r="I54">
-        <v>0.54210271839214386</v>
+        <v>4.6138058601875501E-4</v>
       </c>
       <c r="J54">
-        <v>0.65469786778660533</v>
+        <v>1.4030236889187586E-3</v>
       </c>
       <c r="K54">
-        <v>0.45928317340728742</v>
+        <v>9.6667029200712296E-2</v>
       </c>
       <c r="L54">
-        <v>0.58551704670180216</v>
+        <v>0.5987063256829237</v>
       </c>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.35">
@@ -5386,16 +5400,16 @@
         <v>0.19999999999999898</v>
       </c>
       <c r="I55">
-        <v>0.49447256967407777</v>
+        <v>4.8029641904868324E-4</v>
       </c>
       <c r="J55">
-        <v>0.70661049867299153</v>
+        <v>1.4501000260063734E-3</v>
       </c>
       <c r="K55">
-        <v>0.44464047362342363</v>
+        <v>9.6034728826426205E-2</v>
       </c>
       <c r="L55">
-        <v>0.6307616096276677</v>
+        <v>0.60834188084639473</v>
       </c>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.35">
@@ -5403,16 +5417,16 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="I56">
-        <v>0.43940566781679591</v>
+        <v>5.0013938776761015E-4</v>
       </c>
       <c r="J56">
-        <v>0.75334475505344645</v>
+        <v>1.4991138736132337E-3</v>
       </c>
       <c r="K56">
-        <v>0.42452805815285793</v>
+        <v>9.5346953865131007E-2</v>
       </c>
       <c r="L56">
-        <v>0.67426259492032903</v>
+        <v>0.61791142218895256</v>
       </c>
     </row>
     <row r="57" spans="8:12" x14ac:dyDescent="0.35">
@@ -5420,16 +5434,16 @@
         <v>0.39999999999999902</v>
       </c>
       <c r="I57">
-        <v>0.38184618915061219</v>
+        <v>5.2096272168181709E-4</v>
       </c>
       <c r="J57">
-        <v>0.79440968148262048</v>
+        <v>1.5501605784903338E-3</v>
       </c>
       <c r="K57">
-        <v>0.39973553396848466</v>
+        <v>9.4604957983454849E-2</v>
       </c>
       <c r="L57">
-        <v>0.71551105270225679</v>
+        <v>0.62740946415328391</v>
       </c>
     </row>
     <row r="58" spans="8:12" x14ac:dyDescent="0.35">
@@ -5437,16 +5451,16 @@
         <v>0.499999999999999</v>
       </c>
       <c r="I58">
-        <v>0.32577559423885932</v>
+        <v>5.4282317117530158E-4</v>
       </c>
       <c r="J58">
-        <v>0.82976508640009961</v>
+        <v>1.6033409842656776E-3</v>
       </c>
       <c r="K58">
-        <v>0.37120008122633552</v>
+        <v>9.3810086729234465E-2</v>
       </c>
       <c r="L58">
-        <v>0.75408483827835626</v>
+        <v>0.63683065117561899</v>
       </c>
     </row>
     <row r="59" spans="8:12" x14ac:dyDescent="0.35">
@@ -5454,16 +5468,16 @@
         <v>0.59999999999999898</v>
       </c>
       <c r="I59">
-        <v>0.27390284321552266</v>
+        <v>5.6578127217381724E-4</v>
       </c>
       <c r="J59">
-        <v>0.85970610254397384</v>
+        <v>1.6587617965870827E-3</v>
       </c>
       <c r="K59">
-        <v>0.33994786568104446</v>
+        <v>9.2963773467442223E-2</v>
       </c>
       <c r="L59">
-        <v>0.78966047915550108</v>
+        <v>0.64616976667272374</v>
       </c>
     </row>
     <row r="60" spans="8:12" x14ac:dyDescent="0.35">
@@ -5471,16 +5485,16 @@
         <v>0.69999999999999896</v>
       </c>
       <c r="I60">
-        <v>0.22772309026885401</v>
+        <v>5.8990163316033795E-4</v>
       </c>
       <c r="J60">
-        <v>0.88473649070521498</v>
+        <v>1.7165359758324339E-3</v>
       </c>
       <c r="K60">
-        <v>0.30703333139918837</v>
+        <v>9.2067535075830834E-2</v>
       </c>
       <c r="L60">
-        <v>0.82201903463938053</v>
+        <v>0.65542174161032407</v>
       </c>
     </row>
     <row r="61" spans="8:12" x14ac:dyDescent="0.35">
@@ -5488,16 +5502,16 @@
         <v>0.79999999999999893</v>
       </c>
       <c r="I61">
-        <v>0.18777406465475951</v>
+        <v>6.1525324664212812E-4</v>
       </c>
       <c r="J61">
-        <v>0.90545912867964717</v>
+        <v>1.7767831597259032E-3</v>
       </c>
       <c r="K61">
-        <v>0.27348132826957205</v>
+        <v>9.1122967418376624E-2</v>
       </c>
       <c r="L61">
-        <v>0.8510459871231203</v>
+        <v>0.66458166262983043</v>
       </c>
     </row>
     <row r="62" spans="8:12" x14ac:dyDescent="0.35">
@@ -5505,16 +5519,16 @@
         <v>0.89999999999999891</v>
       </c>
       <c r="I62">
-        <v>0.15394269159729695</v>
+        <v>6.4190982738727758E-4</v>
       </c>
       <c r="J62">
-        <v>0.92249563844821658</v>
+        <v>1.8396301184185337E-3</v>
       </c>
       <c r="K62">
-        <v>0.2402363860289409</v>
+        <v>9.0131740615411987E-2</v>
       </c>
       <c r="L62">
-        <v>0.87672567135600432</v>
+        <v>0.67364477971207992</v>
       </c>
     </row>
     <row r="63" spans="8:12" x14ac:dyDescent="0.35">
@@ -5522,16 +5536,16 @@
         <v>0.99999999999999889</v>
       </c>
       <c r="I63">
-        <v>0.12573535723614146</v>
+        <v>6.6995017999100018E-4</v>
       </c>
       <c r="J63">
-        <v>0.93643532470665591</v>
+        <v>1.9052112448371128E-3</v>
       </c>
       <c r="K63">
-        <v>0.20812240753154615</v>
+        <v>8.9095594130045822E-2</v>
       </c>
       <c r="L63">
-        <v>0.89913112989631394</v>
+        <v>0.6826065133587409</v>
       </c>
     </row>
     <row r="64" spans="8:12" x14ac:dyDescent="0.35">
@@ -5539,16 +5553,16 @@
         <v>1.099999999999999</v>
       </c>
       <c r="I64">
-        <v>0.10247924379988503</v>
+        <v>6.9945859860222055E-4</v>
       </c>
       <c r="J64">
-        <v>0.9478077952472802</v>
+        <v>1.9736690833725423E-3</v>
       </c>
       <c r="K64">
-        <v>0.17781477557172073</v>
+        <v>8.8016331691074867E-2</v>
       </c>
       <c r="L64">
-        <v>0.91841054758371254</v>
+        <v>0.69146246127401301</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.35">
@@ -5556,16 +5570,16 @@
         <v>1.1999999999999991</v>
       </c>
       <c r="I65">
-        <v>8.3454771452459969E-2</v>
+        <v>7.3052530194237528E-4</v>
       </c>
       <c r="J65">
-        <v>0.95707218903654212</v>
+        <v>2.0451549002782343E-3</v>
       </c>
       <c r="K65">
-        <v>0.14982552236305358</v>
+        <v>8.6895816073087023E-2</v>
       </c>
       <c r="L65">
-        <v>0.93477154988264299</v>
+        <v>0.70020840453130395</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.35">
@@ -5573,16 +5587,16 @@
         <v>1.2999999999999992</v>
       </c>
       <c r="I66">
-        <v>6.7973055423371204E-2</v>
+        <v>7.6324690708499672E-4</v>
       </c>
       <c r="J66">
-        <v>0.96461676084963277</v>
+        <v>2.1198292994776269E-3</v>
       </c>
       <c r="K66">
-        <v>0.12450096132240532</v>
+        <v>8.5735963754845962E-2</v>
       </c>
       <c r="L66">
-        <v>0.9484646509808301</v>
+        <v>0.70884031321165353</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.35">
@@ -5590,16 +5604,16 @@
         <v>1.3999999999999992</v>
       </c>
       <c r="I67">
-        <v>5.5414890241784878E-2</v>
+        <v>7.9772694584083915E-4</v>
       </c>
       <c r="J67">
-        <v>0.97076415638537239</v>
+        <v>2.197862887846902E-3</v>
       </c>
       <c r="K67">
-        <v>0.10203015791040425</v>
+        <v>8.4538739477327859E-2</v>
       </c>
       <c r="L67">
-        <v>0.95976702402819636</v>
+        <v>0.71735435150279925</v>
       </c>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.35">
@@ -5607,16 +5621,16 @@
         <v>1.4999999999999993</v>
       </c>
       <c r="I68">
-        <v>4.5245345804669039E-2</v>
+        <v>8.3407642801426054E-4</v>
       </c>
       <c r="J68">
-        <v>0.97577926447744701</v>
+        <v>2.2794369944418302E-3</v>
       </c>
       <c r="K68">
-        <v>8.2461904818584827E-2</v>
+        <v>8.3306150722949904E-2</v>
       </c>
       <c r="L68">
-        <v>0.96896756518996463</v>
+        <v>0.72574688224992634</v>
       </c>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.35">
@@ -5624,16 +5638,16 @@
         <v>1.5999999999999994</v>
       </c>
       <c r="I69">
-        <v>3.7014277081999572E-2</v>
+        <v>8.7241445626796076E-4</v>
       </c>
       <c r="J69">
-        <v>0.97987775432362723</v>
+        <v>2.3647444485889735E-3</v>
       </c>
       <c r="K69">
-        <v>6.5727500316870441E-2</v>
+        <v>8.2040242137593769E-2</v>
       </c>
       <c r="L69">
-        <v>0.97635396851130229</v>
+        <v>0.73401447095129935</v>
       </c>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.35">
@@ -5641,16 +5655,16 @@
         <v>1.6999999999999995</v>
       </c>
       <c r="I70">
-        <v>3.0349578854128156E-2</v>
+        <v>9.128688978616771E-4</v>
       </c>
       <c r="J70">
-        <v>0.98323425636184081</v>
+        <v>2.453990422261354E-3</v>
       </c>
       <c r="K70">
-        <v>5.16665923868425E-2</v>
+        <v>8.0743089916978567E-2</v>
       </c>
       <c r="L70">
-        <v>0.98220225408289652</v>
+        <v>0.74215388919413527</v>
       </c>
     </row>
     <row r="71" spans="8:12" x14ac:dyDescent="0.35">
@@ -5658,16 +5672,16 @@
         <v>1.7999999999999996</v>
       </c>
       <c r="I71">
-        <v>2.4947380161910032E-2</v>
+        <v>9.5557711912347377E-4</v>
       </c>
       <c r="J71">
-        <v>0.98598968932458764</v>
+        <v>2.547393342712756E-3</v>
       </c>
       <c r="K71">
-        <v>4.0053592212178295E-2</v>
+        <v>7.9416796178787052E-2</v>
       </c>
       <c r="L71">
-        <v>0.9867689282952028</v>
+        <v>0.75016211752822293</v>
       </c>
     </row>
     <row r="72" spans="8:12" x14ac:dyDescent="0.35">
@@ -5675,16 +5689,16 @@
         <v>1.8999999999999997</v>
       </c>
       <c r="I72">
-        <v>2.0561569352483568E-2</v>
+        <v>1.0006867891784866E-3</v>
       </c>
       <c r="J72">
-        <v>0.98825755897140199</v>
+        <v>2.6451858819647178E-3</v>
       </c>
       <c r="K72">
-        <v>3.0622600914242487E-2</v>
+        <v>7.8063483341690304E-2</v>
       </c>
       <c r="L72">
-        <v>0.9902857260411948</v>
+        <v>0.75803634777692697</v>
       </c>
     </row>
     <row r="73" spans="8:12" x14ac:dyDescent="0.35">
@@ -5692,16 +5706,16 @@
         <v>1.9999999999999998</v>
       </c>
       <c r="I73">
-        <v>1.6993892996149909E-2</v>
+        <v>1.0483567602092266E-3</v>
       </c>
       <c r="J73">
-        <v>0.99012923108926487</v>
+        <v>2.7476160304289454E-3</v>
       </c>
       <c r="K73">
-        <v>2.3089345732782745E-2</v>
+        <v>7.6685288532059998E-2</v>
       </c>
       <c r="L73">
-        <v>0.99295670616128739</v>
+        <v>0.76577398478730496</v>
       </c>
     </row>
     <row r="74" spans="8:12" x14ac:dyDescent="0.35">
@@ -5709,16 +5723,16 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="I74">
-        <v>1.4085184456303192E-2</v>
+        <v>1.0987580323649731E-3</v>
       </c>
       <c r="J74">
-        <v>0.99167826820763394</v>
+        <v>2.8549482627171496E-3</v>
       </c>
       <c r="K74">
-        <v>1.7169202732841192E-2</v>
+        <v>7.5284358038701094E-2</v>
       </c>
       <c r="L74">
-        <v>0.99495735016618658</v>
+        <v>0.77337264762313174</v>
       </c>
     </row>
     <row r="75" spans="8:12" x14ac:dyDescent="0.35">
@@ -5726,16 +5740,16 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="I75">
-        <v>1.1707890250092369E-2</v>
+        <v>1.1520748123883687E-3</v>
       </c>
       <c r="J75">
-        <v>0.99296395371698609</v>
+        <v>2.9674648045471264E-3</v>
       </c>
       <c r="K75">
-        <v>1.2590923362052458E-2</v>
+        <v>7.3862841835390741E-2</v>
       </c>
       <c r="L75">
-        <v>0.99643524956985763</v>
+        <v>0.78083017020662249</v>
       </c>
     </row>
     <row r="76" spans="8:12" x14ac:dyDescent="0.35">
@@ -5743,16 +5757,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I76">
-        <v>9.7598597336093773E-3</v>
+        <v>1.2085056760998375E-3</v>
       </c>
       <c r="J76">
-        <v>0.99403413258985318</v>
+        <v>3.085467010615961E-3</v>
       </c>
       <c r="K76">
-        <v>9.106132848932677E-3</v>
+        <v>7.2422888190370682E-2</v>
       </c>
       <c r="L76">
-        <v>0.99751195232230505</v>
+        <v>0.78814460141660314</v>
       </c>
     </row>
     <row r="77" spans="8:12" x14ac:dyDescent="0.35">
@@ -5760,16 +5774,16 @@
         <v>2.4</v>
       </c>
       <c r="I77">
-        <v>8.1592698982939811E-3</v>
+        <v>1.2682648460918813E-3</v>
       </c>
       <c r="J77">
-        <v>0.99492748909742335</v>
+        <v>3.2092768643814384E-3</v>
       </c>
       <c r="K77">
-        <v>6.4950026568476515E-3</v>
+        <v>7.0966638381221817E-2</v>
       </c>
       <c r="L77">
-        <v>0.99828556336816709</v>
+        <v>0.79531420465274738</v>
       </c>
     </row>
     <row r="78" spans="8:12" x14ac:dyDescent="0.35">
@@ -5777,16 +5791,16 @@
         <v>2.5</v>
       </c>
       <c r="I78">
-        <v>6.8405242152831357E-3</v>
+        <v>1.3315835973552292E-3</v>
       </c>
       <c r="J78">
-        <v>0.99567536708715021</v>
+        <v>3.3392386118973882E-3</v>
       </c>
       <c r="K78">
-        <v>4.568710441179645E-3</v>
+        <v>6.9496221532749106E-2</v>
       </c>
       <c r="L78">
-        <v>0.9988337461459853</v>
+        <v>0.80233745687730762</v>
       </c>
     </row>
     <row r="79" spans="8:12" x14ac:dyDescent="0.35">
@@ -5794,16 +5808,16 @@
         <v>2.6</v>
       </c>
       <c r="I79">
-        <v>5.7509635581052959E-3</v>
+        <v>1.3987118051098106E-3</v>
       </c>
       <c r="J79">
-        <v>0.99630322205337885</v>
+        <v>3.4757205431962257E-3</v>
       </c>
       <c r="K79">
-        <v>3.1693987659461372E-3</v>
+        <v>6.8013749594635867E-2</v>
       </c>
       <c r="L79">
-        <v>0.99921683895094049</v>
+        <v>0.80921304714748943</v>
       </c>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.35">
@@ -5811,16 +5825,16 @@
         <v>2.7</v>
       </c>
       <c r="I80">
-        <v>4.8482414581218526E-3</v>
+        <v>1.4699196508715442E-3</v>
       </c>
       <c r="J80">
-        <v>0.99683177866878769</v>
+        <v>3.6191169362248532E-3</v>
       </c>
       <c r="K80">
-        <v>2.168348504415149E-3</v>
+        <v>6.6521312474688704E-2</v>
       </c>
       <c r="L80">
-        <v>0.99948087211676628</v>
+        <v>0.81593987465324047</v>
       </c>
     </row>
     <row r="81" spans="8:12" x14ac:dyDescent="0.35">
@@ -5828,16 +5842,16 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="I81">
-        <v>4.0982359455794416E-3</v>
+        <v>1.5454995047810504E-3</v>
       </c>
       <c r="J81">
-        <v>0.99727795364724292</v>
+        <v>3.7698501800405571E-3</v>
       </c>
       <c r="K81">
-        <v>1.463019904504783E-3</v>
+        <v>6.5020973342498914E-2</v>
       </c>
       <c r="L81">
-        <v>0.99966034087037814</v>
+        <v>0.82251704627676769</v>
       </c>
     </row>
     <row r="82" spans="8:12" x14ac:dyDescent="0.35">
@@ -5845,16 +5859,16 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="I82">
-        <v>3.4733910783840906E-3</v>
+        <v>1.6257680044873617E-3</v>
       </c>
       <c r="J82">
-        <v>0.9976555920820569</v>
+        <v>3.9283730958890595E-3</v>
       </c>
       <c r="K82">
-        <v>9.7350981505563302E-4</v>
+        <v>6.3514764117297243E-2</v>
       </c>
       <c r="L82">
-        <v>0.9997806490298029</v>
+        <v>0.82894387369151823</v>
       </c>
     </row>
     <row r="83" spans="8:12" x14ac:dyDescent="0.35">
@@ -5862,16 +5876,16 @@
         <v>3.0000000000000004</v>
       </c>
       <c r="I83">
-        <v>2.9514005876051532E-3</v>
+        <v>1.7110683534587493E-3</v>
       </c>
       <c r="J83">
-        <v>0.99797605569841419</v>
+        <v>4.0951714769393299E-3</v>
       </c>
       <c r="K83">
-        <v>6.3885071313540126E-4</v>
+        <v>6.2004681152684267E-2</v>
       </c>
       <c r="L83">
-        <v>0.99986018749144967</v>
+        <v>0.83521987001968956</v>
       </c>
     </row>
     <row r="84" spans="8:12" x14ac:dyDescent="0.35">
@@ -5879,16 +5893,16 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="I84">
-        <v>2.5141629147183366E-3</v>
+        <v>1.8017728645304777E-3</v>
       </c>
       <c r="J84">
-        <v>0.99824869356626755</v>
+        <v>4.2707668698832579E-3</v>
       </c>
       <c r="K84">
-        <v>4.1345417627405937E-4</v>
+        <v>6.0492681129785834E-2</v>
       </c>
       <c r="L84">
-        <v>0.99991204780711773</v>
+        <v>0.84134474606854281</v>
       </c>
     </row>
     <row r="85" spans="8:12" x14ac:dyDescent="0.35">
@@ -5896,16 +5910,16 @@
         <v>3.2000000000000006</v>
       </c>
       <c r="I85">
-        <v>2.1469510690586085E-3</v>
+        <v>1.8982857778500318E-3</v>
       </c>
       <c r="J85">
-        <v>0.99848121947733492</v>
+        <v>4.4557196243518171E-3</v>
       </c>
       <c r="K85">
-        <v>2.6389084995445336E-4</v>
+        <v>5.8980677169218128E-2</v>
       </c>
       <c r="L85">
-        <v>0.9999453957451081</v>
+        <v>0.84731840616688969</v>
       </c>
     </row>
     <row r="86" spans="8:12" x14ac:dyDescent="0.35">
@@ -5913,16 +5927,16 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="I86">
-        <v>1.8377523482641029E-3</v>
+        <v>2.001046386206776E-3</v>
       </c>
       <c r="J86">
-        <v>0.99868001513339677</v>
+        <v>4.6506322392025901E-3</v>
       </c>
       <c r="K86">
-        <v>1.6610787810491804E-4</v>
+        <v>5.7470535171058233E-2</v>
       </c>
       <c r="L86">
-        <v>0.99996654420133968</v>
+        <v>0.85314094362410409</v>
       </c>
     </row>
     <row r="87" spans="8:12" x14ac:dyDescent="0.35">
@@ -5930,16 +5944,16 @@
         <v>3.4000000000000008</v>
       </c>
       <c r="I87">
-        <v>1.5767423466555525E-3</v>
+        <v>2.1105325051088749E-3</v>
       </c>
       <c r="J87">
-        <v>0.99885037428363677</v>
+        <v>4.8561530382466578E-3</v>
       </c>
       <c r="K87">
-        <v>1.0311576754162756E-4</v>
+        <v>5.5964070390809847E-2</v>
       </c>
       <c r="L87">
-        <v>0.99997977128828142</v>
+        <v>0.85881263583487111</v>
       </c>
     </row>
     <row r="88" spans="8:12" x14ac:dyDescent="0.35">
@@ -5947,16 +5961,16 @@
         <v>3.5000000000000009</v>
       </c>
       <c r="I88">
-        <v>1.3558651751259989E-3</v>
+        <v>2.2272643299805282E-3</v>
       </c>
       <c r="J88">
-        <v>0.99899669978044936</v>
+        <v>5.0729802119631739E-3</v>
       </c>
       <c r="K88">
-        <v>6.3128995187286524E-5</v>
+        <v>5.4463044258137625E-2</v>
       </c>
       <c r="L88">
-        <v>0.99998793007523878</v>
+        <v>0.86433393905361733</v>
       </c>
     </row>
     <row r="89" spans="8:12" x14ac:dyDescent="0.35">
@@ -5964,16 +5978,16 @@
         <v>3.600000000000001</v>
       </c>
       <c r="I89">
-        <v>1.1684977660526561E-3</v>
+        <v>2.3518087285976808E-3</v>
       </c>
       <c r="J89">
-        <v>0.99912266302459396</v>
+        <v>5.3018662662685512E-3</v>
       </c>
       <c r="K89">
-        <v>3.8115500288447229E-5</v>
+        <v>5.2969161443924849E-2</v>
       </c>
       <c r="L89">
-        <v>0.99999289328717444</v>
+        <v>0.86970548286319116</v>
       </c>
     </row>
     <row r="90" spans="8:12" x14ac:dyDescent="0.35">
@@ -5981,16 +5995,16 @@
         <v>3.7000000000000011</v>
       </c>
       <c r="I90">
-        <v>1.0091808349999151E-3</v>
+        <v>2.4847840234761783E-3</v>
       </c>
       <c r="J90">
-        <v>0.99923133330214875</v>
+        <v>5.5436229245410251E-3</v>
       </c>
       <c r="K90">
-        <v>2.2695686401474357E-5</v>
+        <v>5.148406717999366E-2</v>
       </c>
       <c r="L90">
-        <v>0.99999587095251719</v>
+        <v>0.87492806436284987</v>
       </c>
     </row>
     <row r="91" spans="8:12" x14ac:dyDescent="0.35">
@@ -5998,16 +6012,16 @@
         <v>3.8000000000000012</v>
       </c>
       <c r="I91">
-        <v>8.7340276935282755E-4</v>
+        <v>2.6268653265101582E-3</v>
       </c>
       <c r="J91">
-        <v>0.99932528296521794</v>
+        <v>5.799126534942689E-3</v>
       </c>
       <c r="K91">
-        <v>1.3327661967599159E-5</v>
+        <v>5.0009344834621924E-2</v>
       </c>
       <c r="L91">
-        <v>0.99999763278569898</v>
+        <v>0.88000264210098744</v>
       </c>
     </row>
     <row r="92" spans="8:12" x14ac:dyDescent="0.35">
@@ -6015,16 +6029,16 @@
         <v>3.9000000000000012</v>
       </c>
       <c r="I92">
-        <v>7.574256199980884E-4</v>
+        <v>2.7787904968896416E-3</v>
       </c>
       <c r="J92">
-        <v>0.99940667318650722</v>
+        <v>6.069324041737989E-3</v>
       </c>
       <c r="K92">
-        <v>7.7185116848182121E-6</v>
+        <v>4.8546513745803224E-2</v>
       </c>
       <c r="L92">
-        <v>0.99999866087185763</v>
+        <v>0.88493032977829178</v>
       </c>
     </row>
     <row r="93" spans="8:12" x14ac:dyDescent="0.35">
@@ -6032,16 +6046,16 @@
         <v>4.0000000000000009</v>
       </c>
       <c r="I93">
-        <v>6.5814465358202286E-4</v>
+        <v>2.9413668033931731E-3</v>
       </c>
       <c r="J93">
-        <v>0.99947732405415812</v>
+        <v>6.3552395869005962E-3</v>
       </c>
       <c r="K93">
-        <v>4.4084113568267356E-6</v>
+        <v>4.7097027313031573E-2</v>
       </c>
       <c r="L93">
-        <v>0.99999925252893296</v>
+        <v>0.88971238974714872</v>
       </c>
     </row>
     <row r="94" spans="8:12" x14ac:dyDescent="0.35">
@@ -6049,16 +6063,16 @@
         <v>4.1000000000000005</v>
       </c>
       <c r="I94">
-        <v>5.7297471375401332E-4</v>
+        <v>3.11547838377419E-3</v>
       </c>
       <c r="J94">
-        <v>0.99953877201214625</v>
+        <v>6.6579818169792415E-3</v>
       </c>
       <c r="K94">
-        <v>2.4831308687302349E-6</v>
+        <v>4.5662271347255458E-2</v>
       </c>
       <c r="L94">
-        <v>0.99999958833337033</v>
+        <v>0.89435022633314476</v>
       </c>
     </row>
     <row r="95" spans="8:12" x14ac:dyDescent="0.35">
@@ -6066,16 +6080,16 @@
         <v>4.2</v>
       </c>
       <c r="I95">
-        <v>4.9975804626297467E-4</v>
+        <v>3.3020946073983762E-3</v>
       </c>
       <c r="J95">
-        <v>0.99959231704952622</v>
+        <v>6.9787519801180475E-3</v>
       </c>
       <c r="K95">
-        <v>1.3793867654802345E-6</v>
+        <v>4.4243562677544909E-2</v>
       </c>
       <c r="L95">
-        <v>0.99999977629907244</v>
+        <v>0.89884537900441408</v>
       </c>
     </row>
     <row r="96" spans="8:12" x14ac:dyDescent="0.35">
@@ -6083,16 +6097,16 @@
         <v>4.3</v>
       </c>
       <c r="I96">
-        <v>4.3668934832442088E-4</v>
+        <v>3.5022794628494416E-3</v>
       </c>
       <c r="J96">
-        <v>0.99963906156478877</v>
+        <v>7.31885290950407E-3</v>
       </c>
       <c r="K96">
-        <v>7.5568612893329128E-7</v>
+        <v>4.2842148011951832E-2</v>
       </c>
       <c r="L96">
-        <v>0.99999988006304719</v>
+        <v>0.9031995154143897</v>
       </c>
     </row>
     <row r="97" spans="8:12" x14ac:dyDescent="0.35">
@@ -6100,16 +6114,16 @@
         <v>4.3999999999999995</v>
       </c>
       <c r="I97">
-        <v>3.8225467277555944E-4</v>
+        <v>3.7172021102631963E-3</v>
       </c>
       <c r="J97">
-        <v>0.99967994245286662</v>
+        <v>7.6796990025644885E-3</v>
       </c>
       <c r="K97">
-        <v>4.0828722933091742E-7</v>
+        <v>4.1459203049026172E-2</v>
       </c>
       <c r="L97">
-        <v>0.99999993655549446</v>
+        <v>0.90741442434320507</v>
       </c>
     </row>
     <row r="98" spans="8:12" x14ac:dyDescent="0.35">
@@ -6117,16 +6131,16 @@
         <v>4.4999999999999991</v>
       </c>
       <c r="I98">
-        <v>3.3518150336470754E-4</v>
+        <v>3.9481487591000912E-3</v>
       </c>
       <c r="J98">
-        <v>0.99971575766102583</v>
+        <v>8.0628273202341671E-3</v>
       </c>
       <c r="K98">
-        <v>2.1755000176195073E-7</v>
+        <v>4.0095831835479899E-2</v>
       </c>
       <c r="L98">
-        <v>0.99999996688811787</v>
+        <v>0.91149200856259793</v>
       </c>
     </row>
     <row r="99" spans="8:12" x14ac:dyDescent="0.35">
@@ -6134,16 +6148,16 @@
         <v>4.5999999999999988</v>
       </c>
       <c r="I99">
-        <v>2.943978590340524E-4</v>
+        <v>4.1965360564283453E-3</v>
       </c>
       <c r="J99">
-        <v>0.9997471882196507</v>
+        <v>8.4699099478720008E-3</v>
       </c>
       <c r="K99">
-        <v>1.1431976841681189E-7</v>
+        <v>3.8753066364573305E-2</v>
       </c>
       <c r="L99">
-        <v>0.99999998295032966</v>
+        <v>0.91543427764866436</v>
       </c>
     </row>
     <row r="100" spans="8:12" x14ac:dyDescent="0.35">
@@ -6151,16 +6165,16 @@
         <v>4.6999999999999984</v>
       </c>
       <c r="I100">
-        <v>2.5899871342338073E-4</v>
+        <v>4.4639261991581856E-3</v>
       </c>
       <c r="J100">
-        <v>0.99977481656196399</v>
+        <v>8.9027677792944959E-3</v>
       </c>
       <c r="K100">
-        <v>5.9245112786729675E-8</v>
+        <v>3.7431866408936226E-2</v>
       </c>
       <c r="L100">
-        <v>0.99999999133867901</v>
+        <v>0.91924334076622882</v>
       </c>
     </row>
     <row r="101" spans="8:12" x14ac:dyDescent="0.35">
@@ -6168,16 +6182,16 @@
         <v>4.799999999999998</v>
       </c>
       <c r="I101">
-        <v>2.2821835536683484E-4</v>
+        <v>4.7520440167479238E-3</v>
       </c>
       <c r="J101">
-        <v>0.99979914179298124</v>
+        <v>9.3633859083501192E-3</v>
       </c>
       <c r="K101">
-        <v>3.0279777172615305E-8</v>
+        <v>3.6133119580733238E-2</v>
       </c>
       <c r="L101">
-        <v>0.99999999565907394</v>
+        <v>0.92292139944792806</v>
       </c>
     </row>
     <row r="102" spans="8:12" x14ac:dyDescent="0.35">
@@ -6185,16 +6199,16 @@
         <v>4.8999999999999977</v>
       </c>
       <c r="I102">
-        <v>2.0140758585771506E-4</v>
+        <v>5.0627963095296429E-3</v>
       </c>
       <c r="J102">
-        <v>0.99982059244457355</v>
+        <v>9.8539308389918312E-3</v>
       </c>
       <c r="K102">
-        <v>1.5262362659051862E-8</v>
+        <v>3.4857641611340084E-2</v>
       </c>
       <c r="L102">
-        <v>0.99999999785362736</v>
+        <v>0.9264707403903516</v>
       </c>
     </row>
     <row r="103" spans="8:12" x14ac:dyDescent="0.35">
@@ -6202,16 +6216,16 @@
         <v>4.9999999999999973</v>
       </c>
       <c r="I103">
-        <v>1.7801486164813004E-4</v>
+        <v>5.3982937729660481E-3</v>
       </c>
       <c r="J103">
-        <v>0.99983953715420237</v>
+        <v>1.0376769755518545E-2</v>
       </c>
       <c r="K103">
-        <v>7.5868205629954428E-9</v>
+        <v>3.3606176842019796E-2</v>
       </c>
       <c r="L103">
-        <v>0.99999999895299929</v>
+        <v>0.9298937282887767</v>
       </c>
     </row>
   </sheetData>
@@ -6224,8 +6238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F1E49-69B3-41E4-B5F7-85CA4F6581D0}">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6238,7 +6252,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
@@ -6262,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -6271,7 +6285,7 @@
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>2046863983184</v>
+        <v>2541175990896</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -6280,7 +6294,7 @@
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7">_xll.JOHNSON.MOMENT(Johnson,1)</f>
-        <v>100.03302941027492</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -6289,7 +6303,7 @@
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,2) - mean^2</f>
-        <v>0.12965566769526049</v>
+        <v>3.1945280494255712E-2</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -6298,7 +6312,7 @@
       </c>
       <c r="C9" s="5">
         <f>mean</f>
-        <v>100.03302941027492</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -6307,7 +6321,7 @@
       </c>
       <c r="C10" s="5">
         <f>SQRT(variance)</f>
-        <v>0.36007730794269788</v>
+        <v>0.17873242709216397</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
@@ -6316,7 +6330,7 @@
       </c>
       <c r="C11" s="5">
         <f>f</f>
-        <v>100.03302941027492</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
@@ -6325,7 +6339,7 @@
       </c>
       <c r="C12" s="5" cm="1">
         <f t="array" ref="C12">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
-        <v>14.292496918495097</v>
+        <v>7.1209126309667425</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -6334,7 +6348,7 @@
       </c>
       <c r="C13" s="5" cm="1">
         <f t="array" ref="C13">_xll.NORMAL.PUT.DELTA(f, s, k)</f>
-        <v>-0.42856111125118518</v>
+        <v>-0.46439543684516627</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -6343,7 +6357,7 @@
       </c>
       <c r="C14" s="5" cm="1">
         <f t="array" ref="C14">_xll.NORMAL.PUT.IMPLIED(f, value, k)</f>
-        <v>0.36007730794269727</v>
+        <v>0.1787324268788342</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
@@ -6352,7 +6366,7 @@
       </c>
       <c r="C15" s="5" cm="1">
         <f t="array" ref="C15">_xll.JOHNSON.PUT.VALUE(Johnson,k)</f>
-        <v>-5205.8183162309806</v>
+        <v>5.6278234348496881E-2</v>
       </c>
     </row>
   </sheetData>

--- a/xll_johnson/johnson.xlsx
+++ b/xll_johnson/johnson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\fms_johnson\xll_johnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F765FB4F-5DB0-4F86-993B-153AA4357C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944784A-A9DC-472E-AF9F-0E233E5FA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,36 @@
     <definedName name="cdf">_xlfn.ANCHORARRAY(Sheet1!$J$3)</definedName>
     <definedName name="delta" localSheetId="1">Sheet2!$C$3</definedName>
     <definedName name="delta">Sheet1!$C$6</definedName>
+    <definedName name="f" localSheetId="0">Sheet1!$C$15</definedName>
     <definedName name="f">Sheet2!$C$9</definedName>
     <definedName name="gamma" localSheetId="1">Sheet2!$C$2</definedName>
     <definedName name="gamma">Sheet1!$C$5</definedName>
     <definedName name="implied">Sheet2!$C$14</definedName>
     <definedName name="Johnson" localSheetId="1">Sheet2!$C$6</definedName>
-    <definedName name="Johnson">Sheet1!$C$9</definedName>
+    <definedName name="Johnson">Sheet1!$C$7</definedName>
+    <definedName name="jput">_xlfn.ANCHORARRAY(Sheet2!$G$3)</definedName>
     <definedName name="k">Sheet2!$C$11</definedName>
     <definedName name="lambda" localSheetId="1">Sheet2!$C$5</definedName>
     <definedName name="lambda">Sheet1!$C$4</definedName>
-    <definedName name="mean" localSheetId="0">Sheet1!$C$15</definedName>
+    <definedName name="m_1">Sheet1!$C$9</definedName>
+    <definedName name="m_2">Sheet1!$C$10</definedName>
+    <definedName name="m_3">Sheet1!$C$11</definedName>
+    <definedName name="m_4">Sheet1!$C$12</definedName>
+    <definedName name="mean" localSheetId="0">Sheet1!$C$13</definedName>
     <definedName name="mean">Sheet2!$C$7</definedName>
-    <definedName name="mu">Sheet1!$C$7</definedName>
+    <definedName name="mu">Sheet1!$F$9</definedName>
     <definedName name="ncdf">_xlfn.ANCHORARRAY(Sheet1!$L$3)</definedName>
     <definedName name="Normal">Sheet1!$C$17</definedName>
     <definedName name="npdf">_xlfn.ANCHORARRAY(Sheet1!$K$3)</definedName>
+    <definedName name="nput">_xlfn.ANCHORARRAY(Sheet2!$H$3)</definedName>
     <definedName name="pdf">_xlfn.ANCHORARRAY(Sheet1!$I$3)</definedName>
     <definedName name="s" localSheetId="1">Sheet2!$C$10</definedName>
-    <definedName name="s">Sheet1!$C$2</definedName>
-    <definedName name="sigma">Sheet1!$C$8</definedName>
+    <definedName name="s">Sheet1!$C$16</definedName>
+    <definedName name="s2_">Sheet1!$C$16</definedName>
+    <definedName name="sigma">Sheet1!$F$10</definedName>
+    <definedName name="strike">_xlfn.ANCHORARRAY(Sheet2!$F$3)</definedName>
     <definedName name="value">Sheet2!$C$12</definedName>
-    <definedName name="variance" localSheetId="0">Sheet1!$C$16</definedName>
+    <definedName name="variance" localSheetId="0">Sheet1!$C$14</definedName>
     <definedName name="variance">Sheet2!$C$8</definedName>
     <definedName name="x">_xlfn.ANCHORARRAY(Sheet1!$H$3)</definedName>
     <definedName name="xi" localSheetId="1">Sheet2!$C$4</definedName>
@@ -90,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>xi</t>
   </si>
@@ -108,12 +117,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>cdf</t>
   </si>
   <si>
     <t>moment</t>
@@ -172,6 +175,21 @@
   <si>
     <t>johnson_put_value</t>
   </si>
+  <si>
+    <t>jpdf</t>
+  </si>
+  <si>
+    <t>jcdf</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>jput</t>
+  </si>
+  <si>
+    <t>nput</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +199,7 @@
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -198,6 +216,12 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -255,7 +279,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -268,6 +292,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -439,7 +467,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pdf</c:v>
+                  <c:v>jpdf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -461,309 +489,249 @@
               <c:f>[0]!x</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9000000000000004</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.8000000000000007</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.7000000000000011</c:v>
+                  <c:v>1.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.6000000000000014</c:v>
+                  <c:v>1.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.5000000000000018</c:v>
+                  <c:v>1.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.4000000000000021</c:v>
+                  <c:v>1.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.3000000000000025</c:v>
+                  <c:v>1.7000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.2000000000000028</c:v>
+                  <c:v>1.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.1000000000000032</c:v>
+                  <c:v>1.9000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.0000000000000036</c:v>
+                  <c:v>2.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.9000000000000035</c:v>
+                  <c:v>2.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.8000000000000034</c:v>
+                  <c:v>2.2000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.7000000000000033</c:v>
+                  <c:v>2.3000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.6000000000000032</c:v>
+                  <c:v>2.4000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.5000000000000031</c:v>
+                  <c:v>2.5000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.400000000000003</c:v>
+                  <c:v>2.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.3000000000000029</c:v>
+                  <c:v>2.7000000000000015</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.2000000000000028</c:v>
+                  <c:v>2.8000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.1000000000000028</c:v>
+                  <c:v>2.9000000000000017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.0000000000000027</c:v>
+                  <c:v>3.0000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.9000000000000026</c:v>
+                  <c:v>3.1000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.8000000000000025</c:v>
+                  <c:v>3.200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.7000000000000024</c:v>
+                  <c:v>3.300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.6000000000000023</c:v>
+                  <c:v>3.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.5000000000000022</c:v>
+                  <c:v>3.5000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.4000000000000021</c:v>
+                  <c:v>3.6000000000000023</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.300000000000002</c:v>
+                  <c:v>3.7000000000000024</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.200000000000002</c:v>
+                  <c:v>3.8000000000000025</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.1000000000000019</c:v>
+                  <c:v>3.9000000000000026</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2.0000000000000018</c:v>
+                  <c:v>4.0000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.9000000000000017</c:v>
+                  <c:v>4.1000000000000023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.8000000000000016</c:v>
+                  <c:v>4.200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.7000000000000015</c:v>
+                  <c:v>4.3000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.6000000000000014</c:v>
+                  <c:v>4.4000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.5000000000000013</c:v>
+                  <c:v>4.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.4000000000000012</c:v>
+                  <c:v>4.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.3000000000000012</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.2000000000000011</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.100000000000001</c:v>
+                  <c:v>4.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.0000000000000009</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.90000000000000091</c:v>
+                  <c:v>5.0999999999999988</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.80000000000000093</c:v>
+                  <c:v>5.1999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.70000000000000095</c:v>
+                  <c:v>5.299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.60000000000000098</c:v>
+                  <c:v>5.3999999999999977</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.500000000000001</c:v>
+                  <c:v>5.4999999999999973</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.40000000000000102</c:v>
+                  <c:v>5.599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.30000000000000104</c:v>
+                  <c:v>5.6999999999999966</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.20000000000000104</c:v>
+                  <c:v>5.7999999999999963</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.10000000000000103</c:v>
+                  <c:v>5.8999999999999959</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.0269562977782698E-15</c:v>
+                  <c:v>5.9999999999999956</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.9999999999998979E-2</c:v>
+                  <c:v>6.0999999999999952</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.19999999999999898</c:v>
+                  <c:v>6.1999999999999948</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.29999999999999899</c:v>
+                  <c:v>6.2999999999999945</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.39999999999999902</c:v>
+                  <c:v>6.3999999999999941</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.499999999999999</c:v>
+                  <c:v>6.4999999999999938</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.59999999999999898</c:v>
+                  <c:v>6.5999999999999934</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.69999999999999896</c:v>
+                  <c:v>6.6999999999999931</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.79999999999999893</c:v>
+                  <c:v>6.7999999999999927</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.89999999999999891</c:v>
+                  <c:v>6.8999999999999924</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99999999999999889</c:v>
+                  <c:v>6.999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.099999999999999</c:v>
+                  <c:v>7.0999999999999917</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1999999999999991</c:v>
+                  <c:v>7.1999999999999913</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2999999999999992</c:v>
+                  <c:v>7.2999999999999909</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3999999999999992</c:v>
+                  <c:v>7.3999999999999906</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4999999999999993</c:v>
+                  <c:v>7.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.5999999999999994</c:v>
+                  <c:v>7.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6999999999999995</c:v>
+                  <c:v>7.6999999999999895</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7999999999999996</c:v>
+                  <c:v>7.7999999999999892</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8999999999999997</c:v>
+                  <c:v>7.8999999999999888</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.9999999999999998</c:v>
+                  <c:v>7.9999999999999885</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>8.099999999999989</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.1999999999999997</c:v>
+                  <c:v>8.1999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>8.2999999999999883</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.4</c:v>
+                  <c:v>8.3999999999999879</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.5</c:v>
+                  <c:v>8.4999999999999876</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.6</c:v>
+                  <c:v>8.5999999999999872</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.7</c:v>
+                  <c:v>8.6999999999999869</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.8000000000000003</c:v>
+                  <c:v>8.7999999999999865</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.9000000000000004</c:v>
+                  <c:v>8.8999999999999861</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.5000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.9000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.3999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.4999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5999999999999988</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.6999999999999984</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.8999999999999977</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.9999999999999973</c:v>
+                  <c:v>8.9999999999999858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,309 +741,249 @@
               <c:f>[0]!pdf</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>8.1325471509349561E-5</c:v>
+                  <c:v>8.8668387166442389E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3747258629299302E-5</c:v>
+                  <c:v>9.6059283809736648E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6254232474303633E-5</c:v>
+                  <c:v>1.0419254433636344E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8849868006336312E-5</c:v>
+                  <c:v>1.1315625443476366E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1537802129834696E-5</c:v>
+                  <c:v>1.2305064932842586E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4321842207431393E-5</c:v>
+                  <c:v>1.3399003599820004E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7205975075748729E-5</c:v>
+                  <c:v>1.4610506038847508E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0019437659376204E-4</c:v>
+                  <c:v>1.5954538916816818E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0329142175855919E-4</c:v>
+                  <c:v>1.744828912535922E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.065016954258232E-4</c:v>
+                  <c:v>1.911154238246948E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0983000367506436E-4</c:v>
+                  <c:v>2.0967135204184562E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1328138586254344E-4</c:v>
+                  <c:v>2.3041496247767379E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1686112740796172E-4</c:v>
+                  <c:v>2.5365296921837635E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2057477336439642E-4</c:v>
+                  <c:v>2.7974236102196264E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2442814282461969E-4</c:v>
+                  <c:v>3.0909990095621042E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.284273442209066E-4</c:v>
+                  <c:v>3.4221367069174999E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3257879157972124E-4</c:v>
+                  <c:v>3.7965715557000648E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.368892217973088E-4</c:v>
+                  <c:v>4.221065010217755E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4136571300723934E-4</c:v>
+                  <c:v>4.7036174571953677E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4601570411638913E-4</c:v>
+                  <c:v>5.2537306530203234E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5084701559173164E-4</c:v>
+                  <c:v>5.8827336067863575E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5586787158670251E-4</c:v>
+                  <c:v>6.6041892147967627E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.6108692350282403E-4</c:v>
+                  <c:v>7.4344042205264143E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.6651327508980198E-4</c:v>
+                  <c:v>8.3930721128567184E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.721565091954598E-4</c:v>
+                  <c:v>9.5040880334958805E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7802671628575889E-4</c:v>
+                  <c:v>1.0796587545932147E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8413452486478035E-4</c:v>
+                  <c:v>1.2306278487664461E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9049113393504295E-4</c:v>
+                  <c:v>1.4077158858943813E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.9710834764993337E-4</c:v>
+                  <c:v>1.616374628726586E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0399861232245941E-4</c:v>
+                  <c:v>1.8633989545868274E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1117505596806582E-4</c:v>
+                  <c:v>2.157309478537521E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1865153057401952E-4</c:v>
+                  <c:v>2.5088585322889542E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2644265730395862E-4</c:v>
+                  <c:v>2.931703319012734E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3456387486377482E-4</c:v>
+                  <c:v>3.4433065131738244E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.4303149127418637E-4</c:v>
+                  <c:v>4.0661469801546772E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5186273931632137E-4</c:v>
+                  <c:v>4.829353096872406E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.6107583593956138E-4</c:v>
+                  <c:v>5.7709089888482105E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.7069004594597394E-4</c:v>
+                  <c:v>6.940627433837751E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.8072575029314045E-4</c:v>
+                  <c:v>8.4041210885873796E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.9120451938725427E-4</c:v>
+                  <c:v>0.10248002615379626</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0214919177136917E-4</c:v>
+                  <c:v>0.12586416596247432</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1358395864985425E-4</c:v>
+                  <c:v>0.15568538300626228</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.2553445472984291E-4</c:v>
+                  <c:v>0.19385374387987608</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.3802785590409312E-4</c:v>
+                  <c:v>0.24271009910123953</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.5109298434767423E-4</c:v>
+                  <c:v>0.30486352028865021</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.6476042165363838E-4</c:v>
+                  <c:v>0.38259639558195085</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.790626306909701E-4</c:v>
+                  <c:v>0.47637931574696657</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.9403408693210326E-4</c:v>
+                  <c:v>0.58198268344306903</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.0971142006786758E-4</c:v>
+                  <c:v>0.68655761571907392</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.2613356680561013E-4</c:v>
+                  <c:v>0.76709809668935058</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.4334193583221102E-4</c:v>
+                  <c:v>0.79788456080286529</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.6138058601875501E-4</c:v>
+                  <c:v>0.76709809668935602</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.8029641904868324E-4</c:v>
+                  <c:v>0.68655761571908258</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.0013938776761015E-4</c:v>
+                  <c:v>0.58198268344307869</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.2096272168181709E-4</c:v>
+                  <c:v>0.47637931574697545</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.4282317117530158E-4</c:v>
+                  <c:v>0.38259639558195851</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.6578127217381724E-4</c:v>
+                  <c:v>0.30486352028865632</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.8990163316033795E-4</c:v>
+                  <c:v>0.24271009910124436</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.1525324664212812E-4</c:v>
+                  <c:v>0.19385374387987991</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.4190982738727758E-4</c:v>
+                  <c:v>0.15568538300626528</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.6995017999100018E-4</c:v>
+                  <c:v>0.12586416596247665</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.9945859860222055E-4</c:v>
+                  <c:v>0.1024800261537981</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.3052530194237528E-4</c:v>
+                  <c:v>8.4041210885875253E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.6324690708499672E-4</c:v>
+                  <c:v>6.9406274338378704E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.9772694584083915E-4</c:v>
+                  <c:v>5.7709089888483021E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.3407642801426054E-4</c:v>
+                  <c:v>4.8293530968724796E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.7241445626796076E-4</c:v>
+                  <c:v>4.066146980154739E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.128688978616771E-4</c:v>
+                  <c:v>3.4433065131738744E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.5557711912347377E-4</c:v>
+                  <c:v>2.9317033190127764E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.0006867891784866E-3</c:v>
+                  <c:v>2.5088585322889882E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0483567602092266E-3</c:v>
+                  <c:v>2.1573094785375484E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.0987580323649731E-3</c:v>
+                  <c:v>1.86339895458685E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1520748123883687E-3</c:v>
+                  <c:v>1.6163746287266065E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.2085056760998375E-3</c:v>
+                  <c:v>1.4077158858943993E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.2682648460918813E-3</c:v>
+                  <c:v>1.2306278487664621E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3315835973552292E-3</c:v>
+                  <c:v>1.0796587545932275E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3987118051098106E-3</c:v>
+                  <c:v>9.5040880334960071E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.4699196508715442E-3</c:v>
+                  <c:v>8.3930721128568312E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.5454995047810504E-3</c:v>
+                  <c:v>7.4344042205265175E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.6257680044873617E-3</c:v>
+                  <c:v>6.6041892147968547E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.7110683534587493E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.8017728645304777E-3</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.8982857778500318E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.001046386206776E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1105325051088749E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.2272643299805282E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.3518087285976808E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.4847840234761783E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.6268653265101582E-3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.7787904968896416E-3</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.9413668033931731E-3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.11547838377419E-3</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.3020946073983762E-3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3.5022794628494416E-3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3.7172021102631963E-3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3.9481487591000912E-3</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.1965360564283453E-3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.4639261991581856E-3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.7520440167479238E-3</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5.0627963095296429E-3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5.3982937729660481E-3</c:v>
+                  <c:v>5.8827336067864382E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,665 +996,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cdf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[0]!x</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.5000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.4000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.3000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.2000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.1000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4.0000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.9000000000000035</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.8000000000000034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.7000000000000033</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.6000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.5000000000000031</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.3000000000000029</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.2000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.1000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.0000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.9000000000000026</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.8000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.7000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.6000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.5000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.4000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.1000000000000019</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.9000000000000017</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7000000000000015</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.5000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.3000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-1.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.90000000000000091</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.80000000000000093</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.70000000000000095</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.60000000000000098</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.40000000000000102</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.30000000000000104</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.20000000000000104</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.10000000000000103</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-1.0269562977782698E-15</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9.9999999999998979E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.19999999999999898</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.29999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.39999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.59999999999999898</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.69999999999999896</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.79999999999999893</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.89999999999999891</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.99999999999999889</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.1999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2999999999999992</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.3999999999999992</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.4999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.5999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.6999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.8999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.9999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.1999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.5000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.9000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.3999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.4999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5999999999999988</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.6999999999999984</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.8999999999999977</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.9999999999999973</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[0]!cdf</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>3.3409809180207084E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4235103248658749E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5085038291449155E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5960483419117395E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6862343294619127E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7791559794958518E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8749113760405685E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9736026836517668E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0753363414458565E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1802232675458573E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.2883790745673611E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.3999242968095764E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5149846298614404E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6336911833849692E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7561807478779805E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.8825960762854947E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.0130861813879601E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.1478066499416331E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.2869199746397033E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.4305959050177099E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.5790118185111703E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.7323531129627181E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.8908136219676388E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0545960545377309E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2239124606822127E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.3989847246143094E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.5800450874142768E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.7673367011206187E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.9611142163672479E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.1616444058353323E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.3692068259628707E-4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.5840945195493337E-4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.8066147620731163E-4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.0370898547799108E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.2758579678143818E-4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.5232740369423077E-4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.7797107176706968E-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.0455594008875817E-4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.3212312944673803E-4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.6071585756402067E-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.9037956193170906E-4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0211620307984393E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0531135429236449E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0862870167527294E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.1207381697263541E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.1565256884952801E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.1937114108799274E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2323605204815347E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.2725417549344087E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.3143276288702377E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.3577946727624246E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.4030236889187586E-3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.4501000260063734E-3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.4991138736132337E-3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.5501605784903338E-3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.6033409842656776E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.6587617965870827E-3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.7165359758324339E-3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.7767831597259032E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.8396301184185337E-3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.9052112448371128E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.9736690833725423E-3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.0451549002782343E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.1198292994776269E-3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.197862887846902E-3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.2794369944418302E-3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.3647444485889735E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.453990422261354E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.547393342712756E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.6451858819647178E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.7476160304289454E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.8549482627171496E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.9674648045471264E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.085467010615961E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.2092768643814384E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.3392386118973882E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3.4757205431962257E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.6191169362248532E-3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.7698501800405571E-3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.9283730958890595E-3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4.0951714769393299E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.2707668698832579E-3</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.4557196243518171E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.6506322392025901E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.8561530382466578E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.0729802119631739E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.3018662662685512E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.5436229245410251E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.799126534942689E-3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.069324041737989E-3</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6.3552395869005962E-3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.6579818169792415E-3</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.9787519801180475E-3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7.31885290950407E-3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7.6796990025644885E-3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>8.0628273202341671E-3</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>8.4699099478720008E-3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>8.9027677792944959E-3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9.3633859083501192E-3</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.8539308389918312E-3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.0376769755518545E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-353D-482C-BE2B-DAD434487BAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$2</c:f>
@@ -1775,309 +1026,249 @@
               <c:f>[0]!x</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9000000000000004</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.8000000000000007</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.7000000000000011</c:v>
+                  <c:v>1.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.6000000000000014</c:v>
+                  <c:v>1.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.5000000000000018</c:v>
+                  <c:v>1.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.4000000000000021</c:v>
+                  <c:v>1.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.3000000000000025</c:v>
+                  <c:v>1.7000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.2000000000000028</c:v>
+                  <c:v>1.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.1000000000000032</c:v>
+                  <c:v>1.9000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.0000000000000036</c:v>
+                  <c:v>2.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.9000000000000035</c:v>
+                  <c:v>2.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.8000000000000034</c:v>
+                  <c:v>2.2000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.7000000000000033</c:v>
+                  <c:v>2.3000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.6000000000000032</c:v>
+                  <c:v>2.4000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.5000000000000031</c:v>
+                  <c:v>2.5000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.400000000000003</c:v>
+                  <c:v>2.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.3000000000000029</c:v>
+                  <c:v>2.7000000000000015</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.2000000000000028</c:v>
+                  <c:v>2.8000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.1000000000000028</c:v>
+                  <c:v>2.9000000000000017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.0000000000000027</c:v>
+                  <c:v>3.0000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.9000000000000026</c:v>
+                  <c:v>3.1000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.8000000000000025</c:v>
+                  <c:v>3.200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.7000000000000024</c:v>
+                  <c:v>3.300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.6000000000000023</c:v>
+                  <c:v>3.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.5000000000000022</c:v>
+                  <c:v>3.5000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.4000000000000021</c:v>
+                  <c:v>3.6000000000000023</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.300000000000002</c:v>
+                  <c:v>3.7000000000000024</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.200000000000002</c:v>
+                  <c:v>3.8000000000000025</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.1000000000000019</c:v>
+                  <c:v>3.9000000000000026</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2.0000000000000018</c:v>
+                  <c:v>4.0000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.9000000000000017</c:v>
+                  <c:v>4.1000000000000023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.8000000000000016</c:v>
+                  <c:v>4.200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.7000000000000015</c:v>
+                  <c:v>4.3000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.6000000000000014</c:v>
+                  <c:v>4.4000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.5000000000000013</c:v>
+                  <c:v>4.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.4000000000000012</c:v>
+                  <c:v>4.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.3000000000000012</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.2000000000000011</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.100000000000001</c:v>
+                  <c:v>4.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.0000000000000009</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.90000000000000091</c:v>
+                  <c:v>5.0999999999999988</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.80000000000000093</c:v>
+                  <c:v>5.1999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.70000000000000095</c:v>
+                  <c:v>5.299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.60000000000000098</c:v>
+                  <c:v>5.3999999999999977</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.500000000000001</c:v>
+                  <c:v>5.4999999999999973</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.40000000000000102</c:v>
+                  <c:v>5.599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.30000000000000104</c:v>
+                  <c:v>5.6999999999999966</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.20000000000000104</c:v>
+                  <c:v>5.7999999999999963</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.10000000000000103</c:v>
+                  <c:v>5.8999999999999959</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.0269562977782698E-15</c:v>
+                  <c:v>5.9999999999999956</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.9999999999998979E-2</c:v>
+                  <c:v>6.0999999999999952</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.19999999999999898</c:v>
+                  <c:v>6.1999999999999948</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.29999999999999899</c:v>
+                  <c:v>6.2999999999999945</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.39999999999999902</c:v>
+                  <c:v>6.3999999999999941</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.499999999999999</c:v>
+                  <c:v>6.4999999999999938</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.59999999999999898</c:v>
+                  <c:v>6.5999999999999934</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.69999999999999896</c:v>
+                  <c:v>6.6999999999999931</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.79999999999999893</c:v>
+                  <c:v>6.7999999999999927</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.89999999999999891</c:v>
+                  <c:v>6.8999999999999924</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99999999999999889</c:v>
+                  <c:v>6.999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.099999999999999</c:v>
+                  <c:v>7.0999999999999917</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1999999999999991</c:v>
+                  <c:v>7.1999999999999913</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2999999999999992</c:v>
+                  <c:v>7.2999999999999909</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3999999999999992</c:v>
+                  <c:v>7.3999999999999906</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4999999999999993</c:v>
+                  <c:v>7.4999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.5999999999999994</c:v>
+                  <c:v>7.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6999999999999995</c:v>
+                  <c:v>7.6999999999999895</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7999999999999996</c:v>
+                  <c:v>7.7999999999999892</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8999999999999997</c:v>
+                  <c:v>7.8999999999999888</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.9999999999999998</c:v>
+                  <c:v>7.9999999999999885</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>8.099999999999989</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.1999999999999997</c:v>
+                  <c:v>8.1999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>8.2999999999999883</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.4</c:v>
+                  <c:v>8.3999999999999879</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.5</c:v>
+                  <c:v>8.4999999999999876</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.6</c:v>
+                  <c:v>8.5999999999999872</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.7</c:v>
+                  <c:v>8.6999999999999869</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.8000000000000003</c:v>
+                  <c:v>8.7999999999999865</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.9000000000000004</c:v>
+                  <c:v>8.8999999999999861</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.5000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.9000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.3999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.4999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5999999999999988</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.6999999999999984</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.8999999999999977</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.9999999999999973</c:v>
+                  <c:v>8.9999999999999858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,309 +1278,249 @@
               <c:f>[0]!npdf</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>5.8980677169218135E-2</c:v>
+                  <c:v>1.1124644433352448E-31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0492681129785834E-2</c:v>
+                  <c:v>1.8811298513891116E-28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2004681152684267E-2</c:v>
+                  <c:v>1.1600421454975094E-25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3514764117297243E-2</c:v>
+                  <c:v>3.153147989793066E-23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.50209733424989E-2</c:v>
+                  <c:v>4.3598430056608754E-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6521312474688676E-2</c:v>
+                  <c:v>3.4255602369764219E-19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8013749594635853E-2</c:v>
+                  <c:v>1.6685609185828112E-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9496221532749078E-2</c:v>
+                  <c:v>5.4014925719551492E-16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0966638381221789E-2</c:v>
+                  <c:v>1.229462128898644E-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2422888190370627E-2</c:v>
+                  <c:v>2.0606445390193371E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3862841835390672E-2</c:v>
+                  <c:v>2.6423782141658445E-12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5284358038701038E-2</c:v>
+                  <c:v>2.6766452447055784E-11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6685288532059942E-2</c:v>
+                  <c:v>2.2004822956114729E-10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8063483341690262E-2</c:v>
+                  <c:v>1.502268739145018E-9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9416796178787011E-2</c:v>
+                  <c:v>8.6859776831664877E-9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0743089916978511E-2</c:v>
+                  <c:v>4.3260361382311521E-8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2040242137593714E-2</c:v>
+                  <c:v>1.8833971913821282E-7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.3306150722949876E-2</c:v>
+                  <c:v>7.2599795416191904E-7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.4538739477327804E-2</c:v>
+                  <c:v>2.5057789070989102E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.5735963754845934E-2</c:v>
+                  <c:v>7.8208192016833E-6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.6895816073086982E-2</c:v>
+                  <c:v>2.2266633319928001E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.8016331691074839E-2</c:v>
+                  <c:v>5.8279253302506481E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.909559413004578E-2</c:v>
+                  <c:v>1.4119769478299711E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.0131740615411945E-2</c:v>
+                  <c:v>3.1862129170455358E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.1122967418376583E-2</c:v>
+                  <c:v>6.7337769333722201E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.2067535075830792E-2</c:v>
+                  <c:v>1.3394963903093358E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.2963773467442182E-2</c:v>
+                  <c:v>2.5192670384341048E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.3810086729234451E-2</c:v>
+                  <c:v>4.4980253479526174E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.4604957983454835E-2</c:v>
+                  <c:v>7.6521929112598266E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.5346953865130993E-2</c:v>
+                  <c:v>1.2445787391360723E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.6034728826426163E-2</c:v>
+                  <c:v>1.9411474531159958E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.6667029200712296E-2</c:v>
+                  <c:v>2.9114326068600128E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.7242697009187348E-2</c:v>
+                  <c:v>4.2099488610585656E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.7760673493863956E-2</c:v>
+                  <c:v>5.8828350473762669E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.8220002361844805E-2</c:v>
+                  <c:v>7.9610744892588195E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.8619832726972223E-2</c:v>
+                  <c:v>0.10454252563674796</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.8959421736187367E-2</c:v>
+                  <c:v>0.1334580200110726</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.9238136869252938E-2</c:v>
+                  <c:v>0.16590530202404336</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.9455457901874281E-2</c:v>
+                  <c:v>0.2011492213841399</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.9610978523690982E-2</c:v>
+                  <c:v>0.23820325924474209</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.9704407604095449E-2</c:v>
+                  <c:v>0.27588729222768493</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.9735570100358162E-2</c:v>
+                  <c:v>0.31290493709476663</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.9704407604095449E-2</c:v>
+                  <c:v>0.34793185120821568</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.9610978523690996E-2</c:v>
+                  <c:v>0.37970545147559981</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.9455457901874281E-2</c:v>
+                  <c:v>0.4071069842220042</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.9238136869252938E-2</c:v>
+                  <c:v>0.42922849548685615</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.8959421736187367E-2</c:v>
+                  <c:v>0.4454196298161468</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.8619832726972223E-2</c:v>
+                  <c:v>0.45531188336956946</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.8220002361844805E-2</c:v>
+                  <c:v>0.45882054041946063</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.7760673493863956E-2</c:v>
+                  <c:v>0.45612670761169083</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.7242697009187362E-2</c:v>
+                  <c:v>0.44764342629902232</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.6667029200712296E-2</c:v>
+                  <c:v>0.43397071439785634</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.6034728826426205E-2</c:v>
+                  <c:v>0.41584459846999927</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.5346953865131007E-2</c:v>
+                  <c:v>0.39408485509301622</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.4604957983454849E-2</c:v>
+                  <c:v>0.36954544274130824</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.3810086729234465E-2</c:v>
+                  <c:v>0.34307063793661974</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.2963773467442223E-2</c:v>
+                  <c:v>0.31545884592455403</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.2067535075830834E-2</c:v>
+                  <c:v>0.28743506099585475</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.1122967418376624E-2</c:v>
+                  <c:v>0.25963209238678236</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.0131740615411987E-2</c:v>
+                  <c:v>0.23257999868863763</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.9095594130045822E-2</c:v>
+                  <c:v>0.20670270418641537</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.8016331691074867E-2</c:v>
+                  <c:v>0.18232049621838084</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.6895816073087023E-2</c:v>
+                  <c:v>0.15965699781694936</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.5735963754845962E-2</c:v>
+                  <c:v>0.13884923933077165</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.4538739477327859E-2</c:v>
+                  <c:v>0.11995957821527302</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.3306150722949904E-2</c:v>
+                  <c:v>0.10298840134868119</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.2040242137593769E-2</c:v>
+                  <c:v>8.7886757701217247E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.0743089916978567E-2</c:v>
+                  <c:v>7.4568286153011254E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.9416796178787052E-2</c:v>
+                  <c:v>6.2920005881136692E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.8063483341690304E-2</c:v>
+                  <c:v>5.2811713677595913E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.6685288532059998E-2</c:v>
+                  <c:v>4.4103878003003937E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.5284358038701094E-2</c:v>
+                  <c:v>3.665403202819955E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.3862841835390741E-2</c:v>
+                  <c:v>3.0321748957887296E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.2422888190370682E-2</c:v>
+                  <c:v>2.4972336123929718E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.0966638381221817E-2</c:v>
+                  <c:v>2.0479414274384763E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.9496221532749106E-2</c:v>
+                  <c:v>1.6726560081830596E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.8013749594635867E-2</c:v>
+                  <c:v>1.3608187881513585E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.6521312474688704E-2</c:v>
+                  <c:v>1.1029835255261695E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.5020973342498914E-2</c:v>
+                  <c:v>8.9079998607718164E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.3514764117297243E-2</c:v>
+                  <c:v>7.1696547046143271E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.2004681152684267E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.0492681129785834E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.8980677169218128E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.7470535171058233E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.5964070390809847E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.4463044258137625E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.2969161443924849E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.148406717999366E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.0009344834621924E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.8546513745803224E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.7097027313031573E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.5662271347255458E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.4243562677544909E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.2842148011951832E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.1459203049026172E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.0095831835479899E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3.8753066364573305E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.7431866408936226E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3.6133119580733238E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>3.4857641611340084E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>3.3606176842019796E-2</c:v>
+                  <c:v>5.751548009232707E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2398,663 +1529,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-45A6-4BCB-B2BE-6F6897A6E5CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ncdf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[0]!x</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.5000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.4000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.3000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.2000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.1000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4.0000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.9000000000000035</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.8000000000000034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.7000000000000033</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.6000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.5000000000000031</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.3000000000000029</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.2000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.1000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.0000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.9000000000000026</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.8000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.7000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.6000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.5000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.4000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.1000000000000019</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.9000000000000017</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7000000000000015</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.5000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.3000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-1.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.90000000000000091</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.80000000000000093</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.70000000000000095</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.60000000000000098</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.40000000000000102</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.30000000000000104</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.20000000000000104</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.10000000000000103</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-1.0269562977782698E-15</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9.9999999999998979E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.19999999999999898</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.29999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.39999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.59999999999999898</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.69999999999999896</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.79999999999999893</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.89999999999999891</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.99999999999999889</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.1999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2999999999999992</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.3999999999999992</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.4999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.5999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.6999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.8999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.9999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.1999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.5000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.9000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.3999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.4999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5999999999999988</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.6999999999999984</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.8999999999999977</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.9999999999999973</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[0]!ncdf</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0.15268159383311036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15865525393145713</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16478012998031044</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17105612630848172</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1774829537232322</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18406012534675942</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19078695285251052</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.19766254312269227</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.20468579534725251</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21185539858339653</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.21916982979337724</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.22662735237686799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.23422601521269465</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.24196365222307276</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.24983788247177674</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2578461108058645</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.26598552904870032</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.27425311775007333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28264564849720042</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.29115968678834614</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.29979159546869572</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.30853753872598666</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.31739348664125883</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.32635522028791986</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.33541833737016929</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.34457825838967565</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.35383023332727603</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.36316934882438068</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.37259053584671581</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.38208857781104716</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.39165811915360504</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.40129367431707608</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.41098963713127024</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.42074029056089679</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.43053981679232617</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.44038230762975733</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.45026177516988697</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.4601721627229709</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.47010735594710512</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4800611941616274</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.49002748180476186</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.49999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.50997251819523792</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.51993880583837238</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.52989264405289471</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.53982783727702888</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.54973822483011281</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.55961769237024239</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.56946018320767355</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.57925970943910288</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.58901036286872954</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.5987063256829237</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.60834188084639473</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.61791142218895256</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.62740946415328391</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.63683065117561899</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.64616976667272374</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.65542174161032407</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.66458166262983043</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.67364477971207992</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.6826065133587409</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.69146246127401301</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.70020840453130395</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.70884031321165353</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.71735435150279925</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.72574688224992634</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.73401447095129935</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.74215388919413527</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.75016211752822293</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.75803634777692697</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.76577398478730496</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.77337264762313174</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.78083017020662249</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.78814460141660314</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.79531420465274738</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.80233745687730762</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.80921304714748943</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.81593987465324047</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.82251704627676769</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.82894387369151823</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.83521987001968956</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.84134474606854281</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.84731840616688969</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.85314094362410409</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.85881263583487111</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.86433393905361733</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86970548286319116</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87492806436284987</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88000264210098744</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.88493032977829178</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.88971238974714872</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.89435022633314476</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.89884537900441408</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.9031995154143897</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.90741442434320507</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.91149200856259793</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.91543427764866436</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.91924334076622882</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.92292139944792806</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.9264707403903516</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.9298937282887767</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-45A6-4BCB-B2BE-6F6897A6E5CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3276,7 +1750,549 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[0]!strike</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[0]!jput</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.17112571861433423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2321879431957985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32556118066794149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4746916475353018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72148464792208244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1255646869698808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7214846479220824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4746916475352947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3255611806679468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2321879431958109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1711257186143342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC92-48B7-8B98-2F3CE8CA83E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[0]!strike</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[0]!nput</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.11807288295062524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22079106116632552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3853678358233239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6309751086400901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97414410439486687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4255473400794187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9878522343826148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6553526600854269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4154306054407897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.251260322242004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1448407517500812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC92-48B7-8B98-2F3CE8CA83E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1751457072"/>
+        <c:axId val="1751457552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1751457072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751457552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1751457552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751457072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3832,6 +2848,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3853,6 +3385,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37B54C6-513A-87E2-E200-06C0CFC01954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E3B608-E0CE-E9B4-BE19-AFB6C1A86092}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,16 +3763,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F0A76B-08E5-40E0-BCFA-A9D795A3DB2C}">
-  <dimension ref="B1:L103"/>
+  <dimension ref="B1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.4140625" customWidth="1"/>
     <col min="4" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="7" width="8.6640625" customWidth="1"/>
     <col min="11" max="12" width="11.75" bestFit="1" customWidth="1"/>
@@ -4208,34 +3781,34 @@
     <row r="1" spans="2:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I1" s="3">
         <f>1-SUM(pdf)*D19</f>
-        <v>0.98968046230571172</v>
+        <v>7.3807547559805453E-3</v>
       </c>
       <c r="K1" s="3">
         <f>1-SUM(npdf)*D19</f>
-        <v>0.2181814449184053</v>
+        <v>2.1898659267018949E-3</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0.1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
@@ -4243,27 +3816,27 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H3" cm="1">
-        <f t="array" ref="H3:H103">_xlfn.SEQUENCE(1+(C19-B19)/D19,1,B19,D19)</f>
-        <v>-5</v>
+        <f t="array" ref="H3:H83">_xlfn.SEQUENCE(1+(C19-B19)/D19,1,B19,D19)</f>
+        <v>1</v>
       </c>
       <c r="I3" cm="1">
-        <f t="array" ref="I3:I103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Johnson,_xlpm.x,s)))</f>
-        <v>8.1325471509349561E-5</v>
+        <f t="array" ref="I3:I83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Johnson,_xlpm.x,s)))</f>
+        <v>8.8668387166442389E-4</v>
       </c>
       <c r="J3" cm="1">
-        <f t="array" ref="J3:J103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Johnson,_xlpm.x,s)))</f>
-        <v>3.3409809180207084E-4</v>
+        <f t="array" ref="J3:J83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Johnson,_xlpm.x,s)))</f>
+        <v>1.3577946727624246E-3</v>
       </c>
       <c r="K3" cm="1">
-        <f t="array" ref="K3:K103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Normal,_xlpm.x,s)))</f>
-        <v>5.8980677169218135E-2</v>
+        <f t="array" ref="K3:K83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Normal,_xll.NORMAL.MONEYNESS(f,s,_xlpm.x))/(s*_xlpm.x)))</f>
+        <v>1.1124644433352448E-31</v>
       </c>
       <c r="L3" cm="1">
-        <f t="array" ref="L3:L103">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Normal,_xlpm.x,s)))</f>
-        <v>0.15268159383311036</v>
+        <f t="array" ref="L3:L83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Normal,_xll.NORMAL.MONEYNESS(f,s,_xlpm.x))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -4271,22 +3844,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>-4.9000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I4">
-        <v>8.3747258629299302E-5</v>
+        <v>9.6059283809736648E-4</v>
       </c>
       <c r="J4">
-        <v>3.4235103248658749E-4</v>
+        <v>1.4501000260063734E-3</v>
       </c>
       <c r="K4">
-        <v>6.0492681129785834E-2</v>
+        <v>1.8811298513891116E-28</v>
       </c>
       <c r="L4">
-        <v>0.15865525393145713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -4297,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-4.8000000000000007</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I5">
-        <v>8.6254232474303633E-5</v>
+        <v>1.0419254433636344E-3</v>
       </c>
       <c r="J5">
-        <v>3.5085038291449155E-4</v>
+        <v>1.5501605784903338E-3</v>
       </c>
       <c r="K5">
-        <v>6.2004681152684267E-2</v>
+        <v>1.1600421454975094E-25</v>
       </c>
       <c r="L5">
-        <v>0.16478012998031044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -4320,437 +3893,486 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-4.7000000000000011</v>
+        <v>1.3000000000000003</v>
       </c>
       <c r="I6">
-        <v>8.8849868006336312E-5</v>
+        <v>1.1315625443476366E-3</v>
       </c>
       <c r="J6">
-        <v>3.5960483419117395E-4</v>
+        <v>1.6587617965870827E-3</v>
       </c>
       <c r="K6">
-        <v>6.3514764117297243E-2</v>
+        <v>3.153147989793066E-23</v>
       </c>
       <c r="L6">
-        <v>0.17105612630848172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" cm="1">
+        <f t="array" ref="C7">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
+        <v>2289869316112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="H7">
-        <v>-4.6000000000000014</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="I7">
-        <v>9.1537802129834696E-5</v>
+        <v>1.2305064932842586E-3</v>
       </c>
       <c r="J7">
-        <v>3.6862343294619127E-4</v>
+        <v>1.7767831597259032E-3</v>
       </c>
       <c r="K7">
-        <v>6.50209733424989E-2</v>
+        <v>4.3598430056608754E-21</v>
       </c>
       <c r="L7">
-        <v>0.1774829537232322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>-4.5000000000000018</v>
+        <v>1.5000000000000004</v>
       </c>
       <c r="I8">
-        <v>9.4321842207431393E-5</v>
+        <v>1.3399003599820004E-3</v>
       </c>
       <c r="J8">
-        <v>3.7791559794958518E-4</v>
+        <v>1.9052112448371128E-3</v>
       </c>
       <c r="K8">
-        <v>6.6521312474688676E-2</v>
+        <v>3.4255602369764219E-19</v>
       </c>
       <c r="L8">
-        <v>0.18406012534675942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" cm="1">
-        <f t="array" ref="C9">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>2540972209616</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" cm="1">
+        <f t="array" ref="C9">_xll.JOHNSON.MOMENT(Johnson,B9)</f>
+        <v>6</v>
       </c>
       <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H9">
-        <v>-4.4000000000000021</v>
+        <v>1.6000000000000005</v>
       </c>
       <c r="I9">
-        <v>9.7205975075748729E-5</v>
+        <v>1.4610506038847508E-3</v>
       </c>
       <c r="J9">
-        <v>3.8749113760405685E-4</v>
+        <v>2.0451549002782343E-3</v>
       </c>
       <c r="K9">
-        <v>6.8013749594635853E-2</v>
+        <v>1.6685609185828112E-17</v>
       </c>
       <c r="L9">
-        <v>0.19078695285251052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" cm="1">
+        <f t="array" ref="C10">_xll.JOHNSON.MOMENT(Johnson,B10)</f>
+        <v>36.798632012366333</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>-4.3000000000000025</v>
+        <v>1.7000000000000006</v>
       </c>
       <c r="I10">
-        <v>1.0019437659376204E-4</v>
+        <v>1.5954538916816818E-3</v>
       </c>
       <c r="J10">
-        <v>3.9736026836517668E-4</v>
+        <v>2.197862887846902E-3</v>
       </c>
       <c r="K10">
-        <v>6.9496221532749078E-2</v>
+        <v>5.4014925719551492E-16</v>
       </c>
       <c r="L10">
-        <v>0.19766254312269227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" cm="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" cm="1">
         <f t="array" ref="C11">_xll.JOHNSON.MOMENT(Johnson,B11)</f>
-        <v>10</v>
+        <v>230.37537622259396</v>
       </c>
       <c r="H11">
-        <v>-4.2000000000000028</v>
+        <v>1.8000000000000007</v>
       </c>
       <c r="I11">
-        <v>1.0329142175855919E-4</v>
+        <v>1.744828912535922E-3</v>
       </c>
       <c r="J11">
-        <v>4.0753363414458565E-4</v>
+        <v>2.3647444485889735E-3</v>
       </c>
       <c r="K11">
-        <v>7.0966638381221789E-2</v>
+        <v>1.229462128898644E-14</v>
       </c>
       <c r="L11">
-        <v>0.20468579534725251</v>
+        <v>3.8857805861880479E-16</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" cm="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" cm="1">
         <f t="array" ref="C12">_xll.JOHNSON.MOMENT(Johnson,B12)</f>
-        <v>103.19452804946532</v>
+        <v>1491.5857784417994</v>
       </c>
       <c r="H12">
-        <v>-4.1000000000000032</v>
+        <v>1.9000000000000008</v>
       </c>
       <c r="I12">
-        <v>1.065016954258232E-4</v>
+        <v>1.911154238246948E-3</v>
       </c>
       <c r="J12">
-        <v>4.1802232675458573E-4</v>
+        <v>2.547393342712756E-3</v>
       </c>
       <c r="K12">
-        <v>7.2422888190370627E-2</v>
+        <v>2.0606445390193371E-13</v>
       </c>
       <c r="L12">
-        <v>0.21185539858339653</v>
+        <v>7.4384942649885488E-15</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" cm="1">
-        <f t="array" ref="C13">_xll.JOHNSON.MOMENT(Johnson,B13)</f>
-        <v>1095.8358414839597</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C9</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="7">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.20478507635085622</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13">
-        <v>-4.0000000000000036</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="I13">
-        <v>1.0983000367506436E-4</v>
+        <v>2.0967135204184562E-3</v>
       </c>
       <c r="J13">
-        <v>4.2883790745673611E-4</v>
+        <v>2.7476160304290009E-3</v>
       </c>
       <c r="K13">
-        <v>7.3862841835390672E-2</v>
+        <v>2.6423782141658445E-12</v>
       </c>
       <c r="L13">
-        <v>0.21916982979337724</v>
+        <v>1.0474954237338352E-13</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" cm="1">
-        <f t="array" ref="C14">_xll.JOHNSON.MOMENT(Johnson,B14)</f>
-        <v>12286.017050009947</v>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C10-C9^2</f>
+        <v>0.7986320123663333</v>
+      </c>
+      <c r="E14" s="7">
+        <f ca="1">f*EXP(s*E13-s*s/2)</f>
+        <v>6.1173126336917463</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="array" aca="1" ref="F14:G14" ca="1">_xll.MONTE.STDEV(E14)</f>
+        <v>6.0030498849921701</v>
+      </c>
+      <c r="G14" s="7">
+        <f ca="1"/>
+        <v>0.8956626141652041</v>
       </c>
       <c r="H14">
-        <v>-3.9000000000000035</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="I14">
-        <v>1.1328138586254344E-4</v>
+        <v>2.3041496247767379E-3</v>
       </c>
       <c r="J14">
-        <v>4.3999242968095764E-4</v>
+        <v>2.9674648045471264E-3</v>
       </c>
       <c r="K14">
-        <v>7.5284358038701038E-2</v>
+        <v>2.6766452447055784E-11</v>
       </c>
       <c r="L14">
-        <v>0.22662735237686799</v>
+        <v>1.1644019082268642E-12</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <f>C11</f>
-        <v>10</v>
-      </c>
-      <c r="E15" s="2"/>
+        <f>mean</f>
+        <v>6</v>
+      </c>
+      <c r="E15" s="7">
+        <f ca="1">E14^2</f>
+        <v>37.421513858324651</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="array" aca="1" ref="F15:G15" ca="1">_xll.MONTE.STDEV(E15)</f>
+        <v>36.838796679111141</v>
+      </c>
+      <c r="G15" s="7">
+        <f ca="1"/>
+        <v>11.19848352713225</v>
+      </c>
       <c r="H15">
-        <v>-3.8000000000000034</v>
+        <v>2.2000000000000011</v>
       </c>
       <c r="I15">
-        <v>1.1686112740796172E-4</v>
+        <v>2.5365296921837635E-3</v>
       </c>
       <c r="J15">
-        <v>4.5149846298614404E-4</v>
+        <v>3.2092768643814384E-3</v>
       </c>
       <c r="K15">
-        <v>7.6685288532059942E-2</v>
+        <v>2.2004822956114729E-10</v>
       </c>
       <c r="L15">
-        <v>0.23422601521269465</v>
+        <v>1.0480116774402859E-11</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <f>SQRT(C12-C11^2)</f>
-        <v>1.787324270932759</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SQRT(LN(m_2/(m_1*m_1)))</f>
+        <v>0.14812741964544848</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <f>f*f*EXP(s*s)</f>
+        <v>36.798632012366326</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="H16">
-        <v>-3.7000000000000033</v>
+        <v>2.3000000000000012</v>
       </c>
       <c r="I16">
-        <v>1.2057477336439642E-4</v>
+        <v>2.7974236102196264E-3</v>
       </c>
       <c r="J16">
-        <v>4.6336911833849692E-4</v>
+        <v>3.4757205431962257E-3</v>
       </c>
       <c r="K16">
-        <v>7.8063483341690262E-2</v>
+        <v>1.502268739145018E-9</v>
       </c>
       <c r="L16">
-        <v>0.24196365222307276</v>
+        <v>7.815703639835192E-11</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" cm="1">
-        <f t="array" ref="C17">_xll.\VARIATE.NORMAL(mu, sigma)</f>
-        <v>2541180997344</v>
+        <f t="array" ref="C17">_xll.\VARIATE.NORMAL(0, 1)</f>
+        <v>2289967381376</v>
       </c>
       <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
+        <f ca="1">(F16-F15)/G15</f>
+        <v>-3.5866165849600799E-3</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="H17">
-        <v>-3.6000000000000032</v>
+        <v>2.4000000000000012</v>
       </c>
       <c r="I17">
-        <v>1.2442814282461969E-4</v>
+        <v>3.0909990095621042E-3</v>
       </c>
       <c r="J17">
-        <v>4.7561807478779805E-4</v>
+        <v>3.7698501800405571E-3</v>
       </c>
       <c r="K17">
-        <v>7.9416796178787011E-2</v>
+        <v>8.6859776831664877E-9</v>
       </c>
       <c r="L17">
-        <v>0.24983788247177674</v>
+        <v>4.9267839807853875E-10</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H18">
-        <v>-3.5000000000000031</v>
+        <v>2.5000000000000013</v>
       </c>
       <c r="I18">
-        <v>1.284273442209066E-4</v>
+        <v>3.4221367069174999E-3</v>
       </c>
       <c r="J18">
-        <v>4.8825960762854947E-4</v>
+        <v>4.0951714769393299E-3</v>
       </c>
       <c r="K18">
-        <v>8.0743089916978511E-2</v>
+        <v>4.3260361382311521E-8</v>
       </c>
       <c r="L18">
-        <v>0.2578461108058645</v>
+        <v>2.6706043487756403E-9</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>0.1</v>
       </c>
       <c r="H19">
-        <v>-3.400000000000003</v>
+        <v>2.6000000000000014</v>
       </c>
       <c r="I19">
-        <v>1.3257879157972124E-4</v>
+        <v>3.7965715557000648E-3</v>
       </c>
       <c r="J19">
-        <v>5.0130861813879601E-4</v>
+        <v>4.4557196243518171E-3</v>
       </c>
       <c r="K19">
-        <v>8.2040242137593714E-2</v>
+        <v>1.8833971913821282E-7</v>
       </c>
       <c r="L19">
-        <v>0.26598552904870032</v>
+        <v>1.2634994273064137E-8</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H20">
-        <v>-3.3000000000000029</v>
+        <v>2.7000000000000015</v>
       </c>
       <c r="I20">
-        <v>1.368892217973088E-4</v>
+        <v>4.221065010217755E-3</v>
       </c>
       <c r="J20">
-        <v>5.1478066499416331E-4</v>
+        <v>4.8561530382466578E-3</v>
       </c>
       <c r="K20">
-        <v>8.3306150722949876E-2</v>
+        <v>7.2599795416191904E-7</v>
       </c>
       <c r="L20">
-        <v>0.27425311775007333</v>
+        <v>5.2856986509919324E-8</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.79626444700830856</v>
-      </c>
-      <c r="E21" t="e">
+        <v>-0.45767564398012212</v>
+      </c>
+      <c r="E21">
         <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(Z)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" t="e">
+        <v>5.4843010306731988E-3</v>
+      </c>
+      <c r="F21">
         <f ca="1"/>
-        <v>#NAME?</v>
+        <v>1.0024162775959882</v>
       </c>
       <c r="H21">
-        <v>-3.2000000000000028</v>
+        <v>2.8000000000000016</v>
       </c>
       <c r="I21">
-        <v>1.4136571300723934E-4</v>
+        <v>4.7036174571953677E-3</v>
       </c>
       <c r="J21">
-        <v>5.2869199746397033E-4</v>
+        <v>5.3018662662685512E-3</v>
       </c>
       <c r="K21">
-        <v>8.4538739477327804E-2</v>
+        <v>2.5057789070989102E-6</v>
       </c>
       <c r="L21">
-        <v>0.28264564849720042</v>
+        <v>1.9775983012282339E-7</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <f ca="1">(Z-gamma)/delta</f>
-        <v>0.79626444700830856</v>
-      </c>
-      <c r="E22" t="e">
+        <v>-0.45767564398012212</v>
+      </c>
+      <c r="E22">
         <f t="array" aca="1" ref="E22:F22" ca="1">_xll.MONTE.STDEV(C22)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F22" t="e">
+        <v>5.4843010306731988E-3</v>
+      </c>
+      <c r="F22">
         <f ca="1"/>
-        <v>#NAME?</v>
+        <v>1.0024162775959882</v>
       </c>
       <c r="H22">
-        <v>-3.1000000000000028</v>
+        <v>2.9000000000000017</v>
       </c>
       <c r="I22">
-        <v>1.4601570411638913E-4</v>
+        <v>5.2537306530203234E-3</v>
       </c>
       <c r="J22">
-        <v>5.4305959050177099E-4</v>
+        <v>5.799126534942689E-3</v>
       </c>
       <c r="K22">
-        <v>8.5735963754845934E-2</v>
+        <v>7.8208192016833E-6</v>
       </c>
       <c r="L22">
-        <v>0.29115968678834614</v>
+        <v>6.6840401236056834E-7</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <f ca="1">SINH(C22)</f>
-        <v>0.88311610793408302</v>
-      </c>
-      <c r="E23" t="e">
+        <v>-0.47382181439736659</v>
+      </c>
+      <c r="E23">
         <f t="array" aca="1" ref="E23:F23" ca="1">_xll.MONTE.STDEV(C23)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F23" t="e">
+        <v>9.9349497670460293E-3</v>
+      </c>
+      <c r="F23">
         <f ca="1"/>
-        <v>#NAME?</v>
+        <v>1.8437090755255416</v>
       </c>
       <c r="H23">
-        <v>-3.0000000000000027</v>
+        <v>3.0000000000000018</v>
       </c>
       <c r="I23">
-        <v>1.5084701559173164E-4</v>
+        <v>5.8827336067863575E-3</v>
       </c>
       <c r="J23">
-        <v>5.5790118185111703E-4</v>
+        <v>6.3552395869006517E-3</v>
       </c>
       <c r="K23">
-        <v>8.6895816073086982E-2</v>
+        <v>2.2266633319928001E-5</v>
       </c>
       <c r="L23">
-        <v>0.29979159546869572</v>
+        <v>2.0590170277667852E-6</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
@@ -4759,38 +4381,38 @@
       </c>
       <c r="C24">
         <f ca="1">POWER($C$23,B24)</f>
-        <v>0.88311610793408302</v>
+        <v>-0.47382181439736659</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.JOHNSON.Esinh_k(Johnson,B24)</f>
         <v>0</v>
       </c>
-      <c r="E24" t="e">
+      <c r="E24">
         <f t="array" aca="1" ref="E24:F24" ca="1">_xll.MONTE.STDEV(C24)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F24" t="e">
+        <v>9.9329803064557316E-3</v>
+      </c>
+      <c r="F24">
         <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G24" t="e">
+        <v>1.8437351683331624</v>
+      </c>
+      <c r="G24">
         <f ca="1">(D24-E24)/F24</f>
-        <v>#NAME?</v>
+        <v>-5.3874224872738586E-3</v>
       </c>
       <c r="H24">
-        <v>-2.9000000000000026</v>
+        <v>3.1000000000000019</v>
       </c>
       <c r="I24">
-        <v>1.5586787158670251E-4</v>
+        <v>6.6041892147967627E-3</v>
       </c>
       <c r="J24">
-        <v>5.7323531129627181E-4</v>
+        <v>6.9787519801180475E-3</v>
       </c>
       <c r="K24">
-        <v>8.8016331691074839E-2</v>
+        <v>5.8279253302506481E-5</v>
       </c>
       <c r="L24">
-        <v>0.30853753872598666</v>
+        <v>5.8267322448068981E-6</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
@@ -4799,38 +4421,38 @@
       </c>
       <c r="C25">
         <f ca="1">POWER($C$23,B25)</f>
-        <v>0.77989406009264295</v>
+        <v>0.22450711179881253</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" ref="D25">_xll.JOHNSON.Esinh_k(Johnson,B25)</f>
         <v>3.1945280494653252</v>
       </c>
-      <c r="E25" t="e">
+      <c r="E25">
         <f t="array" aca="1" ref="E25:F25" ca="1">_xll.MONTE.STDEV(C25)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F25" t="e">
+        <v>3.3993615856230419</v>
+      </c>
+      <c r="F25">
         <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G25" t="e">
+        <v>31.70785202801471</v>
+      </c>
+      <c r="G25">
         <f ca="1">(D25-E25)/F25</f>
-        <v>#NAME?</v>
+        <v>-6.4600256105882218E-3</v>
       </c>
       <c r="H25">
-        <v>-2.8000000000000025</v>
+        <v>3.200000000000002</v>
       </c>
       <c r="I25">
-        <v>1.6108692350282403E-4</v>
+        <v>7.4344042205264143E-3</v>
       </c>
       <c r="J25">
-        <v>5.8908136219676388E-4</v>
+        <v>7.6796990025644885E-3</v>
       </c>
       <c r="K25">
-        <v>8.909559413004578E-2</v>
+        <v>1.4119769478299711E-4</v>
       </c>
       <c r="L25">
-        <v>0.31739348664125883</v>
+        <v>1.5254157879895924E-5</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
@@ -4839,38 +4461,38 @@
       </c>
       <c r="C26">
         <f ca="1">POWER($C$23,B26)</f>
-        <v>0.68873700694992468</v>
+        <v>-0.10637636705762578</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.JOHNSON.Esinh_k(Johnson,B26)</f>
         <v>0</v>
       </c>
-      <c r="E26" t="e">
+      <c r="E26">
         <f t="array" aca="1" ref="E26:F26" ca="1">_xll.MONTE.STDEV(C26)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F26" t="e">
+        <v>7.0577759809248919</v>
+      </c>
+      <c r="F26">
         <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G26" t="e">
+        <v>1656.8200179745322</v>
+      </c>
+      <c r="G26">
         <f ca="1">(D26-E26)/F26</f>
-        <v>#NAME?</v>
+        <v>-4.2598326338144114E-3</v>
       </c>
       <c r="H26">
-        <v>-2.7000000000000024</v>
+        <v>3.300000000000002</v>
       </c>
       <c r="I26">
-        <v>1.6651327508980198E-4</v>
+        <v>8.3930721128567184E-3</v>
       </c>
       <c r="J26">
-        <v>6.0545960545377309E-4</v>
+        <v>8.4699099478720008E-3</v>
       </c>
       <c r="K26">
-        <v>9.0131740615411945E-2</v>
+        <v>3.1862129170455358E-4</v>
       </c>
       <c r="L26">
-        <v>0.32635522028791986</v>
+        <v>3.7177725700554554E-5</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
@@ -4879,1353 +4501,1013 @@
       </c>
       <c r="C27">
         <f ca="1">POWER($C$23,B27)</f>
-        <v>0.60823474496778696</v>
+        <v>5.0403443248244507E-2</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.JOHNSON.Esinh_k(Johnson,B27)</f>
         <v>369.30022033075073</v>
       </c>
-      <c r="E27" t="e">
+      <c r="E27">
         <f t="array" aca="1" ref="E27:F27" ca="1">_xll.MONTE.STDEV(C27)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F27" t="e">
+        <v>1016.9150137230262</v>
+      </c>
+      <c r="F27">
         <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G27" t="e">
+        <v>94982.3497158354</v>
+      </c>
+      <c r="G27">
         <f ca="1">(D27-E27)/F27</f>
-        <v>#NAME?</v>
+        <v>-6.8182646073695263E-3</v>
       </c>
       <c r="H27">
-        <v>-2.6000000000000023</v>
+        <v>3.4000000000000021</v>
       </c>
       <c r="I27">
-        <v>1.721565091954598E-4</v>
+        <v>9.5040880334958805E-3</v>
       </c>
       <c r="J27">
-        <v>6.2239124606822127E-4</v>
+        <v>9.3633859083501192E-3</v>
       </c>
       <c r="K27">
-        <v>9.1122967418376583E-2</v>
+        <v>6.7337769333722201E-4</v>
       </c>
       <c r="L27">
-        <v>0.33541833737016929</v>
+        <v>8.4832793037892262E-5</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H28">
-        <v>-2.5000000000000022</v>
+        <v>3.5000000000000022</v>
       </c>
       <c r="I28">
-        <v>1.7802671628575889E-4</v>
+        <v>1.0796587545932147E-2</v>
       </c>
       <c r="J28">
-        <v>6.3989847246143094E-4</v>
+        <v>1.03767697555186E-2</v>
       </c>
       <c r="K28">
-        <v>9.2067535075830792E-2</v>
+        <v>1.3394963903093358E-3</v>
       </c>
       <c r="L28">
-        <v>0.34457825838967565</v>
+        <v>1.8215588680597916E-4</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
-        <v>10.883116107934082</v>
+        <v>5.7630890928013168</v>
       </c>
       <c r="D29">
         <f>mu</f>
-        <v>-1</v>
-      </c>
-      <c r="E29" t="e">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <f t="array" aca="1" ref="E29:F29" ca="1">_xll.MONTE.STDEV(C29)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F29" t="e">
+        <v>6.0049664901532385</v>
+      </c>
+      <c r="F29">
         <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G29" t="e">
+        <v>0.92186758416657955</v>
+      </c>
+      <c r="G29">
         <f ca="1">(D29-E29)/F29</f>
-        <v>#NAME?</v>
+        <v>-6.5139143552618437</v>
       </c>
       <c r="H29">
-        <v>-2.4000000000000021</v>
+        <v>3.6000000000000023</v>
       </c>
       <c r="I29">
-        <v>1.8413452486478035E-4</v>
+        <v>1.2306278487664461E-2</v>
       </c>
       <c r="J29">
-        <v>6.5800450874142768E-4</v>
+        <v>1.1529933987328655E-2</v>
       </c>
       <c r="K29">
-        <v>9.2963773467442182E-2</v>
+        <v>2.5192670384341048E-3</v>
       </c>
       <c r="L29">
-        <v>0.35383023332727603</v>
+        <v>3.6976064473437376E-4</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H30">
-        <v>-2.300000000000002</v>
+        <v>3.7000000000000024</v>
       </c>
       <c r="I30">
-        <v>1.9049113393504295E-4</v>
+        <v>1.4077158858943813E-2</v>
       </c>
       <c r="J30">
-        <v>6.7673367011206187E-4</v>
+        <v>1.2846720167876025E-2</v>
       </c>
       <c r="K30">
-        <v>9.3810086729234451E-2</v>
+        <v>4.4980253479526174E-3</v>
       </c>
       <c r="L30">
-        <v>0.36316934882438068</v>
+        <v>7.1253946788701894E-4</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H31">
-        <v>-2.200000000000002</v>
+        <v>3.8000000000000025</v>
       </c>
       <c r="I31">
-        <v>1.9710834764993337E-4</v>
+        <v>1.616374628726586E-2</v>
       </c>
       <c r="J31">
-        <v>6.9611142163672479E-4</v>
+        <v>1.4355874523467871E-2</v>
       </c>
       <c r="K31">
-        <v>9.4604957983454835E-2</v>
+        <v>7.6521929112598266E-3</v>
       </c>
       <c r="L31">
-        <v>0.37259053584671581</v>
+        <v>1.3084466055950927E-3</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H32">
-        <v>-2.1000000000000019</v>
+        <v>3.9000000000000026</v>
       </c>
       <c r="I32">
-        <v>2.0399861232245941E-4</v>
+        <v>1.8633989545868274E-2</v>
       </c>
       <c r="J32">
-        <v>7.1616444058353323E-4</v>
+        <v>1.6092238938931691E-2</v>
       </c>
       <c r="K32">
-        <v>9.5346953865130993E-2</v>
+        <v>1.2445787391360723E-2</v>
       </c>
       <c r="L32">
-        <v>0.38208857781104716</v>
+        <v>2.2975469868894427E-3</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H33">
-        <v>-2.0000000000000018</v>
+        <v>4.0000000000000027</v>
       </c>
       <c r="I33">
-        <v>2.1117505596806582E-4</v>
+        <v>2.157309478537521E-2</v>
       </c>
       <c r="J33">
-        <v>7.3692068259628707E-4</v>
+        <v>1.8098276586334616E-2</v>
       </c>
       <c r="K33">
-        <v>9.6034728826426163E-2</v>
+        <v>1.9411474531159958E-2</v>
       </c>
       <c r="L33">
-        <v>0.39165811915360504</v>
+        <v>3.8699689662288206E-3</v>
       </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H34">
-        <v>-1.9000000000000017</v>
+        <v>4.1000000000000023</v>
       </c>
       <c r="I34">
-        <v>2.1865153057401952E-4</v>
+        <v>2.5088585322889542E-2</v>
       </c>
       <c r="J34">
-        <v>7.5840945195493337E-4</v>
+        <v>2.0426038759288001E-2</v>
       </c>
       <c r="K34">
-        <v>9.6667029200712296E-2</v>
+        <v>2.9114326068600128E-2</v>
       </c>
       <c r="L34">
-        <v>0.40129367431707608</v>
+        <v>6.2711012614361517E-3</v>
       </c>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H35">
-        <v>-1.8000000000000016</v>
+        <v>4.200000000000002</v>
       </c>
       <c r="I35">
-        <v>2.2644265730395862E-4</v>
+        <v>2.931703319012734E-2</v>
       </c>
       <c r="J35">
-        <v>7.8066147620731163E-4</v>
+        <v>2.3139717016422645E-2</v>
       </c>
       <c r="K35">
-        <v>9.7242697009187348E-2</v>
+        <v>4.2099488610585656E-2</v>
       </c>
       <c r="L35">
-        <v>0.41098963713127024</v>
+        <v>9.8023370490290529E-3</v>
       </c>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H36">
-        <v>-1.7000000000000015</v>
+        <v>4.3000000000000016</v>
       </c>
       <c r="I36">
-        <v>2.3456387486377482E-4</v>
+        <v>3.4433065131738244E-2</v>
       </c>
       <c r="J36">
-        <v>8.0370898547799108E-4</v>
+        <v>2.6318976348940204E-2</v>
       </c>
       <c r="K36">
-        <v>9.7760673493863956E-2</v>
+        <v>5.8828350473762669E-2</v>
       </c>
       <c r="L36">
-        <v>0.42074029056089679</v>
+        <v>1.4815958062302403E-2</v>
       </c>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H37">
-        <v>-1.6000000000000014</v>
+        <v>4.4000000000000012</v>
       </c>
       <c r="I37">
-        <v>2.4303149127418637E-4</v>
+        <v>4.0661469801546772E-2</v>
       </c>
       <c r="J37">
-        <v>8.2758579678143818E-4</v>
+        <v>3.0063335998951779E-2</v>
       </c>
       <c r="K37">
-        <v>9.8220002361844805E-2</v>
+        <v>7.9610744892588195E-2</v>
       </c>
       <c r="L37">
-        <v>0.43053981679232617</v>
+        <v>2.1703364651257495E-2</v>
       </c>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H38">
-        <v>-1.5000000000000013</v>
+        <v>4.5000000000000009</v>
       </c>
       <c r="I38">
-        <v>2.5186273931632137E-4</v>
+        <v>4.829353096872406E-2</v>
       </c>
       <c r="J38">
-        <v>8.5232740369423077E-4</v>
+        <v>3.4497961467383487E-2</v>
       </c>
       <c r="K38">
-        <v>9.8619832726972223E-2</v>
+        <v>0.10454252563674796</v>
       </c>
       <c r="L38">
-        <v>0.44038230762975733</v>
+        <v>3.0876713584996551E-2</v>
       </c>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H39">
-        <v>-1.4000000000000012</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="I39">
-        <v>2.6107583593956138E-4</v>
+        <v>5.7709089888482105E-2</v>
       </c>
       <c r="J39">
-        <v>8.7797107176706968E-4</v>
+        <v>3.9781362006405196E-2</v>
       </c>
       <c r="K39">
-        <v>9.8959421736187367E-2</v>
+        <v>0.1334580200110726</v>
       </c>
       <c r="L39">
-        <v>0.45026177516988697</v>
+        <v>4.2744982044650937E-2</v>
       </c>
     </row>
     <row r="40" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H40">
-        <v>-1.3000000000000012</v>
+        <v>4.7</v>
       </c>
       <c r="I40">
-        <v>2.7069004594597394E-4</v>
+        <v>6.940627433837751E-2</v>
       </c>
       <c r="J40">
-        <v>9.0455594008875817E-4</v>
+        <v>4.6115659720046165E-2</v>
       </c>
       <c r="K40">
-        <v>9.9238136869252938E-2</v>
+        <v>0.16590530202404336</v>
       </c>
       <c r="L40">
-        <v>0.4601721627229709</v>
+        <v>5.7686362432050775E-2</v>
       </c>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H41">
-        <v>-1.2000000000000011</v>
+        <v>4.8</v>
       </c>
       <c r="I41">
-        <v>2.8072575029314045E-4</v>
+        <v>8.4041210885873796E-2</v>
       </c>
       <c r="J41">
-        <v>9.3212312944673803E-4</v>
+        <v>5.3760310451663129E-2</v>
       </c>
       <c r="K41">
-        <v>9.9455457901874281E-2</v>
+        <v>0.2011492213841399</v>
       </c>
       <c r="L41">
-        <v>0.47010735594710512</v>
+        <v>7.6019546490850132E-2</v>
       </c>
     </row>
     <row r="42" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H42">
-        <v>-1.100000000000001</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="I42">
-        <v>2.9120451938725427E-4</v>
+        <v>0.10248002615379626</v>
       </c>
       <c r="J42">
-        <v>9.6071585756402067E-4</v>
+        <v>6.305039345271557E-2</v>
       </c>
       <c r="K42">
-        <v>9.9610978523690982E-2</v>
+        <v>0.23820325924474209</v>
       </c>
       <c r="L42">
-        <v>0.4800611941616274</v>
+        <v>9.797676174596881E-2</v>
       </c>
     </row>
     <row r="43" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H43">
-        <v>-1.0000000000000009</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="I43">
-        <v>3.0214919177136917E-4</v>
+        <v>0.12586416596247432</v>
       </c>
       <c r="J43">
-        <v>9.9037956193170906E-4</v>
+        <v>7.4420770258741831E-2</v>
       </c>
       <c r="K43">
-        <v>9.9704407604095449E-2</v>
+        <v>0.27588729222768493</v>
       </c>
       <c r="L43">
-        <v>0.49002748180476186</v>
+        <v>0.12368132882247646</v>
       </c>
     </row>
     <row r="44" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H44">
-        <v>-0.90000000000000091</v>
+        <v>5.0999999999999988</v>
       </c>
       <c r="I44">
-        <v>3.1358395864985425E-4</v>
+        <v>0.15568538300626228</v>
       </c>
       <c r="J44">
-        <v>1.0211620307984393E-3</v>
+        <v>8.8437325073202289E-2</v>
       </c>
       <c r="K44">
-        <v>9.9735570100358162E-2</v>
+        <v>0.31290493709476663</v>
       </c>
       <c r="L44">
-        <v>0.49999999999999989</v>
+        <v>0.15313203849753049</v>
       </c>
     </row>
     <row r="45" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H45">
-        <v>-0.80000000000000093</v>
+        <v>5.1999999999999984</v>
       </c>
       <c r="I45">
-        <v>3.2553445472984291E-4</v>
+        <v>0.19385374387987608</v>
       </c>
       <c r="J45">
-        <v>1.0531135429236449E-3</v>
+        <v>0.105835585906987</v>
       </c>
       <c r="K45">
-        <v>9.9704407604095449E-2</v>
+        <v>0.34793185120821568</v>
       </c>
       <c r="L45">
-        <v>0.50997251819523792</v>
+        <v>0.1861958888819249</v>
       </c>
     </row>
     <row r="46" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H46">
-        <v>-0.70000000000000095</v>
+        <v>5.299999999999998</v>
       </c>
       <c r="I46">
-        <v>3.3802785590409312E-4</v>
+        <v>0.24271009910123953</v>
       </c>
       <c r="J46">
-        <v>1.0862870167527294E-3</v>
+        <v>0.1275639896320368</v>
       </c>
       <c r="K46">
-        <v>9.9610978523690996E-2</v>
+        <v>0.37970545147559981</v>
       </c>
       <c r="L46">
-        <v>0.51993880583837238</v>
+        <v>0.22260980308668743</v>
       </c>
     </row>
     <row r="47" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H47">
-        <v>-0.60000000000000098</v>
+        <v>5.3999999999999977</v>
       </c>
       <c r="I47">
-        <v>3.5109298434767423E-4</v>
+        <v>0.30486352028865021</v>
       </c>
       <c r="J47">
-        <v>1.1207381697263541E-3</v>
+        <v>0.15482109010094225</v>
       </c>
       <c r="K47">
-        <v>9.9455457901874281E-2</v>
+        <v>0.4071069842220042</v>
       </c>
       <c r="L47">
-        <v>0.52989264405289471</v>
+        <v>0.26199100664670777</v>
       </c>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H48">
-        <v>-0.500000000000001</v>
+        <v>5.4999999999999973</v>
       </c>
       <c r="I48">
-        <v>3.6476042165363838E-4</v>
+        <v>0.38259639558195085</v>
       </c>
       <c r="J48">
-        <v>1.1565256884952801E-3</v>
+        <v>0.18905782442940916</v>
       </c>
       <c r="K48">
-        <v>9.9238136869252938E-2</v>
+        <v>0.42922849548685615</v>
       </c>
       <c r="L48">
-        <v>0.53982783727702888</v>
+        <v>0.30385490995828296</v>
       </c>
     </row>
     <row r="49" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H49">
-        <v>-0.40000000000000102</v>
+        <v>5.599999999999997</v>
       </c>
       <c r="I49">
-        <v>3.790626306909701E-4</v>
+        <v>0.47637931574696657</v>
       </c>
       <c r="J49">
-        <v>1.1937114108799274E-3</v>
+        <v>0.23188039478608408</v>
       </c>
       <c r="K49">
-        <v>9.8959421736187367E-2</v>
+        <v>0.4454196298161468</v>
       </c>
       <c r="L49">
-        <v>0.54973822483011281</v>
+        <v>0.34763871034746957</v>
       </c>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H50">
-        <v>-0.30000000000000104</v>
+        <v>5.6999999999999966</v>
       </c>
       <c r="I50">
-        <v>3.9403408693210326E-4</v>
+        <v>0.58198268344306903</v>
       </c>
       <c r="J50">
-        <v>1.2323605204815347E-3</v>
+        <v>0.28473748785573794</v>
       </c>
       <c r="K50">
-        <v>9.8619832726972223E-2</v>
+        <v>0.45531188336956946</v>
       </c>
       <c r="L50">
-        <v>0.55961769237024239</v>
+        <v>0.39272855524427364</v>
       </c>
     </row>
     <row r="51" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H51">
-        <v>-0.20000000000000104</v>
+        <v>5.7999999999999963</v>
       </c>
       <c r="I51">
-        <v>4.0971142006786758E-4</v>
+        <v>0.68655761571907392</v>
       </c>
       <c r="J51">
-        <v>1.2725417549344087E-3</v>
+        <v>0.34825521485692734</v>
       </c>
       <c r="K51">
-        <v>9.8220002361844805E-2</v>
+        <v>0.45882054041946063</v>
       </c>
       <c r="L51">
-        <v>0.56946018320767355</v>
+        <v>0.43848800298946555</v>
       </c>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H52">
-        <v>-0.10000000000000103</v>
+        <v>5.8999999999999959</v>
       </c>
       <c r="I52">
-        <v>4.2613356680561013E-4</v>
+        <v>0.76709809668935058</v>
       </c>
       <c r="J52">
-        <v>1.3143276288702377E-3</v>
+        <v>0.42125258029361984</v>
       </c>
       <c r="K52">
-        <v>9.7760673493863956E-2</v>
+        <v>0.45612670761169083</v>
       </c>
       <c r="L52">
-        <v>0.57925970943910288</v>
+        <v>0.48428565449283417</v>
       </c>
     </row>
     <row r="53" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H53">
-        <v>-1.0269562977782698E-15</v>
+        <v>5.9999999999999956</v>
       </c>
       <c r="I53">
-        <v>4.4334193583221102E-4</v>
+        <v>0.79788456080286529</v>
       </c>
       <c r="J53">
-        <v>1.3577946727624246E-3</v>
+        <v>0.49999999999999645</v>
       </c>
       <c r="K53">
-        <v>9.7242697009187362E-2</v>
+        <v>0.44764342629902232</v>
       </c>
       <c r="L53">
-        <v>0.58901036286872954</v>
+        <v>0.52952015435578637</v>
       </c>
     </row>
     <row r="54" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H54">
-        <v>9.9999999999998979E-2</v>
+        <v>6.0999999999999952</v>
       </c>
       <c r="I54">
-        <v>4.6138058601875501E-4</v>
+        <v>0.76709809668935602</v>
       </c>
       <c r="J54">
-        <v>1.4030236889187586E-3</v>
+        <v>0.57874741970637333</v>
       </c>
       <c r="K54">
-        <v>9.6667029200712296E-2</v>
+        <v>0.43397071439785634</v>
       </c>
       <c r="L54">
-        <v>0.5987063256829237</v>
+        <v>0.57364120745714287</v>
       </c>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H55">
-        <v>0.19999999999999898</v>
+        <v>6.1999999999999948</v>
       </c>
       <c r="I55">
-        <v>4.8029641904868324E-4</v>
+        <v>0.68655761571908258</v>
       </c>
       <c r="J55">
-        <v>1.4501000260063734E-3</v>
+        <v>0.65174478514306655</v>
       </c>
       <c r="K55">
-        <v>9.6034728826426205E-2</v>
+        <v>0.41584459846999927</v>
       </c>
       <c r="L55">
-        <v>0.60834188084639473</v>
+        <v>0.61616575775495508</v>
       </c>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H56">
-        <v>0.29999999999999899</v>
+        <v>6.2999999999999945</v>
       </c>
       <c r="I56">
-        <v>5.0013938776761015E-4</v>
+        <v>0.58198268344307869</v>
       </c>
       <c r="J56">
-        <v>1.4991138736132337E-3</v>
+        <v>0.71526251214425685</v>
       </c>
       <c r="K56">
-        <v>9.5346953865131007E-2</v>
+        <v>0.39408485509301622</v>
       </c>
       <c r="L56">
-        <v>0.61791142218895256</v>
+        <v>0.65668896903242557</v>
       </c>
     </row>
     <row r="57" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H57">
-        <v>0.39999999999999902</v>
+        <v>6.3999999999999941</v>
       </c>
       <c r="I57">
-        <v>5.2096272168181709E-4</v>
+        <v>0.47637931574697545</v>
       </c>
       <c r="J57">
-        <v>1.5501605784903338E-3</v>
+        <v>0.76811960521391165</v>
       </c>
       <c r="K57">
-        <v>9.4604957983454849E-2</v>
+        <v>0.36954544274130824</v>
       </c>
       <c r="L57">
-        <v>0.62740946415328391</v>
+        <v>0.69489008493443272</v>
       </c>
     </row>
     <row r="58" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H58">
-        <v>0.499999999999999</v>
+        <v>6.4999999999999938</v>
       </c>
       <c r="I58">
-        <v>5.4282317117530158E-4</v>
+        <v>0.38259639558195851</v>
       </c>
       <c r="J58">
-        <v>1.6033409842656776E-3</v>
+        <v>0.81094217557058745</v>
       </c>
       <c r="K58">
-        <v>9.3810086729234465E-2</v>
+        <v>0.34307063793661974</v>
       </c>
       <c r="L58">
-        <v>0.63683065117561899</v>
+        <v>0.73053359662873785</v>
       </c>
     </row>
     <row r="59" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H59">
-        <v>0.59999999999999898</v>
+        <v>6.5999999999999934</v>
       </c>
       <c r="I59">
-        <v>5.6578127217381724E-4</v>
+        <v>0.30486352028865632</v>
       </c>
       <c r="J59">
-        <v>1.6587617965870827E-3</v>
+        <v>0.84517890989905509</v>
       </c>
       <c r="K59">
-        <v>9.2963773467442223E-2</v>
+        <v>0.31545884592455403</v>
       </c>
       <c r="L59">
-        <v>0.64616976667272374</v>
+        <v>0.7634663956890787</v>
       </c>
     </row>
     <row r="60" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H60">
-        <v>0.69999999999999896</v>
+        <v>6.6999999999999931</v>
       </c>
       <c r="I60">
-        <v>5.8990163316033795E-4</v>
+        <v>0.24271009910124436</v>
       </c>
       <c r="J60">
-        <v>1.7165359758324339E-3</v>
+        <v>0.87243601036796103</v>
       </c>
       <c r="K60">
-        <v>9.2067535075830834E-2</v>
+        <v>0.28743506099585475</v>
       </c>
       <c r="L60">
-        <v>0.65542174161032407</v>
+        <v>0.79361173623953518</v>
       </c>
     </row>
     <row r="61" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H61">
-        <v>0.79999999999999893</v>
+        <v>6.7999999999999927</v>
       </c>
       <c r="I61">
-        <v>6.1525324664212812E-4</v>
+        <v>0.19385374387987991</v>
       </c>
       <c r="J61">
-        <v>1.7767831597259032E-3</v>
+        <v>0.89416441409301128</v>
       </c>
       <c r="K61">
-        <v>9.1122967418376624E-2</v>
+        <v>0.25963209238678236</v>
       </c>
       <c r="L61">
-        <v>0.66458166262983043</v>
+        <v>0.82096088355507946</v>
       </c>
     </row>
     <row r="62" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H62">
-        <v>0.89999999999999891</v>
+        <v>6.8999999999999924</v>
       </c>
       <c r="I62">
-        <v>6.4190982738727758E-4</v>
+        <v>0.15568538300626528</v>
       </c>
       <c r="J62">
-        <v>1.8396301184185337E-3</v>
+        <v>0.91156267492679621</v>
       </c>
       <c r="K62">
-        <v>9.0131740615411987E-2</v>
+        <v>0.23257999868863763</v>
       </c>
       <c r="L62">
-        <v>0.67364477971207992</v>
+        <v>0.845563302587507</v>
       </c>
     </row>
     <row r="63" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H63">
-        <v>0.99999999999999889</v>
+        <v>6.999999999999992</v>
       </c>
       <c r="I63">
-        <v>6.6995017999100018E-4</v>
+        <v>0.12586416596247665</v>
       </c>
       <c r="J63">
-        <v>1.9052112448371128E-3</v>
+        <v>0.92557922974125706</v>
       </c>
       <c r="K63">
-        <v>8.9095594130045822E-2</v>
+        <v>0.20670270418641537</v>
       </c>
       <c r="L63">
-        <v>0.6826065133587409</v>
+        <v>0.86751615900940116</v>
       </c>
     </row>
     <row r="64" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H64">
-        <v>1.099999999999999</v>
+        <v>7.0999999999999917</v>
       </c>
       <c r="I64">
-        <v>6.9945859860222055E-4</v>
+        <v>0.1024800261537981</v>
       </c>
       <c r="J64">
-        <v>1.9736690833725423E-3</v>
+        <v>0.93694960654728343</v>
       </c>
       <c r="K64">
-        <v>8.8016331691074867E-2</v>
+        <v>0.18232049621838084</v>
       </c>
       <c r="L64">
-        <v>0.69146246127401301</v>
+        <v>0.88695378745462361</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H65">
-        <v>1.1999999999999991</v>
+        <v>7.1999999999999913</v>
       </c>
       <c r="I65">
-        <v>7.3052530194237528E-4</v>
+        <v>8.4041210885875253E-2</v>
       </c>
       <c r="J65">
-        <v>2.0451549002782343E-3</v>
+        <v>0.94623968954833615</v>
       </c>
       <c r="K65">
-        <v>8.6895816073087023E-2</v>
+        <v>0.15965699781694936</v>
       </c>
       <c r="L65">
-        <v>0.70020840453130395</v>
+        <v>0.90403764502665696</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H66">
-        <v>1.2999999999999992</v>
+        <v>7.2999999999999909</v>
       </c>
       <c r="I66">
-        <v>7.6324690708499672E-4</v>
+        <v>6.9406274338378704E-2</v>
       </c>
       <c r="J66">
-        <v>2.1198292994776269E-3</v>
+        <v>0.95388434027995328</v>
       </c>
       <c r="K66">
-        <v>8.5735963754845962E-2</v>
+        <v>0.13884923933077165</v>
       </c>
       <c r="L66">
-        <v>0.70884031321165353</v>
+        <v>0.91894712808416157</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H67">
-        <v>1.3999999999999992</v>
+        <v>7.3999999999999906</v>
       </c>
       <c r="I67">
-        <v>7.9772694584083915E-4</v>
+        <v>5.7709089888483021E-2</v>
       </c>
       <c r="J67">
-        <v>2.197862887846902E-3</v>
+        <v>0.96021863799359419</v>
       </c>
       <c r="K67">
-        <v>8.4538739477327859E-2</v>
+        <v>0.11995957821527302</v>
       </c>
       <c r="L67">
-        <v>0.71735435150279925</v>
+        <v>0.93187149831435501</v>
       </c>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H68">
-        <v>1.4999999999999993</v>
+        <v>7.4999999999999902</v>
       </c>
       <c r="I68">
-        <v>8.3407642801426054E-4</v>
+        <v>4.8293530968724796E-2</v>
       </c>
       <c r="J68">
-        <v>2.2794369944418302E-3</v>
+        <v>0.96550203853261607</v>
       </c>
       <c r="K68">
-        <v>8.3306150722949904E-2</v>
+        <v>0.10298840134868119</v>
       </c>
       <c r="L68">
-        <v>0.72574688224992634</v>
+        <v>0.94300304792469425</v>
       </c>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H69">
-        <v>1.5999999999999994</v>
+        <v>7.5999999999999899</v>
       </c>
       <c r="I69">
-        <v>8.7241445626796076E-4</v>
+        <v>4.066146980154739E-2</v>
       </c>
       <c r="J69">
-        <v>2.3647444485889735E-3</v>
+        <v>0.96993666400104783</v>
       </c>
       <c r="K69">
-        <v>8.2040242137593769E-2</v>
+        <v>8.7886757701217247E-2</v>
       </c>
       <c r="L69">
-        <v>0.73401447095129935</v>
+        <v>0.95253153777076671</v>
       </c>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H70">
-        <v>1.6999999999999995</v>
+        <v>7.6999999999999895</v>
       </c>
       <c r="I70">
-        <v>9.128688978616771E-4</v>
+        <v>3.4433065131738744E-2</v>
       </c>
       <c r="J70">
-        <v>2.453990422261354E-3</v>
+        <v>0.97368102365105935</v>
       </c>
       <c r="K70">
-        <v>8.0743089916978567E-2</v>
+        <v>7.4568286153011254E-2</v>
       </c>
       <c r="L70">
-        <v>0.74215388919413527</v>
+        <v>0.960639867925138</v>
       </c>
     </row>
     <row r="71" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H71">
-        <v>1.7999999999999996</v>
+        <v>7.7999999999999892</v>
       </c>
       <c r="I71">
-        <v>9.5557711912347377E-4</v>
+        <v>2.9317033190127764E-2</v>
       </c>
       <c r="J71">
-        <v>2.547393342712756E-3</v>
+        <v>0.97686028298357708</v>
       </c>
       <c r="K71">
-        <v>7.9416796178787052E-2</v>
+        <v>6.2920005881136692E-2</v>
       </c>
       <c r="L71">
-        <v>0.75016211752822293</v>
+        <v>0.9675008869787779</v>
       </c>
     </row>
     <row r="72" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H72">
-        <v>1.8999999999999997</v>
+        <v>7.8999999999999888</v>
       </c>
       <c r="I72">
-        <v>1.0006867891784866E-3</v>
+        <v>2.5088585322889882E-2</v>
       </c>
       <c r="J72">
-        <v>2.6451858819647178E-3</v>
+        <v>0.97957396124071172</v>
       </c>
       <c r="K72">
-        <v>7.8063483341690304E-2</v>
+        <v>5.2811713677595913E-2</v>
       </c>
       <c r="L72">
-        <v>0.75803634777692697</v>
+        <v>0.97327521220161195</v>
       </c>
     </row>
     <row r="73" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H73">
-        <v>1.9999999999999998</v>
+        <v>7.9999999999999885</v>
       </c>
       <c r="I73">
-        <v>1.0483567602092266E-3</v>
+        <v>2.1573094785375484E-2</v>
       </c>
       <c r="J73">
-        <v>2.7476160304289454E-3</v>
+        <v>0.98190172341366533</v>
       </c>
       <c r="K73">
-        <v>7.6685288532059998E-2</v>
+        <v>4.4103878003003937E-2</v>
       </c>
       <c r="L73">
-        <v>0.76577398478730496</v>
+        <v>0.97810991467143737</v>
       </c>
     </row>
     <row r="74" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H74">
-        <v>2.0999999999999996</v>
+        <v>8.099999999999989</v>
       </c>
       <c r="I74">
-        <v>1.0987580323649731E-3</v>
+        <v>1.86339895458685E-2</v>
       </c>
       <c r="J74">
-        <v>2.8549482627171496E-3</v>
+        <v>0.98390776106106814</v>
       </c>
       <c r="K74">
-        <v>7.5284358038701094E-2</v>
+        <v>3.665403202819955E-2</v>
       </c>
       <c r="L74">
-        <v>0.77337264762313174</v>
+        <v>0.98213791835543685</v>
       </c>
     </row>
     <row r="75" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H75">
-        <v>2.1999999999999997</v>
+        <v>8.1999999999999886</v>
       </c>
       <c r="I75">
-        <v>1.1520748123883687E-3</v>
+        <v>1.6163746287266065E-2</v>
       </c>
       <c r="J75">
-        <v>2.9674648045471264E-3</v>
+        <v>0.98564412547653202</v>
       </c>
       <c r="K75">
-        <v>7.3862841835390741E-2</v>
+        <v>3.0321748957887296E-2</v>
       </c>
       <c r="L75">
-        <v>0.78083017020662249</v>
+        <v>0.98547796665496201</v>
       </c>
     </row>
     <row r="76" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H76">
-        <v>2.2999999999999998</v>
+        <v>8.2999999999999883</v>
       </c>
       <c r="I76">
-        <v>1.2085056760998375E-3</v>
+        <v>1.4077158858943993E-2</v>
       </c>
       <c r="J76">
-        <v>3.085467010615961E-3</v>
+        <v>0.98715327983212386</v>
       </c>
       <c r="K76">
-        <v>7.2422888190370682E-2</v>
+        <v>2.4972336123929718E-2</v>
       </c>
       <c r="L76">
-        <v>0.78814460141660314</v>
+        <v>0.98823502112723993</v>
       </c>
     </row>
     <row r="77" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H77">
-        <v>2.4</v>
+        <v>8.3999999999999879</v>
       </c>
       <c r="I77">
-        <v>1.2682648460918813E-3</v>
+        <v>1.2306278487664621E-2</v>
       </c>
       <c r="J77">
-        <v>3.2092768643814384E-3</v>
+        <v>0.98847006601267129</v>
       </c>
       <c r="K77">
-        <v>7.0966638381221817E-2</v>
+        <v>2.0479414274384763E-2</v>
       </c>
       <c r="L77">
-        <v>0.79531420465274738</v>
+        <v>0.99050097241670265</v>
       </c>
     </row>
     <row r="78" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H78">
-        <v>2.5</v>
+        <v>8.4999999999999876</v>
       </c>
       <c r="I78">
-        <v>1.3315835973552292E-3</v>
+        <v>1.0796587545932275E-2</v>
       </c>
       <c r="J78">
-        <v>3.3392386118973882E-3</v>
+        <v>0.98962323024448129</v>
       </c>
       <c r="K78">
-        <v>6.9496221532749106E-2</v>
+        <v>1.6726560081830596E-2</v>
       </c>
       <c r="L78">
-        <v>0.80233745687730762</v>
+        <v>0.99235556078367193</v>
       </c>
     </row>
     <row r="79" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H79">
-        <v>2.6</v>
+        <v>8.5999999999999872</v>
       </c>
       <c r="I79">
-        <v>1.3987118051098106E-3</v>
+        <v>9.5040880334960071E-3</v>
       </c>
       <c r="J79">
-        <v>3.4757205431962257E-3</v>
+        <v>0.99063661409164983</v>
       </c>
       <c r="K79">
-        <v>6.8013749594635867E-2</v>
+        <v>1.3608187881513585E-2</v>
       </c>
       <c r="L79">
-        <v>0.80921304714748943</v>
+        <v>0.99386742141470519</v>
       </c>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H80">
-        <v>2.7</v>
+        <v>8.6999999999999869</v>
       </c>
       <c r="I80">
-        <v>1.4699196508715442E-3</v>
+        <v>8.3930721128568312E-3</v>
       </c>
       <c r="J80">
-        <v>3.6191169362248532E-3</v>
+        <v>0.99153009005212789</v>
       </c>
       <c r="K80">
-        <v>6.6521312474688704E-2</v>
+        <v>1.1029835255261695E-2</v>
       </c>
       <c r="L80">
-        <v>0.81593987465324047</v>
+        <v>0.99509518679247966</v>
       </c>
     </row>
     <row r="81" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H81">
-        <v>2.8000000000000003</v>
+        <v>8.7999999999999865</v>
       </c>
       <c r="I81">
-        <v>1.5454995047810504E-3</v>
+        <v>7.4344042205265175E-3</v>
       </c>
       <c r="J81">
-        <v>3.7698501800405571E-3</v>
+        <v>0.99232030099743551</v>
       </c>
       <c r="K81">
-        <v>6.5020973342498914E-2</v>
+        <v>8.9079998607718164E-3</v>
       </c>
       <c r="L81">
-        <v>0.82251704627676769</v>
+        <v>0.9960885940394637</v>
       </c>
     </row>
     <row r="82" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H82">
-        <v>2.9000000000000004</v>
+        <v>8.8999999999999861</v>
       </c>
       <c r="I82">
-        <v>1.6257680044873617E-3</v>
+        <v>6.6041892147968547E-3</v>
       </c>
       <c r="J82">
-        <v>3.9283730958890595E-3</v>
+        <v>0.9930212480198819</v>
       </c>
       <c r="K82">
-        <v>6.3514764117297243E-2</v>
+        <v>7.1696547046143271E-3</v>
       </c>
       <c r="L82">
-        <v>0.82894387369151823</v>
+        <v>0.9968895588944614</v>
       </c>
     </row>
     <row r="83" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H83">
-        <v>3.0000000000000004</v>
+        <v>8.9999999999999858</v>
       </c>
       <c r="I83">
-        <v>1.7110683534587493E-3</v>
+        <v>5.8827336067864382E-3</v>
       </c>
       <c r="J83">
-        <v>4.0951714769393299E-3</v>
+        <v>0.99364476041309935</v>
       </c>
       <c r="K83">
-        <v>6.2004681152684267E-2</v>
+        <v>5.751548009232707E-3</v>
       </c>
       <c r="L83">
-        <v>0.83521987001968956</v>
-      </c>
-    </row>
-    <row r="84" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H84">
-        <v>3.1000000000000005</v>
-      </c>
-      <c r="I84">
-        <v>1.8017728645304777E-3</v>
-      </c>
-      <c r="J84">
-        <v>4.2707668698832579E-3</v>
-      </c>
-      <c r="K84">
-        <v>6.0492681129785834E-2</v>
-      </c>
-      <c r="L84">
-        <v>0.84134474606854281</v>
-      </c>
-    </row>
-    <row r="85" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H85">
-        <v>3.2000000000000006</v>
-      </c>
-      <c r="I85">
-        <v>1.8982857778500318E-3</v>
-      </c>
-      <c r="J85">
-        <v>4.4557196243518171E-3</v>
-      </c>
-      <c r="K85">
-        <v>5.8980677169218128E-2</v>
-      </c>
-      <c r="L85">
-        <v>0.84731840616688969</v>
-      </c>
-    </row>
-    <row r="86" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H86">
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="I86">
-        <v>2.001046386206776E-3</v>
-      </c>
-      <c r="J86">
-        <v>4.6506322392025901E-3</v>
-      </c>
-      <c r="K86">
-        <v>5.7470535171058233E-2</v>
-      </c>
-      <c r="L86">
-        <v>0.85314094362410409</v>
-      </c>
-    </row>
-    <row r="87" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H87">
-        <v>3.4000000000000008</v>
-      </c>
-      <c r="I87">
-        <v>2.1105325051088749E-3</v>
-      </c>
-      <c r="J87">
-        <v>4.8561530382466578E-3</v>
-      </c>
-      <c r="K87">
-        <v>5.5964070390809847E-2</v>
-      </c>
-      <c r="L87">
-        <v>0.85881263583487111</v>
-      </c>
-    </row>
-    <row r="88" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H88">
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="I88">
-        <v>2.2272643299805282E-3</v>
-      </c>
-      <c r="J88">
-        <v>5.0729802119631739E-3</v>
-      </c>
-      <c r="K88">
-        <v>5.4463044258137625E-2</v>
-      </c>
-      <c r="L88">
-        <v>0.86433393905361733</v>
-      </c>
-    </row>
-    <row r="89" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H89">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="I89">
-        <v>2.3518087285976808E-3</v>
-      </c>
-      <c r="J89">
-        <v>5.3018662662685512E-3</v>
-      </c>
-      <c r="K89">
-        <v>5.2969161443924849E-2</v>
-      </c>
-      <c r="L89">
-        <v>0.86970548286319116</v>
-      </c>
-    </row>
-    <row r="90" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H90">
-        <v>3.7000000000000011</v>
-      </c>
-      <c r="I90">
-        <v>2.4847840234761783E-3</v>
-      </c>
-      <c r="J90">
-        <v>5.5436229245410251E-3</v>
-      </c>
-      <c r="K90">
-        <v>5.148406717999366E-2</v>
-      </c>
-      <c r="L90">
-        <v>0.87492806436284987</v>
-      </c>
-    </row>
-    <row r="91" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H91">
-        <v>3.8000000000000012</v>
-      </c>
-      <c r="I91">
-        <v>2.6268653265101582E-3</v>
-      </c>
-      <c r="J91">
-        <v>5.799126534942689E-3</v>
-      </c>
-      <c r="K91">
-        <v>5.0009344834621924E-2</v>
-      </c>
-      <c r="L91">
-        <v>0.88000264210098744</v>
-      </c>
-    </row>
-    <row r="92" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H92">
-        <v>3.9000000000000012</v>
-      </c>
-      <c r="I92">
-        <v>2.7787904968896416E-3</v>
-      </c>
-      <c r="J92">
-        <v>6.069324041737989E-3</v>
-      </c>
-      <c r="K92">
-        <v>4.8546513745803224E-2</v>
-      </c>
-      <c r="L92">
-        <v>0.88493032977829178</v>
-      </c>
-    </row>
-    <row r="93" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H93">
-        <v>4.0000000000000009</v>
-      </c>
-      <c r="I93">
-        <v>2.9413668033931731E-3</v>
-      </c>
-      <c r="J93">
-        <v>6.3552395869005962E-3</v>
-      </c>
-      <c r="K93">
-        <v>4.7097027313031573E-2</v>
-      </c>
-      <c r="L93">
-        <v>0.88971238974714872</v>
-      </c>
-    </row>
-    <row r="94" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H94">
-        <v>4.1000000000000005</v>
-      </c>
-      <c r="I94">
-        <v>3.11547838377419E-3</v>
-      </c>
-      <c r="J94">
-        <v>6.6579818169792415E-3</v>
-      </c>
-      <c r="K94">
-        <v>4.5662271347255458E-2</v>
-      </c>
-      <c r="L94">
-        <v>0.89435022633314476</v>
-      </c>
-    </row>
-    <row r="95" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H95">
-        <v>4.2</v>
-      </c>
-      <c r="I95">
-        <v>3.3020946073983762E-3</v>
-      </c>
-      <c r="J95">
-        <v>6.9787519801180475E-3</v>
-      </c>
-      <c r="K95">
-        <v>4.4243562677544909E-2</v>
-      </c>
-      <c r="L95">
-        <v>0.89884537900441408</v>
-      </c>
-    </row>
-    <row r="96" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H96">
-        <v>4.3</v>
-      </c>
-      <c r="I96">
-        <v>3.5022794628494416E-3</v>
-      </c>
-      <c r="J96">
-        <v>7.31885290950407E-3</v>
-      </c>
-      <c r="K96">
-        <v>4.2842148011951832E-2</v>
-      </c>
-      <c r="L96">
-        <v>0.9031995154143897</v>
-      </c>
-    </row>
-    <row r="97" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H97">
-        <v>4.3999999999999995</v>
-      </c>
-      <c r="I97">
-        <v>3.7172021102631963E-3</v>
-      </c>
-      <c r="J97">
-        <v>7.6796990025644885E-3</v>
-      </c>
-      <c r="K97">
-        <v>4.1459203049026172E-2</v>
-      </c>
-      <c r="L97">
-        <v>0.90741442434320507</v>
-      </c>
-    </row>
-    <row r="98" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H98">
-        <v>4.4999999999999991</v>
-      </c>
-      <c r="I98">
-        <v>3.9481487591000912E-3</v>
-      </c>
-      <c r="J98">
-        <v>8.0628273202341671E-3</v>
-      </c>
-      <c r="K98">
-        <v>4.0095831835479899E-2</v>
-      </c>
-      <c r="L98">
-        <v>0.91149200856259793</v>
-      </c>
-    </row>
-    <row r="99" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H99">
-        <v>4.5999999999999988</v>
-      </c>
-      <c r="I99">
-        <v>4.1965360564283453E-3</v>
-      </c>
-      <c r="J99">
-        <v>8.4699099478720008E-3</v>
-      </c>
-      <c r="K99">
-        <v>3.8753066364573305E-2</v>
-      </c>
-      <c r="L99">
-        <v>0.91543427764866436</v>
-      </c>
-    </row>
-    <row r="100" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H100">
-        <v>4.6999999999999984</v>
-      </c>
-      <c r="I100">
-        <v>4.4639261991581856E-3</v>
-      </c>
-      <c r="J100">
-        <v>8.9027677792944959E-3</v>
-      </c>
-      <c r="K100">
-        <v>3.7431866408936226E-2</v>
-      </c>
-      <c r="L100">
-        <v>0.91924334076622882</v>
-      </c>
-    </row>
-    <row r="101" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H101">
-        <v>4.799999999999998</v>
-      </c>
-      <c r="I101">
-        <v>4.7520440167479238E-3</v>
-      </c>
-      <c r="J101">
-        <v>9.3633859083501192E-3</v>
-      </c>
-      <c r="K101">
-        <v>3.6133119580733238E-2</v>
-      </c>
-      <c r="L101">
-        <v>0.92292139944792806</v>
-      </c>
-    </row>
-    <row r="102" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H102">
-        <v>4.8999999999999977</v>
-      </c>
-      <c r="I102">
-        <v>5.0627963095296429E-3</v>
-      </c>
-      <c r="J102">
-        <v>9.8539308389918312E-3</v>
-      </c>
-      <c r="K102">
-        <v>3.4857641611340084E-2</v>
-      </c>
-      <c r="L102">
-        <v>0.9264707403903516</v>
-      </c>
-    </row>
-    <row r="103" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H103">
-        <v>4.9999999999999973</v>
-      </c>
-      <c r="I103">
-        <v>5.3982937729660481E-3</v>
-      </c>
-      <c r="J103">
-        <v>1.0376769755518545E-2</v>
-      </c>
-      <c r="K103">
-        <v>3.3606176842019796E-2</v>
-      </c>
-      <c r="L103">
-        <v>0.9298937282887767</v>
+        <v>0.99753318964841786</v>
       </c>
     </row>
   </sheetData>
@@ -6236,140 +5518,259 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F1E49-69B3-41E4-B5F7-85CA4F6581D0}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>95</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3:F13">_xlfn.SEQUENCE(1+(E4-E3)/E5,1,E3,E5)</f>
+        <v>95</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3:G13">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.JOHNSON.PUT.VALUE(Johnson,_xlpm.k)))</f>
+        <v>0.17112571861433423</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3:H13">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.NORMAL.PUT.VALUE(f,s,_xlpm.k)))</f>
+        <v>0.11807288295062524</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>105</v>
+      </c>
+      <c r="F4">
+        <v>96</v>
+      </c>
+      <c r="G4">
+        <v>0.2321879431957985</v>
+      </c>
+      <c r="H4">
+        <v>0.22079106116632552</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>97</v>
+      </c>
+      <c r="G5">
+        <v>0.32556118066794149</v>
+      </c>
+      <c r="H5">
+        <v>0.3853678358233239</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>2541175990896</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+        <v>2289410558224</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
+        <v>0.4746916475353018</v>
+      </c>
+      <c r="H6">
+        <v>0.6309751086400901</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7">_xll.JOHNSON.MOMENT(Johnson,1)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>99</v>
+      </c>
+      <c r="G7">
+        <v>0.72148464792208244</v>
+      </c>
+      <c r="H7">
+        <v>0.97414410439486687</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,2) - mean^2</f>
-        <v>3.1945280494255712E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+        <v>12.778112197860537</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>1.1255646869698808</v>
+      </c>
+      <c r="H8">
+        <v>1.4255473400794187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5">
         <f>mean</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>101</v>
+      </c>
+      <c r="G9">
+        <v>1.7214846479220824</v>
+      </c>
+      <c r="H9">
+        <v>1.9878522343826148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <f>SQRT(LN(1+variance/(mean*mean)))</f>
+        <v>3.5735074000681002E-2</v>
+      </c>
+      <c r="F10">
+        <v>102</v>
+      </c>
+      <c r="G10">
+        <v>2.4746916475352947</v>
+      </c>
+      <c r="H10">
+        <v>2.6553526600854269</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="5">
-        <f>SQRT(variance)</f>
-        <v>0.17873242709216397</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C11" s="5">
         <f>f</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>103</v>
+      </c>
+      <c r="G11">
+        <v>3.3255611806679468</v>
+      </c>
+      <c r="H11">
+        <v>3.4154306054407897</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" cm="1">
         <f t="array" ref="C12">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
-        <v>7.1209126309667425</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+        <v>1.4255473400794187</v>
+      </c>
+      <c r="F12">
+        <v>104</v>
+      </c>
+      <c r="G12">
+        <v>4.2321879431958109</v>
+      </c>
+      <c r="H12">
+        <v>4.251260322242004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" cm="1">
         <f t="array" ref="C13">_xll.NORMAL.PUT.DELTA(f, s, k)</f>
-        <v>-0.46439543684516627</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+        <v>-0.49287226329960288</v>
+      </c>
+      <c r="F13">
+        <v>105</v>
+      </c>
+      <c r="G13">
+        <v>5.1711257186143342</v>
+      </c>
+      <c r="H13">
+        <v>5.1448407517500812</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" cm="1">
         <f t="array" ref="C14">_xll.NORMAL.PUT.IMPLIED(f, value, k)</f>
-        <v>0.1787324268788342</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+        <v>3.5735073993330223E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" cm="1">
         <f t="array" ref="C15">_xll.JOHNSON.PUT.VALUE(Johnson,k)</f>
-        <v>5.6278234348496881E-2</v>
+        <v>1.1255646869698808</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/xll_johnson/johnson.xlsx
+++ b/xll_johnson/johnson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\fms_johnson\xll_johnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944784A-A9DC-472E-AF9F-0E233E5FA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9B9A6-4404-44B1-AE1C-6FABC6B1A16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
   </bookViews>
@@ -3765,9 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F0A76B-08E5-40E0-BCFA-A9D795A3DB2C}">
   <dimension ref="B1:L83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3914,7 +3912,7 @@
       </c>
       <c r="C7" s="2" cm="1">
         <f t="array" ref="C7">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>2289869316112</v>
+        <v>1481258433536</v>
       </c>
       <c r="E7" s="2"/>
       <c r="H7">
@@ -4066,7 +4064,7 @@
       </c>
       <c r="E13" s="7">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.20478507635085622</v>
+        <v>2.2656843359950436</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4096,7 +4094,7 @@
       </c>
       <c r="E14" s="7">
         <f ca="1">f*EXP(s*E13-s*s/2)</f>
-        <v>6.1173126336917463</v>
+        <v>8.3011875047055916</v>
       </c>
       <c r="F14" s="7">
         <f t="array" aca="1" ref="F14:G14" ca="1">_xll.MONTE.STDEV(E14)</f>
@@ -4132,7 +4130,7 @@
       </c>
       <c r="E15" s="7">
         <f ca="1">E14^2</f>
-        <v>37.421513858324651</v>
+        <v>68.909713988280245</v>
       </c>
       <c r="F15" s="7">
         <f t="array" aca="1" ref="F15:G15" ca="1">_xll.MONTE.STDEV(E15)</f>
@@ -4194,7 +4192,7 @@
       </c>
       <c r="C17" s="2" cm="1">
         <f t="array" ref="C17">_xll.\VARIATE.NORMAL(0, 1)</f>
-        <v>2289967381376</v>
+        <v>1479960824208</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
@@ -4285,7 +4283,7 @@
       </c>
       <c r="C21">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.45767564398012212</v>
+        <v>1.605498771702917</v>
       </c>
       <c r="E21">
         <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(Z)</f>
@@ -4317,7 +4315,7 @@
       </c>
       <c r="C22">
         <f ca="1">(Z-gamma)/delta</f>
-        <v>-0.45767564398012212</v>
+        <v>1.605498771702917</v>
       </c>
       <c r="E22">
         <f t="array" aca="1" ref="E22:F22" ca="1">_xll.MONTE.STDEV(C22)</f>
@@ -4349,7 +4347,7 @@
       </c>
       <c r="C23">
         <f ca="1">SINH(C22)</f>
-        <v>-0.47382181439736659</v>
+        <v>2.3897768278319971</v>
       </c>
       <c r="E23">
         <f t="array" aca="1" ref="E23:F23" ca="1">_xll.MONTE.STDEV(C23)</f>
@@ -4381,7 +4379,7 @@
       </c>
       <c r="C24">
         <f ca="1">POWER($C$23,B24)</f>
-        <v>-0.47382181439736659</v>
+        <v>2.3897768278319971</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.JOHNSON.Esinh_k(Johnson,B24)</f>
@@ -4421,7 +4419,7 @@
       </c>
       <c r="C25">
         <f ca="1">POWER($C$23,B25)</f>
-        <v>0.22450711179881253</v>
+        <v>5.7110332868427625</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" ref="D25">_xll.JOHNSON.Esinh_k(Johnson,B25)</f>
@@ -4461,7 +4459,7 @@
       </c>
       <c r="C26">
         <f ca="1">POWER($C$23,B26)</f>
-        <v>-0.10637636705762578</v>
+        <v>13.648095011874041</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.JOHNSON.Esinh_k(Johnson,B26)</f>
@@ -4501,7 +4499,7 @@
       </c>
       <c r="C27">
         <f ca="1">POWER($C$23,B27)</f>
-        <v>5.0403443248244507E-2</v>
+        <v>32.615901203426048</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.JOHNSON.Esinh_k(Johnson,B27)</f>
@@ -4558,23 +4556,23 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
-        <v>5.7630890928013168</v>
+        <v>7.194888413915999</v>
       </c>
       <c r="D29">
         <f>mu</f>
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="e">
         <f t="array" aca="1" ref="E29:F29" ca="1">_xll.MONTE.STDEV(C29)</f>
-        <v>6.0049664901532385</v>
-      </c>
-      <c r="F29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" t="e">
         <f ca="1"/>
-        <v>0.92186758416657955</v>
-      </c>
-      <c r="G29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" t="e">
         <f ca="1">(D29-E29)/F29</f>
-        <v>-6.5139143552618437</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H29">
         <v>3.6000000000000023</v>
@@ -5613,7 +5611,7 @@
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>2289410558224</v>
+        <v>1481255502400</v>
       </c>
       <c r="F6">
         <v>98</v>

--- a/xll_johnson/johnson.xlsx
+++ b/xll_johnson/johnson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\fms_johnson\xll_johnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9B9A6-4404-44B1-AE1C-6FABC6B1A16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870CADEA-3D9C-4DDB-961C-D2C151466B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,18 @@
   </sheets>
   <definedNames>
     <definedName name="cdf">_xlfn.ANCHORARRAY(Sheet1!$J$3)</definedName>
-    <definedName name="delta" localSheetId="1">Sheet2!$C$3</definedName>
+    <definedName name="delta" localSheetId="1">Sheet2!$C$5</definedName>
     <definedName name="delta">Sheet1!$C$6</definedName>
     <definedName name="f" localSheetId="0">Sheet1!$C$15</definedName>
     <definedName name="f">Sheet2!$C$9</definedName>
-    <definedName name="gamma" localSheetId="1">Sheet2!$C$2</definedName>
+    <definedName name="gamma" localSheetId="1">Sheet2!$C$4</definedName>
     <definedName name="gamma">Sheet1!$C$5</definedName>
     <definedName name="implied">Sheet2!$C$14</definedName>
     <definedName name="Johnson" localSheetId="1">Sheet2!$C$6</definedName>
     <definedName name="Johnson">Sheet1!$C$7</definedName>
     <definedName name="jput">_xlfn.ANCHORARRAY(Sheet2!$G$3)</definedName>
     <definedName name="k">Sheet2!$C$11</definedName>
-    <definedName name="lambda" localSheetId="1">Sheet2!$C$5</definedName>
+    <definedName name="lambda" localSheetId="1">Sheet2!$C$3</definedName>
     <definedName name="lambda">Sheet1!$C$4</definedName>
     <definedName name="m_1">Sheet1!$C$9</definedName>
     <definedName name="m_2">Sheet1!$C$10</definedName>
@@ -52,7 +52,7 @@
     <definedName name="variance" localSheetId="0">Sheet1!$C$14</definedName>
     <definedName name="variance">Sheet2!$C$8</definedName>
     <definedName name="x">_xlfn.ANCHORARRAY(Sheet1!$H$3)</definedName>
-    <definedName name="xi" localSheetId="1">Sheet2!$C$4</definedName>
+    <definedName name="xi" localSheetId="1">Sheet2!$C$2</definedName>
     <definedName name="xi">Sheet1!$C$3</definedName>
     <definedName name="Z">Sheet1!$C$21</definedName>
   </definedNames>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>xi</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>nput</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -743,247 +746,247 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>8.8668387166442389E-4</c:v>
+                  <c:v>8.7043986617569222E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6059283809736648E-4</c:v>
+                  <c:v>9.4044719258295027E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0419254433636344E-3</c:v>
+                  <c:v>1.0173262688855026E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1315625443476366E-3</c:v>
+                  <c:v>1.1018772248612533E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2305064932842586E-3</c:v>
+                  <c:v>1.1950079458531314E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3399003599820004E-3</c:v>
+                  <c:v>1.297750450768184E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4610506038847508E-3</c:v>
+                  <c:v>1.4112800043611179E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5954538916816818E-3</c:v>
+                  <c:v>1.5369374471788265E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.744828912535922E-3</c:v>
+                  <c:v>1.6762553112508016E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.911154238246948E-3</c:v>
+                  <c:v>1.8309883864989725E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0967135204184562E-3</c:v>
+                  <c:v>2.0031495117685684E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3041496247767379E-3</c:v>
+                  <c:v>2.1950514837471201E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5365296921837635E-3</c:v>
+                  <c:v>2.4093561027048488E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7974236102196264E-3</c:v>
+                  <c:v>2.6491314975748824E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0909990095621042E-3</c:v>
+                  <c:v>2.9179189790783069E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4221367069174999E-3</c:v>
+                  <c:v>3.2198107319314759E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7965715557000648E-3</c:v>
+                  <c:v>3.5595396315536147E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.221065010217755E-3</c:v>
+                  <c:v>3.9425822854032046E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7036174571953677E-3</c:v>
+                  <c:v>4.3752759396218865E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2537306530203234E-3</c:v>
+                  <c:v>4.8649489780981631E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.8827336067863575E-3</c:v>
+                  <c:v>5.4200630945848531E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.6041892147967627E-3</c:v>
+                  <c:v>6.0503624137080839E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4344042205264143E-3</c:v>
+                  <c:v>6.7670202359770157E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3930721128567184E-3</c:v>
+                  <c:v>7.582766751435821E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.5040880334958805E-3</c:v>
+                  <c:v>8.5119696826040203E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0796587545932147E-2</c:v>
+                  <c:v>9.570622593997144E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2306278487664461E-2</c:v>
+                  <c:v>0.10776170327179441</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4077158858943813E-2</c:v>
+                  <c:v>0.12147065364184442</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.616374628726586E-2</c:v>
+                  <c:v>0.137019014479622</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8633989545868274E-2</c:v>
+                  <c:v>0.15457913278414251</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.157309478537521E-2</c:v>
+                  <c:v>0.17428573313919507</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.5088585322889542E-2</c:v>
+                  <c:v>0.19619984748318434</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.931703319012734E-2</c:v>
+                  <c:v>0.22025818193956156</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4433065131738244E-2</c:v>
+                  <c:v>0.24620763039771493</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.0661469801546772E-2</c:v>
+                  <c:v>0.27352992293590844</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.829353096872406E-2</c:v>
+                  <c:v>0.30137079308283654</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.7709089888482105E-2</c:v>
+                  <c:v>0.32850085343828406</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.940627433837751E-2</c:v>
+                  <c:v>0.35334655493768902</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.4041210885873796E-2</c:v>
+                  <c:v>0.37412819205475406</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.10248002615379626</c:v>
+                  <c:v>0.38911493037080314</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.12586416596247432</c:v>
+                  <c:v>0.3969525474770117</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.15568538300626228</c:v>
+                  <c:v>0.39696240028245705</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.19385374387987608</c:v>
+                  <c:v>0.38929465325194246</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.24271009910123953</c:v>
+                  <c:v>0.37487173478413854</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.30486352028865021</c:v>
+                  <c:v>0.35515222481475828</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.38259639558195085</c:v>
+                  <c:v>0.33181704320580685</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.47637931574696657</c:v>
+                  <c:v>0.3064872031846162</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.58198268344306903</c:v>
+                  <c:v>0.28053781232243769</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.68655761571907392</c:v>
+                  <c:v>0.25501798287634664</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.76709809668935058</c:v>
+                  <c:v>0.23065132552719075</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.79788456080286529</c:v>
+                  <c:v>0.20788204224630144</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.76709809668935602</c:v>
+                  <c:v>0.18693772452971127</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.68655761571908258</c:v>
+                  <c:v>0.16789089515948438</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.58198268344307869</c:v>
+                  <c:v>0.15071082154566329</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.47637931574697545</c:v>
+                  <c:v>0.13530327595289776</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.38259639558195851</c:v>
+                  <c:v>0.12153909695350115</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.30486352028865632</c:v>
+                  <c:v>0.10927363283563755</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.24271009910124436</c:v>
+                  <c:v>9.8359321402480521E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.19385374387987991</c:v>
+                  <c:v>8.8653373743276864E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.15568538300626528</c:v>
+                  <c:v>8.0022107428719069E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.12586416596247665</c:v>
+                  <c:v>7.2343068580088668E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1024800261537981</c:v>
+                  <c:v>6.5505747596820943E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.4041210885875253E-2</c:v>
+                  <c:v>5.9411438890712147E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.9406274338378704E-2</c:v>
+                  <c:v>5.3972610919898287E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.7709089888483021E-2</c:v>
+                  <c:v>4.9112024108012846E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.8293530968724796E-2</c:v>
+                  <c:v>4.4761746468563637E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.066146980154739E-2</c:v>
+                  <c:v>4.0862158127352749E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.4433065131738744E-2</c:v>
+                  <c:v>3.736099750259031E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.9317033190127764E-2</c:v>
+                  <c:v>3.4212477192339191E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.5088585322889882E-2</c:v>
+                  <c:v>3.1376482088588779E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.1573094785375484E-2</c:v>
+                  <c:v>2.8817852761897109E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.86339895458685E-2</c:v>
+                  <c:v>2.6505751623854535E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.6163746287266065E-2</c:v>
+                  <c:v>2.4413106360586356E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.4077158858943993E-2</c:v>
+                  <c:v>2.2516123701599122E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.2306278487664621E-2</c:v>
+                  <c:v>2.0793866130059947E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0796587545932275E-2</c:v>
+                  <c:v>1.9227884254774771E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.5040880334960071E-3</c:v>
+                  <c:v>1.7801897995831175E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.3930721128568312E-3</c:v>
+                  <c:v>1.6501520324694447E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.4344042205265175E-3</c:v>
+                  <c:v>1.5314017946838236E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.6041892147968547E-3</c:v>
+                  <c:v>1.4228103962082343E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.8827336067864382E-3</c:v>
+                  <c:v>1.3233758151641524E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,247 +1283,247 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>1.1124644433352448E-31</c:v>
+                  <c:v>2.0703080790700656E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8811298513891116E-28</c:v>
+                  <c:v>6.7524842908507572E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1600421454975094E-25</c:v>
+                  <c:v>1.8541482578519951E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.153147989793066E-23</c:v>
+                  <c:v>4.4296497863847636E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3598430056608754E-21</c:v>
+                  <c:v>9.4388057624415149E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4255602369764219E-19</c:v>
+                  <c:v>1.828481687822665E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6685609185828112E-17</c:v>
+                  <c:v>3.2689122909686911E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4014925719551492E-16</c:v>
+                  <c:v>5.4581413132084155E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.229462128898644E-14</c:v>
+                  <c:v>8.5942388888088153E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0606445390193371E-13</c:v>
+                  <c:v>1.2862306328674886E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6423782141658445E-12</c:v>
+                  <c:v>1.8416696368631622E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6766452447055784E-11</c:v>
+                  <c:v>2.536585933519743E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2004822956114729E-10</c:v>
+                  <c:v>3.3761485611641127E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.502268739145018E-9</c:v>
+                  <c:v>4.3592804216243536E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6859776831664877E-9</c:v>
+                  <c:v>5.4786123243474517E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3260361382311521E-8</c:v>
+                  <c:v>6.7209078050748189E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8833971913821282E-7</c:v>
+                  <c:v>8.0678640132736804E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.2599795416191904E-7</c:v>
+                  <c:v>9.49717351169867E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5057789070989102E-6</c:v>
+                  <c:v>0.10983729105368589</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8208192016833E-6</c:v>
+                  <c:v>0.12500864148247087</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2266633319928001E-5</c:v>
+                  <c:v>0.14021539244940245</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8279253302506481E-5</c:v>
+                  <c:v>0.15519408516734709</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4119769478299711E-4</c:v>
+                  <c:v>0.16969721244001465</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1862129170455358E-4</c:v>
+                  <c:v>0.18350035396592823</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.7337769333722201E-4</c:v>
+                  <c:v>0.19640736953200333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3394963903093358E-3</c:v>
+                  <c:v>0.20825372403762965</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5192670384341048E-3</c:v>
+                  <c:v>0.21890811408502234</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.4980253479526174E-3</c:v>
+                  <c:v>0.22827262604808155</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.6521929112598266E-3</c:v>
+                  <c:v>0.23628168564470875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2445787391360723E-2</c:v>
+                  <c:v>0.24290006542756712</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9411474531159958E-2</c:v>
+                  <c:v>0.24812020554180689</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9114326068600128E-2</c:v>
+                  <c:v>0.25195908023476032</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.2099488610585656E-2</c:v>
+                  <c:v>0.25445481271928411</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.8828350473762669E-2</c:v>
+                  <c:v>0.25566320789182273</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.9610744892588195E-2</c:v>
+                  <c:v>0.25565433894464296</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.10454252563674796</c:v>
+                  <c:v>0.25450929209830364</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1334580200110726</c:v>
+                  <c:v>0.25231714481128836</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.16590530202404336</c:v>
+                  <c:v>0.24917222762462019</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2011492213841399</c:v>
+                  <c:v>0.24517169856222407</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.23820325924474209</c:v>
+                  <c:v>0.24041344171201215</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.27588729222768493</c:v>
+                  <c:v>0.23499428802606842</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.31290493709476663</c:v>
+                  <c:v>0.22900854613882873</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.34793185120821568</c:v>
+                  <c:v>0.22254682368006984</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.37970545147559981</c:v>
+                  <c:v>0.21569511470317762</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.4071069842220042</c:v>
+                  <c:v>0.20853412601677129</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.42922849548685615</c:v>
+                  <c:v>0.20113881398803188</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.4454196298161468</c:v>
+                  <c:v>0.19357810341035236</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.45531188336956946</c:v>
+                  <c:v>0.18591476097579013</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.45882054041946063</c:v>
+                  <c:v>0.17820539749334569</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.45612670761169083</c:v>
+                  <c:v>0.17050057502399449</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.44764342629902232</c:v>
+                  <c:v>0.16284499738316571</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.43397071439785634</c:v>
+                  <c:v>0.15527776485053962</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.41584459846999927</c:v>
+                  <c:v>0.14783267631894095</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.39408485509301622</c:v>
+                  <c:v>0.14053856443060872</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.36954544274130824</c:v>
+                  <c:v>0.13341965143567538</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.34307063793661974</c:v>
+                  <c:v>0.12649591552879422</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.31545884592455403</c:v>
+                  <c:v>0.11978345925507844</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.28743506099585475</c:v>
+                  <c:v>0.1132948732170215</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.25963209238678236</c:v>
+                  <c:v>0.10703958975972069</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.23257999868863763</c:v>
+                  <c:v>0.1010242225686761</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.20670270418641537</c:v>
+                  <c:v>9.5252889193168475E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.18232049621838084</c:v>
+                  <c:v>8.9727514422010393E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.15965699781694936</c:v>
+                  <c:v>8.4448113202157657E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.13884923933077165</c:v>
+                  <c:v>7.9413052419778515E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.11995957821527302</c:v>
+                  <c:v>7.4619291373374474E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.10298840134868119</c:v>
+                  <c:v>7.0062601174418815E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.7886757701217247E-2</c:v>
+                  <c:v>6.5737763626840098E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.4568286153011254E-2</c:v>
+                  <c:v>6.163875037562011E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.2920005881136692E-2</c:v>
+                  <c:v>5.7758883288705633E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.2811713677595913E-2</c:v>
+                  <c:v>5.4090977156050518E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.4103878003003937E-2</c:v>
+                  <c:v>5.0627465864407459E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.665403202819955E-2</c:v>
+                  <c:v>4.7360513244800548E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.0321748957887296E-2</c:v>
+                  <c:v>4.4282109798670817E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.4972336123929718E-2</c:v>
+                  <c:v>4.1384156494710223E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0479414274384763E-2</c:v>
+                  <c:v>3.8658536796685454E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.6726560081830596E-2</c:v>
+                  <c:v>3.6097178037562211E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3608187881513585E-2</c:v>
+                  <c:v>3.3692103200703441E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1029835255261695E-2</c:v>
+                  <c:v>3.1435474107906113E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.9079998607718164E-3</c:v>
+                  <c:v>2.9319626949076607E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.1696547046143271E-3</c:v>
+                  <c:v>2.7337101021445088E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.751548009232707E-3</c:v>
+                  <c:v>2.5480661478995748E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,6 +1550,7 @@
         <c:axId val="1183869424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1875,37 +1879,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.17112571861433423</c:v>
+                  <c:v>0.21964104664022965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2321879431957985</c:v>
+                  <c:v>0.29371700965105951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32556118066794149</c:v>
+                  <c:v>0.40485038926779637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4746916475353018</c:v>
+                  <c:v>0.5783109449391155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72148464792208244</c:v>
+                  <c:v>0.85749011579833478</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1255646869698808</c:v>
+                  <c:v>1.3003336793219376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7214846479220824</c:v>
+                  <c:v>1.9340968825215015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4746916475352947</c:v>
+                  <c:v>2.7175624881759006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3255611806679468</c:v>
+                  <c:v>3.5903697274681434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2321879431958109</c:v>
+                  <c:v>4.5125670111857374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1711257186143342</c:v>
+                  <c:v>5.4626589026709382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,37 +1996,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.11807288295062524</c:v>
+                  <c:v>0.15047516015719964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22079106116632552</c:v>
+                  <c:v>0.27323255315290318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3853678358233239</c:v>
+                  <c:v>0.46430618247089228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6309751086400901</c:v>
+                  <c:v>0.74206810660077238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97414410439486687</c:v>
+                  <c:v>1.1211384892197884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4255473400794187</c:v>
+                  <c:v>1.6095107827846178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9878522343826148</c:v>
+                  <c:v>2.2070064174084365</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6553526600854269</c:v>
+                  <c:v>2.9055415213955911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4154306054407897</c:v>
+                  <c:v>3.6910306629170435</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.251260322242004</c:v>
+                  <c:v>4.5462182555494337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1448407517500812</c:v>
+                  <c:v>5.4535456694156039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3765,7 +3769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F0A76B-08E5-40E0-BCFA-A9D795A3DB2C}">
   <dimension ref="B1:L83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3778,12 +3782,12 @@
   <sheetData>
     <row r="1" spans="2:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I1" s="3">
-        <f>1-SUM(pdf)*D19</f>
-        <v>7.3807547559805453E-3</v>
+        <f>1-SUM(pdf)*G5</f>
+        <v>3.6045820170739651E-2</v>
       </c>
       <c r="K1" s="3">
-        <f>1-SUM(npdf)*D19</f>
-        <v>2.1898659267018949E-3</v>
+        <f>1-SUM(npdf)*G5</f>
+        <v>3.3953997020412352E-2</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
@@ -3814,27 +3818,30 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" cm="1">
-        <f t="array" ref="H3:H83">_xlfn.SEQUENCE(1+(C19-B19)/D19,1,B19,D19)</f>
+        <f t="array" ref="H3:H83">_xlfn.SEQUENCE(1+(G4-G3)/G5,1,G3,G5)</f>
         <v>1</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3:I83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Johnson,_xlpm.x,s)))</f>
-        <v>8.8668387166442389E-4</v>
+        <v>8.7043986617569222E-3</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3:J83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Johnson,_xlpm.x,s)))</f>
-        <v>1.3577946727624246E-3</v>
+        <v>1.4092112053010641E-2</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3:K83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Normal,_xll.NORMAL.MONEYNESS(f,s,_xlpm.x))/(s*_xlpm.x)))</f>
-        <v>1.1124644433352448E-31</v>
+        <v>2.0703080790700656E-5</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3:L83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Normal,_xll.NORMAL.MONEYNESS(f,s,_xlpm.x))))</f>
-        <v>0</v>
+        <v>1.4374249124871064E-6</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -3842,22 +3849,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
       </c>
       <c r="H4">
         <v>1.1000000000000001</v>
       </c>
       <c r="I4">
-        <v>9.6059283809736648E-4</v>
+        <v>9.4044719258295027E-3</v>
       </c>
       <c r="J4">
-        <v>1.4501000260063734E-3</v>
+        <v>1.4997013704622197E-2</v>
       </c>
       <c r="K4">
-        <v>1.8811298513891116E-28</v>
+        <v>6.7524842908507572E-5</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.4601522335162578E-6</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -3865,22 +3875,25 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
       </c>
       <c r="H5">
         <v>1.2000000000000002</v>
       </c>
       <c r="I5">
-        <v>1.0419254433636344E-3</v>
+        <v>1.0173262688855026E-2</v>
       </c>
       <c r="J5">
-        <v>1.5501605784903338E-3</v>
+        <v>1.5975295982949222E-2</v>
       </c>
       <c r="K5">
-        <v>1.1600421454975094E-25</v>
+        <v>1.8541482578519951E-4</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.7279073039166981E-5</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -3894,16 +3907,16 @@
         <v>1.3000000000000003</v>
       </c>
       <c r="I6">
-        <v>1.1315625443476366E-3</v>
+        <v>1.1018772248612533E-2</v>
       </c>
       <c r="J6">
-        <v>1.6587617965870827E-3</v>
+        <v>1.7034222341395067E-2</v>
       </c>
       <c r="K6">
-        <v>3.153147989793066E-23</v>
+        <v>4.4296497863847636E-4</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.7158774936995052E-5</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -3911,24 +3924,24 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" cm="1">
-        <f t="array" ref="C7">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>1481258433536</v>
+        <f t="array" ref="C7">_xll.\VARIATE.JOHNSON(xi, lambda, gamma, delta)</f>
+        <v>2002325464352</v>
       </c>
       <c r="E7" s="2"/>
       <c r="H7">
         <v>1.4000000000000004</v>
       </c>
       <c r="I7">
-        <v>1.2305064932842586E-3</v>
+        <v>1.1950079458531314E-2</v>
       </c>
       <c r="J7">
-        <v>1.7767831597259032E-3</v>
+        <v>1.8181908978683936E-2</v>
       </c>
       <c r="K7">
-        <v>4.3598430056608754E-21</v>
+        <v>9.4388057624415149E-4</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.1394270194620137E-4</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -3939,16 +3952,16 @@
         <v>1.5000000000000004</v>
       </c>
       <c r="I8">
-        <v>1.3399003599820004E-3</v>
+        <v>1.297750450768184E-2</v>
       </c>
       <c r="J8">
-        <v>1.9052112448371128E-3</v>
+        <v>1.942744057369411E-2</v>
       </c>
       <c r="K8">
-        <v>3.4255602369764219E-19</v>
+        <v>1.828481687822665E-3</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.4868819646811646E-4</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
@@ -3957,9 +3970,12 @@
       </c>
       <c r="C9" s="5" cm="1">
         <f t="array" ref="C9">_xll.JOHNSON.MOMENT(Johnson,B9)</f>
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>5.1651470513746194</v>
+      </c>
+      <c r="D9" s="5">
+        <f>xi-SQRT(EXP(1))*lambda*gamma/delta</f>
+        <v>5.1648721270700131</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3967,16 +3983,16 @@
         <v>1.6000000000000005</v>
       </c>
       <c r="I9">
-        <v>1.4610506038847508E-3</v>
+        <v>1.4112800043611179E-2</v>
       </c>
       <c r="J9">
-        <v>2.0451549002782343E-3</v>
+        <v>2.0781003728369885E-2</v>
       </c>
       <c r="K9">
-        <v>1.6685609185828112E-17</v>
+        <v>3.2689122909686911E-3</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>4.9814290683652951E-4</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
@@ -3985,7 +4001,7 @@
       </c>
       <c r="C10" s="5" cm="1">
         <f t="array" ref="C10">_xll.JOHNSON.MOMENT(Johnson,B10)</f>
-        <v>36.798632012366333</v>
+        <v>29.92013575470796</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -3994,16 +4010,16 @@
         <v>1.7000000000000006</v>
       </c>
       <c r="I10">
-        <v>1.5954538916816818E-3</v>
+        <v>1.5369374471788265E-2</v>
       </c>
       <c r="J10">
-        <v>2.197862887846902E-3</v>
+        <v>2.2254041088117793E-2</v>
       </c>
       <c r="K10">
-        <v>5.4014925719551492E-16</v>
+        <v>5.4581413132084155E-3</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.2742461871231363E-4</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
@@ -4012,22 +4028,22 @@
       </c>
       <c r="C11" s="5" cm="1">
         <f t="array" ref="C11">_xll.JOHNSON.MOMENT(Johnson,B11)</f>
-        <v>230.37537622259396</v>
+        <v>193.14515798871818</v>
       </c>
       <c r="H11">
         <v>1.8000000000000007</v>
       </c>
       <c r="I11">
-        <v>1.744828912535922E-3</v>
+        <v>1.6762553112508016E-2</v>
       </c>
       <c r="J11">
-        <v>2.3647444485889735E-3</v>
+        <v>2.3859429633833307E-2</v>
       </c>
       <c r="K11">
-        <v>1.229462128898644E-14</v>
+        <v>8.5942388888088153E-3</v>
       </c>
       <c r="L11">
-        <v>3.8857805861880479E-16</v>
+        <v>1.621347909641746E-3</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
@@ -4036,22 +4052,22 @@
       </c>
       <c r="C12" s="5" cm="1">
         <f t="array" ref="C12">_xll.JOHNSON.MOMENT(Johnson,B12)</f>
-        <v>1491.5857784417994</v>
+        <v>1731.8915721897665</v>
       </c>
       <c r="H12">
         <v>1.9000000000000008</v>
       </c>
       <c r="I12">
-        <v>1.911154238246948E-3</v>
+        <v>1.8309883864989725E-2</v>
       </c>
       <c r="J12">
-        <v>2.547393342712756E-3</v>
+        <v>2.5611687255201132E-2</v>
       </c>
       <c r="K12">
-        <v>2.0606445390193371E-13</v>
+        <v>1.2862306328674886E-2</v>
       </c>
       <c r="L12">
-        <v>7.4384942649885488E-15</v>
+        <v>2.684039252012882E-3</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
@@ -4060,11 +4076,11 @@
       </c>
       <c r="C13" s="5">
         <f>C9</f>
-        <v>6</v>
+        <v>5.1651470513746194</v>
       </c>
       <c r="E13" s="7">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>2.2656843359950436</v>
+        <v>-0.68850916316899091</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4072,16 +4088,16 @@
         <v>2.0000000000000009</v>
       </c>
       <c r="I13">
-        <v>2.0967135204184562E-3</v>
+        <v>2.0031495117685684E-2</v>
       </c>
       <c r="J13">
-        <v>2.7476160304290009E-3</v>
+        <v>2.7527212433388182E-2</v>
       </c>
       <c r="K13">
-        <v>2.6423782141658445E-12</v>
+        <v>1.8416696368631622E-2</v>
       </c>
       <c r="L13">
-        <v>1.0474954237338352E-13</v>
+        <v>4.2367381834458318E-3</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
@@ -4090,70 +4106,70 @@
       </c>
       <c r="C14" s="5">
         <f>C10-C9^2</f>
-        <v>0.7986320123663333</v>
+        <v>3.2413916923840347</v>
       </c>
       <c r="E14" s="7">
         <f ca="1">f*EXP(s*E13-s*s/2)</f>
-        <v>8.3011875047055916</v>
+        <v>3.8630509404693414</v>
       </c>
       <c r="F14" s="7">
         <f t="array" aca="1" ref="F14:G14" ca="1">_xll.MONTE.STDEV(E14)</f>
-        <v>6.0030498849921701</v>
+        <v>5.1571464347968732</v>
       </c>
       <c r="G14" s="7">
         <f ca="1"/>
-        <v>0.8956626141652041</v>
+        <v>1.7960852974324593</v>
       </c>
       <c r="H14">
         <v>2.100000000000001</v>
       </c>
       <c r="I14">
-        <v>2.3041496247767379E-3</v>
+        <v>2.1950514837471201E-2</v>
       </c>
       <c r="J14">
-        <v>2.9674648045471264E-3</v>
+        <v>2.9624562694086032E-2</v>
       </c>
       <c r="K14">
-        <v>2.6766452447055784E-11</v>
+        <v>2.536585933519743E-2</v>
       </c>
       <c r="L14">
-        <v>1.1644019082268642E-12</v>
+        <v>6.4139347213673092E-3</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f>mean</f>
-        <v>6</v>
+        <v>5.1651470513746194</v>
       </c>
       <c r="E15" s="7">
         <f ca="1">E14^2</f>
-        <v>68.909713988280245</v>
+        <v>14.923162568661063</v>
       </c>
       <c r="F15" s="7">
         <f t="array" aca="1" ref="F15:G15" ca="1">_xll.MONTE.STDEV(E15)</f>
-        <v>36.838796679111141</v>
+        <v>29.821869973622785</v>
       </c>
       <c r="G15" s="7">
         <f ca="1"/>
-        <v>11.19848352713225</v>
+        <v>22.59828590241376</v>
       </c>
       <c r="H15">
         <v>2.2000000000000011</v>
       </c>
       <c r="I15">
-        <v>2.5365296921837635E-3</v>
+        <v>2.4093561027048488E-2</v>
       </c>
       <c r="J15">
-        <v>3.2092768643814384E-3</v>
+        <v>3.1924778447701696E-2</v>
       </c>
       <c r="K15">
-        <v>2.2004822956114729E-10</v>
+        <v>3.3761485611641127E-2</v>
       </c>
       <c r="L15">
-        <v>1.0480116774402859E-11</v>
+        <v>9.3581956017799728E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -4162,28 +4178,28 @@
       </c>
       <c r="C16" s="5">
         <f>SQRT(LN(m_2/(m_1*m_1)))</f>
-        <v>0.14812741964544848</v>
+        <v>0.33862153584592586</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
         <f>f*f*EXP(s*s)</f>
-        <v>36.798632012366326</v>
+        <v>29.92013575470796</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16">
         <v>2.3000000000000012</v>
       </c>
       <c r="I16">
-        <v>2.7974236102196264E-3</v>
+        <v>2.6491314975748824E-2</v>
       </c>
       <c r="J16">
-        <v>3.4757205431962257E-3</v>
+        <v>3.4451759914897906E-2</v>
       </c>
       <c r="K16">
-        <v>1.502268739145018E-9</v>
+        <v>4.3592804216243536E-2</v>
       </c>
       <c r="L16">
-        <v>7.815703639835192E-11</v>
+        <v>1.3214158797857145E-2</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -4192,29 +4208,29 @@
       </c>
       <c r="C17" s="2" cm="1">
         <f t="array" ref="C17">_xll.\VARIATE.NORMAL(0, 1)</f>
-        <v>1479960824208</v>
+        <v>2002315351936</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
         <f ca="1">(F16-F15)/G15</f>
-        <v>-3.5866165849600799E-3</v>
+        <v>4.3483732133276038E-3</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17">
         <v>2.4000000000000012</v>
       </c>
       <c r="I17">
-        <v>3.0909990095621042E-3</v>
+        <v>2.9179189790783069E-2</v>
       </c>
       <c r="J17">
-        <v>3.7698501800405571E-3</v>
+        <v>3.7232706033645036E-2</v>
       </c>
       <c r="K17">
-        <v>8.6859776831664877E-9</v>
+        <v>5.4786123243474517E-2</v>
       </c>
       <c r="L17">
-        <v>4.9267839807853875E-10</v>
+        <v>1.8122222152518463E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
@@ -4222,42 +4238,33 @@
         <v>2.5000000000000013</v>
       </c>
       <c r="I18">
-        <v>3.4221367069174999E-3</v>
+        <v>3.2198107319314759E-2</v>
       </c>
       <c r="J18">
-        <v>4.0951714769393299E-3</v>
+        <v>4.0298625528965626E-2</v>
       </c>
       <c r="K18">
-        <v>4.3260361382311521E-8</v>
+        <v>6.7209078050748189E-2</v>
       </c>
       <c r="L18">
-        <v>2.6706043487756403E-9</v>
+        <v>2.4212427944569848E-2</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>0.1</v>
-      </c>
       <c r="H19">
         <v>2.6000000000000014</v>
       </c>
       <c r="I19">
-        <v>3.7965715557000648E-3</v>
+        <v>3.5595396315536147E-2</v>
       </c>
       <c r="J19">
-        <v>4.4557196243518171E-3</v>
+        <v>4.3684931634591251E-2</v>
       </c>
       <c r="K19">
-        <v>1.8833971913821282E-7</v>
+        <v>8.0678640132736804E-2</v>
       </c>
       <c r="L19">
-        <v>1.2634994273064137E-8</v>
+        <v>3.1598969354152129E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
@@ -4265,16 +4272,16 @@
         <v>2.7000000000000015</v>
       </c>
       <c r="I20">
-        <v>4.221065010217755E-3</v>
+        <v>3.9425822854032046E-2</v>
       </c>
       <c r="J20">
-        <v>4.8561530382466578E-3</v>
+        <v>4.7432133165795365E-2</v>
       </c>
       <c r="K20">
-        <v>7.2599795416191904E-7</v>
+        <v>9.49717351169867E-2</v>
       </c>
       <c r="L20">
-        <v>5.2856986509919324E-8</v>
+        <v>4.0375638219305288E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
@@ -4283,30 +4290,30 @@
       </c>
       <c r="C21">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>1.605498771702917</v>
+        <v>1.3783683991071509</v>
       </c>
       <c r="E21">
         <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(Z)</f>
-        <v>5.4843010306731988E-3</v>
+        <v>-4.1300428664159949E-3</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>1.0024162775959882</v>
+        <v>0.99402704629351968</v>
       </c>
       <c r="H21">
         <v>2.8000000000000016</v>
       </c>
       <c r="I21">
-        <v>4.7036174571953677E-3</v>
+        <v>4.3752759396218865E-2</v>
       </c>
       <c r="J21">
-        <v>5.3018662662685512E-3</v>
+        <v>5.1586635542199888E-2</v>
       </c>
       <c r="K21">
-        <v>2.5057789070989102E-6</v>
+        <v>0.10983729105368589</v>
       </c>
       <c r="L21">
-        <v>1.9775983012282339E-7</v>
+        <v>5.0612415660992893E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
@@ -4315,30 +4322,30 @@
       </c>
       <c r="C22">
         <f ca="1">(Z-gamma)/delta</f>
-        <v>1.605498771702917</v>
+        <v>1.478368399107151</v>
       </c>
       <c r="E22">
         <f t="array" aca="1" ref="E22:F22" ca="1">_xll.MONTE.STDEV(C22)</f>
-        <v>5.4843010306731988E-3</v>
+        <v>9.5869957133583719E-2</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>1.0024162775959882</v>
+        <v>0.99402704629351968</v>
       </c>
       <c r="H22">
         <v>2.9000000000000017</v>
       </c>
       <c r="I22">
-        <v>5.2537306530203234E-3</v>
+        <v>4.8649489780981631E-2</v>
       </c>
       <c r="J22">
-        <v>5.799126534942689E-3</v>
+        <v>5.6201665590885796E-2</v>
       </c>
       <c r="K22">
-        <v>7.8208192016833E-6</v>
+        <v>0.12500864148247087</v>
       </c>
       <c r="L22">
-        <v>6.6840401236056834E-7</v>
+        <v>6.2353293557458167E-2</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
@@ -4347,30 +4354,30 @@
       </c>
       <c r="C23">
         <f ca="1">SINH(C22)</f>
-        <v>2.3897768278319971</v>
+        <v>2.0788872927591644</v>
       </c>
       <c r="E23">
         <f t="array" aca="1" ref="E23:F23" ca="1">_xll.MONTE.STDEV(C23)</f>
-        <v>9.9349497670460293E-3</v>
+        <v>0.14972055804445344</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>1.8437090755255416</v>
+        <v>1.7926592418414886</v>
       </c>
       <c r="H23">
         <v>3.0000000000000018</v>
       </c>
       <c r="I23">
-        <v>5.8827336067863575E-3</v>
+        <v>5.4200630945848531E-2</v>
       </c>
       <c r="J23">
-        <v>6.3552395869006517E-3</v>
+        <v>6.1338332940132412E-2</v>
       </c>
       <c r="K23">
-        <v>2.2266633319928001E-5</v>
+        <v>0.14021539244940245</v>
       </c>
       <c r="L23">
-        <v>2.0590170277667852E-6</v>
+        <v>7.5615316047683068E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
@@ -4379,38 +4386,38 @@
       </c>
       <c r="C24">
         <f ca="1">POWER($C$23,B24)</f>
-        <v>2.3897768278319971</v>
+        <v>2.0788872927591644</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.JOHNSON.Esinh_k(Johnson,B24)</f>
-        <v>0</v>
+        <v>0.16514705137461927</v>
       </c>
       <c r="E24">
         <f t="array" aca="1" ref="E24:F24" ca="1">_xll.MONTE.STDEV(C24)</f>
-        <v>9.9329803064557316E-3</v>
+        <v>0.14972055804445344</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>1.8437351683331624</v>
+        <v>1.7926592418414886</v>
       </c>
       <c r="G24">
         <f ca="1">(D24-E24)/F24</f>
-        <v>-5.3874224872738586E-3</v>
+        <v>8.6053684772344884E-3</v>
       </c>
       <c r="H24">
         <v>3.1000000000000019</v>
       </c>
       <c r="I24">
-        <v>6.6041892147967627E-3</v>
+        <v>6.0503624137080839E-2</v>
       </c>
       <c r="J24">
-        <v>6.9787519801180475E-3</v>
+        <v>6.7066837611608143E-2</v>
       </c>
       <c r="K24">
-        <v>5.8279253302506481E-5</v>
+        <v>0.15519408516734709</v>
       </c>
       <c r="L24">
-        <v>5.8267322448068981E-6</v>
+        <v>9.0388752129344385E-2</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
@@ -4419,38 +4426,38 @@
       </c>
       <c r="C25">
         <f ca="1">POWER($C$23,B25)</f>
-        <v>5.7110332868427625</v>
+        <v>4.3217723759955273</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" ref="D25">_xll.JOHNSON.Esinh_k(Johnson,B25)</f>
-        <v>3.1945280494653252</v>
+        <v>3.2686652409617674</v>
       </c>
       <c r="E25">
         <f t="array" aca="1" ref="E25:F25" ca="1">_xll.MONTE.STDEV(C25)</f>
-        <v>3.3993615856230419</v>
+        <v>3.2358324380372854</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>31.70785202801471</v>
+        <v>17.551695983747535</v>
       </c>
       <c r="G25">
         <f ca="1">(D25-E25)/F25</f>
-        <v>-6.4600256105882218E-3</v>
+        <v>1.8706342085052295E-3</v>
       </c>
       <c r="H25">
         <v>3.200000000000002</v>
       </c>
       <c r="I25">
-        <v>7.4344042205264143E-3</v>
+        <v>6.7670202359770157E-2</v>
       </c>
       <c r="J25">
-        <v>7.6796990025644885E-3</v>
+        <v>7.3467826577642226E-2</v>
       </c>
       <c r="K25">
-        <v>1.4119769478299711E-4</v>
+        <v>0.16969721244001465</v>
       </c>
       <c r="L25">
-        <v>1.5254157879895924E-5</v>
+        <v>0.10663825498790908</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
@@ -4459,38 +4466,38 @@
       </c>
       <c r="C26">
         <f ca="1">POWER($C$23,B26)</f>
-        <v>13.648095011874041</v>
+        <v>8.9844776746546842</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.JOHNSON.Esinh_k(Johnson,B26)</f>
-        <v>0</v>
+        <v>6.7291505211952476</v>
       </c>
       <c r="E26">
         <f t="array" aca="1" ref="E26:F26" ca="1">_xll.MONTE.STDEV(C26)</f>
-        <v>7.0577759809248919</v>
+        <v>6.6678514455878718E-2</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>1656.8200179745322</v>
+        <v>439.8920227318464</v>
       </c>
       <c r="G26">
         <f ca="1">(D26-E26)/F26</f>
-        <v>-4.2598326338144114E-3</v>
+        <v>1.5145698631595197E-2</v>
       </c>
       <c r="H26">
         <v>3.300000000000002</v>
       </c>
       <c r="I26">
-        <v>8.3930721128567184E-3</v>
+        <v>7.582766751435821E-2</v>
       </c>
       <c r="J26">
-        <v>8.4699099478720008E-3</v>
+        <v>8.0633889336059084E-2</v>
       </c>
       <c r="K26">
-        <v>3.1862129170455358E-4</v>
+        <v>0.18350035396592823</v>
       </c>
       <c r="L26">
-        <v>3.7177725700554554E-5</v>
+        <v>0.12430483008776005</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
@@ -4499,38 +4506,38 @@
       </c>
       <c r="C27">
         <f ca="1">POWER($C$23,B27)</f>
-        <v>32.615901203426048</v>
+        <v>18.677716469918025</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.JOHNSON.Esinh_k(Johnson,B27)</f>
-        <v>369.30022033075073</v>
+        <v>399.43524993428662</v>
       </c>
       <c r="E27">
         <f t="array" aca="1" ref="E27:F27" ca="1">_xll.MONTE.STDEV(C27)</f>
-        <v>1016.9150137230262</v>
+        <v>318.51242013992777</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>94982.3497158354</v>
+        <v>13853.998025240649</v>
       </c>
       <c r="G27">
         <f ca="1">(D27-E27)/F27</f>
-        <v>-6.8182646073695263E-3</v>
+        <v>5.8411174627660007E-3</v>
       </c>
       <c r="H27">
         <v>3.4000000000000021</v>
       </c>
       <c r="I27">
-        <v>9.5040880334958805E-3</v>
+        <v>8.5119696826040203E-2</v>
       </c>
       <c r="J27">
-        <v>9.3633859083501192E-3</v>
+        <v>8.8671160612564082E-2</v>
       </c>
       <c r="K27">
-        <v>6.7337769333722201E-4</v>
+        <v>0.19640736953200333</v>
       </c>
       <c r="L27">
-        <v>8.4832793037892262E-5</v>
+        <v>0.14330841957311458</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
@@ -4538,16 +4545,16 @@
         <v>3.5000000000000022</v>
       </c>
       <c r="I28">
-        <v>1.0796587545932147E-2</v>
+        <v>9.570622593997144E-2</v>
       </c>
       <c r="J28">
-        <v>1.03767697555186E-2</v>
+        <v>9.770096222312219E-2</v>
       </c>
       <c r="K28">
-        <v>1.3394963903093358E-3</v>
+        <v>0.20825372403762965</v>
       </c>
       <c r="L28">
-        <v>1.8215588680597916E-4</v>
+        <v>0.16355091150652795</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
@@ -4556,55 +4563,78 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
-        <v>7.194888413915999</v>
+        <v>7.0788872927591644</v>
       </c>
       <c r="D29">
-        <f>mu</f>
-        <v>0</v>
-      </c>
-      <c r="E29" t="e">
+        <f>m_1</f>
+        <v>5.1651470513746194</v>
+      </c>
+      <c r="E29">
         <f t="array" aca="1" ref="E29:F29" ca="1">_xll.MONTE.STDEV(C29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" t="e">
+        <v>5.1497205580444536</v>
+      </c>
+      <c r="F29">
         <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" t="e">
+        <v>1.7926592418414846</v>
+      </c>
+      <c r="G29">
         <f ca="1">(D29-E29)/F29</f>
-        <v>#VALUE!</v>
+        <v>8.605368477234478E-3</v>
       </c>
       <c r="H29">
         <v>3.6000000000000023</v>
       </c>
       <c r="I29">
-        <v>1.2306278487664461E-2</v>
+        <v>0.10776170327179441</v>
       </c>
       <c r="J29">
-        <v>1.1529933987328655E-2</v>
+        <v>0.10786135899791904</v>
       </c>
       <c r="K29">
-        <v>2.5192670384341048E-3</v>
+        <v>0.21890811408502234</v>
       </c>
       <c r="L29">
-        <v>3.6976064473437376E-4</v>
+        <v>0.18491939497232529</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f ca="1">f*EXP(s*Z-s*s/2)</f>
+        <v>7.7783678238696101</v>
+      </c>
+      <c r="D30">
+        <f>D29</f>
+        <v>5.1651470513746194</v>
+      </c>
+      <c r="E30">
+        <f t="array" aca="1" ref="E30:F30" ca="1">_xll.MONTE.STDEV(C30)</f>
+        <v>5.1536485722933891</v>
+      </c>
+      <c r="F30">
+        <f ca="1"/>
+        <v>1.7783314732873619</v>
+      </c>
+      <c r="G30">
+        <f ca="1">(D30-E30)/F30</f>
+        <v>6.4658806605804265E-3</v>
+      </c>
       <c r="H30">
         <v>3.7000000000000024</v>
       </c>
       <c r="I30">
-        <v>1.4077158858943813E-2</v>
+        <v>0.12147065364184442</v>
       </c>
       <c r="J30">
-        <v>1.2846720167876025E-2</v>
+        <v>0.11930841624988675</v>
       </c>
       <c r="K30">
-        <v>4.4980253479526174E-3</v>
+        <v>0.22827262604808155</v>
       </c>
       <c r="L30">
-        <v>7.1253946788701894E-4</v>
+        <v>0.20728950233041415</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
@@ -4612,16 +4642,16 @@
         <v>3.8000000000000025</v>
       </c>
       <c r="I31">
-        <v>1.616374628726586E-2</v>
+        <v>0.137019014479622</v>
       </c>
       <c r="J31">
-        <v>1.4355874523467871E-2</v>
+        <v>0.13221681732302659</v>
       </c>
       <c r="K31">
-        <v>7.6521929112598266E-3</v>
+        <v>0.23628168564470875</v>
       </c>
       <c r="L31">
-        <v>1.3084466055950927E-3</v>
+        <v>0.23052870462733138</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
@@ -4629,16 +4659,16 @@
         <v>3.9000000000000026</v>
       </c>
       <c r="I32">
-        <v>1.8633989545868274E-2</v>
+        <v>0.15457913278414251</v>
       </c>
       <c r="J32">
-        <v>1.6092238938931691E-2</v>
+        <v>0.14677931793184146</v>
       </c>
       <c r="K32">
-        <v>1.2445787391360723E-2</v>
+        <v>0.24290006542756712</v>
       </c>
       <c r="L32">
-        <v>2.2975469868894427E-3</v>
+        <v>0.25449945266432794</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.35">
@@ -4646,16 +4676,16 @@
         <v>4.0000000000000027</v>
       </c>
       <c r="I33">
-        <v>2.157309478537521E-2</v>
+        <v>0.17428573313919507</v>
       </c>
       <c r="J33">
-        <v>1.8098276586334616E-2</v>
+        <v>0.16320427319547132</v>
       </c>
       <c r="K33">
-        <v>1.9411474531159958E-2</v>
+        <v>0.24812020554180689</v>
       </c>
       <c r="L33">
-        <v>3.8699689662288206E-3</v>
+        <v>0.27906208243117209</v>
       </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.35">
@@ -4663,16 +4693,16 @@
         <v>4.1000000000000023</v>
       </c>
       <c r="I34">
-        <v>2.5088585322889542E-2</v>
+        <v>0.19619984748318434</v>
       </c>
       <c r="J34">
-        <v>2.0426038759288001E-2</v>
+        <v>0.18171018443208858</v>
       </c>
       <c r="K34">
-        <v>2.9114326068600128E-2</v>
+        <v>0.25195908023476032</v>
       </c>
       <c r="L34">
-        <v>6.2711012614361517E-3</v>
+        <v>0.30407742808294902</v>
       </c>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.35">
@@ -4680,16 +4710,16 @@
         <v>4.200000000000002</v>
       </c>
       <c r="I35">
-        <v>2.931703319012734E-2</v>
+        <v>0.22025818193956156</v>
       </c>
       <c r="J35">
-        <v>2.3139717016422645E-2</v>
+        <v>0.20251592610222136</v>
       </c>
       <c r="K35">
-        <v>4.2099488610585656E-2</v>
+        <v>0.25445481271928411</v>
       </c>
       <c r="L35">
-        <v>9.8023370490290529E-3</v>
+        <v>0.32940910743263985</v>
       </c>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.35">
@@ -4697,16 +4727,16 @@
         <v>4.3000000000000016</v>
       </c>
       <c r="I36">
-        <v>3.4433065131738244E-2</v>
+        <v>0.24620763039771493</v>
       </c>
       <c r="J36">
-        <v>2.6318976348940204E-2</v>
+        <v>0.2258251529019118</v>
       </c>
       <c r="K36">
-        <v>5.8828350473762669E-2</v>
+        <v>0.25566320789182273</v>
       </c>
       <c r="L36">
-        <v>1.4815958062302403E-2</v>
+        <v>0.35492546355091414</v>
       </c>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.35">
@@ -4714,16 +4744,16 @@
         <v>4.4000000000000012</v>
       </c>
       <c r="I37">
-        <v>4.0661469801546772E-2</v>
+        <v>0.27352992293590844</v>
       </c>
       <c r="J37">
-        <v>3.0063335998951779E-2</v>
+        <v>0.25180359090759113</v>
       </c>
       <c r="K37">
-        <v>7.9610744892588195E-2</v>
+        <v>0.25565433894464296</v>
       </c>
       <c r="L37">
-        <v>2.1703364651257495E-2</v>
+        <v>0.38050116133504402</v>
       </c>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.35">
@@ -4731,16 +4761,16 @@
         <v>4.5000000000000009</v>
       </c>
       <c r="I38">
-        <v>4.829353096872406E-2</v>
+        <v>0.30137079308283654</v>
       </c>
       <c r="J38">
-        <v>3.4497961467383487E-2</v>
+        <v>0.28054884945445269</v>
       </c>
       <c r="K38">
-        <v>0.10454252563674796</v>
+        <v>0.25450929209830364</v>
       </c>
       <c r="L38">
-        <v>3.0876713584996551E-2</v>
+        <v>0.40601844990199903</v>
       </c>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.35">
@@ -4748,16 +4778,16 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="I39">
-        <v>5.7709089888482105E-2</v>
+        <v>0.32850085343828406</v>
       </c>
       <c r="J39">
-        <v>3.9781362006405196E-2</v>
+        <v>0.31205445295372758</v>
       </c>
       <c r="K39">
-        <v>0.1334580200110726</v>
+        <v>0.25231714481128836</v>
       </c>
       <c r="L39">
-        <v>4.2744982044650937E-2</v>
+        <v>0.4313681106116169</v>
       </c>
     </row>
     <row r="40" spans="8:12" x14ac:dyDescent="0.35">
@@ -4765,16 +4795,16 @@
         <v>4.7</v>
       </c>
       <c r="I40">
-        <v>6.940627433837751E-2</v>
+        <v>0.35334655493768902</v>
       </c>
       <c r="J40">
-        <v>4.6115659720046165E-2</v>
+        <v>0.34617312057652722</v>
       </c>
       <c r="K40">
-        <v>0.16590530202404336</v>
+        <v>0.24917222762462019</v>
       </c>
       <c r="L40">
-        <v>5.7686362432050775E-2</v>
+        <v>0.45645011676910918</v>
       </c>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.35">
@@ -4782,16 +4812,16 @@
         <v>4.8</v>
       </c>
       <c r="I41">
-        <v>8.4041210885873796E-2</v>
+        <v>0.37412819205475406</v>
       </c>
       <c r="J41">
-        <v>5.3760310451663129E-2</v>
+        <v>0.38258825179180384</v>
       </c>
       <c r="K41">
-        <v>0.2011492213841399</v>
+        <v>0.24517169856222407</v>
       </c>
       <c r="L41">
-        <v>7.6019546490850132E-2</v>
+        <v>0.48117403497677308</v>
       </c>
     </row>
     <row r="42" spans="8:12" x14ac:dyDescent="0.35">
@@ -4799,16 +4829,16 @@
         <v>4.8999999999999995</v>
       </c>
       <c r="I42">
-        <v>0.10248002615379626</v>
+        <v>0.38911493037080314</v>
       </c>
       <c r="J42">
-        <v>6.305039345271557E-2</v>
+        <v>0.42080517387138539</v>
       </c>
       <c r="K42">
-        <v>0.23820325924474209</v>
+        <v>0.24041344171201215</v>
       </c>
       <c r="L42">
-        <v>9.797676174596881E-2</v>
+        <v>0.50545920009993206</v>
       </c>
     </row>
     <row r="43" spans="8:12" x14ac:dyDescent="0.35">
@@ -4816,16 +4846,16 @@
         <v>4.9999999999999991</v>
       </c>
       <c r="I43">
-        <v>0.12586416596247432</v>
+        <v>0.3969525474770117</v>
       </c>
       <c r="J43">
-        <v>7.4420770258741831E-2</v>
+        <v>0.46017216272297068</v>
       </c>
       <c r="K43">
-        <v>0.27588729222768493</v>
+        <v>0.23499428802606842</v>
       </c>
       <c r="L43">
-        <v>0.12368132882247646</v>
+        <v>0.52923469626574837</v>
       </c>
     </row>
     <row r="44" spans="8:12" x14ac:dyDescent="0.35">
@@ -4833,16 +4863,16 @@
         <v>5.0999999999999988</v>
       </c>
       <c r="I44">
-        <v>0.15568538300626228</v>
+        <v>0.39696240028245705</v>
       </c>
       <c r="J44">
-        <v>8.8437325073202289E-2</v>
+        <v>0.49993380705798635</v>
       </c>
       <c r="K44">
-        <v>0.31290493709476663</v>
+        <v>0.22900854613882873</v>
       </c>
       <c r="L44">
-        <v>0.15313203849753049</v>
+        <v>0.55243917557925282</v>
       </c>
     </row>
     <row r="45" spans="8:12" x14ac:dyDescent="0.35">
@@ -4850,16 +4880,16 @@
         <v>5.1999999999999984</v>
       </c>
       <c r="I45">
-        <v>0.19385374387987608</v>
+        <v>0.38929465325194246</v>
       </c>
       <c r="J45">
-        <v>0.105835585906987</v>
+        <v>0.5393078393356916</v>
       </c>
       <c r="K45">
-        <v>0.34793185120821568</v>
+        <v>0.22254682368006984</v>
       </c>
       <c r="L45">
-        <v>0.1861958888819249</v>
+        <v>0.57502054463228369</v>
       </c>
     </row>
     <row r="46" spans="8:12" x14ac:dyDescent="0.35">
@@ -4867,16 +4897,16 @@
         <v>5.299999999999998</v>
       </c>
       <c r="I46">
-        <v>0.24271009910123953</v>
+        <v>0.37487173478413854</v>
       </c>
       <c r="J46">
-        <v>0.1275639896320368</v>
+        <v>0.57756695924323231</v>
       </c>
       <c r="K46">
-        <v>0.37970545147559981</v>
+        <v>0.21569511470317762</v>
       </c>
       <c r="L46">
-        <v>0.22260980308668743</v>
+        <v>0.59693554666721726</v>
       </c>
     </row>
     <row r="47" spans="8:12" x14ac:dyDescent="0.35">
@@ -4884,16 +4914,16 @@
         <v>5.3999999999999977</v>
       </c>
       <c r="I47">
-        <v>0.30486352028865021</v>
+        <v>0.35515222481475828</v>
       </c>
       <c r="J47">
-        <v>0.15482109010094225</v>
+        <v>0.61410539145661369</v>
       </c>
       <c r="K47">
-        <v>0.4071069842220042</v>
+        <v>0.20853412601677129</v>
       </c>
       <c r="L47">
-        <v>0.26199100664670777</v>
+        <v>0.61814926466271047</v>
       </c>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.35">
@@ -4901,16 +4931,16 @@
         <v>5.4999999999999973</v>
       </c>
       <c r="I48">
-        <v>0.38259639558195085</v>
+        <v>0.33181704320580685</v>
       </c>
       <c r="J48">
-        <v>0.18905782442940916</v>
+        <v>0.64847696234307906</v>
       </c>
       <c r="K48">
-        <v>0.42922849548685615</v>
+        <v>0.20113881398803188</v>
       </c>
       <c r="L48">
-        <v>0.30385490995828296</v>
+        <v>0.63863456781465922</v>
       </c>
     </row>
     <row r="49" spans="8:12" x14ac:dyDescent="0.35">
@@ -4918,16 +4948,16 @@
         <v>5.599999999999997</v>
       </c>
       <c r="I49">
-        <v>0.47637931574696657</v>
+        <v>0.3064872031846162</v>
       </c>
       <c r="J49">
-        <v>0.23188039478608408</v>
+        <v>0.68040259943958292</v>
       </c>
       <c r="K49">
-        <v>0.4454196298161468</v>
+        <v>0.19357810341035236</v>
       </c>
       <c r="L49">
-        <v>0.34763871034746957</v>
+        <v>0.65837152103467478</v>
       </c>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.35">
@@ -4935,16 +4965,16 @@
         <v>5.6999999999999966</v>
       </c>
       <c r="I50">
-        <v>0.58198268344306903</v>
+        <v>0.28053781232243769</v>
       </c>
       <c r="J50">
-        <v>0.28473748785573794</v>
+        <v>0.70975412431358742</v>
       </c>
       <c r="K50">
-        <v>0.45531188336956946</v>
+        <v>0.18591476097579013</v>
       </c>
       <c r="L50">
-        <v>0.39272855524427364</v>
+        <v>0.67734677428853485</v>
       </c>
     </row>
     <row r="51" spans="8:12" x14ac:dyDescent="0.35">
@@ -4952,16 +4982,16 @@
         <v>5.7999999999999963</v>
       </c>
       <c r="I51">
-        <v>0.68655761571907392</v>
+        <v>0.25501798287634664</v>
       </c>
       <c r="J51">
-        <v>0.34825521485692734</v>
+        <v>0.73652484815274577</v>
       </c>
       <c r="K51">
-        <v>0.45882054041946063</v>
+        <v>0.17820539749334569</v>
       </c>
       <c r="L51">
-        <v>0.43848800298946555</v>
+        <v>0.69555294592671313</v>
       </c>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.35">
@@ -4969,16 +4999,16 @@
         <v>5.8999999999999959</v>
       </c>
       <c r="I52">
-        <v>0.76709809668935058</v>
+        <v>0.23065132552719075</v>
       </c>
       <c r="J52">
-        <v>0.42125258029361984</v>
+        <v>0.76079647237959835</v>
       </c>
       <c r="K52">
-        <v>0.45612670761169083</v>
+        <v>0.17050057502399449</v>
       </c>
       <c r="L52">
-        <v>0.48428565449283417</v>
+        <v>0.71298801167191295</v>
       </c>
     </row>
     <row r="53" spans="8:12" x14ac:dyDescent="0.35">
@@ -4986,16 +5016,16 @@
         <v>5.9999999999999956</v>
       </c>
       <c r="I53">
-        <v>0.79788456080286529</v>
+        <v>0.20788204224630144</v>
       </c>
       <c r="J53">
-        <v>0.49999999999999645</v>
+        <v>0.78270859937506321</v>
       </c>
       <c r="K53">
-        <v>0.44764342629902232</v>
+        <v>0.16284499738316571</v>
       </c>
       <c r="L53">
-        <v>0.52952015435578637</v>
+        <v>0.7296547086581745</v>
       </c>
     </row>
     <row r="54" spans="8:12" x14ac:dyDescent="0.35">
@@ -5003,16 +5033,16 @@
         <v>6.0999999999999952</v>
       </c>
       <c r="I54">
-        <v>0.76709809668935602</v>
+        <v>0.18693772452971127</v>
       </c>
       <c r="J54">
-        <v>0.57874741970637333</v>
+        <v>0.80243388390379722</v>
       </c>
       <c r="K54">
-        <v>0.43397071439785634</v>
+        <v>0.15527776485053962</v>
       </c>
       <c r="L54">
-        <v>0.57364120745714287</v>
+        <v>0.74555996188023477</v>
       </c>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.35">
@@ -5020,16 +5050,16 @@
         <v>6.1999999999999948</v>
       </c>
       <c r="I55">
-        <v>0.68655761571908258</v>
+        <v>0.16789089515948438</v>
       </c>
       <c r="J55">
-        <v>0.65174478514306655</v>
+        <v>0.82015950696594442</v>
       </c>
       <c r="K55">
-        <v>0.41584459846999927</v>
+        <v>0.14783267631894095</v>
       </c>
       <c r="L55">
-        <v>0.61616575775495508</v>
+        <v>0.76071433861573945</v>
       </c>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.35">
@@ -5037,16 +5067,16 @@
         <v>6.2999999999999945</v>
       </c>
       <c r="I56">
-        <v>0.58198268344307869</v>
+        <v>0.15071082154566329</v>
       </c>
       <c r="J56">
-        <v>0.71526251214425685</v>
+        <v>0.8360743571747864</v>
       </c>
       <c r="K56">
-        <v>0.39408485509301622</v>
+        <v>0.14053856443060872</v>
       </c>
       <c r="L56">
-        <v>0.65668896903242557</v>
+        <v>0.77513153482280517</v>
       </c>
     </row>
     <row r="57" spans="8:12" x14ac:dyDescent="0.35">
@@ -5054,16 +5084,16 @@
         <v>6.3999999999999941</v>
       </c>
       <c r="I57">
-        <v>0.47637931574697545</v>
+        <v>0.13530327595289776</v>
       </c>
       <c r="J57">
-        <v>0.76811960521391165</v>
+        <v>0.85036079315007773</v>
       </c>
       <c r="K57">
-        <v>0.36954544274130824</v>
+        <v>0.13341965143567538</v>
       </c>
       <c r="L57">
-        <v>0.69489008493443272</v>
+        <v>0.78882789618083216</v>
       </c>
     </row>
     <row r="58" spans="8:12" x14ac:dyDescent="0.35">
@@ -5071,16 +5101,16 @@
         <v>6.4999999999999938</v>
       </c>
       <c r="I58">
-        <v>0.38259639558195851</v>
+        <v>0.12153909695350115</v>
       </c>
       <c r="J58">
-        <v>0.81094217557058745</v>
+        <v>0.86318980756224684</v>
       </c>
       <c r="K58">
-        <v>0.34307063793661974</v>
+        <v>0.12649591552879422</v>
       </c>
       <c r="L58">
-        <v>0.73053359662873785</v>
+        <v>0.80182197531850141</v>
       </c>
     </row>
     <row r="59" spans="8:12" x14ac:dyDescent="0.35">
@@ -5088,16 +5118,16 @@
         <v>6.5999999999999934</v>
       </c>
       <c r="I59">
-        <v>0.30486352028865632</v>
+        <v>0.10927363283563755</v>
       </c>
       <c r="J59">
-        <v>0.84517890989905509</v>
+        <v>0.87471857229878713</v>
       </c>
       <c r="K59">
-        <v>0.31545884592455403</v>
+        <v>0.11978345925507844</v>
       </c>
       <c r="L59">
-        <v>0.7634663956890787</v>
+        <v>0.81413412584183709</v>
       </c>
     </row>
     <row r="60" spans="8:12" x14ac:dyDescent="0.35">
@@ -5105,16 +5135,16 @@
         <v>6.6999999999999931</v>
       </c>
       <c r="I60">
-        <v>0.24271009910124436</v>
+        <v>9.8359321402480521E-2</v>
       </c>
       <c r="J60">
-        <v>0.87243601036796103</v>
+        <v>0.88508956681374573</v>
       </c>
       <c r="K60">
-        <v>0.28743506099585475</v>
+        <v>0.1132948732170215</v>
       </c>
       <c r="L60">
-        <v>0.79361173623953518</v>
+        <v>0.82578613301799542</v>
       </c>
     </row>
     <row r="61" spans="8:12" x14ac:dyDescent="0.35">
@@ -5122,16 +5152,16 @@
         <v>6.7999999999999927</v>
       </c>
       <c r="I61">
-        <v>0.19385374387987991</v>
+        <v>8.8653373743276864E-2</v>
       </c>
       <c r="J61">
-        <v>0.89416441409301128</v>
+        <v>0.89443070496776067</v>
       </c>
       <c r="K61">
-        <v>0.25963209238678236</v>
+        <v>0.10703958975972069</v>
       </c>
       <c r="L61">
-        <v>0.82096088355507946</v>
+        <v>0.83680088036750022</v>
       </c>
     </row>
     <row r="62" spans="8:12" x14ac:dyDescent="0.35">
@@ -5139,16 +5169,16 @@
         <v>6.8999999999999924</v>
       </c>
       <c r="I62">
-        <v>0.15568538300626528</v>
+        <v>8.0022107428719069E-2</v>
       </c>
       <c r="J62">
-        <v>0.91156267492679621</v>
+        <v>0.90285605161681581</v>
       </c>
       <c r="K62">
-        <v>0.23257999868863763</v>
+        <v>0.1010242225686761</v>
       </c>
       <c r="L62">
-        <v>0.845563302587507</v>
+        <v>0.8472020509497511</v>
       </c>
     </row>
     <row r="63" spans="8:12" x14ac:dyDescent="0.35">
@@ -5156,16 +5186,16 @@
         <v>6.999999999999992</v>
       </c>
       <c r="I63">
-        <v>0.12586416596247665</v>
+        <v>7.2343068580088668E-2</v>
       </c>
       <c r="J63">
-        <v>0.92557922974125706</v>
+        <v>0.91046685398806537</v>
       </c>
       <c r="K63">
-        <v>0.20670270418641537</v>
+        <v>9.5252889193168475E-2</v>
       </c>
       <c r="L63">
-        <v>0.86751615900940116</v>
+        <v>0.85701386177543526</v>
       </c>
     </row>
     <row r="64" spans="8:12" x14ac:dyDescent="0.35">
@@ -5173,16 +5203,16 @@
         <v>7.0999999999999917</v>
       </c>
       <c r="I64">
-        <v>0.1024800261537981</v>
+        <v>6.5505747596820943E-2</v>
       </c>
       <c r="J64">
-        <v>0.93694960654728343</v>
+        <v>0.91735270941722669</v>
       </c>
       <c r="K64">
-        <v>0.18232049621838084</v>
+        <v>8.9727514422010393E-2</v>
       </c>
       <c r="L64">
-        <v>0.88695378745462361</v>
+        <v>0.86626082952777006</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.35">
@@ -5190,16 +5220,16 @@
         <v>7.1999999999999913</v>
       </c>
       <c r="I65">
-        <v>8.4041210885875253E-2</v>
+        <v>5.9411438890712147E-2</v>
       </c>
       <c r="J65">
-        <v>0.94623968954833615</v>
+        <v>0.92359275813611785</v>
       </c>
       <c r="K65">
-        <v>0.15965699781694936</v>
+        <v>8.4448113202157657E-2</v>
       </c>
       <c r="L65">
-        <v>0.90403764502665696</v>
+        <v>0.87496756560656586</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.35">
@@ -5207,16 +5237,16 @@
         <v>7.2999999999999909</v>
       </c>
       <c r="I66">
-        <v>6.9406274338378704E-2</v>
+        <v>5.3972610919898287E-2</v>
       </c>
       <c r="J66">
-        <v>0.95388434027995328</v>
+        <v>0.92925683510532187</v>
       </c>
       <c r="K66">
-        <v>0.13884923933077165</v>
+        <v>7.9413052419778515E-2</v>
       </c>
       <c r="L66">
-        <v>0.91894712808416157</v>
+        <v>0.88315859841064315</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.35">
@@ -5224,16 +5254,16 @@
         <v>7.3999999999999906</v>
       </c>
       <c r="I67">
-        <v>5.7709089888483021E-2</v>
+        <v>4.9112024108012846E-2</v>
       </c>
       <c r="J67">
-        <v>0.96021863799359419</v>
+        <v>0.93440654468291728</v>
       </c>
       <c r="K67">
-        <v>0.11995957821527302</v>
+        <v>7.4619291373374474E-2</v>
       </c>
       <c r="L67">
-        <v>0.93187149831435501</v>
+        <v>0.89085822073254262</v>
       </c>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.35">
@@ -5241,16 +5271,16 @@
         <v>7.4999999999999902</v>
       </c>
       <c r="I68">
-        <v>4.8293530968724796E-2</v>
+        <v>4.4761746468563637E-2</v>
       </c>
       <c r="J68">
-        <v>0.96550203853261607</v>
+        <v>0.93909624100298772</v>
       </c>
       <c r="K68">
-        <v>0.10298840134868119</v>
+        <v>7.0062601174418815E-2</v>
       </c>
       <c r="L68">
-        <v>0.94300304792469425</v>
+        <v>0.89809036014351684</v>
       </c>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.35">
@@ -5258,16 +5288,16 @@
         <v>7.5999999999999899</v>
       </c>
       <c r="I69">
-        <v>4.066146980154739E-2</v>
+        <v>4.0862158127352749E-2</v>
       </c>
       <c r="J69">
-        <v>0.96993666400104783</v>
+        <v>0.94337390878688232</v>
       </c>
       <c r="K69">
-        <v>8.7886757701217247E-2</v>
+        <v>6.5737763626840098E-2</v>
       </c>
       <c r="L69">
-        <v>0.95253153777076671</v>
+        <v>0.90487847028683066</v>
       </c>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.35">
@@ -5275,16 +5305,16 @@
         <v>7.6999999999999895</v>
       </c>
       <c r="I70">
-        <v>3.4433065131738744E-2</v>
+        <v>3.736099750259031E-2</v>
       </c>
       <c r="J70">
-        <v>0.97368102365105935</v>
+        <v>0.94728194636986829</v>
       </c>
       <c r="K70">
-        <v>7.4568286153011254E-2</v>
+        <v>6.163875037562011E-2</v>
       </c>
       <c r="L70">
-        <v>0.960639867925138</v>
+        <v>0.91124544106506411</v>
       </c>
     </row>
     <row r="71" spans="8:12" x14ac:dyDescent="0.35">
@@ -5292,16 +5322,16 @@
         <v>7.7999999999999892</v>
       </c>
       <c r="I71">
-        <v>2.9317033190127764E-2</v>
+        <v>3.4212477192339191E-2</v>
       </c>
       <c r="J71">
-        <v>0.97686028298357708</v>
+        <v>0.95085785667338851</v>
       </c>
       <c r="K71">
-        <v>6.2920005881136692E-2</v>
+        <v>5.7758883288705633E-2</v>
       </c>
       <c r="L71">
-        <v>0.9675008869787779</v>
+        <v>0.91721352579533166</v>
       </c>
     </row>
     <row r="72" spans="8:12" x14ac:dyDescent="0.35">
@@ -5309,16 +5339,16 @@
         <v>7.8999999999999888</v>
       </c>
       <c r="I72">
-        <v>2.5088585322889882E-2</v>
+        <v>3.1376482088588779E-2</v>
       </c>
       <c r="J72">
-        <v>0.97957396124071172</v>
+        <v>0.95413485381991725</v>
       </c>
       <c r="K72">
-        <v>5.2811713677595913E-2</v>
+        <v>5.4090977156050518E-2</v>
       </c>
       <c r="L72">
-        <v>0.97327521220161195</v>
+        <v>0.92280428350914523</v>
       </c>
     </row>
     <row r="73" spans="8:12" x14ac:dyDescent="0.35">
@@ -5326,16 +5356,16 @@
         <v>7.9999999999999885</v>
       </c>
       <c r="I73">
-        <v>2.1573094785375484E-2</v>
+        <v>2.8817852761897109E-2</v>
       </c>
       <c r="J73">
-        <v>0.98190172341366533</v>
+        <v>0.9571423938252106</v>
       </c>
       <c r="K73">
-        <v>4.4103878003003937E-2</v>
+        <v>5.0627465864407459E-2</v>
       </c>
       <c r="L73">
-        <v>0.97810991467143737</v>
+        <v>0.92803853468610309</v>
       </c>
     </row>
     <row r="74" spans="8:12" x14ac:dyDescent="0.35">
@@ -5343,16 +5373,16 @@
         <v>8.099999999999989</v>
       </c>
       <c r="I74">
-        <v>1.86339895458685E-2</v>
+        <v>2.6505751623854535E-2</v>
       </c>
       <c r="J74">
-        <v>0.98390776106106814</v>
+        <v>0.95990663780425822</v>
       </c>
       <c r="K74">
-        <v>3.665403202819955E-2</v>
+        <v>4.7360513244800548E-2</v>
       </c>
       <c r="L74">
-        <v>0.98213791835543685</v>
+        <v>0.9329363288286403</v>
       </c>
     </row>
     <row r="75" spans="8:12" x14ac:dyDescent="0.35">
@@ -5360,16 +5390,16 @@
         <v>8.1999999999999886</v>
       </c>
       <c r="I75">
-        <v>1.6163746287266065E-2</v>
+        <v>2.4413106360586356E-2</v>
       </c>
       <c r="J75">
-        <v>0.98564412547653202</v>
+        <v>0.96245085571074807</v>
       </c>
       <c r="K75">
-        <v>3.0321748957887296E-2</v>
+        <v>4.4282109798670817E-2</v>
       </c>
       <c r="L75">
-        <v>0.98547796665496201</v>
+        <v>0.9375169224054376</v>
       </c>
     </row>
     <row r="76" spans="8:12" x14ac:dyDescent="0.35">
@@ -5377,16 +5407,16 @@
         <v>8.2999999999999883</v>
       </c>
       <c r="I76">
-        <v>1.4077158858943993E-2</v>
+        <v>2.2516123701599122E-2</v>
       </c>
       <c r="J76">
-        <v>0.98715327983212386</v>
+        <v>0.96479577799747862</v>
       </c>
       <c r="K76">
-        <v>2.4972336123929718E-2</v>
+        <v>4.1384156494710223E-2</v>
       </c>
       <c r="L76">
-        <v>0.98823502112723993</v>
+        <v>0.94179876581115518</v>
       </c>
     </row>
     <row r="77" spans="8:12" x14ac:dyDescent="0.35">
@@ -5394,16 +5424,16 @@
         <v>8.3999999999999879</v>
       </c>
       <c r="I77">
-        <v>1.2306278487664621E-2</v>
+        <v>2.0793866130059947E-2</v>
       </c>
       <c r="J77">
-        <v>0.98847006601267129</v>
+        <v>0.96695990186250991</v>
       </c>
       <c r="K77">
-        <v>2.0479414274384763E-2</v>
+        <v>3.8658536796685454E-2</v>
       </c>
       <c r="L77">
-        <v>0.99050097241670265</v>
+        <v>0.94579949810789954</v>
       </c>
     </row>
     <row r="78" spans="8:12" x14ac:dyDescent="0.35">
@@ -5411,16 +5441,16 @@
         <v>8.4999999999999876</v>
       </c>
       <c r="I78">
-        <v>1.0796587545932275E-2</v>
+        <v>1.9227884254774771E-2</v>
       </c>
       <c r="J78">
-        <v>0.98962323024448129</v>
+        <v>0.96895975800863532</v>
       </c>
       <c r="K78">
-        <v>1.6726560081830596E-2</v>
+        <v>3.6097178037562211E-2</v>
       </c>
       <c r="L78">
-        <v>0.99235556078367193</v>
+        <v>0.94953594842770872</v>
       </c>
     </row>
     <row r="79" spans="8:12" x14ac:dyDescent="0.35">
@@ -5428,16 +5458,16 @@
         <v>8.5999999999999872</v>
       </c>
       <c r="I79">
-        <v>9.5040880334960071E-3</v>
+        <v>1.7801897995831175E-2</v>
       </c>
       <c r="J79">
-        <v>0.99063661409164983</v>
+        <v>0.97081014313549252</v>
       </c>
       <c r="K79">
-        <v>1.3608187881513585E-2</v>
+        <v>3.3692103200703441E-2</v>
       </c>
       <c r="L79">
-        <v>0.99386742141470519</v>
+        <v>0.95302414302421101</v>
       </c>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.35">
@@ -5445,16 +5475,16 @@
         <v>8.6999999999999869</v>
       </c>
       <c r="I80">
-        <v>8.3930721128568312E-3</v>
+        <v>1.6501520324694447E-2</v>
       </c>
       <c r="J80">
-        <v>0.99153009005212789</v>
+        <v>0.97252432272746359</v>
       </c>
       <c r="K80">
-        <v>1.1029835255261695E-2</v>
+        <v>3.1435474107906113E-2</v>
       </c>
       <c r="L80">
-        <v>0.99509518679247966</v>
+        <v>0.95627931706467895</v>
       </c>
     </row>
     <row r="81" spans="8:12" x14ac:dyDescent="0.35">
@@ -5462,16 +5492,16 @@
         <v>8.7999999999999865</v>
       </c>
       <c r="I81">
-        <v>7.4344042205265175E-3</v>
+        <v>1.5314017946838236E-2</v>
       </c>
       <c r="J81">
-        <v>0.99232030099743551</v>
+        <v>0.97411420810674554</v>
       </c>
       <c r="K81">
-        <v>8.9079998607718164E-3</v>
+        <v>2.9319626949076607E-2</v>
       </c>
       <c r="L81">
-        <v>0.9960885940394637</v>
+        <v>0.95931593035045859</v>
       </c>
     </row>
     <row r="82" spans="8:12" x14ac:dyDescent="0.35">
@@ -5479,16 +5509,16 @@
         <v>8.8999999999999861</v>
       </c>
       <c r="I82">
-        <v>6.6041892147968547E-3</v>
+        <v>1.4228103962082343E-2</v>
       </c>
       <c r="J82">
-        <v>0.9930212480198819</v>
+        <v>0.97559051119232043</v>
       </c>
       <c r="K82">
-        <v>7.1696547046143271E-3</v>
+        <v>2.7337101021445088E-2</v>
       </c>
       <c r="L82">
-        <v>0.9968895588944614</v>
+        <v>0.96214768624388836</v>
       </c>
     </row>
     <row r="83" spans="8:12" x14ac:dyDescent="0.35">
@@ -5496,16 +5526,16 @@
         <v>8.9999999999999858</v>
       </c>
       <c r="I83">
-        <v>5.8827336067864382E-3</v>
+        <v>1.3233758151641524E-2</v>
       </c>
       <c r="J83">
-        <v>0.99364476041309935</v>
+        <v>0.97696287994011866</v>
       </c>
       <c r="K83">
-        <v>5.751548009232707E-3</v>
+        <v>2.5480661478995748E-2</v>
       </c>
       <c r="L83">
-        <v>0.99753318964841786</v>
+        <v>0.96478755316325859</v>
       </c>
     </row>
   </sheetData>
@@ -5518,7 +5548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F1E49-69B3-41E4-B5F7-85CA4F6581D0}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5527,10 +5557,10 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>27</v>
@@ -5544,10 +5574,10 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>95</v>
@@ -5558,19 +5588,19 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3:G13">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.JOHNSON.PUT.VALUE(Johnson,_xlpm.k)))</f>
-        <v>0.17112571861433423</v>
+        <v>0.21964104664022965</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3:H13">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.NORMAL.PUT.VALUE(f,s,_xlpm.k)))</f>
-        <v>0.11807288295062524</v>
+        <v>0.15047516015719964</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
         <v>105</v>
@@ -5579,18 +5609,18 @@
         <v>96</v>
       </c>
       <c r="G4">
-        <v>0.2321879431957985</v>
+        <v>0.29371700965105951</v>
       </c>
       <c r="H4">
-        <v>0.22079106116632552</v>
+        <v>0.27323255315290318</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5599,10 +5629,10 @@
         <v>97</v>
       </c>
       <c r="G5">
-        <v>0.32556118066794149</v>
+        <v>0.40485038926779637</v>
       </c>
       <c r="H5">
-        <v>0.3853678358233239</v>
+        <v>0.46430618247089228</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -5610,17 +5640,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" cm="1">
-        <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(gamma, delta, lambda, xi)</f>
-        <v>1481255502400</v>
+        <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(xi, lambda, gamma, delta)</f>
+        <v>2002314789248</v>
       </c>
       <c r="F6">
         <v>98</v>
       </c>
       <c r="G6">
-        <v>0.4746916475353018</v>
+        <v>0.5783109449391155</v>
       </c>
       <c r="H6">
-        <v>0.6309751086400901</v>
+        <v>0.74206810660077238</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
@@ -5629,16 +5659,20 @@
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7">_xll.JOHNSON.MOMENT(Johnson,1)</f>
-        <v>100</v>
+        <v>99.669705897250765</v>
+      </c>
+      <c r="D7">
+        <f>xi-SQRT(EXP(1))*lambda*gamma/delta</f>
+        <v>99.670255745859976</v>
       </c>
       <c r="F7">
         <v>99</v>
       </c>
       <c r="G7">
-        <v>0.72148464792208244</v>
+        <v>0.85749011579833478</v>
       </c>
       <c r="H7">
-        <v>0.97414410439486687</v>
+        <v>1.1211384892197884</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -5647,16 +5681,16 @@
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,2) - mean^2</f>
-        <v>12.778112197860537</v>
+        <v>12.965566769535144</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <v>1.1255646869698808</v>
+        <v>1.3003336793219376</v>
       </c>
       <c r="H8">
-        <v>1.4255473400794187</v>
+        <v>1.6095107827846178</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
@@ -5665,16 +5699,16 @@
       </c>
       <c r="C9" s="5">
         <f>mean</f>
-        <v>100</v>
+        <v>99.669705897250765</v>
       </c>
       <c r="F9">
         <v>101</v>
       </c>
       <c r="G9">
-        <v>1.7214846479220824</v>
+        <v>1.9340968825215015</v>
       </c>
       <c r="H9">
-        <v>1.9878522343826148</v>
+        <v>2.2070064174084365</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -5683,16 +5717,16 @@
       </c>
       <c r="C10" s="5">
         <f>SQRT(LN(1+variance/(mean*mean)))</f>
-        <v>3.5735074000681002E-2</v>
+        <v>3.6115276722036238E-2</v>
       </c>
       <c r="F10">
         <v>102</v>
       </c>
       <c r="G10">
-        <v>2.4746916475352947</v>
+        <v>2.7175624881759006</v>
       </c>
       <c r="H10">
-        <v>2.6553526600854269</v>
+        <v>2.9055415213955911</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
@@ -5701,16 +5735,16 @@
       </c>
       <c r="C11" s="5">
         <f>f</f>
-        <v>100</v>
+        <v>99.669705897250765</v>
       </c>
       <c r="F11">
         <v>103</v>
       </c>
       <c r="G11">
-        <v>3.3255611806679468</v>
+        <v>3.5903697274681434</v>
       </c>
       <c r="H11">
-        <v>3.4154306054407897</v>
+        <v>3.6910306629170435</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -5719,16 +5753,16 @@
       </c>
       <c r="C12" s="5" cm="1">
         <f t="array" ref="C12">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
-        <v>1.4255473400794187</v>
+        <v>1.4359541979520429</v>
       </c>
       <c r="F12">
         <v>104</v>
       </c>
       <c r="G12">
-        <v>4.2321879431958109</v>
+        <v>4.5125670111857374</v>
       </c>
       <c r="H12">
-        <v>4.251260322242004</v>
+        <v>4.5462182555494337</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
@@ -5737,16 +5771,16 @@
       </c>
       <c r="C13" s="5" cm="1">
         <f t="array" ref="C13">_xll.NORMAL.PUT.DELTA(f, s, k)</f>
-        <v>-0.49287226329960288</v>
+        <v>-0.49279643606336931</v>
       </c>
       <c r="F13">
         <v>105</v>
       </c>
       <c r="G13">
-        <v>5.1711257186143342</v>
+        <v>5.4626589026709382</v>
       </c>
       <c r="H13">
-        <v>5.1448407517500812</v>
+        <v>5.4535456694156039</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
@@ -5755,7 +5789,7 @@
       </c>
       <c r="C14" s="5" cm="1">
         <f t="array" ref="C14">_xll.NORMAL.PUT.IMPLIED(f, value, k)</f>
-        <v>3.5735073993330223E-2</v>
+        <v>3.6115276714757762E-2</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
@@ -5764,7 +5798,7 @@
       </c>
       <c r="C15" s="5" cm="1">
         <f t="array" ref="C15">_xll.JOHNSON.PUT.VALUE(Johnson,k)</f>
-        <v>1.1255646869698808</v>
+        <v>1.13286858585289</v>
       </c>
     </row>
   </sheetData>

--- a/xll_johnson/johnson.xlsx
+++ b/xll_johnson/johnson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\fms_johnson\xll_johnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870CADEA-3D9C-4DDB-961C-D2C151466B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15B525-C4DF-448C-A800-357C01DD1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <definedName name="Johnson" localSheetId="1">Sheet2!$C$6</definedName>
     <definedName name="Johnson">Sheet1!$C$7</definedName>
     <definedName name="jput">_xlfn.ANCHORARRAY(Sheet2!$G$3)</definedName>
+    <definedName name="k" localSheetId="0">Sheet1!$C$17</definedName>
     <definedName name="k">Sheet2!$C$11</definedName>
     <definedName name="lambda" localSheetId="1">Sheet2!$C$3</definedName>
     <definedName name="lambda">Sheet1!$C$4</definedName>
@@ -39,7 +40,7 @@
     <definedName name="mean">Sheet2!$C$7</definedName>
     <definedName name="mu">Sheet1!$F$9</definedName>
     <definedName name="ncdf">_xlfn.ANCHORARRAY(Sheet1!$L$3)</definedName>
-    <definedName name="Normal">Sheet1!$C$17</definedName>
+    <definedName name="Normal">Sheet1!$C$18</definedName>
     <definedName name="npdf">_xlfn.ANCHORARRAY(Sheet1!$K$3)</definedName>
     <definedName name="nput">_xlfn.ANCHORARRAY(Sheet2!$H$3)</definedName>
     <definedName name="pdf">_xlfn.ANCHORARRAY(Sheet1!$I$3)</definedName>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>xi</t>
   </si>
@@ -192,6 +193,12 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>pX</t>
+  </si>
+  <si>
+    <t>pF</t>
   </si>
 </sst>
 </file>
@@ -3925,7 +3932,7 @@
       </c>
       <c r="C7" s="2" cm="1">
         <f t="array" ref="C7">_xll.\VARIATE.JOHNSON(xi, lambda, gamma, delta)</f>
-        <v>2002325464352</v>
+        <v>1871133711760</v>
       </c>
       <c r="E7" s="2"/>
       <c r="H7">
@@ -4080,7 +4087,7 @@
       </c>
       <c r="E13" s="7">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.68850916316899091</v>
+        <v>-0.41472170918068268</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4110,15 +4117,15 @@
       </c>
       <c r="E14" s="7">
         <f ca="1">f*EXP(s*E13-s*s/2)</f>
-        <v>3.8630509404693414</v>
+        <v>4.2383226880100402</v>
       </c>
       <c r="F14" s="7">
         <f t="array" aca="1" ref="F14:G14" ca="1">_xll.MONTE.STDEV(E14)</f>
-        <v>5.1571464347968732</v>
+        <v>5.1677054167145267</v>
       </c>
       <c r="G14" s="7">
         <f ca="1"/>
-        <v>1.7960852974324593</v>
+        <v>1.8056932835616211</v>
       </c>
       <c r="H14">
         <v>2.100000000000001</v>
@@ -4146,15 +4153,15 @@
       </c>
       <c r="E15" s="7">
         <f ca="1">E14^2</f>
-        <v>14.923162568661063</v>
+        <v>17.963379207700651</v>
       </c>
       <c r="F15" s="7">
         <f t="array" aca="1" ref="F15:G15" ca="1">_xll.MONTE.STDEV(E15)</f>
-        <v>29.821869973622785</v>
+        <v>29.965618361877315</v>
       </c>
       <c r="G15" s="7">
         <f ca="1"/>
-        <v>22.59828590241376</v>
+        <v>22.982552693325765</v>
       </c>
       <c r="H15">
         <v>2.2000000000000011</v>
@@ -4204,17 +4211,16 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" cm="1">
-        <f t="array" ref="C17">_xll.\VARIATE.NORMAL(0, 1)</f>
-        <v>2002315351936</v>
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
         <f ca="1">(F16-F15)/G15</f>
-        <v>4.3483732133276038E-3</v>
+        <v>-1.9790058909584462E-3</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17">
@@ -4234,6 +4240,13 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" cm="1">
+        <f t="array" ref="C18">_xll.\VARIATE.NORMAL(0, 1)</f>
+        <v>1872329293040</v>
+      </c>
       <c r="H18">
         <v>2.5000000000000013</v>
       </c>
@@ -4290,15 +4303,15 @@
       </c>
       <c r="C21">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>1.3783683991071509</v>
+        <v>0.67601452050896749</v>
       </c>
       <c r="E21">
         <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(Z)</f>
-        <v>-4.1300428664159949E-3</v>
+        <v>-2.4549556081976441E-3</v>
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>0.99402704629351968</v>
+        <v>0.99957045836885949</v>
       </c>
       <c r="H21">
         <v>2.8000000000000016</v>
@@ -4322,15 +4335,15 @@
       </c>
       <c r="C22">
         <f ca="1">(Z-gamma)/delta</f>
-        <v>1.478368399107151</v>
+        <v>0.77601452050896746</v>
       </c>
       <c r="E22">
         <f t="array" aca="1" ref="E22:F22" ca="1">_xll.MONTE.STDEV(C22)</f>
-        <v>9.5869957133583719E-2</v>
+        <v>9.7545044391802727E-2</v>
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>0.99402704629351968</v>
+        <v>0.99957045836885949</v>
       </c>
       <c r="H22">
         <v>2.9000000000000017</v>
@@ -4354,15 +4367,15 @@
       </c>
       <c r="C23">
         <f ca="1">SINH(C22)</f>
-        <v>2.0788872927591644</v>
+        <v>0.85627936512969005</v>
       </c>
       <c r="E23">
         <f t="array" aca="1" ref="E23:F23" ca="1">_xll.MONTE.STDEV(C23)</f>
-        <v>0.14972055804445344</v>
+        <v>0.16128042992196492</v>
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>1.7926592418414886</v>
+        <v>1.7918917200764766</v>
       </c>
       <c r="H23">
         <v>3.0000000000000018</v>
@@ -4386,7 +4399,7 @@
       </c>
       <c r="C24">
         <f ca="1">POWER($C$23,B24)</f>
-        <v>2.0788872927591644</v>
+        <v>0.85627936512969005</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xll.JOHNSON.Esinh_k(Johnson,B24)</f>
@@ -4394,15 +4407,15 @@
       </c>
       <c r="E24">
         <f t="array" aca="1" ref="E24:F24" ca="1">_xll.MONTE.STDEV(C24)</f>
-        <v>0.14972055804445344</v>
+        <v>0.16128042992196492</v>
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>1.7926592418414886</v>
+        <v>1.7918917200764766</v>
       </c>
       <c r="G24">
         <f ca="1">(D24-E24)/F24</f>
-        <v>8.6053684772344884E-3</v>
+        <v>2.1578432498640713E-3</v>
       </c>
       <c r="H24">
         <v>3.1000000000000019</v>
@@ -4426,7 +4439,7 @@
       </c>
       <c r="C25">
         <f ca="1">POWER($C$23,B25)</f>
-        <v>4.3217723759955273</v>
+        <v>0.73321435114690503</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" ref="D25">_xll.JOHNSON.Esinh_k(Johnson,B25)</f>
@@ -4434,15 +4447,15 @@
       </c>
       <c r="E25">
         <f t="array" aca="1" ref="E25:F25" ca="1">_xll.MONTE.STDEV(C25)</f>
-        <v>3.2358324380372854</v>
+        <v>3.2367995247387333</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>17.551695983747535</v>
+        <v>14.732003160093081</v>
       </c>
       <c r="G25">
         <f ca="1">(D25-E25)/F25</f>
-        <v>1.8706342085052295E-3</v>
+        <v>2.1630267029370286E-3</v>
       </c>
       <c r="H25">
         <v>3.200000000000002</v>
@@ -4466,7 +4479,7 @@
       </c>
       <c r="C26">
         <f ca="1">POWER($C$23,B26)</f>
-        <v>8.9844776746546842</v>
+        <v>0.62783631910404947</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xll.JOHNSON.Esinh_k(Johnson,B26)</f>
@@ -4474,15 +4487,15 @@
       </c>
       <c r="E26">
         <f t="array" aca="1" ref="E26:F26" ca="1">_xll.MONTE.STDEV(C26)</f>
-        <v>6.6678514455878718E-2</v>
+        <v>5.1722612484910853</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>439.8920227318464</v>
+        <v>276.85406046823147</v>
       </c>
       <c r="G26">
         <f ca="1">(D26-E26)/F26</f>
-        <v>1.5145698631595197E-2</v>
+        <v>5.6235016747490062E-3</v>
       </c>
       <c r="H26">
         <v>3.300000000000002</v>
@@ -4506,7 +4519,7 @@
       </c>
       <c r="C27">
         <f ca="1">POWER($C$23,B27)</f>
-        <v>18.677716469918025</v>
+        <v>0.53760328472777696</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xll.JOHNSON.Esinh_k(Johnson,B27)</f>
@@ -4514,15 +4527,15 @@
       </c>
       <c r="E27">
         <f t="array" aca="1" ref="E27:F27" ca="1">_xll.MONTE.STDEV(C27)</f>
-        <v>318.51242013992777</v>
+        <v>227.50285438534203</v>
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>13853.998025240649</v>
+        <v>6661.6498393543679</v>
       </c>
       <c r="G27">
         <f ca="1">(D27-E27)/F27</f>
-        <v>5.8411174627660007E-3</v>
+        <v>2.5809281438546442E-2</v>
       </c>
       <c r="H27">
         <v>3.4000000000000021</v>
@@ -4563,7 +4576,7 @@
       </c>
       <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
-        <v>7.0788872927591644</v>
+        <v>5.8562793651296898</v>
       </c>
       <c r="D29">
         <f>m_1</f>
@@ -4571,15 +4584,15 @@
       </c>
       <c r="E29">
         <f t="array" aca="1" ref="E29:F29" ca="1">_xll.MONTE.STDEV(C29)</f>
-        <v>5.1497205580444536</v>
+        <v>5.1612804299219484</v>
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>1.7926592418414846</v>
+        <v>1.7918917200764766</v>
       </c>
       <c r="G29">
         <f ca="1">(D29-E29)/F29</f>
-        <v>8.605368477234478E-3</v>
+        <v>2.1578432498733807E-3</v>
       </c>
       <c r="H29">
         <v>3.6000000000000023</v>
@@ -4603,7 +4616,7 @@
       </c>
       <c r="C30">
         <f ca="1">f*EXP(s*Z-s*s/2)</f>
-        <v>7.7783678238696101</v>
+        <v>6.1319596197896047</v>
       </c>
       <c r="D30">
         <f>D29</f>
@@ -4611,15 +4624,15 @@
       </c>
       <c r="E30">
         <f t="array" aca="1" ref="E30:F30" ca="1">_xll.MONTE.STDEV(C30)</f>
-        <v>5.1536485722933891</v>
+        <v>5.1606725655930292</v>
       </c>
       <c r="F30">
         <f ca="1"/>
-        <v>1.7783314732873619</v>
+        <v>1.7990905441741645</v>
       </c>
       <c r="G30">
         <f ca="1">(D30-E30)/F30</f>
-        <v>6.4658806605804265E-3</v>
+        <v>2.4870820404673268E-3</v>
       </c>
       <c r="H30">
         <v>3.7000000000000024</v>
@@ -4655,6 +4668,29 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f ca="1">MAX(k-C29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">_xll.JOHNSON.PUT.VALUE(Johnson, k)</f>
+        <v>0.48501978828634895</v>
+      </c>
+      <c r="E32">
+        <f t="array" aca="1" ref="E32:F32" ca="1">_xll.MONTE.STDEV(C32)</f>
+        <v>0.4861622511978112</v>
+      </c>
+      <c r="F32">
+        <f ca="1"/>
+        <v>1.0218021388504597</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G33" ca="1" si="0">(D32-E32)/F32</f>
+        <v>-1.1180862400107471E-3</v>
+      </c>
       <c r="H32">
         <v>3.9000000000000026</v>
       </c>
@@ -4671,7 +4707,30 @@
         <v>0.25449945266432794</v>
       </c>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f ca="1">MAX(k-C30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
+        <v>0.60388109459734007</v>
+      </c>
+      <c r="E33">
+        <f t="array" aca="1" ref="E33:F33" ca="1">_xll.MONTE.STDEV(C33)</f>
+        <v>0.60478527804354842</v>
+      </c>
+      <c r="F33">
+        <f ca="1"/>
+        <v>0.78123545686887463</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1573763559481049E-3</v>
+      </c>
       <c r="H33">
         <v>4.0000000000000027</v>
       </c>
@@ -4688,7 +4747,7 @@
         <v>0.27906208243117209</v>
       </c>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H34">
         <v>4.1000000000000023</v>
       </c>
@@ -4705,7 +4764,7 @@
         <v>0.30407742808294902</v>
       </c>
     </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H35">
         <v>4.200000000000002</v>
       </c>
@@ -4722,7 +4781,7 @@
         <v>0.32940910743263985</v>
       </c>
     </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H36">
         <v>4.3000000000000016</v>
       </c>
@@ -4739,7 +4798,7 @@
         <v>0.35492546355091414</v>
       </c>
     </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H37">
         <v>4.4000000000000012</v>
       </c>
@@ -4756,7 +4815,7 @@
         <v>0.38050116133504402</v>
       </c>
     </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H38">
         <v>4.5000000000000009</v>
       </c>
@@ -4773,7 +4832,7 @@
         <v>0.40601844990199903</v>
       </c>
     </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H39">
         <v>4.6000000000000005</v>
       </c>
@@ -4790,7 +4849,7 @@
         <v>0.4313681106116169</v>
       </c>
     </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H40">
         <v>4.7</v>
       </c>
@@ -4807,7 +4866,7 @@
         <v>0.45645011676910918</v>
       </c>
     </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H41">
         <v>4.8</v>
       </c>
@@ -4824,7 +4883,7 @@
         <v>0.48117403497677308</v>
       </c>
     </row>
-    <row r="42" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H42">
         <v>4.8999999999999995</v>
       </c>
@@ -4841,7 +4900,7 @@
         <v>0.50545920009993206</v>
       </c>
     </row>
-    <row r="43" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H43">
         <v>4.9999999999999991</v>
       </c>
@@ -4858,7 +4917,7 @@
         <v>0.52923469626574837</v>
       </c>
     </row>
-    <row r="44" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H44">
         <v>5.0999999999999988</v>
       </c>
@@ -4875,7 +4934,7 @@
         <v>0.55243917557925282</v>
       </c>
     </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H45">
         <v>5.1999999999999984</v>
       </c>
@@ -4892,7 +4951,7 @@
         <v>0.57502054463228369</v>
       </c>
     </row>
-    <row r="46" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H46">
         <v>5.299999999999998</v>
       </c>
@@ -4909,7 +4968,7 @@
         <v>0.59693554666721726</v>
       </c>
     </row>
-    <row r="47" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H47">
         <v>5.3999999999999977</v>
       </c>
@@ -4926,7 +4985,7 @@
         <v>0.61814926466271047</v>
       </c>
     </row>
-    <row r="48" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H48">
         <v>5.4999999999999973</v>
       </c>
@@ -5641,7 +5700,7 @@
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(xi, lambda, gamma, delta)</f>
-        <v>2002314789248</v>
+        <v>1872423192352</v>
       </c>
       <c r="F6">
         <v>98</v>

--- a/xll_johnson/johnson.xlsx
+++ b/xll_johnson/johnson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\fms_johnson\xll_johnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15B525-C4DF-448C-A800-357C01DD1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968FE375-4D38-483B-83FC-5DC9874B710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
   </bookViews>
@@ -19,43 +19,43 @@
   <definedNames>
     <definedName name="cdf">_xlfn.ANCHORARRAY(Sheet1!$J$3)</definedName>
     <definedName name="delta" localSheetId="1">Sheet2!$C$5</definedName>
-    <definedName name="delta">Sheet1!$C$6</definedName>
-    <definedName name="f" localSheetId="0">Sheet1!$C$15</definedName>
+    <definedName name="delta">Sheet1!$C$5</definedName>
+    <definedName name="f" localSheetId="0">Sheet1!$C$14</definedName>
     <definedName name="f">Sheet2!$C$9</definedName>
     <definedName name="gamma" localSheetId="1">Sheet2!$C$4</definedName>
-    <definedName name="gamma">Sheet1!$C$5</definedName>
+    <definedName name="gamma">Sheet1!$C$4</definedName>
     <definedName name="implied">Sheet2!$C$14</definedName>
     <definedName name="Johnson" localSheetId="1">Sheet2!$C$6</definedName>
-    <definedName name="Johnson">Sheet1!$C$7</definedName>
+    <definedName name="Johnson">Sheet1!$C$6</definedName>
     <definedName name="jput">_xlfn.ANCHORARRAY(Sheet2!$G$3)</definedName>
-    <definedName name="k" localSheetId="0">Sheet1!$C$17</definedName>
+    <definedName name="k" localSheetId="0">Sheet1!$C$16</definedName>
     <definedName name="k">Sheet2!$C$11</definedName>
     <definedName name="lambda" localSheetId="1">Sheet2!$C$3</definedName>
-    <definedName name="lambda">Sheet1!$C$4</definedName>
-    <definedName name="m_1">Sheet1!$C$9</definedName>
-    <definedName name="m_2">Sheet1!$C$10</definedName>
-    <definedName name="m_3">Sheet1!$C$11</definedName>
-    <definedName name="m_4">Sheet1!$C$12</definedName>
-    <definedName name="mean" localSheetId="0">Sheet1!$C$13</definedName>
+    <definedName name="lambda">Sheet1!$C$3</definedName>
+    <definedName name="m_1">Sheet1!$C$8</definedName>
+    <definedName name="m_2">Sheet1!$C$9</definedName>
+    <definedName name="m_3">Sheet1!$C$10</definedName>
+    <definedName name="m_4">Sheet1!$C$11</definedName>
+    <definedName name="mean" localSheetId="0">Sheet1!$C$12</definedName>
     <definedName name="mean">Sheet2!$C$7</definedName>
     <definedName name="mu">Sheet1!$F$9</definedName>
     <definedName name="ncdf">_xlfn.ANCHORARRAY(Sheet1!$L$3)</definedName>
-    <definedName name="Normal">Sheet1!$C$18</definedName>
+    <definedName name="Normal">Sheet1!$C$17</definedName>
     <definedName name="npdf">_xlfn.ANCHORARRAY(Sheet1!$K$3)</definedName>
     <definedName name="nput">_xlfn.ANCHORARRAY(Sheet2!$H$3)</definedName>
     <definedName name="pdf">_xlfn.ANCHORARRAY(Sheet1!$I$3)</definedName>
     <definedName name="s" localSheetId="1">Sheet2!$C$10</definedName>
-    <definedName name="s">Sheet1!$C$16</definedName>
-    <definedName name="s2_">Sheet1!$C$16</definedName>
+    <definedName name="s">Sheet1!$C$15</definedName>
+    <definedName name="s2_">Sheet1!$C$15</definedName>
     <definedName name="sigma">Sheet1!$F$10</definedName>
     <definedName name="strike">_xlfn.ANCHORARRAY(Sheet2!$F$3)</definedName>
     <definedName name="value">Sheet2!$C$12</definedName>
-    <definedName name="variance" localSheetId="0">Sheet1!$C$14</definedName>
+    <definedName name="variance" localSheetId="0">Sheet1!$C$13</definedName>
     <definedName name="variance">Sheet2!$C$8</definedName>
     <definedName name="x">_xlfn.ANCHORARRAY(Sheet1!$H$3)</definedName>
     <definedName name="xi" localSheetId="1">Sheet2!$C$2</definedName>
-    <definedName name="xi">Sheet1!$C$3</definedName>
-    <definedName name="Z">Sheet1!$C$21</definedName>
+    <definedName name="xi">Sheet1!$C$2</definedName>
+    <definedName name="Z">Sheet1!$C$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>xi</t>
   </si>
@@ -205,11 +205,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -235,8 +236,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +255,13 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -281,15 +293,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -297,7 +325,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,10 +333,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Handle" xfId="1" xr:uid="{0EBF5B21-6312-4F15-AB84-20907DB8AB90}"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,250 +785,250 @@
             <c:numRef>
               <c:f>[0]!pdf</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>8.7043986617569222E-3</c:v>
+                  <c:v>1.5139422545669417E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4044719258295027E-3</c:v>
+                  <c:v>1.5997099164477276E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0173262688855026E-2</c:v>
+                  <c:v>1.6914699916984379E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1018772248612533E-2</c:v>
+                  <c:v>1.7897229909829997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1950079458531314E-2</c:v>
+                  <c:v>1.8950180446438293E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.297750450768184E-2</c:v>
+                  <c:v>2.0079582516933085E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4112800043611179E-2</c:v>
+                  <c:v>2.1292066759165548E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5369374471788265E-2</c:v>
+                  <c:v>2.2594930717328786E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6762553112508016E-2</c:v>
+                  <c:v>2.3996214327738151E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8309883864989725E-2</c:v>
+                  <c:v>2.5504784674204986E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0031495117685684E-2</c:v>
+                  <c:v>2.7130431177329131E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1950514837471201E-2</c:v>
+                  <c:v>2.888397251131692E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4093561027048488E-2</c:v>
+                  <c:v>3.0777376675459212E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6491314975748824E-2</c:v>
+                  <c:v>3.2823895779845597E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9179189790783069E-2</c:v>
+                  <c:v>3.5038217227692937E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2198107319314759E-2</c:v>
+                  <c:v>3.743663307656054E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5595396315536147E-2</c:v>
+                  <c:v>4.0037229417626864E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.9425822854032046E-2</c:v>
+                  <c:v>4.286009759618125E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3752759396218865E-2</c:v>
+                  <c:v>4.5927568963471957E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8649489780981631E-2</c:v>
+                  <c:v>4.926447453572616E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4200630945848531E-2</c:v>
+                  <c:v>5.289843034726565E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0503624137080839E-2</c:v>
+                  <c:v>5.6860148286722367E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.7670202359770157E-2</c:v>
+                  <c:v>6.1183770605383651E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.582766751435821E-2</c:v>
+                  <c:v>6.5907223808738535E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5119696826040203E-2</c:v>
+                  <c:v>7.1072583893494315E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.570622593997144E-2</c:v>
+                  <c:v>7.6726439315913372E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.10776170327179441</c:v>
+                  <c:v>8.2920229888504768E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.12147065364184442</c:v>
+                  <c:v>8.9710527902554391E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.137019014479622</c:v>
+                  <c:v>9.7159210641216562E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.15457913278414251</c:v>
+                  <c:v>0.10533344899981675</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.17428573313919507</c:v>
+                  <c:v>0.11430540237448446</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.19619984748318434</c:v>
+                  <c:v>0.12415146168212496</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.22025818193956156</c:v>
+                  <c:v>0.13495081581999202</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.24620763039771493</c:v>
+                  <c:v>0.14678302690235376</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.27352992293590844</c:v>
+                  <c:v>0.1597241812704932</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.30137079308283654</c:v>
+                  <c:v>0.17384103393575362</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.32850085343828406</c:v>
+                  <c:v>0.18918238805845</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.35334655493768902</c:v>
+                  <c:v>0.20576676840510427</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.37412819205475406</c:v>
+                  <c:v>0.22356531053543807</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.38911493037080314</c:v>
+                  <c:v>0.24247880619228596</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3969525474770117</c:v>
+                  <c:v>0.26230822643054041</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.39696240028245705</c:v>
+                  <c:v>0.28271912995808696</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.38929465325194246</c:v>
+                  <c:v>0.3032026416128813</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.37487173478413854</c:v>
+                  <c:v>0.32303967406396955</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35515222481475828</c:v>
+                  <c:v>0.3412809241320981</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.33181704320580685</c:v>
+                  <c:v>0.356761850006451</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3064872031846162</c:v>
+                  <c:v>0.36817583176611829</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.28053781232243769</c:v>
+                  <c:v>0.37422347507725773</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.25501798287634664</c:v>
+                  <c:v>0.3738342675843726</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.23065132552719075</c:v>
+                  <c:v>0.36641816119273762</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.20788204224630144</c:v>
+                  <c:v>0.35206532676430025</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.18693772452971127</c:v>
+                  <c:v>0.33160387841141076</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.16789089515948438</c:v>
+                  <c:v>0.30647079153560336</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.15071082154566329</c:v>
+                  <c:v>0.27843373574044616</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.13530327595289776</c:v>
+                  <c:v>0.24926717370642945</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.12153909695350115</c:v>
+                  <c:v>0.22049094919328061</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.10927363283563755</c:v>
+                  <c:v>0.1932299757692657</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.8359321402480521E-2</c:v>
+                  <c:v>0.16819240291025642</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.8653373743276864E-2</c:v>
+                  <c:v>0.14572672338271783</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.0022107428719069E-2</c:v>
+                  <c:v>0.12591247157491084</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.2343068580088668E-2</c:v>
+                  <c:v>0.10865162490956394</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.5505747596820943E-2</c:v>
+                  <c:v>9.3743973450710963E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.9411438890712147E-2</c:v>
+                  <c:v>8.0941806188150472E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.3972610919898287E-2</c:v>
+                  <c:v>6.9985793833164889E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.9112024108012846E-2</c:v>
+                  <c:v>6.0626344093104342E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.4761746468563637E-2</c:v>
+                  <c:v>5.2634829913887807E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.0862158127352749E-2</c:v>
+                  <c:v>4.5808292455015789E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.736099750259031E-2</c:v>
+                  <c:v>3.9970235399044061E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.4212477192339191E-2</c:v>
+                  <c:v>3.496926890543383E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.1376482088588779E-2</c:v>
+                  <c:v>3.0676715691323218E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.8817852761897109E-2</c:v>
+                  <c:v>2.6983845155844545E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.6505751623854535E-2</c:v>
+                  <c:v>2.3799110032277044E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.4413106360586356E-2</c:v>
+                  <c:v>2.1045578376519561E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2516123701599122E-2</c:v>
+                  <c:v>1.865864516888497E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0793866130059947E-2</c:v>
+                  <c:v>1.6584045977701141E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9227884254774771E-2</c:v>
+                  <c:v>1.4776162100615694E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7801897995831175E-2</c:v>
+                  <c:v>1.319659074318116E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.6501520324694447E-2</c:v>
+                  <c:v>1.1812947810997277E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.5314017946838236E-2</c:v>
+                  <c:v>1.0597870312885621E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.4228103962082343E-2</c:v>
+                  <c:v>9.5281875345755475E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3233758151641524E-2</c:v>
+                  <c:v>8.5842335033343726E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,250 +1322,250 @@
             <c:numRef>
               <c:f>[0]!npdf</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.0703080790700656E-5</c:v>
+                  <c:v>4.1780940651578739E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7524842908507572E-5</c:v>
+                  <c:v>9.5625021561651104E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8541482578519951E-4</c:v>
+                  <c:v>1.9354276314044901E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4296497863847636E-4</c:v>
+                  <c:v>3.5469075004989675E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4388057624415149E-4</c:v>
+                  <c:v>5.9912734153353001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.828481687822665E-3</c:v>
+                  <c:v>9.4565831125278405E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2689122909686911E-3</c:v>
+                  <c:v>1.40980403521054E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4581413132084155E-3</c:v>
+                  <c:v>2.0021934924245702E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5942388888088153E-3</c:v>
+                  <c:v>2.7275563723237212E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2862306328674886E-2</c:v>
+                  <c:v>3.5843549692396587E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8416696368631622E-2</c:v>
+                  <c:v>4.5649978172211912E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.536585933519743E-2</c:v>
+                  <c:v>5.6565155513190891E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3761485611641127E-2</c:v>
+                  <c:v>6.8415533952968663E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3592804216243536E-2</c:v>
+                  <c:v>8.099535618490146E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4786123243474517E-2</c:v>
+                  <c:v>9.4078756190620338E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.7209078050748189E-2</c:v>
+                  <c:v>0.10743132404124835</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0678640132736804E-2</c:v>
+                  <c:v>0.12082043666788168</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.49717351169867E-2</c:v>
+                  <c:v>0.13402393146925323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10983729105368589</c:v>
+                  <c:v>0.14683693152661076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12500864148247087</c:v>
+                  <c:v>0.15907681085414899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14021539244940245</c:v>
+                  <c:v>0.17058641573860422</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.15519408516734709</c:v>
+                  <c:v>0.18123573954513536</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.16969721244001465</c:v>
+                  <c:v>0.19092229169941596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18350035396592823</c:v>
+                  <c:v>0.19957041581568502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19640736953200333</c:v>
+                  <c:v>0.20712980546477736</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20825372403762965</c:v>
+                  <c:v>0.21357344601217529</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.21890811408502234</c:v>
+                  <c:v>0.21889518304071021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.22827262604808155</c:v>
+                  <c:v>0.22310708645143951</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.23628168564470875</c:v>
+                  <c:v>0.22623674751436987</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.24290006542756712</c:v>
+                  <c:v>0.22832461598961334</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.24812020554180689</c:v>
+                  <c:v>0.22942145721548501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25195908023476032</c:v>
+                  <c:v>0.22958598540667038</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.25445481271928411</c:v>
+                  <c:v>0.22888270952856943</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.25566320789182273</c:v>
+                  <c:v>0.22738001192296303</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25565433894464296</c:v>
+                  <c:v>0.2251484670796107</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.25450929209830364</c:v>
+                  <c:v>0.22225939819982649</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25231714481128836</c:v>
+                  <c:v>0.21878366205931621</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24917222762462019</c:v>
+                  <c:v>0.21479064772295947</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.24517169856222407</c:v>
+                  <c:v>0.21034747149052171</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.24041344171201215</c:v>
+                  <c:v>0.20551834869367219</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.23499428802606842</c:v>
+                  <c:v>0.20036412230019596</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.22900854613882873</c:v>
+                  <c:v>0.1949419284369007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.22254682368006984</c:v>
+                  <c:v>0.1893049796900321</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.21569511470317762</c:v>
+                  <c:v>0.18350244819481559</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.20853412601677129</c:v>
+                  <c:v>0.17757943193547557</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.20113881398803188</c:v>
+                  <c:v>0.17157698922786752</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.19357810341035236</c:v>
+                  <c:v>0.16553222796050229</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.18591476097579013</c:v>
+                  <c:v>0.15947843776105353</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.17820539749334569</c:v>
+                  <c:v>0.1534452547879773</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.17050057502399449</c:v>
+                  <c:v>0.14745885028916433</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.16284499738316571</c:v>
+                  <c:v>0.14154213540189828</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.15527776485053962</c:v>
+                  <c:v>0.1357149758801503</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.14783267631894095</c:v>
+                  <c:v>0.1299944115225487</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.14053856443060872</c:v>
+                  <c:v>0.12439487603833155</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.13341965143567538</c:v>
+                  <c:v>0.11892841393383678</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.12649591552879422</c:v>
+                  <c:v>0.11360489173556704</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.11978345925507844</c:v>
+                  <c:v>0.10843220149599027</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1132948732170215</c:v>
+                  <c:v>0.10341645506418636</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.10703958975972069</c:v>
+                  <c:v>9.8562168054654953E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1010242225686761</c:v>
+                  <c:v>9.3872432823403587E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.5252889193168475E-2</c:v>
+                  <c:v>8.9349080069805312E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.9727514422010393E-2</c:v>
+                  <c:v>8.4992828934099277E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.4448113202157657E-2</c:v>
+                  <c:v>8.0803425661615622E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.9413052419778515E-2</c:v>
+                  <c:v>7.6779771062963131E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.4619291373374474E-2</c:v>
+                  <c:v>7.2920037120941916E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.0062601174418815E-2</c:v>
+                  <c:v>6.9221773185568256E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.5737763626840098E-2</c:v>
+                  <c:v>6.5682002263377337E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.163875037562011E-2</c:v>
+                  <c:v>6.22973079505467E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.7758883288705633E-2</c:v>
+                  <c:v>5.9063912585209759E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.4090977156050518E-2</c:v>
+                  <c:v>5.5977747205939558E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.0627465864407459E-2</c:v>
+                  <c:v>5.3034513903625541E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.7360513244800548E-2</c:v>
+                  <c:v>5.0229741145274183E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.4282109798670817E-2</c:v>
+                  <c:v>4.7558832632684886E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.1384156494710223E-2</c:v>
+                  <c:v>4.5017110238204983E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.8658536796685454E-2</c:v>
+                  <c:v>4.2599851535286858E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.6097178037562211E-2</c:v>
+                  <c:v>4.0302322414530481E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.3692103200703441E-2</c:v>
+                  <c:v>3.8119805247265229E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.1435474107906113E-2</c:v>
+                  <c:v>3.6047623029282466E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.9319626949076607E-2</c:v>
+                  <c:v>3.4081159907699901E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.7337101021445088E-2</c:v>
+                  <c:v>3.221587846460737E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.5480661478995748E-2</c:v>
+                  <c:v>3.0447334102491772E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,7 +1672,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1842,39 +1877,69 @@
               <c:f>[0]!strike</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,39 +1949,69 @@
               <c:f>[0]!jput</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>6.9638663695983816E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4993948410896802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10508011038182286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13187002093433797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16842119074878958</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.21964104664022965</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>0.29371700965105951</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.40485038926779637</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.5783109449391155</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.85749011579833478</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>1.3003336793219376</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>1.9340968825215015</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>2.7175624881759006</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>3.5903697274681434</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>4.5125670111857374</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>5.4626589026709382</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4292498301286258</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4060648866560967</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3894823637536433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.3773169042700744</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.368197017941426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,39 +2054,69 @@
               <c:f>[0]!strike</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,39 +2126,69 @@
               <c:f>[0]!nput</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>2.3868424467606286E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4816119800858996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6091692090441034E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6689488131572467E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7177216935841564E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.15047516015719964</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>0.27323255315290318</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.46430618247089228</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.74206810660077238</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>1.1211384892197884</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>1.6095107827846178</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>2.2070064174084365</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>2.9055415213955911</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>3.6910306629170435</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>4.5462182555494337</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>5.4535456694156039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3973465981347459</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3650513577205459</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3474600000989767</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.3383729275395382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.333918471004608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3774,7 +3929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F0A76B-08E5-40E0-BCFA-A9D795A3DB2C}">
-  <dimension ref="B1:L83"/>
+  <dimension ref="B1:L367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3784,48 +3939,48 @@
     <col min="3" max="3" width="12.4140625" customWidth="1"/>
     <col min="4" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="7" width="8.6640625" customWidth="1"/>
-    <col min="11" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I1" s="3">
+      <c r="I1" s="10">
         <f>1-SUM(pdf)*G5</f>
-        <v>3.6045820170739651E-2</v>
-      </c>
-      <c r="K1" s="3">
+        <v>4.3999897082457884E-2</v>
+      </c>
+      <c r="K1" s="10">
         <f>1-SUM(npdf)*G5</f>
-        <v>3.3953997020412352E-2</v>
+        <v>5.16472847665983E-2</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3834,29 +3989,29 @@
         <f t="array" ref="H3:H83">_xlfn.SEQUENCE(1+(G4-G3)/G5,1,G3,G5)</f>
         <v>1</v>
       </c>
-      <c r="I3" cm="1">
+      <c r="I3" s="9" cm="1">
         <f t="array" ref="I3:I83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Johnson,_xlpm.x,s)))</f>
-        <v>8.7043986617569222E-3</v>
-      </c>
-      <c r="J3" cm="1">
+        <v>1.5139422545669417E-2</v>
+      </c>
+      <c r="J3" s="9" cm="1">
         <f t="array" ref="J3:J83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Johnson,_xlpm.x,s)))</f>
-        <v>1.4092112053010641E-2</v>
-      </c>
-      <c r="K3" cm="1">
+        <v>3.4959246522398013E-2</v>
+      </c>
+      <c r="K3" s="9" cm="1">
         <f t="array" ref="K3:K83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.PDF(Normal,_xll.NORMAL.MONEYNESS(f,s,_xlpm.x))/(s*_xlpm.x)))</f>
-        <v>2.0703080790700656E-5</v>
-      </c>
-      <c r="L3" cm="1">
+        <v>4.1780940651578739E-4</v>
+      </c>
+      <c r="L3" s="9" cm="1">
         <f t="array" ref="L3:L83">_xlfn.MAP(x,_xlfn.LAMBDA(_xlpm.x,_xll.VARIATE.CDF(Normal,_xll.NORMAL.MONEYNESS(f,s,_xlpm.x))))</f>
-        <v>1.4374249124871064E-6</v>
+        <v>3.9527030847752442E-5</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -3864,25 +4019,25 @@
       <c r="H4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I4">
-        <v>9.4044719258295027E-3</v>
-      </c>
-      <c r="J4">
-        <v>1.4997013704622197E-2</v>
-      </c>
-      <c r="K4">
-        <v>6.7524842908507572E-5</v>
-      </c>
-      <c r="L4">
-        <v>5.4601522335162578E-6</v>
+      <c r="I4" s="9">
+        <v>1.5997099164477276E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3.6515592903626881E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9.5625021561651104E-4</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.0529393872960036E-4</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>-0.1</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -3890,1712 +4045,3426 @@
       <c r="H5">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I5">
-        <v>1.0173262688855026E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.5975295982949222E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.8541482578519951E-4</v>
-      </c>
-      <c r="L5">
-        <v>1.7279073039166981E-5</v>
+      <c r="I5" s="9">
+        <v>1.6914699916984379E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3.8160663339927514E-2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1.9354276314044901E-3</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2.4543649771791021E-4</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" cm="1">
+        <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(xi, lambda, gamma, delta)</f>
+        <v>1619888408704</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="H6">
         <v>1.3000000000000003</v>
       </c>
-      <c r="I6">
-        <v>1.1018772248612533E-2</v>
-      </c>
-      <c r="J6">
-        <v>1.7034222341395067E-2</v>
-      </c>
-      <c r="K6">
-        <v>4.4296497863847636E-4</v>
-      </c>
-      <c r="L6">
-        <v>4.7158774936995052E-5</v>
+      <c r="I6" s="9">
+        <v>1.7897229909829997E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3.990069665557372E-2</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3.5469075004989675E-3</v>
+      </c>
+      <c r="L6" s="9">
+        <v>5.1344582826595708E-4</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" cm="1">
-        <f t="array" ref="C7">_xll.\VARIATE.JOHNSON(xi, lambda, gamma, delta)</f>
-        <v>1871133711760</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H7">
         <v>1.4000000000000004</v>
       </c>
-      <c r="I7">
-        <v>1.1950079458531314E-2</v>
-      </c>
-      <c r="J7">
-        <v>1.8181908978683936E-2</v>
-      </c>
-      <c r="K7">
-        <v>9.4388057624415149E-4</v>
-      </c>
-      <c r="L7">
-        <v>1.1394270194620137E-4</v>
+      <c r="I7" s="9">
+        <v>1.8950180446438293E-2</v>
+      </c>
+      <c r="J7" s="9">
+        <v>4.1742456074554346E-2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5.9912734153353001E-3</v>
+      </c>
+      <c r="L7" s="9">
+        <v>9.8259496548974701E-4</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,B8)</f>
+        <v>5.1408590857704777</v>
+      </c>
+      <c r="D8" s="4">
+        <f>xi-SQRT(EXP(1))*lambda*gamma/delta</f>
+        <v>5.1756393646499355</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H8">
         <v>1.5000000000000004</v>
       </c>
-      <c r="I8">
-        <v>1.297750450768184E-2</v>
-      </c>
-      <c r="J8">
-        <v>1.942744057369411E-2</v>
-      </c>
-      <c r="K8">
-        <v>1.828481687822665E-3</v>
-      </c>
-      <c r="L8">
-        <v>2.4868819646811646E-4</v>
+      <c r="I8" s="9">
+        <v>2.0079582516933085E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>4.3693280464012163E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>9.4565831125278405E-3</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1.7457690685225846E-3</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" cm="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" cm="1">
         <f t="array" ref="C9">_xll.JOHNSON.MOMENT(Johnson,B9)</f>
-        <v>5.1651470513746194</v>
-      </c>
-      <c r="D9" s="5">
-        <f>xi-SQRT(EXP(1))*lambda*gamma/delta</f>
-        <v>5.1648721270700131</v>
+        <v>30.891263717157408</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>1.6000000000000005</v>
       </c>
-      <c r="I9">
-        <v>1.4112800043611179E-2</v>
-      </c>
-      <c r="J9">
-        <v>2.0781003728369885E-2</v>
-      </c>
-      <c r="K9">
-        <v>3.2689122909686911E-3</v>
-      </c>
-      <c r="L9">
-        <v>4.9814290683652951E-4</v>
+      <c r="I9" s="9">
+        <v>2.1292066759165548E-2</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4.5761141243744474E-2</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.40980403521054E-2</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2.9131716732387902E-3</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" cm="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" cm="1">
         <f t="array" ref="C10">_xll.JOHNSON.MOMENT(Johnson,B10)</f>
-        <v>29.92013575470796</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>169.5564142601005</v>
       </c>
       <c r="H10">
         <v>1.7000000000000006</v>
       </c>
-      <c r="I10">
-        <v>1.5369374471788265E-2</v>
-      </c>
-      <c r="J10">
-        <v>2.2254041088117793E-2</v>
-      </c>
-      <c r="K10">
-        <v>5.4581413132084155E-3</v>
-      </c>
-      <c r="L10">
-        <v>9.2742461871231363E-4</v>
+      <c r="I10" s="9">
+        <v>2.2594930717328786E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>4.7954705649386531E-2</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2.0021934924245702E-2</v>
+      </c>
+      <c r="L10" s="9">
+        <v>4.6081914644482413E-3</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" cm="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" cm="1">
         <f t="array" ref="C11">_xll.JOHNSON.MOMENT(Johnson,B11)</f>
-        <v>193.14515798871818</v>
+        <v>1939.085686522908</v>
       </c>
       <c r="H11">
         <v>1.8000000000000007</v>
       </c>
-      <c r="I11">
-        <v>1.6762553112508016E-2</v>
-      </c>
-      <c r="J11">
-        <v>2.3859429633833307E-2</v>
-      </c>
-      <c r="K11">
-        <v>8.5942388888088153E-3</v>
-      </c>
-      <c r="L11">
-        <v>1.621347909641746E-3</v>
+      <c r="I11" s="9">
+        <v>2.3996214327738151E-2</v>
+      </c>
+      <c r="J11" s="9">
+        <v>5.0283407124609936E-2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2.7275563723237212E-2</v>
+      </c>
+      <c r="L11" s="9">
+        <v>6.9619535518635756E-3</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" cm="1">
-        <f t="array" ref="C12">_xll.JOHNSON.MOMENT(Johnson,B12)</f>
-        <v>1731.8915721897665</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C8</f>
+        <v>5.1408590857704777</v>
+      </c>
+      <c r="E12" s="8">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.23162743080964837</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12">
         <v>1.9000000000000008</v>
       </c>
-      <c r="I12">
-        <v>1.8309883864989725E-2</v>
-      </c>
-      <c r="J12">
-        <v>2.5611687255201132E-2</v>
-      </c>
-      <c r="K12">
-        <v>1.2862306328674886E-2</v>
-      </c>
-      <c r="L12">
-        <v>2.684039252012882E-3</v>
+      <c r="I12" s="9">
+        <v>2.5504784674204986E-2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>5.275752371619935E-2</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3.5843549692396587E-2</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1.0107183995151814E-2</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5">
-        <f>C9</f>
-        <v>5.1651470513746194</v>
-      </c>
-      <c r="E13" s="7">
-        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.41472170918068268</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C9-C8^2</f>
+        <v>4.4628315774085365</v>
+      </c>
+      <c r="E13" s="8">
+        <f ca="1">f*EXP(s*E12-s*s/2)</f>
+        <v>5.2106201601001114</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="array" aca="1" ref="F13:G13" ca="1">_xll.MONTE.STDEV(E13)</f>
+        <v>5.1764139396259852</v>
+      </c>
+      <c r="G13" s="8">
+        <f ca="1"/>
+        <v>2.1395128110627879</v>
+      </c>
       <c r="H13">
         <v>2.0000000000000009</v>
       </c>
-      <c r="I13">
-        <v>2.0031495117685684E-2</v>
-      </c>
-      <c r="J13">
-        <v>2.7527212433388182E-2</v>
-      </c>
-      <c r="K13">
-        <v>1.8416696368631622E-2</v>
-      </c>
-      <c r="L13">
-        <v>4.2367381834458318E-3</v>
+      <c r="I13" s="9">
+        <v>2.7130431177329131E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <v>5.5388265456128405E-2</v>
+      </c>
+      <c r="K13" s="9">
+        <v>4.5649978172211912E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1.4172005080070549E-2</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5">
-        <f>C10-C9^2</f>
-        <v>3.2413916923840347</v>
-      </c>
-      <c r="E14" s="7">
-        <f ca="1">f*EXP(s*E13-s*s/2)</f>
-        <v>4.2383226880100402</v>
-      </c>
-      <c r="F14" s="7">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <f>mean</f>
+        <v>5.1408590857704777</v>
+      </c>
+      <c r="E14" s="8">
+        <f ca="1">E13^2</f>
+        <v>27.150562452841712</v>
+      </c>
+      <c r="F14" s="8">
         <f t="array" aca="1" ref="F14:G14" ca="1">_xll.MONTE.STDEV(E14)</f>
-        <v>5.1677054167145267</v>
-      </c>
-      <c r="G14" s="7">
+        <v>31.372557155396855</v>
+      </c>
+      <c r="G14" s="8">
         <f ca="1"/>
-        <v>1.8056932835616211</v>
+        <v>29.798268434671062</v>
       </c>
       <c r="H14">
         <v>2.100000000000001</v>
       </c>
-      <c r="I14">
-        <v>2.1950514837471201E-2</v>
-      </c>
-      <c r="J14">
-        <v>2.9624562694086032E-2</v>
-      </c>
-      <c r="K14">
-        <v>2.536585933519743E-2</v>
-      </c>
-      <c r="L14">
-        <v>6.4139347213673092E-3</v>
+      <c r="I14" s="9">
+        <v>2.888397251131692E-2</v>
+      </c>
+      <c r="J14" s="9">
+        <v>5.8187871837609872E-2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>5.6565155513190891E-2</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1.9274186875209098E-2</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5">
-        <f>mean</f>
-        <v>5.1651470513746194</v>
-      </c>
-      <c r="E15" s="7">
-        <f ca="1">E14^2</f>
-        <v>17.963379207700651</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="array" aca="1" ref="F15:G15" ca="1">_xll.MONTE.STDEV(E15)</f>
-        <v>29.965618361877315</v>
-      </c>
-      <c r="G15" s="7">
-        <f ca="1"/>
-        <v>22.982552693325765</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SQRT(LN(m_2/(m_1*m_1)))</f>
+        <v>0.39501014000578594</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <f>f*f*EXP(s*s)</f>
+        <v>30.891263717157404</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15">
         <v>2.2000000000000011</v>
       </c>
-      <c r="I15">
-        <v>2.4093561027048488E-2</v>
-      </c>
-      <c r="J15">
-        <v>3.1924778447701696E-2</v>
-      </c>
-      <c r="K15">
-        <v>3.3761485611641127E-2</v>
-      </c>
-      <c r="L15">
-        <v>9.3581956017799728E-3</v>
+      <c r="I15" s="9">
+        <v>3.0777376675459212E-2</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6.1169720628107271E-2</v>
+      </c>
+      <c r="K15" s="9">
+        <v>6.8415533952968663E-2</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2.5516245395676374E-2</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5">
-        <f>SQRT(LN(m_2/(m_1*m_1)))</f>
-        <v>0.33862153584592586</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <f>f*f*EXP(s*s)</f>
-        <v>29.92013575470796</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <f ca="1">(F15-F14)/G14</f>
+        <v>-1.6151725033775904E-2</v>
+      </c>
+      <c r="G16" s="8"/>
       <c r="H16">
         <v>2.3000000000000012</v>
       </c>
-      <c r="I16">
-        <v>2.6491314975748824E-2</v>
-      </c>
-      <c r="J16">
-        <v>3.4451759914897906E-2</v>
-      </c>
-      <c r="K16">
-        <v>4.3592804216243536E-2</v>
-      </c>
-      <c r="L16">
-        <v>1.3214158797857145E-2</v>
+      <c r="I16" s="9">
+        <v>3.2823895779845597E-2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>6.4348449411676278E-2</v>
+      </c>
+      <c r="K16" s="9">
+        <v>8.099535618490146E-2</v>
+      </c>
+      <c r="L16" s="9">
+        <v>3.2981630724867983E-2</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <f ca="1">(F16-F15)/G15</f>
-        <v>-1.9790058909584462E-3</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" cm="1">
+        <f t="array" ref="C17">_xll.\VARIATE.NORMAL(0, 1)</f>
+        <v>1619885192176</v>
+      </c>
       <c r="H17">
         <v>2.4000000000000012</v>
       </c>
-      <c r="I17">
-        <v>2.9179189790783069E-2</v>
-      </c>
-      <c r="J17">
-        <v>3.7232706033645036E-2</v>
-      </c>
-      <c r="K17">
-        <v>5.4786123243474517E-2</v>
-      </c>
-      <c r="L17">
-        <v>1.8122222152518463E-2</v>
+      <c r="I17" s="9">
+        <v>3.5038217227692937E-2</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.7740091415223913E-2</v>
+      </c>
+      <c r="K17" s="9">
+        <v>9.4078756190620338E-2</v>
+      </c>
+      <c r="L17" s="9">
+        <v>4.1732111882797518E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" cm="1">
-        <f t="array" ref="C18">_xll.\VARIATE.NORMAL(0, 1)</f>
-        <v>1872329293040</v>
-      </c>
       <c r="H18">
         <v>2.5000000000000013</v>
       </c>
-      <c r="I18">
-        <v>3.2198107319314759E-2</v>
-      </c>
-      <c r="J18">
-        <v>4.0298625528965626E-2</v>
-      </c>
-      <c r="K18">
-        <v>6.7209078050748189E-2</v>
-      </c>
-      <c r="L18">
-        <v>2.4212427944569848E-2</v>
+      <c r="I18" s="9">
+        <v>3.743663307656054E-2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>7.1362227346769724E-2</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.10743132404124835</v>
+      </c>
+      <c r="L18" s="9">
+        <v>5.1806352015154766E-2</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>6.2798212236974654E-2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <f t="array" aca="1" ref="E19:F19" ca="1">_xll.MONTE.STDEV(Z)</f>
+        <v>-7.9277201716354707E-3</v>
+      </c>
+      <c r="F19" s="9">
+        <f ca="1"/>
+        <v>1.0049726215848662</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19">
         <v>2.6000000000000014</v>
       </c>
-      <c r="I19">
-        <v>3.5595396315536147E-2</v>
-      </c>
-      <c r="J19">
-        <v>4.3684931634591251E-2</v>
-      </c>
-      <c r="K19">
-        <v>8.0678640132736804E-2</v>
-      </c>
-      <c r="L19">
-        <v>3.1598969354152129E-2</v>
+      <c r="I19" s="9">
+        <v>4.0037229417626864E-2</v>
+      </c>
+      <c r="J19" s="9">
+        <v>7.5234155155334492E-2</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.12082043666788168</v>
+      </c>
+      <c r="L19" s="9">
+        <v>6.3219582979368749E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8">
+        <f ca="1">(Z-gamma)/delta</f>
+        <v>-0.43720178776302532</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
+        <f t="array" aca="1" ref="E20:F20" ca="1">_xll.MONTE.STDEV(C20)</f>
+        <v>-0.50792772017163756</v>
+      </c>
+      <c r="F20" s="8">
+        <f ca="1"/>
+        <v>1.0049726215848662</v>
+      </c>
+      <c r="G20" s="8"/>
       <c r="H20">
         <v>2.7000000000000015</v>
       </c>
-      <c r="I20">
-        <v>3.9425822854032046E-2</v>
-      </c>
-      <c r="J20">
-        <v>4.7432133165795365E-2</v>
-      </c>
-      <c r="K20">
-        <v>9.49717351169867E-2</v>
-      </c>
-      <c r="L20">
-        <v>4.0375638219305288E-2</v>
+      <c r="I20" s="9">
+        <v>4.286009759618125E-2</v>
+      </c>
+      <c r="J20" s="9">
+        <v>7.937707980595532E-2</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.13402393146925323</v>
+      </c>
+      <c r="L20" s="9">
+        <v>7.5964232632981632E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.67601452050896749</v>
-      </c>
-      <c r="E21">
-        <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(Z)</f>
-        <v>-2.4549556081976441E-3</v>
-      </c>
-      <c r="F21">
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8">
+        <f ca="1">SINH(C20)</f>
+        <v>-0.45126369595867344</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <f t="array" aca="1" ref="E21:F21" ca="1">_xll.MONTE.STDEV(C21)</f>
+        <v>-0.87401785029020262</v>
+      </c>
+      <c r="F21" s="8">
         <f ca="1"/>
-        <v>0.99957045836885949</v>
-      </c>
+        <v>2.1493283963817182</v>
+      </c>
+      <c r="G21" s="8"/>
       <c r="H21">
         <v>2.8000000000000016</v>
       </c>
-      <c r="I21">
-        <v>4.3752759396218865E-2</v>
-      </c>
-      <c r="J21">
-        <v>5.1586635542199888E-2</v>
-      </c>
-      <c r="K21">
-        <v>0.10983729105368589</v>
-      </c>
-      <c r="L21">
-        <v>5.0612415660992893E-2</v>
+      <c r="I21" s="9">
+        <v>4.5927568963471957E-2</v>
+      </c>
+      <c r="J21" s="9">
+        <v>8.3814325340208051E-2</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.14683693152661076</v>
+      </c>
+      <c r="L21" s="9">
+        <v>9.0011327826198362E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <f ca="1">(Z-gamma)/delta</f>
-        <v>0.77601452050896746</v>
-      </c>
-      <c r="E22">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <f ca="1">POWER($C$21,B22)</f>
+        <v>-0.45126369595867344</v>
+      </c>
+      <c r="D22" s="8" cm="1">
+        <f t="array" ref="D22">_xll.JOHNSON.Esinh_k(Johnson,B22)</f>
+        <v>-0.85914091422952255</v>
+      </c>
+      <c r="E22" s="8">
         <f t="array" aca="1" ref="E22:F22" ca="1">_xll.MONTE.STDEV(C22)</f>
-        <v>9.7545044391802727E-2</v>
-      </c>
-      <c r="F22">
+        <v>-0.87401785029020262</v>
+      </c>
+      <c r="F22" s="8">
         <f ca="1"/>
-        <v>0.99957045836885949</v>
+        <v>2.1493283963817182</v>
+      </c>
+      <c r="G22" s="8">
+        <f ca="1">(D22-E22)/F22</f>
+        <v>6.9216672918501528E-3</v>
       </c>
       <c r="H22">
         <v>2.9000000000000017</v>
       </c>
-      <c r="I22">
-        <v>4.8649489780981631E-2</v>
-      </c>
-      <c r="J22">
-        <v>5.6201665590885796E-2</v>
-      </c>
-      <c r="K22">
-        <v>0.12500864148247087</v>
-      </c>
-      <c r="L22">
-        <v>6.2353293557458167E-2</v>
+      <c r="I22" s="9">
+        <v>4.926447453572616E-2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>8.8571571647752922E-2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.15907681085414899</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.10531248640603663</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23">
-        <f ca="1">SINH(C22)</f>
-        <v>0.85627936512969005</v>
-      </c>
-      <c r="E23">
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <f ca="1">POWER($C$21,B23)</f>
+        <v>0.20363892329028208</v>
+      </c>
+      <c r="D23" s="8" cm="1">
+        <f t="array" ref="D23">_xll.JOHNSON.Esinh_k(Johnson,B23)</f>
+        <v>5.2009546879116781</v>
+      </c>
+      <c r="E23" s="8">
         <f t="array" aca="1" ref="E23:F23" ca="1">_xll.MONTE.STDEV(C23)</f>
-        <v>0.16128042992196492</v>
-      </c>
-      <c r="F23">
+        <v>5.3832985546828329</v>
+      </c>
+      <c r="F23" s="8">
         <f ca="1"/>
-        <v>1.7918917200764766</v>
+        <v>33.980722050610368</v>
+      </c>
+      <c r="G23" s="8">
+        <f ca="1">(D23-E23)/F23</f>
+        <v>-5.3660974743142478E-3</v>
       </c>
       <c r="H23">
         <v>3.0000000000000018</v>
       </c>
-      <c r="I23">
-        <v>5.4200630945848531E-2</v>
-      </c>
-      <c r="J23">
-        <v>6.1338332940132412E-2</v>
-      </c>
-      <c r="K23">
-        <v>0.14021539244940245</v>
-      </c>
-      <c r="L23">
-        <v>7.5615316047683068E-2</v>
+      <c r="I23" s="9">
+        <v>5.289843034726565E-2</v>
+      </c>
+      <c r="J23" s="9">
+        <v>9.3677118485338107E-2</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.17058641573860422</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.12180231717918411</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f ca="1">POWER($C$23,B24)</f>
-        <v>0.85627936512969005</v>
-      </c>
-      <c r="D24" cm="1">
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <f ca="1">POWER($C$21,B24)</f>
+        <v>-9.189485316501747E-2</v>
+      </c>
+      <c r="D24" s="8" cm="1">
         <f t="array" ref="D24">_xll.JOHNSON.Esinh_k(Johnson,B24)</f>
-        <v>0.16514705137461927</v>
-      </c>
-      <c r="E24">
+        <v>-47.273551385521287</v>
+      </c>
+      <c r="E24" s="8">
         <f t="array" aca="1" ref="E24:F24" ca="1">_xll.MONTE.STDEV(C24)</f>
-        <v>0.16128042992196492</v>
-      </c>
-      <c r="F24">
+        <v>-49.279888764901706</v>
+      </c>
+      <c r="F24" s="8">
         <f ca="1"/>
-        <v>1.7918917200764766</v>
-      </c>
-      <c r="G24">
+        <v>1236.9471391937725</v>
+      </c>
+      <c r="G24" s="8">
         <f ca="1">(D24-E24)/F24</f>
-        <v>2.1578432498640713E-3</v>
+        <v>1.6220073726740869E-3</v>
       </c>
       <c r="H24">
         <v>3.1000000000000019</v>
       </c>
-      <c r="I24">
-        <v>6.0503624137080839E-2</v>
-      </c>
-      <c r="J24">
-        <v>6.7066837611608143E-2</v>
-      </c>
-      <c r="K24">
-        <v>0.15519408516734709</v>
-      </c>
-      <c r="L24">
-        <v>9.0388752129344385E-2</v>
+      <c r="I24" s="9">
+        <v>5.6860148286722367E-2</v>
+      </c>
+      <c r="J24" s="9">
+        <v>9.9162179312593968E-2</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.18123573954513536</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.1394010628055809</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <f ca="1">POWER($C$23,B25)</f>
-        <v>0.73321435114690503</v>
-      </c>
-      <c r="D25" cm="1">
+      <c r="B25" s="6">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <f ca="1">POWER($C$21,B25)</f>
+        <v>4.1468811078825385E-2</v>
+      </c>
+      <c r="D25" s="8" cm="1">
         <f t="array" ref="D25">_xll.JOHNSON.Esinh_k(Johnson,B25)</f>
-        <v>3.2686652409617674</v>
-      </c>
-      <c r="E25">
+        <v>1396.5424570808041</v>
+      </c>
+      <c r="E25" s="8">
         <f t="array" aca="1" ref="E25:F25" ca="1">_xll.MONTE.STDEV(C25)</f>
-        <v>3.2367995247387333</v>
-      </c>
-      <c r="F25">
+        <v>1183.6140837818828</v>
+      </c>
+      <c r="F25" s="8">
         <f ca="1"/>
-        <v>14.732003160093081</v>
-      </c>
-      <c r="G25">
+        <v>54152.401544845648</v>
+      </c>
+      <c r="G25" s="8">
         <f ca="1">(D25-E25)/F25</f>
-        <v>2.1630267029370286E-3</v>
+        <v>3.9320208748745387E-3</v>
       </c>
       <c r="H25">
         <v>3.200000000000002</v>
       </c>
-      <c r="I25">
-        <v>6.7670202359770157E-2</v>
-      </c>
-      <c r="J25">
-        <v>7.3467826577642226E-2</v>
-      </c>
-      <c r="K25">
-        <v>0.16969721244001465</v>
-      </c>
-      <c r="L25">
-        <v>0.10663825498790908</v>
+      <c r="I25" s="9">
+        <v>6.1183770605383651E-2</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.10506120741887365</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.19092229169941596</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.15801734277833257</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <f ca="1">POWER($C$23,B26)</f>
-        <v>0.62783631910404947</v>
-      </c>
-      <c r="D26" cm="1">
-        <f t="array" ref="D26">_xll.JOHNSON.Esinh_k(Johnson,B26)</f>
-        <v>6.7291505211952476</v>
-      </c>
-      <c r="E26">
-        <f t="array" aca="1" ref="E26:F26" ca="1">_xll.MONTE.STDEV(C26)</f>
-        <v>5.1722612484910853</v>
-      </c>
-      <c r="F26">
-        <f ca="1"/>
-        <v>276.85406046823147</v>
-      </c>
-      <c r="G26">
-        <f ca="1">(D26-E26)/F26</f>
-        <v>5.6235016747490062E-3</v>
-      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26">
         <v>3.300000000000002</v>
       </c>
-      <c r="I26">
-        <v>7.582766751435821E-2</v>
-      </c>
-      <c r="J26">
-        <v>8.0633889336059084E-2</v>
-      </c>
-      <c r="K26">
-        <v>0.18350035396592823</v>
-      </c>
-      <c r="L26">
-        <v>0.12430483008776005</v>
+      <c r="I26" s="9">
+        <v>6.5907223808738535E-2</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.1114122565191436</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.19957041581568502</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.17755087863557667</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <f ca="1">POWER($C$23,B27)</f>
-        <v>0.53760328472777696</v>
-      </c>
-      <c r="D27" cm="1">
-        <f t="array" ref="D27">_xll.JOHNSON.Esinh_k(Johnson,B27)</f>
-        <v>399.43524993428662</v>
-      </c>
-      <c r="E27">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9" cm="1">
+        <f t="array" aca="1" ref="C27" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
+        <v>5.5487363040413262</v>
+      </c>
+      <c r="D27" s="9">
+        <f>m_1</f>
+        <v>5.1408590857704777</v>
+      </c>
+      <c r="E27" s="9">
         <f t="array" aca="1" ref="E27:F27" ca="1">_xll.MONTE.STDEV(C27)</f>
-        <v>227.50285438534203</v>
-      </c>
-      <c r="F27">
+        <v>5.1259821497097802</v>
+      </c>
+      <c r="F27" s="9">
         <f ca="1"/>
-        <v>6661.6498393543679</v>
-      </c>
-      <c r="G27">
+        <v>2.1493283963817182</v>
+      </c>
+      <c r="G27" s="9">
         <f ca="1">(D27-E27)/F27</f>
-        <v>2.5809281438546442E-2</v>
+        <v>6.9216672918582627E-3</v>
       </c>
       <c r="H27">
         <v>3.4000000000000021</v>
       </c>
-      <c r="I27">
-        <v>8.5119696826040203E-2</v>
-      </c>
-      <c r="J27">
-        <v>8.8671160612564082E-2</v>
-      </c>
-      <c r="K27">
-        <v>0.19640736953200333</v>
-      </c>
-      <c r="L27">
-        <v>0.14330841957311458</v>
+      <c r="I27" s="9">
+        <v>7.1072583893494315E-2</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.11825737739320946</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.20712980546477736</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.19789510886404638</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="9">
+        <f ca="1">f*EXP(s*Z-s*s/2)</f>
+        <v>4.8744614573715781</v>
+      </c>
+      <c r="D28" s="9">
+        <f>D27</f>
+        <v>5.1408590857704777</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="array" aca="1" ref="E28:F28" ca="1">_xll.MONTE.STDEV(C28)</f>
+        <v>5.1296190872614948</v>
+      </c>
+      <c r="F28" s="9">
+        <f ca="1"/>
+        <v>2.1272589198603384</v>
+      </c>
+      <c r="G28" s="9">
+        <f ca="1">(D28-E28)/F28</f>
+        <v>5.2837942781881822E-3</v>
+      </c>
       <c r="H28">
         <v>3.5000000000000022</v>
       </c>
-      <c r="I28">
-        <v>9.570622593997144E-2</v>
-      </c>
-      <c r="J28">
-        <v>9.770096222312219E-2</v>
-      </c>
-      <c r="K28">
-        <v>0.20825372403762965</v>
-      </c>
-      <c r="L28">
-        <v>0.16355091150652795</v>
+      <c r="I28" s="9">
+        <v>7.6726439315913372E-2</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.12564305107806689</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0.21357344601217529</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.21893962488741553</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" cm="1">
-        <f t="array" aca="1" ref="C29" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
-        <v>5.8562793651296898</v>
-      </c>
-      <c r="D29">
-        <f>m_1</f>
-        <v>5.1651470513746194</v>
-      </c>
-      <c r="E29">
-        <f t="array" aca="1" ref="E29:F29" ca="1">_xll.MONTE.STDEV(C29)</f>
-        <v>5.1612804299219484</v>
-      </c>
-      <c r="F29">
-        <f ca="1"/>
-        <v>1.7918917200764766</v>
-      </c>
-      <c r="G29">
-        <f ca="1">(D29-E29)/F29</f>
-        <v>2.1578432498733807E-3</v>
-      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29">
         <v>3.6000000000000023</v>
       </c>
-      <c r="I29">
-        <v>0.10776170327179441</v>
-      </c>
-      <c r="J29">
-        <v>0.10786135899791904</v>
-      </c>
-      <c r="K29">
-        <v>0.21890811408502234</v>
-      </c>
-      <c r="L29">
-        <v>0.18491939497232529</v>
+      <c r="I29" s="9">
+        <v>8.2920229888504768E-2</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0.13362065737809686</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0.21889518304071021</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0.24057238102502376</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <f ca="1">f*EXP(s*Z-s*s/2)</f>
-        <v>6.1319596197896047</v>
-      </c>
-      <c r="D30">
-        <f>D29</f>
-        <v>5.1651470513746194</v>
-      </c>
-      <c r="E30">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9">
+        <f ca="1">MAX(k-C27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="9" cm="1">
+        <f t="array" ref="D30">_xll.JOHNSON.PUT.VALUE(Johnson, k)</f>
+        <v>0.60152666142269706</v>
+      </c>
+      <c r="E30" s="9">
         <f t="array" aca="1" ref="E30:F30" ca="1">_xll.MONTE.STDEV(C30)</f>
-        <v>5.1606725655930292</v>
-      </c>
-      <c r="F30">
+        <v>0.61389201203556942</v>
+      </c>
+      <c r="F30" s="9">
         <f ca="1"/>
-        <v>1.7990905441741645</v>
-      </c>
-      <c r="G30">
-        <f ca="1">(D30-E30)/F30</f>
-        <v>2.4870820404673268E-3</v>
+        <v>1.6680599848690432</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" ref="G30:G31" ca="1" si="0">(D30-E30)/F30</f>
+        <v>-7.4130131560245695E-3</v>
       </c>
       <c r="H30">
         <v>3.7000000000000024</v>
       </c>
-      <c r="I30">
-        <v>0.12147065364184442</v>
-      </c>
-      <c r="J30">
-        <v>0.11930841624988675</v>
-      </c>
-      <c r="K30">
-        <v>0.22827262604808155</v>
-      </c>
-      <c r="L30">
-        <v>0.20728950233041415</v>
+      <c r="I30" s="9">
+        <v>8.9710527902554391E-2</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.14224697471907805</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0.22310708645143951</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0.26268164980151998</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="9">
+        <f ca="1">MAX(k-C28,0)</f>
+        <v>0.1255385426284219</v>
+      </c>
+      <c r="D31" s="9" cm="1">
+        <f t="array" ref="D31">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
+        <v>0.72537304844595019</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="array" aca="1" ref="E31:F31" ca="1">_xll.MONTE.STDEV(C31)</f>
+        <v>0.73529276596345527</v>
+      </c>
+      <c r="F31" s="9">
+        <f ca="1"/>
+        <v>0.89851697742060721</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1040100261635395E-2</v>
+      </c>
       <c r="H31">
         <v>3.8000000000000025</v>
       </c>
-      <c r="I31">
-        <v>0.137019014479622</v>
-      </c>
-      <c r="J31">
-        <v>0.13221681732302659</v>
-      </c>
-      <c r="K31">
-        <v>0.23628168564470875</v>
-      </c>
-      <c r="L31">
-        <v>0.23052870462733138</v>
+      <c r="I31" s="9">
+        <v>9.7159210641216562E-2</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0.15158470319641376</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.22623674751436987</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0.28515770929952278</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <f ca="1">MAX(k-C29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" cm="1">
-        <f t="array" ref="D32">_xll.JOHNSON.PUT.VALUE(Johnson, k)</f>
-        <v>0.48501978828634895</v>
-      </c>
-      <c r="E32">
-        <f t="array" aca="1" ref="E32:F32" ca="1">_xll.MONTE.STDEV(C32)</f>
-        <v>0.4861622511978112</v>
-      </c>
-      <c r="F32">
-        <f ca="1"/>
-        <v>1.0218021388504597</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G33" ca="1" si="0">(D32-E32)/F32</f>
-        <v>-1.1180862400107471E-3</v>
-      </c>
       <c r="H32">
         <v>3.9000000000000026</v>
       </c>
-      <c r="I32">
-        <v>0.15457913278414251</v>
-      </c>
-      <c r="J32">
-        <v>0.14677931793184146</v>
-      </c>
-      <c r="K32">
-        <v>0.24290006542756712</v>
-      </c>
-      <c r="L32">
-        <v>0.25449945266432794</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <f ca="1">MAX(k-C30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" cm="1">
-        <f t="array" ref="D33">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
-        <v>0.60388109459734007</v>
-      </c>
-      <c r="E33">
-        <f t="array" aca="1" ref="E33:F33" ca="1">_xll.MONTE.STDEV(C33)</f>
-        <v>0.60478527804354842</v>
-      </c>
-      <c r="F33">
-        <f ca="1"/>
-        <v>0.78123545686887463</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1573763559481049E-3</v>
-      </c>
+      <c r="I32" s="9">
+        <v>0.10533344899981675</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.16170299643343433</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0.22832461598961334</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0.3078942614467618</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H33">
         <v>4.0000000000000027</v>
       </c>
-      <c r="I33">
-        <v>0.17428573313919507</v>
-      </c>
-      <c r="J33">
-        <v>0.16320427319547132</v>
-      </c>
-      <c r="K33">
-        <v>0.24812020554180689</v>
-      </c>
-      <c r="L33">
-        <v>0.27906208243117209</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I33" s="9">
+        <v>0.11430540237448446</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.17267797870753698</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.22942145721548501</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0.33078958945216086</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H34">
         <v>4.1000000000000023</v>
       </c>
-      <c r="I34">
-        <v>0.19619984748318434</v>
-      </c>
-      <c r="J34">
-        <v>0.18171018443208858</v>
-      </c>
-      <c r="K34">
-        <v>0.25195908023476032</v>
-      </c>
-      <c r="L34">
-        <v>0.30407742808294902</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I34" s="9">
+        <v>0.12415146168212496</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.18459321053517064</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.22958598540667038</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0.35374746938113566</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H35">
         <v>4.200000000000002</v>
       </c>
-      <c r="I35">
-        <v>0.22025818193956156</v>
-      </c>
-      <c r="J35">
-        <v>0.20251592610222136</v>
-      </c>
-      <c r="K35">
-        <v>0.25445481271928411</v>
-      </c>
-      <c r="L35">
-        <v>0.32940910743263985</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I35" s="9">
+        <v>0.13495081581999202</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.19754004693826588</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.22888270952856943</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0.37667785545939525</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H36">
         <v>4.3000000000000016</v>
       </c>
-      <c r="I36">
-        <v>0.24620763039771493</v>
-      </c>
-      <c r="J36">
-        <v>0.2258251529019118</v>
-      </c>
-      <c r="K36">
-        <v>0.25566320789182273</v>
-      </c>
-      <c r="L36">
-        <v>0.35492546355091414</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I36" s="9">
+        <v>0.14678302690235376</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.21161780586416795</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0.22738001192296303</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0.39949736149180992</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H37">
         <v>4.4000000000000012</v>
       </c>
-      <c r="I37">
-        <v>0.27352992293590844</v>
-      </c>
-      <c r="J37">
-        <v>0.25180359090759113</v>
-      </c>
-      <c r="K37">
-        <v>0.25565433894464296</v>
-      </c>
-      <c r="L37">
-        <v>0.38050116133504402</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I37" s="9">
+        <v>0.1597241812704932</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.22693362710120818</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.2251484670796107</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0.4221295621344584</v>
+      </c>
+    </row>
+    <row r="38" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H38">
         <v>4.5000000000000009</v>
       </c>
-      <c r="I38">
-        <v>0.30137079308283654</v>
-      </c>
-      <c r="J38">
-        <v>0.28054884945445269</v>
-      </c>
-      <c r="K38">
-        <v>0.25450929209830364</v>
-      </c>
-      <c r="L38">
-        <v>0.40601844990199903</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I38" s="9">
+        <v>0.17384103393575362</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.24360185152093577</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0.22225939819982649</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.44450513798645186</v>
+      </c>
+    </row>
+    <row r="39" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H39">
         <v>4.6000000000000005</v>
       </c>
-      <c r="I39">
-        <v>0.32850085343828406</v>
-      </c>
-      <c r="J39">
-        <v>0.31205445295372758</v>
-      </c>
-      <c r="K39">
-        <v>0.25231714481128836</v>
-      </c>
-      <c r="L39">
-        <v>0.4313681106116169</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I39" s="9">
+        <v>0.18918238805845</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.26174268361374214</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0.21878366205931621</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0.4665618878558469</v>
+      </c>
+    </row>
+    <row r="40" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H40">
         <v>4.7</v>
       </c>
-      <c r="I40">
-        <v>0.35334655493768902</v>
-      </c>
-      <c r="J40">
-        <v>0.34617312057652722</v>
-      </c>
-      <c r="K40">
-        <v>0.24917222762462019</v>
-      </c>
-      <c r="L40">
-        <v>0.45645011676910918</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I40" s="9">
+        <v>0.20576676840510427</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.28147981521523535</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0.21479064772295947</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0.48824463034048682</v>
+      </c>
+    </row>
+    <row r="41" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H41">
         <v>4.8</v>
       </c>
-      <c r="I41">
-        <v>0.37412819205475406</v>
-      </c>
-      <c r="J41">
-        <v>0.38258825179180384</v>
-      </c>
-      <c r="K41">
-        <v>0.24517169856222407</v>
-      </c>
-      <c r="L41">
-        <v>0.48117403497677308</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I41" s="9">
+        <v>0.22356531053543807</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0.30293658663101919</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0.21034747149052171</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0.50950501524793823</v>
+      </c>
+    </row>
+    <row r="42" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H42">
         <v>4.8999999999999995</v>
       </c>
-      <c r="I42">
-        <v>0.38911493037080314</v>
-      </c>
-      <c r="J42">
-        <v>0.42080517387138539</v>
-      </c>
-      <c r="K42">
-        <v>0.24041344171201215</v>
-      </c>
-      <c r="L42">
-        <v>0.50545920009993206</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I42" s="9">
+        <v>0.24247880619228596</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.32623015249877474</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0.20551834869367219</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0.53030126351827678</v>
+      </c>
+    </row>
+    <row r="43" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H43">
         <v>4.9999999999999991</v>
       </c>
-      <c r="I43">
-        <v>0.3969525474770117</v>
-      </c>
-      <c r="J43">
-        <v>0.46017216272297068</v>
-      </c>
-      <c r="K43">
-        <v>0.23499428802606842</v>
-      </c>
-      <c r="L43">
-        <v>0.52923469626574837</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I43" s="9">
+        <v>0.26230822643054041</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.35146302861355772</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.20036412230019596</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0.55059785233438552</v>
+      </c>
+    </row>
+    <row r="44" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H44">
         <v>5.0999999999999988</v>
       </c>
-      <c r="I44">
-        <v>0.39696240028245705</v>
-      </c>
-      <c r="J44">
-        <v>0.49993380705798635</v>
-      </c>
-      <c r="K44">
-        <v>0.22900854613882873</v>
-      </c>
-      <c r="L44">
-        <v>0.55243917557925282</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I44" s="9">
+        <v>0.28271912995808696</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.37871137468398708</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0.1949419284369007</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0.57036516010198202</v>
+      </c>
+    </row>
+    <row r="45" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H45">
         <v>5.1999999999999984</v>
       </c>
-      <c r="I45">
-        <v>0.38929465325194246</v>
-      </c>
-      <c r="J45">
-        <v>0.5393078393356916</v>
-      </c>
-      <c r="K45">
-        <v>0.22254682368006984</v>
-      </c>
-      <c r="L45">
-        <v>0.57502054463228369</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I45" s="9">
+        <v>0.3032026416128813</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0.40800951038481814</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0.1893049796900321</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0.58957908402601145</v>
+      </c>
+    </row>
+    <row r="46" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H46">
         <v>5.299999999999998</v>
       </c>
-      <c r="I46">
-        <v>0.37487173478413854</v>
-      </c>
-      <c r="J46">
-        <v>0.57756695924323231</v>
-      </c>
-      <c r="K46">
-        <v>0.21569511470317762</v>
-      </c>
-      <c r="L46">
-        <v>0.59693554666721726</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I46" s="9">
+        <v>0.32303967406396955</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0.43933061401706019</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0.18350244819481559</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0.60822064115086394</v>
+      </c>
+    </row>
+    <row r="47" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H47">
         <v>5.3999999999999977</v>
       </c>
-      <c r="I47">
-        <v>0.35515222481475828</v>
-      </c>
-      <c r="J47">
-        <v>0.61410539145661369</v>
-      </c>
-      <c r="K47">
-        <v>0.20853412601677129</v>
-      </c>
-      <c r="L47">
-        <v>0.61814926466271047</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I47" s="9">
+        <v>0.3412809241320981</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0.47256449937737405</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0.17757943193547557</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0.62627556200190138</v>
+      </c>
+    </row>
+    <row r="48" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H48">
         <v>5.4999999999999973</v>
       </c>
-      <c r="I48">
-        <v>0.33181704320580685</v>
-      </c>
-      <c r="J48">
-        <v>0.64847696234307906</v>
-      </c>
-      <c r="K48">
-        <v>0.20113881398803188</v>
-      </c>
-      <c r="L48">
-        <v>0.63863456781465922</v>
+      <c r="I48" s="9">
+        <v>0.356761850006451</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0.50749495640503872</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0.17157698922786752</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0.6437338843846937</v>
       </c>
     </row>
     <row r="49" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H49">
         <v>5.599999999999997</v>
       </c>
-      <c r="I49">
-        <v>0.3064872031846162</v>
-      </c>
-      <c r="J49">
-        <v>0.68040259943958292</v>
-      </c>
-      <c r="K49">
-        <v>0.19357810341035236</v>
-      </c>
-      <c r="L49">
-        <v>0.65837152103467478</v>
+      <c r="I49" s="9">
+        <v>0.36817583176611829</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0.54378130695571036</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0.16553222796050229</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.66058955347561454</v>
       </c>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H50">
         <v>5.6999999999999966</v>
       </c>
-      <c r="I50">
-        <v>0.28053781232243769</v>
-      </c>
-      <c r="J50">
-        <v>0.70975412431358742</v>
-      </c>
-      <c r="K50">
-        <v>0.18591476097579013</v>
-      </c>
-      <c r="L50">
-        <v>0.67734677428853485</v>
+      <c r="I50" s="9">
+        <v>0.37422347507725773</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0.58095099538100647</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0.15947843776105353</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0.67684003307491836</v>
       </c>
     </row>
     <row r="51" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H51">
         <v>5.7999999999999963</v>
       </c>
-      <c r="I51">
-        <v>0.25501798287634664</v>
-      </c>
-      <c r="J51">
-        <v>0.73652484815274577</v>
-      </c>
-      <c r="K51">
-        <v>0.17820539749334569</v>
-      </c>
-      <c r="L51">
-        <v>0.69555294592671313</v>
+      <c r="I51" s="9">
+        <v>0.3738342675843726</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0.61841089985297848</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0.1534452547879773</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0.69248593178739515</v>
       </c>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H52">
         <v>5.8999999999999959</v>
       </c>
-      <c r="I52">
-        <v>0.23065132552719075</v>
-      </c>
-      <c r="J52">
-        <v>0.76079647237959835</v>
-      </c>
-      <c r="K52">
-        <v>0.17050057502399449</v>
-      </c>
-      <c r="L52">
-        <v>0.71298801167191295</v>
+      <c r="I52" s="9">
+        <v>0.36641816119273762</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0.65548284336947371</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0.14745885028916433</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0.70753064693862533</v>
       </c>
     </row>
     <row r="53" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H53">
         <v>5.9999999999999956</v>
       </c>
-      <c r="I53">
-        <v>0.20788204224630144</v>
-      </c>
-      <c r="J53">
-        <v>0.78270859937506321</v>
-      </c>
-      <c r="K53">
-        <v>0.16284499738316571</v>
-      </c>
-      <c r="L53">
-        <v>0.7296547086581745</v>
+      <c r="I53" s="9">
+        <v>0.35206532676430025</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0.69146246127401156</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0.14154213540189828</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0.72198002821664087</v>
       </c>
     </row>
     <row r="54" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H54">
         <v>6.0999999999999952</v>
       </c>
-      <c r="I54">
-        <v>0.18693772452971127</v>
-      </c>
-      <c r="J54">
-        <v>0.80243388390379722</v>
-      </c>
-      <c r="K54">
-        <v>0.15527776485053962</v>
-      </c>
-      <c r="L54">
-        <v>0.74555996188023477</v>
+      <c r="I54" s="9">
+        <v>0.33160387841141076</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0.72569159050508114</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0.1357149758801503</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0.73584206233784666</v>
       </c>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H55">
         <v>6.1999999999999948</v>
       </c>
-      <c r="I55">
-        <v>0.16789089515948438</v>
-      </c>
-      <c r="J55">
-        <v>0.82015950696594442</v>
-      </c>
-      <c r="K55">
-        <v>0.14783267631894095</v>
-      </c>
-      <c r="L55">
-        <v>0.76071433861573945</v>
+      <c r="I55" s="9">
+        <v>0.30647079153560336</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0.7576271421218741</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0.1299944115225487</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0.74912657946005512</v>
       </c>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H56">
         <v>6.2999999999999945</v>
       </c>
-      <c r="I56">
-        <v>0.15071082154566329</v>
-      </c>
-      <c r="J56">
-        <v>0.8360743571747864</v>
-      </c>
-      <c r="K56">
-        <v>0.14053856443060872</v>
-      </c>
-      <c r="L56">
-        <v>0.77513153482280517</v>
+      <c r="I56" s="9">
+        <v>0.27843373574044616</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0.78688895176056062</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0.12439487603833155</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0.76184498159204384</v>
       </c>
     </row>
     <row r="57" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H57">
         <v>6.3999999999999941</v>
       </c>
-      <c r="I57">
-        <v>0.13530327595289776</v>
-      </c>
-      <c r="J57">
-        <v>0.85036079315007773</v>
-      </c>
-      <c r="K57">
-        <v>0.13341965143567538</v>
-      </c>
-      <c r="L57">
-        <v>0.78882789618083216</v>
+      <c r="I57" s="9">
+        <v>0.24926717370642945</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0.81327653937405908</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0.11892841393383678</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0.77400999286599137</v>
       </c>
     </row>
     <row r="58" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H58">
         <v>6.4999999999999938</v>
       </c>
-      <c r="I58">
-        <v>0.12153909695350115</v>
-      </c>
-      <c r="J58">
-        <v>0.86318980756224684</v>
-      </c>
-      <c r="K58">
-        <v>0.12649591552879422</v>
-      </c>
-      <c r="L58">
-        <v>0.80182197531850141</v>
+      <c r="I58" s="9">
+        <v>0.22049094919328061</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0.83675585299718203</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0.11360489173556704</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0.78563543123498114</v>
       </c>
     </row>
     <row r="59" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H59">
         <v>6.5999999999999934</v>
       </c>
-      <c r="I59">
-        <v>0.10927363283563755</v>
-      </c>
-      <c r="J59">
-        <v>0.87471857229878713</v>
-      </c>
-      <c r="K59">
-        <v>0.11978345925507844</v>
-      </c>
-      <c r="L59">
-        <v>0.81413412584183709</v>
+      <c r="I59" s="9">
+        <v>0.1932299757692657</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0.8574257111543413</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0.10843220149599027</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0.79673600092169461</v>
       </c>
     </row>
     <row r="60" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H60">
         <v>6.6999999999999931</v>
       </c>
-      <c r="I60">
-        <v>9.8359321402480521E-2</v>
-      </c>
-      <c r="J60">
-        <v>0.88508956681374573</v>
-      </c>
-      <c r="K60">
-        <v>0.1132948732170215</v>
-      </c>
-      <c r="L60">
-        <v>0.82578613301799542</v>
+      <c r="I60" s="9">
+        <v>0.16819240291025642</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0.8754763652558597</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0.10341645506418636</v>
+      </c>
+      <c r="L60" s="9">
+        <v>0.80732710476657199</v>
       </c>
     </row>
     <row r="61" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H61">
         <v>6.7999999999999927</v>
       </c>
-      <c r="I61">
-        <v>8.8653373743276864E-2</v>
-      </c>
-      <c r="J61">
-        <v>0.89443070496776067</v>
-      </c>
-      <c r="K61">
-        <v>0.10703958975972069</v>
-      </c>
-      <c r="L61">
-        <v>0.83680088036750022</v>
+      <c r="I61" s="9">
+        <v>0.14572672338271783</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0.89115022009625844</v>
+      </c>
+      <c r="K61" s="9">
+        <v>9.8562168054654953E-2</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0.81742467549516284</v>
       </c>
     </row>
     <row r="62" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H62">
         <v>6.8999999999999924</v>
       </c>
-      <c r="I62">
-        <v>8.0022107428719069E-2</v>
-      </c>
-      <c r="J62">
-        <v>0.90285605161681581</v>
-      </c>
-      <c r="K62">
-        <v>0.1010242225686761</v>
-      </c>
-      <c r="L62">
-        <v>0.8472020509497511</v>
+      <c r="I62" s="9">
+        <v>0.12591247157491084</v>
+      </c>
+      <c r="J62" s="9">
+        <v>0.9047102857736804</v>
+      </c>
+      <c r="K62" s="9">
+        <v>9.3872432823403587E-2</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0.82704502483709375</v>
       </c>
     </row>
     <row r="63" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H63">
         <v>6.999999999999992</v>
       </c>
-      <c r="I63">
-        <v>7.2343068580088668E-2</v>
-      </c>
-      <c r="J63">
-        <v>0.91046685398806537</v>
-      </c>
-      <c r="K63">
-        <v>9.5252889193168475E-2</v>
-      </c>
-      <c r="L63">
-        <v>0.85701386177543526</v>
+      <c r="I63" s="9">
+        <v>0.10865162490956394</v>
+      </c>
+      <c r="J63" s="9">
+        <v>0.91641793859572829</v>
+      </c>
+      <c r="K63" s="9">
+        <v>8.9349080069805312E-2</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0.83620470937598224</v>
       </c>
     </row>
     <row r="64" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H64">
         <v>7.0999999999999917</v>
       </c>
-      <c r="I64">
-        <v>6.5505747596820943E-2</v>
-      </c>
-      <c r="J64">
-        <v>0.91735270941722669</v>
-      </c>
-      <c r="K64">
-        <v>8.9727514422010393E-2</v>
-      </c>
-      <c r="L64">
-        <v>0.86626082952777006</v>
+      <c r="I64" s="9">
+        <v>9.3743973450710963E-2</v>
+      </c>
+      <c r="J64" s="9">
+        <v>0.92651910084601719</v>
+      </c>
+      <c r="K64" s="9">
+        <v>8.4992828934099277E-2</v>
+      </c>
+      <c r="L64" s="9">
+        <v>0.84492041198449441</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H65">
         <v>7.1999999999999913</v>
       </c>
-      <c r="I65">
-        <v>5.9411438890712147E-2</v>
-      </c>
-      <c r="J65">
-        <v>0.92359275813611785</v>
-      </c>
-      <c r="K65">
-        <v>8.4448113202157657E-2</v>
-      </c>
-      <c r="L65">
-        <v>0.87496756560656586</v>
+      <c r="I65" s="9">
+        <v>8.0941806188150472E-2</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0.93523692708218065</v>
+      </c>
+      <c r="K65" s="9">
+        <v>8.0803425661615622E-2</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0.85320883769617728</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H66">
         <v>7.2999999999999909</v>
       </c>
-      <c r="I66">
-        <v>5.3972610919898287E-2</v>
-      </c>
-      <c r="J66">
-        <v>0.92925683510532187</v>
-      </c>
-      <c r="K66">
-        <v>7.9413052419778515E-2</v>
-      </c>
-      <c r="L66">
-        <v>0.88315859841064315</v>
+      <c r="I66" s="9">
+        <v>6.9985793833164889E-2</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0.94276898844076218</v>
+      </c>
+      <c r="K66" s="9">
+        <v>7.6779771062963131E-2</v>
+      </c>
+      <c r="L66" s="9">
+        <v>0.8610866228810421</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H67">
         <v>7.3999999999999906</v>
       </c>
-      <c r="I67">
-        <v>4.9112024108012846E-2</v>
-      </c>
-      <c r="J67">
-        <v>0.93440654468291728</v>
-      </c>
-      <c r="K67">
-        <v>7.4619291373374474E-2</v>
-      </c>
-      <c r="L67">
-        <v>0.89085822073254262</v>
+      <c r="I67" s="9">
+        <v>6.0626344093104342E-2</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0.94928728046575195</v>
+      </c>
+      <c r="K67" s="9">
+        <v>7.2920037120941916E-2</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0.8685702566211605</v>
       </c>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H68">
         <v>7.4999999999999902</v>
       </c>
-      <c r="I68">
-        <v>4.4761746468563637E-2</v>
-      </c>
-      <c r="J68">
-        <v>0.93909624100298772</v>
-      </c>
-      <c r="K68">
-        <v>7.0062601174418815E-2</v>
-      </c>
-      <c r="L68">
-        <v>0.89809036014351684</v>
+      <c r="I68" s="9">
+        <v>5.2634829913887807E-2</v>
+      </c>
+      <c r="J68" s="9">
+        <v>0.95493982609178119</v>
+      </c>
+      <c r="K68" s="9">
+        <v>6.9221773185568256E-2</v>
+      </c>
+      <c r="L68" s="9">
+        <v>0.87567601322237321</v>
       </c>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H69">
         <v>7.5999999999999899</v>
       </c>
-      <c r="I69">
-        <v>4.0862158127352749E-2</v>
-      </c>
-      <c r="J69">
-        <v>0.94337390878688232</v>
-      </c>
-      <c r="K69">
-        <v>6.5737763626840098E-2</v>
-      </c>
-      <c r="L69">
-        <v>0.90487847028683066</v>
+      <c r="I69" s="9">
+        <v>4.5808292455015789E-2</v>
+      </c>
+      <c r="J69" s="9">
+        <v>0.95985304933164373</v>
+      </c>
+      <c r="K69" s="9">
+        <v>6.5682002263377337E-2</v>
+      </c>
+      <c r="L69" s="9">
+        <v>0.88241989484578565</v>
       </c>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H70">
         <v>7.6999999999999895</v>
       </c>
-      <c r="I70">
-        <v>3.736099750259031E-2</v>
-      </c>
-      <c r="J70">
-        <v>0.94728194636986829</v>
-      </c>
-      <c r="K70">
-        <v>6.163875037562011E-2</v>
-      </c>
-      <c r="L70">
-        <v>0.91124544106506411</v>
+      <c r="I70" s="9">
+        <v>3.9970235399044061E-2</v>
+      </c>
+      <c r="J70" s="9">
+        <v>0.96413440590506272</v>
+      </c>
+      <c r="K70" s="9">
+        <v>6.22973079505467E-2</v>
+      </c>
+      <c r="L70" s="9">
+        <v>0.88881758329567473</v>
       </c>
     </row>
     <row r="71" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H71">
         <v>7.7999999999999892</v>
       </c>
-      <c r="I71">
-        <v>3.4212477192339191E-2</v>
-      </c>
-      <c r="J71">
-        <v>0.95085785667338851</v>
-      </c>
-      <c r="K71">
-        <v>5.7758883288705633E-2</v>
-      </c>
-      <c r="L71">
-        <v>0.91721352579533166</v>
+      <c r="I71" s="9">
+        <v>3.496926890543383E-2</v>
+      </c>
+      <c r="J71" s="9">
+        <v>0.96787497415056833</v>
+      </c>
+      <c r="K71" s="9">
+        <v>5.9063912585209759E-2</v>
+      </c>
+      <c r="L71" s="9">
+        <v>0.89488440005680481</v>
       </c>
     </row>
     <row r="72" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H72">
         <v>7.8999999999999888</v>
       </c>
-      <c r="I72">
-        <v>3.1376482088588779E-2</v>
-      </c>
-      <c r="J72">
-        <v>0.95413485381991725</v>
-      </c>
-      <c r="K72">
-        <v>5.4090977156050518E-2</v>
-      </c>
-      <c r="L72">
-        <v>0.92280428350914523</v>
+      <c r="I72" s="9">
+        <v>3.0676715691323218E-2</v>
+      </c>
+      <c r="J72" s="9">
+        <v>0.97115185130304293</v>
+      </c>
+      <c r="K72" s="9">
+        <v>5.5977747205939558E-2</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0.90063527373237573</v>
       </c>
     </row>
     <row r="73" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H73">
         <v>7.9999999999999885</v>
       </c>
-      <c r="I73">
-        <v>2.8817852761897109E-2</v>
-      </c>
-      <c r="J73">
-        <v>0.9571423938252106</v>
-      </c>
-      <c r="K73">
-        <v>5.0627465864407459E-2</v>
-      </c>
-      <c r="L73">
-        <v>0.92803853468610309</v>
+      <c r="I73" s="9">
+        <v>2.6983845155844545E-2</v>
+      </c>
+      <c r="J73" s="9">
+        <v>0.97403028764680832</v>
+      </c>
+      <c r="K73" s="9">
+        <v>5.3034513903625541E-2</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0.90608471409261859</v>
       </c>
     </row>
     <row r="74" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H74">
         <v>8.099999999999989</v>
       </c>
-      <c r="I74">
-        <v>2.6505751623854535E-2</v>
-      </c>
-      <c r="J74">
-        <v>0.95990663780425822</v>
-      </c>
-      <c r="K74">
-        <v>4.7360513244800548E-2</v>
-      </c>
-      <c r="L74">
-        <v>0.9329363288286403</v>
+      <c r="I74" s="9">
+        <v>2.3799110032277044E-2</v>
+      </c>
+      <c r="J74" s="9">
+        <v>0.97656554198020662</v>
+      </c>
+      <c r="K74" s="9">
+        <v>5.0229741145274183E-2</v>
+      </c>
+      <c r="L74" s="9">
+        <v>0.91124679200241143</v>
       </c>
     </row>
     <row r="75" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H75">
         <v>8.1999999999999886</v>
       </c>
-      <c r="I75">
-        <v>2.4413106360586356E-2</v>
-      </c>
-      <c r="J75">
-        <v>0.96245085571074807</v>
-      </c>
-      <c r="K75">
-        <v>4.4282109798670817E-2</v>
-      </c>
-      <c r="L75">
-        <v>0.9375169224054376</v>
+      <c r="I75" s="9">
+        <v>2.1045578376519561E-2</v>
+      </c>
+      <c r="J75" s="9">
+        <v>0.97880446944619393</v>
+      </c>
+      <c r="K75" s="9">
+        <v>4.7558832632684886E-2</v>
+      </c>
+      <c r="L75" s="9">
+        <v>0.91613512455340607</v>
       </c>
     </row>
     <row r="76" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H76">
         <v>8.2999999999999883</v>
       </c>
-      <c r="I76">
-        <v>2.2516123701599122E-2</v>
-      </c>
-      <c r="J76">
-        <v>0.96479577799747862</v>
-      </c>
-      <c r="K76">
-        <v>4.1384156494710223E-2</v>
-      </c>
-      <c r="L76">
-        <v>0.94179876581115518</v>
+      <c r="I76" s="9">
+        <v>1.865864516888497E-2</v>
+      </c>
+      <c r="J76" s="9">
+        <v>0.98078686615309141</v>
+      </c>
+      <c r="K76" s="9">
+        <v>4.5017110238204983E-2</v>
+      </c>
+      <c r="L76" s="9">
+        <v>0.92076286478145675</v>
       </c>
     </row>
     <row r="77" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H77">
         <v>8.3999999999999879</v>
       </c>
-      <c r="I77">
-        <v>2.0793866130059947E-2</v>
-      </c>
-      <c r="J77">
-        <v>0.96695990186250991</v>
-      </c>
-      <c r="K77">
-        <v>3.8658536796685454E-2</v>
-      </c>
-      <c r="L77">
-        <v>0.94579949810789954</v>
+      <c r="I77" s="9">
+        <v>1.6584045977701141E-2</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0.98254660004265082</v>
+      </c>
+      <c r="K77" s="9">
+        <v>4.2599851535286858E-2</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0.9251426954031583</v>
       </c>
     </row>
     <row r="78" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H78">
         <v>8.4999999999999876</v>
       </c>
-      <c r="I78">
-        <v>1.9227884254774771E-2</v>
-      </c>
-      <c r="J78">
-        <v>0.96895975800863532</v>
-      </c>
-      <c r="K78">
-        <v>3.6097178037562211E-2</v>
-      </c>
-      <c r="L78">
-        <v>0.94953594842770872</v>
+      <c r="I78" s="9">
+        <v>1.4776162100615694E-2</v>
+      </c>
+      <c r="J78" s="9">
+        <v>0.98411255787219787</v>
+      </c>
+      <c r="K78" s="9">
+        <v>4.0302322414530481E-2</v>
+      </c>
+      <c r="L78" s="9">
+        <v>0.9292868260557432</v>
       </c>
     </row>
     <row r="79" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H79">
         <v>8.5999999999999872</v>
       </c>
-      <c r="I79">
-        <v>1.7801897995831175E-2</v>
-      </c>
-      <c r="J79">
-        <v>0.97081014313549252</v>
-      </c>
-      <c r="K79">
-        <v>3.3692103200703441E-2</v>
-      </c>
-      <c r="L79">
-        <v>0.95302414302421101</v>
+      <c r="I79" s="9">
+        <v>1.319659074318116E-2</v>
+      </c>
+      <c r="J79" s="9">
+        <v>0.98550943621900555</v>
+      </c>
+      <c r="K79" s="9">
+        <v>3.8119805247265229E-2</v>
+      </c>
+      <c r="L79" s="9">
+        <v>0.93320699357223136</v>
       </c>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H80">
         <v>8.6999999999999869</v>
       </c>
-      <c r="I80">
-        <v>1.6501520324694447E-2</v>
-      </c>
-      <c r="J80">
-        <v>0.97252432272746359</v>
-      </c>
-      <c r="K80">
-        <v>3.1435474107906113E-2</v>
-      </c>
-      <c r="L80">
-        <v>0.95627931706467895</v>
+      <c r="I80" s="9">
+        <v>1.1812947810997277E-2</v>
+      </c>
+      <c r="J80" s="9">
+        <v>0.98675840141159199</v>
+      </c>
+      <c r="K80" s="9">
+        <v>3.6047623029282466E-2</v>
+      </c>
+      <c r="L80" s="9">
+        <v>0.93691446486846464</v>
       </c>
     </row>
     <row r="81" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H81">
         <v>8.7999999999999865</v>
       </c>
-      <c r="I81">
-        <v>1.5314017946838236E-2</v>
-      </c>
-      <c r="J81">
-        <v>0.97411420810674554</v>
-      </c>
-      <c r="K81">
-        <v>2.9319626949076607E-2</v>
-      </c>
-      <c r="L81">
-        <v>0.95931593035045859</v>
+      <c r="I81" s="9">
+        <v>1.0597870312885621E-2</v>
+      </c>
+      <c r="J81" s="9">
+        <v>0.98787763998953482</v>
+      </c>
+      <c r="K81" s="9">
+        <v>3.4081159907699901E-2</v>
+      </c>
+      <c r="L81" s="9">
+        <v>0.94042004206043495</v>
       </c>
     </row>
     <row r="82" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H82">
         <v>8.8999999999999861</v>
       </c>
-      <c r="I82">
-        <v>1.4228103962082343E-2</v>
-      </c>
-      <c r="J82">
-        <v>0.97559051119232043</v>
-      </c>
-      <c r="K82">
-        <v>2.7337101021445088E-2</v>
-      </c>
-      <c r="L82">
-        <v>0.96214768624388836</v>
+      <c r="I82" s="9">
+        <v>9.5281875345755475E-3</v>
+      </c>
+      <c r="J82" s="9">
+        <v>0.98888281808614242</v>
+      </c>
+      <c r="K82" s="9">
+        <v>3.221587846460737E-2</v>
+      </c>
+      <c r="L82" s="9">
+        <v>0.94373406946914629</v>
       </c>
     </row>
     <row r="83" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H83">
         <v>8.9999999999999858</v>
       </c>
-      <c r="I83">
-        <v>1.3233758151641524E-2</v>
-      </c>
-      <c r="J83">
-        <v>0.97696287994011866</v>
-      </c>
-      <c r="K83">
-        <v>2.5480661478995748E-2</v>
-      </c>
-      <c r="L83">
-        <v>0.96478755316325859</v>
-      </c>
+      <c r="I83" s="9">
+        <v>8.5842335033343726E-3</v>
+      </c>
+      <c r="J83" s="9">
+        <v>0.98978746520669414</v>
+      </c>
+      <c r="K83" s="9">
+        <v>3.0447334102491772E-2</v>
+      </c>
+      <c r="L83" s="9">
+        <v>0.94686644220617011</v>
+      </c>
+    </row>
+    <row r="84" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+    </row>
+    <row r="92" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="93" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+    </row>
+    <row r="94" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+    </row>
+    <row r="96" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+    </row>
+    <row r="100" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+    </row>
+    <row r="101" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+    </row>
+    <row r="103" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+    </row>
+    <row r="105" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+    </row>
+    <row r="106" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+    </row>
+    <row r="107" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+    </row>
+    <row r="108" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+    </row>
+    <row r="109" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+    </row>
+    <row r="110" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+    </row>
+    <row r="111" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+    </row>
+    <row r="117" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+    </row>
+    <row r="118" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+    </row>
+    <row r="120" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+    </row>
+    <row r="121" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+    </row>
+    <row r="122" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+    </row>
+    <row r="123" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+    </row>
+    <row r="124" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+    </row>
+    <row r="125" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+    </row>
+    <row r="126" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+    </row>
+    <row r="127" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+    </row>
+    <row r="128" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+    </row>
+    <row r="129" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+    </row>
+    <row r="130" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+    </row>
+    <row r="131" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+    </row>
+    <row r="132" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+    </row>
+    <row r="133" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+    </row>
+    <row r="134" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+    </row>
+    <row r="135" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+    </row>
+    <row r="136" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+    </row>
+    <row r="137" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+    </row>
+    <row r="138" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+    </row>
+    <row r="139" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+    </row>
+    <row r="140" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+    </row>
+    <row r="141" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+    </row>
+    <row r="142" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+    </row>
+    <row r="143" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+    </row>
+    <row r="144" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+    </row>
+    <row r="145" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+    </row>
+    <row r="146" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+    </row>
+    <row r="147" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+    </row>
+    <row r="148" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+    </row>
+    <row r="149" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+    </row>
+    <row r="150" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+    </row>
+    <row r="151" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+    </row>
+    <row r="152" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+    </row>
+    <row r="153" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+    </row>
+    <row r="154" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+    </row>
+    <row r="155" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+    </row>
+    <row r="156" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+    </row>
+    <row r="157" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+    </row>
+    <row r="158" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+    </row>
+    <row r="159" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="9"/>
+    </row>
+    <row r="160" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+    </row>
+    <row r="161" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+    </row>
+    <row r="162" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+    </row>
+    <row r="163" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+    </row>
+    <row r="164" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+    </row>
+    <row r="165" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
+    </row>
+    <row r="166" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+    </row>
+    <row r="167" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+    </row>
+    <row r="168" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
+      <c r="L168" s="9"/>
+    </row>
+    <row r="169" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="9"/>
+    </row>
+    <row r="170" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="9"/>
+    </row>
+    <row r="171" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="9"/>
+    </row>
+    <row r="172" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+    </row>
+    <row r="173" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+    </row>
+    <row r="174" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+    </row>
+    <row r="175" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
+      <c r="L175" s="9"/>
+    </row>
+    <row r="176" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+    </row>
+    <row r="177" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
+    </row>
+    <row r="178" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+    </row>
+    <row r="179" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+    </row>
+    <row r="180" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+    </row>
+    <row r="181" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
+      <c r="L181" s="9"/>
+    </row>
+    <row r="182" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+    </row>
+    <row r="183" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+    </row>
+    <row r="184" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="9"/>
+    </row>
+    <row r="185" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="9"/>
+      <c r="L185" s="9"/>
+    </row>
+    <row r="186" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="9"/>
+    </row>
+    <row r="187" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
+      <c r="L187" s="9"/>
+    </row>
+    <row r="188" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
+      <c r="L188" s="9"/>
+    </row>
+    <row r="189" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+      <c r="L189" s="9"/>
+    </row>
+    <row r="190" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
+      <c r="L190" s="9"/>
+    </row>
+    <row r="191" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
+      <c r="L191" s="9"/>
+    </row>
+    <row r="192" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="9"/>
+      <c r="L192" s="9"/>
+    </row>
+    <row r="193" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="9"/>
+    </row>
+    <row r="194" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
+      <c r="L194" s="9"/>
+    </row>
+    <row r="195" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="9"/>
+    </row>
+    <row r="196" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+    </row>
+    <row r="197" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
+    </row>
+    <row r="198" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
+      <c r="L198" s="9"/>
+    </row>
+    <row r="199" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
+      <c r="L199" s="9"/>
+    </row>
+    <row r="200" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
+      <c r="L200" s="9"/>
+    </row>
+    <row r="201" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="9"/>
+      <c r="L201" s="9"/>
+    </row>
+    <row r="202" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I202" s="9"/>
+      <c r="J202" s="9"/>
+      <c r="K202" s="9"/>
+      <c r="L202" s="9"/>
+    </row>
+    <row r="203" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I203" s="9"/>
+      <c r="J203" s="9"/>
+      <c r="K203" s="9"/>
+      <c r="L203" s="9"/>
+    </row>
+    <row r="204" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I204" s="9"/>
+      <c r="J204" s="9"/>
+      <c r="K204" s="9"/>
+      <c r="L204" s="9"/>
+    </row>
+    <row r="205" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I205" s="9"/>
+      <c r="J205" s="9"/>
+      <c r="K205" s="9"/>
+      <c r="L205" s="9"/>
+    </row>
+    <row r="206" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I206" s="9"/>
+      <c r="J206" s="9"/>
+      <c r="K206" s="9"/>
+      <c r="L206" s="9"/>
+    </row>
+    <row r="207" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
+      <c r="L207" s="9"/>
+    </row>
+    <row r="208" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I208" s="9"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
+      <c r="L208" s="9"/>
+    </row>
+    <row r="209" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
+      <c r="L209" s="9"/>
+    </row>
+    <row r="210" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
+      <c r="L210" s="9"/>
+    </row>
+    <row r="211" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="9"/>
+    </row>
+    <row r="212" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I212" s="9"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="9"/>
+      <c r="L212" s="9"/>
+    </row>
+    <row r="213" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="9"/>
+    </row>
+    <row r="214" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="9"/>
+    </row>
+    <row r="215" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+      <c r="L215" s="9"/>
+    </row>
+    <row r="216" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I216" s="9"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="9"/>
+      <c r="L216" s="9"/>
+    </row>
+    <row r="217" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I217" s="9"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="9"/>
+      <c r="L217" s="9"/>
+    </row>
+    <row r="218" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
+      <c r="L218" s="9"/>
+    </row>
+    <row r="219" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I219" s="9"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="9"/>
+      <c r="L219" s="9"/>
+    </row>
+    <row r="220" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I220" s="9"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="9"/>
+      <c r="L220" s="9"/>
+    </row>
+    <row r="221" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I221" s="9"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="9"/>
+      <c r="L221" s="9"/>
+    </row>
+    <row r="222" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I222" s="9"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="9"/>
+      <c r="L222" s="9"/>
+    </row>
+    <row r="223" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I223" s="9"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="9"/>
+      <c r="L223" s="9"/>
+    </row>
+    <row r="224" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I224" s="9"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9"/>
+      <c r="L224" s="9"/>
+    </row>
+    <row r="225" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I225" s="9"/>
+      <c r="J225" s="9"/>
+      <c r="K225" s="9"/>
+      <c r="L225" s="9"/>
+    </row>
+    <row r="226" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I226" s="9"/>
+      <c r="J226" s="9"/>
+      <c r="K226" s="9"/>
+      <c r="L226" s="9"/>
+    </row>
+    <row r="227" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I227" s="9"/>
+      <c r="J227" s="9"/>
+      <c r="K227" s="9"/>
+      <c r="L227" s="9"/>
+    </row>
+    <row r="228" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I228" s="9"/>
+      <c r="J228" s="9"/>
+      <c r="K228" s="9"/>
+      <c r="L228" s="9"/>
+    </row>
+    <row r="229" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I229" s="9"/>
+      <c r="J229" s="9"/>
+      <c r="K229" s="9"/>
+      <c r="L229" s="9"/>
+    </row>
+    <row r="230" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I230" s="9"/>
+      <c r="J230" s="9"/>
+      <c r="K230" s="9"/>
+      <c r="L230" s="9"/>
+    </row>
+    <row r="231" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I231" s="9"/>
+      <c r="J231" s="9"/>
+      <c r="K231" s="9"/>
+      <c r="L231" s="9"/>
+    </row>
+    <row r="232" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I232" s="9"/>
+      <c r="J232" s="9"/>
+      <c r="K232" s="9"/>
+      <c r="L232" s="9"/>
+    </row>
+    <row r="233" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I233" s="9"/>
+      <c r="J233" s="9"/>
+      <c r="K233" s="9"/>
+      <c r="L233" s="9"/>
+    </row>
+    <row r="234" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I234" s="9"/>
+      <c r="J234" s="9"/>
+      <c r="K234" s="9"/>
+      <c r="L234" s="9"/>
+    </row>
+    <row r="235" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I235" s="9"/>
+      <c r="J235" s="9"/>
+      <c r="K235" s="9"/>
+      <c r="L235" s="9"/>
+    </row>
+    <row r="236" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I236" s="9"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="9"/>
+      <c r="L236" s="9"/>
+    </row>
+    <row r="237" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
+      <c r="L237" s="9"/>
+    </row>
+    <row r="238" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
+      <c r="L238" s="9"/>
+    </row>
+    <row r="239" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I239" s="9"/>
+      <c r="J239" s="9"/>
+      <c r="K239" s="9"/>
+      <c r="L239" s="9"/>
+    </row>
+    <row r="240" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I240" s="9"/>
+      <c r="J240" s="9"/>
+      <c r="K240" s="9"/>
+      <c r="L240" s="9"/>
+    </row>
+    <row r="241" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I241" s="9"/>
+      <c r="J241" s="9"/>
+      <c r="K241" s="9"/>
+      <c r="L241" s="9"/>
+    </row>
+    <row r="242" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
+      <c r="L242" s="9"/>
+    </row>
+    <row r="243" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I243" s="9"/>
+      <c r="J243" s="9"/>
+      <c r="K243" s="9"/>
+      <c r="L243" s="9"/>
+    </row>
+    <row r="244" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I244" s="9"/>
+      <c r="J244" s="9"/>
+      <c r="K244" s="9"/>
+      <c r="L244" s="9"/>
+    </row>
+    <row r="245" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I245" s="9"/>
+      <c r="J245" s="9"/>
+      <c r="K245" s="9"/>
+      <c r="L245" s="9"/>
+    </row>
+    <row r="246" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I246" s="9"/>
+      <c r="J246" s="9"/>
+      <c r="K246" s="9"/>
+      <c r="L246" s="9"/>
+    </row>
+    <row r="247" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I247" s="9"/>
+      <c r="J247" s="9"/>
+      <c r="K247" s="9"/>
+      <c r="L247" s="9"/>
+    </row>
+    <row r="248" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I248" s="9"/>
+      <c r="J248" s="9"/>
+      <c r="K248" s="9"/>
+      <c r="L248" s="9"/>
+    </row>
+    <row r="249" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I249" s="9"/>
+      <c r="J249" s="9"/>
+      <c r="K249" s="9"/>
+      <c r="L249" s="9"/>
+    </row>
+    <row r="250" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I250" s="9"/>
+      <c r="J250" s="9"/>
+      <c r="K250" s="9"/>
+      <c r="L250" s="9"/>
+    </row>
+    <row r="251" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I251" s="9"/>
+      <c r="J251" s="9"/>
+      <c r="K251" s="9"/>
+      <c r="L251" s="9"/>
+    </row>
+    <row r="252" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I252" s="9"/>
+      <c r="J252" s="9"/>
+      <c r="K252" s="9"/>
+      <c r="L252" s="9"/>
+    </row>
+    <row r="253" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I253" s="9"/>
+      <c r="J253" s="9"/>
+      <c r="K253" s="9"/>
+      <c r="L253" s="9"/>
+    </row>
+    <row r="254" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I254" s="9"/>
+      <c r="J254" s="9"/>
+      <c r="K254" s="9"/>
+      <c r="L254" s="9"/>
+    </row>
+    <row r="255" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I255" s="9"/>
+      <c r="J255" s="9"/>
+      <c r="K255" s="9"/>
+      <c r="L255" s="9"/>
+    </row>
+    <row r="256" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I256" s="9"/>
+      <c r="J256" s="9"/>
+      <c r="K256" s="9"/>
+      <c r="L256" s="9"/>
+    </row>
+    <row r="257" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I257" s="9"/>
+      <c r="J257" s="9"/>
+      <c r="K257" s="9"/>
+      <c r="L257" s="9"/>
+    </row>
+    <row r="258" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I258" s="9"/>
+      <c r="J258" s="9"/>
+      <c r="K258" s="9"/>
+      <c r="L258" s="9"/>
+    </row>
+    <row r="259" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I259" s="9"/>
+      <c r="J259" s="9"/>
+      <c r="K259" s="9"/>
+      <c r="L259" s="9"/>
+    </row>
+    <row r="260" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I260" s="9"/>
+      <c r="J260" s="9"/>
+      <c r="K260" s="9"/>
+      <c r="L260" s="9"/>
+    </row>
+    <row r="261" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I261" s="9"/>
+      <c r="J261" s="9"/>
+      <c r="K261" s="9"/>
+      <c r="L261" s="9"/>
+    </row>
+    <row r="262" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I262" s="9"/>
+      <c r="J262" s="9"/>
+      <c r="K262" s="9"/>
+      <c r="L262" s="9"/>
+    </row>
+    <row r="263" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I263" s="9"/>
+      <c r="J263" s="9"/>
+      <c r="K263" s="9"/>
+      <c r="L263" s="9"/>
+    </row>
+    <row r="264" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I264" s="9"/>
+      <c r="J264" s="9"/>
+      <c r="K264" s="9"/>
+      <c r="L264" s="9"/>
+    </row>
+    <row r="265" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I265" s="9"/>
+      <c r="J265" s="9"/>
+      <c r="K265" s="9"/>
+      <c r="L265" s="9"/>
+    </row>
+    <row r="266" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I266" s="9"/>
+      <c r="J266" s="9"/>
+      <c r="K266" s="9"/>
+      <c r="L266" s="9"/>
+    </row>
+    <row r="267" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I267" s="9"/>
+      <c r="J267" s="9"/>
+      <c r="K267" s="9"/>
+      <c r="L267" s="9"/>
+    </row>
+    <row r="268" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I268" s="9"/>
+      <c r="J268" s="9"/>
+      <c r="K268" s="9"/>
+      <c r="L268" s="9"/>
+    </row>
+    <row r="269" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I269" s="9"/>
+      <c r="J269" s="9"/>
+      <c r="K269" s="9"/>
+      <c r="L269" s="9"/>
+    </row>
+    <row r="270" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I270" s="9"/>
+      <c r="J270" s="9"/>
+      <c r="K270" s="9"/>
+      <c r="L270" s="9"/>
+    </row>
+    <row r="271" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I271" s="9"/>
+      <c r="J271" s="9"/>
+      <c r="K271" s="9"/>
+      <c r="L271" s="9"/>
+    </row>
+    <row r="272" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I272" s="9"/>
+      <c r="J272" s="9"/>
+      <c r="K272" s="9"/>
+      <c r="L272" s="9"/>
+    </row>
+    <row r="273" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I273" s="9"/>
+      <c r="J273" s="9"/>
+      <c r="K273" s="9"/>
+      <c r="L273" s="9"/>
+    </row>
+    <row r="274" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I274" s="9"/>
+      <c r="J274" s="9"/>
+      <c r="K274" s="9"/>
+      <c r="L274" s="9"/>
+    </row>
+    <row r="275" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I275" s="9"/>
+      <c r="J275" s="9"/>
+      <c r="K275" s="9"/>
+      <c r="L275" s="9"/>
+    </row>
+    <row r="276" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I276" s="9"/>
+      <c r="J276" s="9"/>
+      <c r="K276" s="9"/>
+      <c r="L276" s="9"/>
+    </row>
+    <row r="277" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I277" s="9"/>
+      <c r="J277" s="9"/>
+      <c r="K277" s="9"/>
+      <c r="L277" s="9"/>
+    </row>
+    <row r="278" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I278" s="9"/>
+      <c r="J278" s="9"/>
+      <c r="K278" s="9"/>
+      <c r="L278" s="9"/>
+    </row>
+    <row r="279" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I279" s="9"/>
+      <c r="J279" s="9"/>
+      <c r="K279" s="9"/>
+      <c r="L279" s="9"/>
+    </row>
+    <row r="280" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I280" s="9"/>
+      <c r="J280" s="9"/>
+      <c r="K280" s="9"/>
+      <c r="L280" s="9"/>
+    </row>
+    <row r="281" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I281" s="9"/>
+      <c r="J281" s="9"/>
+      <c r="K281" s="9"/>
+      <c r="L281" s="9"/>
+    </row>
+    <row r="282" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I282" s="9"/>
+      <c r="J282" s="9"/>
+      <c r="K282" s="9"/>
+      <c r="L282" s="9"/>
+    </row>
+    <row r="283" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I283" s="9"/>
+      <c r="J283" s="9"/>
+      <c r="K283" s="9"/>
+      <c r="L283" s="9"/>
+    </row>
+    <row r="284" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I284" s="9"/>
+      <c r="J284" s="9"/>
+      <c r="K284" s="9"/>
+      <c r="L284" s="9"/>
+    </row>
+    <row r="285" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I285" s="9"/>
+      <c r="J285" s="9"/>
+      <c r="K285" s="9"/>
+      <c r="L285" s="9"/>
+    </row>
+    <row r="286" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I286" s="9"/>
+      <c r="J286" s="9"/>
+      <c r="K286" s="9"/>
+      <c r="L286" s="9"/>
+    </row>
+    <row r="287" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I287" s="9"/>
+      <c r="J287" s="9"/>
+      <c r="K287" s="9"/>
+      <c r="L287" s="9"/>
+    </row>
+    <row r="288" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I288" s="9"/>
+      <c r="J288" s="9"/>
+      <c r="K288" s="9"/>
+      <c r="L288" s="9"/>
+    </row>
+    <row r="289" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I289" s="9"/>
+      <c r="J289" s="9"/>
+      <c r="K289" s="9"/>
+      <c r="L289" s="9"/>
+    </row>
+    <row r="290" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I290" s="9"/>
+      <c r="J290" s="9"/>
+      <c r="K290" s="9"/>
+      <c r="L290" s="9"/>
+    </row>
+    <row r="291" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I291" s="9"/>
+      <c r="J291" s="9"/>
+      <c r="K291" s="9"/>
+      <c r="L291" s="9"/>
+    </row>
+    <row r="292" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I292" s="9"/>
+      <c r="J292" s="9"/>
+      <c r="K292" s="9"/>
+      <c r="L292" s="9"/>
+    </row>
+    <row r="293" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I293" s="9"/>
+      <c r="J293" s="9"/>
+      <c r="K293" s="9"/>
+      <c r="L293" s="9"/>
+    </row>
+    <row r="294" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I294" s="9"/>
+      <c r="J294" s="9"/>
+      <c r="K294" s="9"/>
+      <c r="L294" s="9"/>
+    </row>
+    <row r="295" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I295" s="9"/>
+      <c r="J295" s="9"/>
+      <c r="K295" s="9"/>
+      <c r="L295" s="9"/>
+    </row>
+    <row r="296" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I296" s="9"/>
+      <c r="J296" s="9"/>
+      <c r="K296" s="9"/>
+      <c r="L296" s="9"/>
+    </row>
+    <row r="297" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I297" s="9"/>
+      <c r="J297" s="9"/>
+      <c r="K297" s="9"/>
+      <c r="L297" s="9"/>
+    </row>
+    <row r="298" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I298" s="9"/>
+      <c r="J298" s="9"/>
+      <c r="K298" s="9"/>
+      <c r="L298" s="9"/>
+    </row>
+    <row r="299" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I299" s="9"/>
+      <c r="J299" s="9"/>
+      <c r="K299" s="9"/>
+      <c r="L299" s="9"/>
+    </row>
+    <row r="300" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I300" s="9"/>
+      <c r="J300" s="9"/>
+      <c r="K300" s="9"/>
+      <c r="L300" s="9"/>
+    </row>
+    <row r="301" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I301" s="9"/>
+      <c r="J301" s="9"/>
+      <c r="K301" s="9"/>
+      <c r="L301" s="9"/>
+    </row>
+    <row r="302" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I302" s="9"/>
+      <c r="J302" s="9"/>
+      <c r="K302" s="9"/>
+      <c r="L302" s="9"/>
+    </row>
+    <row r="303" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I303" s="9"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+      <c r="L303" s="9"/>
+    </row>
+    <row r="304" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I304" s="9"/>
+      <c r="J304" s="9"/>
+      <c r="K304" s="9"/>
+      <c r="L304" s="9"/>
+    </row>
+    <row r="305" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I305" s="9"/>
+      <c r="J305" s="9"/>
+      <c r="K305" s="9"/>
+      <c r="L305" s="9"/>
+    </row>
+    <row r="306" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I306" s="9"/>
+      <c r="J306" s="9"/>
+      <c r="K306" s="9"/>
+      <c r="L306" s="9"/>
+    </row>
+    <row r="307" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I307" s="9"/>
+      <c r="J307" s="9"/>
+      <c r="K307" s="9"/>
+      <c r="L307" s="9"/>
+    </row>
+    <row r="308" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I308" s="9"/>
+      <c r="J308" s="9"/>
+      <c r="K308" s="9"/>
+      <c r="L308" s="9"/>
+    </row>
+    <row r="309" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I309" s="9"/>
+      <c r="J309" s="9"/>
+      <c r="K309" s="9"/>
+      <c r="L309" s="9"/>
+    </row>
+    <row r="310" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I310" s="9"/>
+      <c r="J310" s="9"/>
+      <c r="K310" s="9"/>
+      <c r="L310" s="9"/>
+    </row>
+    <row r="311" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I311" s="9"/>
+      <c r="J311" s="9"/>
+      <c r="K311" s="9"/>
+      <c r="L311" s="9"/>
+    </row>
+    <row r="312" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I312" s="9"/>
+      <c r="J312" s="9"/>
+      <c r="K312" s="9"/>
+      <c r="L312" s="9"/>
+    </row>
+    <row r="313" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I313" s="9"/>
+      <c r="J313" s="9"/>
+      <c r="K313" s="9"/>
+      <c r="L313" s="9"/>
+    </row>
+    <row r="314" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I314" s="9"/>
+      <c r="J314" s="9"/>
+      <c r="K314" s="9"/>
+      <c r="L314" s="9"/>
+    </row>
+    <row r="315" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I315" s="9"/>
+      <c r="J315" s="9"/>
+      <c r="K315" s="9"/>
+      <c r="L315" s="9"/>
+    </row>
+    <row r="316" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I316" s="9"/>
+      <c r="J316" s="9"/>
+      <c r="K316" s="9"/>
+      <c r="L316" s="9"/>
+    </row>
+    <row r="317" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I317" s="9"/>
+      <c r="J317" s="9"/>
+      <c r="K317" s="9"/>
+      <c r="L317" s="9"/>
+    </row>
+    <row r="318" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I318" s="9"/>
+      <c r="J318" s="9"/>
+      <c r="K318" s="9"/>
+      <c r="L318" s="9"/>
+    </row>
+    <row r="319" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I319" s="9"/>
+      <c r="J319" s="9"/>
+      <c r="K319" s="9"/>
+      <c r="L319" s="9"/>
+    </row>
+    <row r="320" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I320" s="9"/>
+      <c r="J320" s="9"/>
+      <c r="K320" s="9"/>
+      <c r="L320" s="9"/>
+    </row>
+    <row r="321" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I321" s="9"/>
+      <c r="J321" s="9"/>
+      <c r="K321" s="9"/>
+      <c r="L321" s="9"/>
+    </row>
+    <row r="322" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I322" s="9"/>
+      <c r="J322" s="9"/>
+      <c r="K322" s="9"/>
+      <c r="L322" s="9"/>
+    </row>
+    <row r="323" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I323" s="9"/>
+      <c r="J323" s="9"/>
+      <c r="K323" s="9"/>
+      <c r="L323" s="9"/>
+    </row>
+    <row r="324" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I324" s="9"/>
+      <c r="J324" s="9"/>
+      <c r="K324" s="9"/>
+      <c r="L324" s="9"/>
+    </row>
+    <row r="325" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I325" s="9"/>
+      <c r="J325" s="9"/>
+      <c r="K325" s="9"/>
+      <c r="L325" s="9"/>
+    </row>
+    <row r="326" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I326" s="9"/>
+      <c r="J326" s="9"/>
+      <c r="K326" s="9"/>
+      <c r="L326" s="9"/>
+    </row>
+    <row r="327" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I327" s="9"/>
+      <c r="J327" s="9"/>
+      <c r="K327" s="9"/>
+      <c r="L327" s="9"/>
+    </row>
+    <row r="328" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I328" s="9"/>
+      <c r="J328" s="9"/>
+      <c r="K328" s="9"/>
+      <c r="L328" s="9"/>
+    </row>
+    <row r="329" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I329" s="9"/>
+      <c r="J329" s="9"/>
+      <c r="K329" s="9"/>
+      <c r="L329" s="9"/>
+    </row>
+    <row r="330" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I330" s="9"/>
+      <c r="J330" s="9"/>
+      <c r="K330" s="9"/>
+      <c r="L330" s="9"/>
+    </row>
+    <row r="331" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I331" s="9"/>
+      <c r="J331" s="9"/>
+      <c r="K331" s="9"/>
+      <c r="L331" s="9"/>
+    </row>
+    <row r="332" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I332" s="9"/>
+      <c r="J332" s="9"/>
+      <c r="K332" s="9"/>
+      <c r="L332" s="9"/>
+    </row>
+    <row r="333" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I333" s="9"/>
+      <c r="J333" s="9"/>
+      <c r="K333" s="9"/>
+      <c r="L333" s="9"/>
+    </row>
+    <row r="334" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I334" s="9"/>
+      <c r="J334" s="9"/>
+      <c r="K334" s="9"/>
+      <c r="L334" s="9"/>
+    </row>
+    <row r="335" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I335" s="9"/>
+      <c r="J335" s="9"/>
+      <c r="K335" s="9"/>
+      <c r="L335" s="9"/>
+    </row>
+    <row r="336" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I336" s="9"/>
+      <c r="J336" s="9"/>
+      <c r="K336" s="9"/>
+      <c r="L336" s="9"/>
+    </row>
+    <row r="337" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I337" s="9"/>
+      <c r="J337" s="9"/>
+      <c r="K337" s="9"/>
+      <c r="L337" s="9"/>
+    </row>
+    <row r="338" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I338" s="9"/>
+      <c r="J338" s="9"/>
+      <c r="K338" s="9"/>
+      <c r="L338" s="9"/>
+    </row>
+    <row r="339" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I339" s="9"/>
+      <c r="J339" s="9"/>
+      <c r="K339" s="9"/>
+      <c r="L339" s="9"/>
+    </row>
+    <row r="340" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I340" s="9"/>
+      <c r="J340" s="9"/>
+      <c r="K340" s="9"/>
+      <c r="L340" s="9"/>
+    </row>
+    <row r="341" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I341" s="9"/>
+      <c r="J341" s="9"/>
+      <c r="K341" s="9"/>
+      <c r="L341" s="9"/>
+    </row>
+    <row r="342" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I342" s="9"/>
+      <c r="J342" s="9"/>
+      <c r="K342" s="9"/>
+      <c r="L342" s="9"/>
+    </row>
+    <row r="343" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I343" s="9"/>
+      <c r="J343" s="9"/>
+      <c r="K343" s="9"/>
+      <c r="L343" s="9"/>
+    </row>
+    <row r="344" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I344" s="9"/>
+      <c r="J344" s="9"/>
+      <c r="K344" s="9"/>
+      <c r="L344" s="9"/>
+    </row>
+    <row r="345" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I345" s="9"/>
+      <c r="J345" s="9"/>
+      <c r="K345" s="9"/>
+      <c r="L345" s="9"/>
+    </row>
+    <row r="346" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I346" s="9"/>
+      <c r="J346" s="9"/>
+      <c r="K346" s="9"/>
+      <c r="L346" s="9"/>
+    </row>
+    <row r="347" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I347" s="9"/>
+      <c r="J347" s="9"/>
+      <c r="K347" s="9"/>
+      <c r="L347" s="9"/>
+    </row>
+    <row r="348" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I348" s="9"/>
+      <c r="J348" s="9"/>
+      <c r="K348" s="9"/>
+      <c r="L348" s="9"/>
+    </row>
+    <row r="349" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I349" s="9"/>
+      <c r="J349" s="9"/>
+      <c r="K349" s="9"/>
+      <c r="L349" s="9"/>
+    </row>
+    <row r="350" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I350" s="9"/>
+      <c r="J350" s="9"/>
+      <c r="K350" s="9"/>
+      <c r="L350" s="9"/>
+    </row>
+    <row r="351" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I351" s="9"/>
+      <c r="J351" s="9"/>
+      <c r="K351" s="9"/>
+      <c r="L351" s="9"/>
+    </row>
+    <row r="352" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I352" s="9"/>
+      <c r="J352" s="9"/>
+      <c r="K352" s="9"/>
+      <c r="L352" s="9"/>
+    </row>
+    <row r="353" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I353" s="9"/>
+      <c r="J353" s="9"/>
+      <c r="K353" s="9"/>
+      <c r="L353" s="9"/>
+    </row>
+    <row r="354" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I354" s="9"/>
+      <c r="J354" s="9"/>
+      <c r="K354" s="9"/>
+      <c r="L354" s="9"/>
+    </row>
+    <row r="355" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I355" s="9"/>
+      <c r="J355" s="9"/>
+      <c r="K355" s="9"/>
+      <c r="L355" s="9"/>
+    </row>
+    <row r="356" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I356" s="9"/>
+      <c r="J356" s="9"/>
+      <c r="K356" s="9"/>
+      <c r="L356" s="9"/>
+    </row>
+    <row r="357" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I357" s="9"/>
+      <c r="J357" s="9"/>
+      <c r="K357" s="9"/>
+      <c r="L357" s="9"/>
+    </row>
+    <row r="358" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I358" s="9"/>
+      <c r="J358" s="9"/>
+      <c r="K358" s="9"/>
+      <c r="L358" s="9"/>
+    </row>
+    <row r="359" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I359" s="9"/>
+      <c r="J359" s="9"/>
+      <c r="K359" s="9"/>
+      <c r="L359" s="9"/>
+    </row>
+    <row r="360" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I360" s="9"/>
+      <c r="J360" s="9"/>
+      <c r="K360" s="9"/>
+      <c r="L360" s="9"/>
+    </row>
+    <row r="361" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I361" s="9"/>
+      <c r="J361" s="9"/>
+      <c r="K361" s="9"/>
+      <c r="L361" s="9"/>
+    </row>
+    <row r="362" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I362" s="9"/>
+      <c r="J362" s="9"/>
+      <c r="K362" s="9"/>
+      <c r="L362" s="9"/>
+    </row>
+    <row r="363" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I363" s="9"/>
+      <c r="J363" s="9"/>
+      <c r="K363" s="9"/>
+      <c r="L363" s="9"/>
+    </row>
+    <row r="364" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I364" s="9"/>
+      <c r="J364" s="9"/>
+      <c r="K364" s="9"/>
+      <c r="L364" s="9"/>
+    </row>
+    <row r="365" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I365" s="9"/>
+      <c r="J365" s="9"/>
+      <c r="K365" s="9"/>
+      <c r="L365" s="9"/>
+    </row>
+    <row r="366" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I366" s="9"/>
+      <c r="J366" s="9"/>
+      <c r="K366" s="9"/>
+      <c r="L366" s="9"/>
+    </row>
+    <row r="367" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I367" s="9"/>
+      <c r="J367" s="9"/>
+      <c r="K367" s="9"/>
+      <c r="L367" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5605,12 +7474,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F1E49-69B3-41E4-B5F7-85CA4F6581D0}">
-  <dimension ref="B2:H15"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5621,13 +7491,13 @@
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5639,19 +7509,19 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F3" cm="1">
-        <f t="array" ref="F3:F13">_xlfn.SEQUENCE(1+(E4-E3)/E5,1,E3,E5)</f>
-        <v>95</v>
+        <f t="array" ref="F3:F23">_xlfn.SEQUENCE(1+(E4-E3)/E5,1,E3,E5)</f>
+        <v>90</v>
       </c>
       <c r="G3" cm="1">
-        <f t="array" ref="G3:G13">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.JOHNSON.PUT.VALUE(Johnson,_xlpm.k)))</f>
-        <v>0.21964104664022965</v>
+        <f t="array" ref="G3:G23">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.JOHNSON.PUT.VALUE(Johnson,_xlpm.k)))</f>
+        <v>6.9638663695983816E-2</v>
       </c>
       <c r="H3" cm="1">
-        <f t="array" ref="H3:H13">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.NORMAL.PUT.VALUE(f,s,_xlpm.k)))</f>
-        <v>0.15047516015719964</v>
+        <f t="array" ref="H3:H23">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.NORMAL.PUT.VALUE(f,s,_xlpm.k)))</f>
+        <v>2.3868424467606286E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -5662,16 +7532,16 @@
         <v>0.1</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F4">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G4">
-        <v>0.29371700965105951</v>
+        <v>8.4993948410896802E-2</v>
       </c>
       <c r="H4">
-        <v>0.27323255315290318</v>
+        <v>6.4816119800858996E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -5685,13 +7555,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G5">
-        <v>0.40485038926779637</v>
+        <v>0.10508011038182286</v>
       </c>
       <c r="H5">
-        <v>0.46430618247089228</v>
+        <v>1.6091692090441034E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -5700,23 +7570,23 @@
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(xi, lambda, gamma, delta)</f>
-        <v>1872423192352</v>
+        <v>1619888405008</v>
       </c>
       <c r="F6">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G6">
-        <v>0.5783109449391155</v>
+        <v>0.13187002093433797</v>
       </c>
       <c r="H6">
-        <v>0.74206810660077238</v>
+        <v>3.6689488131572467E-2</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" cm="1">
+      <c r="C7" s="4" cm="1">
         <f t="array" ref="C7">_xll.JOHNSON.MOMENT(Johnson,1)</f>
         <v>99.669705897250765</v>
       </c>
@@ -5725,139 +7595,245 @@
         <v>99.670255745859976</v>
       </c>
       <c r="F7">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G7">
-        <v>0.85749011579833478</v>
+        <v>0.16842119074878958</v>
       </c>
       <c r="H7">
-        <v>1.1211384892197884</v>
+        <v>7.7177216935841564E-2</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" cm="1">
+      <c r="C8" s="4" cm="1">
         <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,2) - mean^2</f>
         <v>12.965566769535144</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G8">
-        <v>1.3003336793219376</v>
+        <v>0.21964104664022965</v>
       </c>
       <c r="H8">
-        <v>1.6095107827846178</v>
+        <v>0.15047516015719964</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>mean</f>
         <v>99.669705897250765</v>
       </c>
       <c r="F9">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G9">
-        <v>1.9340968825215015</v>
+        <v>0.29371700965105951</v>
       </c>
       <c r="H9">
-        <v>2.2070064174084365</v>
+        <v>0.27323255315290318</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>SQRT(LN(1+variance/(mean*mean)))</f>
         <v>3.6115276722036238E-2</v>
       </c>
       <c r="F10">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G10">
-        <v>2.7175624881759006</v>
+        <v>0.40485038926779637</v>
       </c>
       <c r="H10">
-        <v>2.9055415213955911</v>
+        <v>0.46430618247089228</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f>f</f>
         <v>99.669705897250765</v>
       </c>
       <c r="F11">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G11">
-        <v>3.5903697274681434</v>
+        <v>0.5783109449391155</v>
       </c>
       <c r="H11">
-        <v>3.6910306629170435</v>
+        <v>0.74206810660077238</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" cm="1">
+      <c r="C12" s="4" cm="1">
         <f t="array" ref="C12">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
         <v>1.4359541979520429</v>
       </c>
       <c r="F12">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G12">
-        <v>4.5125670111857374</v>
+        <v>0.85749011579833478</v>
       </c>
       <c r="H12">
-        <v>4.5462182555494337</v>
+        <v>1.1211384892197884</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" cm="1">
+      <c r="C13" s="4" cm="1">
         <f t="array" ref="C13">_xll.NORMAL.PUT.DELTA(f, s, k)</f>
         <v>-0.49279643606336931</v>
       </c>
       <c r="F13">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>5.4626589026709382</v>
+        <v>1.3003336793219376</v>
       </c>
       <c r="H13">
-        <v>5.4535456694156039</v>
+        <v>1.6095107827846178</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" cm="1">
+      <c r="C14" s="4" cm="1">
         <f t="array" ref="C14">_xll.NORMAL.PUT.IMPLIED(f, value, k)</f>
         <v>3.6115276714757762E-2</v>
+      </c>
+      <c r="F14">
+        <v>101</v>
+      </c>
+      <c r="G14">
+        <v>1.9340968825215015</v>
+      </c>
+      <c r="H14">
+        <v>2.2070064174084365</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5" cm="1">
+      <c r="C15" s="4" cm="1">
         <f t="array" ref="C15">_xll.JOHNSON.PUT.VALUE(Johnson,k)</f>
         <v>1.13286858585289</v>
+      </c>
+      <c r="F15">
+        <v>102</v>
+      </c>
+      <c r="G15">
+        <v>2.7175624881759006</v>
+      </c>
+      <c r="H15">
+        <v>2.9055415213955911</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>103</v>
+      </c>
+      <c r="G16">
+        <v>3.5903697274681434</v>
+      </c>
+      <c r="H16">
+        <v>3.6910306629170435</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <v>4.5125670111857374</v>
+      </c>
+      <c r="H17">
+        <v>4.5462182555494337</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>105</v>
+      </c>
+      <c r="G18">
+        <v>5.4626589026709382</v>
+      </c>
+      <c r="H18">
+        <v>5.4535456694156039</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>106</v>
+      </c>
+      <c r="G19">
+        <v>6.4292498301286258</v>
+      </c>
+      <c r="H19">
+        <v>6.3973465981347459</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>107</v>
+      </c>
+      <c r="G20">
+        <v>7.4060648866560967</v>
+      </c>
+      <c r="H20">
+        <v>7.3650513577205459</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>108</v>
+      </c>
+      <c r="G21">
+        <v>8.3894823637536433</v>
+      </c>
+      <c r="H21">
+        <v>8.3474600000989767</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>109</v>
+      </c>
+      <c r="G22">
+        <v>9.3773169042700744</v>
+      </c>
+      <c r="H22">
+        <v>9.3383729275395382</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>110</v>
+      </c>
+      <c r="G23">
+        <v>10.368197017941426</v>
+      </c>
+      <c r="H23">
+        <v>10.333918471004608</v>
       </c>
     </row>
   </sheetData>

--- a/xll_johnson/johnson.xlsx
+++ b/xll_johnson/johnson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\fms_johnson\xll_johnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968FE375-4D38-483B-83FC-5DC9874B710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A86B2-1ABF-48AB-887D-B16E12832C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{04679C06-6483-44F4-8D12-E76B362C6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <definedName name="value">Sheet2!$C$12</definedName>
     <definedName name="variance" localSheetId="0">Sheet1!$C$13</definedName>
     <definedName name="variance">Sheet2!$C$8</definedName>
+    <definedName name="vol">_xlfn.ANCHORARRAY(Sheet2!$I$3)</definedName>
     <definedName name="x">_xlfn.ANCHORARRAY(Sheet1!$H$3)</definedName>
     <definedName name="xi" localSheetId="1">Sheet2!$C$2</definedName>
     <definedName name="xi">Sheet1!$C$2</definedName>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>xi</t>
   </si>
@@ -199,6 +200,9 @@
   </si>
   <si>
     <t>pF</t>
+  </si>
+  <si>
+    <t>vol</t>
   </si>
 </sst>
 </file>
@@ -1851,11 +1855,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$2</c:f>
+              <c:f>Sheet2!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>jput</c:v>
+                  <c:v>vol</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1946,72 +1950,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[0]!jput</c:f>
+              <c:f>[0]!vol</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.9638663695983816E-2</c:v>
+                  <c:v>0.13527687972292396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4993948410896802E-2</c:v>
+                  <c:v>0.1296670935113855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10508011038182286</c:v>
+                  <c:v>0.12410797383302234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13187002093433797</c:v>
+                  <c:v>0.11861172417662311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16842119074878958</c:v>
+                  <c:v>0.11319898919079628</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21964104664022965</c:v>
+                  <c:v>0.10790505617115692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29371700965105951</c:v>
+                  <c:v>0.10279230561503147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40485038926779637</c:v>
+                  <c:v>9.7977295490642893E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5783109449391155</c:v>
+                  <c:v>9.3696951230839168E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85749011579833478</c:v>
+                  <c:v>9.0491250094402398E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3003336793219376</c:v>
+                  <c:v>8.9624079506752052E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9340968825215015</c:v>
+                  <c:v>9.2281004638321007E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7175624881759006</c:v>
+                  <c:v>9.7164900524721848E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5903697274681434</c:v>
+                  <c:v>0.10287531000542198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5125670111857374</c:v>
+                  <c:v>0.10883019081730265</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4626589026709382</c:v>
+                  <c:v>0.11479937712099826</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4292498301286258</c:v>
+                  <c:v>0.12068689235545629</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.4060648866560967</c:v>
+                  <c:v>0.12645238195007327</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3894823637536433</c:v>
+                  <c:v>0.13208039530520457</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.3773169042700744</c:v>
+                  <c:v>0.13756715783887596</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.368197017941426</c:v>
+                  <c:v>0.14291451268624053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,183 +2024,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CC92-48B7-8B98-2F3CE8CA83E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nput</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[0]!strike</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>110</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[0]!nput</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2.3868424467606286E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4816119800858996E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6091692090441034E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6689488131572467E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.7177216935841564E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15047516015719964</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.27323255315290318</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46430618247089228</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.74206810660077238</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1211384892197884</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6095107827846178</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2070064174084365</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9055415213955911</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.6910306629170435</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5462182555494337</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.4535456694156039</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.3973465981347459</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.3650513577205459</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.3474600000989767</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.3383729275395382</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.333918471004608</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CC92-48B7-8B98-2F3CE8CA83E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2215,6 +2042,8 @@
         <c:axId val="1751457072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3575,16 +3404,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3931,7 +3760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F0A76B-08E5-40E0-BCFA-A9D795A3DB2C}">
   <dimension ref="B1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4064,7 +3893,7 @@
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(xi, lambda, gamma, delta)</f>
-        <v>1619888408704</v>
+        <v>2508341932352</v>
       </c>
       <c r="E6" s="2"/>
       <c r="H6">
@@ -4219,7 +4048,7 @@
       </c>
       <c r="E12" s="8">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.23162743080964837</v>
+        <v>-0.96939282050366071</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -4249,7 +4078,7 @@
       </c>
       <c r="E13" s="8">
         <f ca="1">f*EXP(s*E12-s*s/2)</f>
-        <v>5.2106201601001114</v>
+        <v>3.2423024291479527</v>
       </c>
       <c r="F13" s="8">
         <f t="array" aca="1" ref="F13:G13" ca="1">_xll.MONTE.STDEV(E13)</f>
@@ -4285,7 +4114,7 @@
       </c>
       <c r="E14" s="8">
         <f ca="1">E13^2</f>
-        <v>27.150562452841712</v>
+        <v>10.512525042058716</v>
       </c>
       <c r="F14" s="8">
         <f t="array" aca="1" ref="F14:G14" ca="1">_xll.MONTE.STDEV(E14)</f>
@@ -4377,7 +4206,7 @@
       </c>
       <c r="C17" s="2" cm="1">
         <f t="array" ref="C17">_xll.\VARIATE.NORMAL(0, 1)</f>
-        <v>1619885192176</v>
+        <v>2508350754096</v>
       </c>
       <c r="H17">
         <v>2.4000000000000012</v>
@@ -4418,7 +4247,7 @@
       </c>
       <c r="C19" s="9">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>6.2798212236974654E-2</v>
+        <v>-1.7464092116999255</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
@@ -4452,7 +4281,7 @@
       </c>
       <c r="C20" s="8">
         <f ca="1">(Z-gamma)/delta</f>
-        <v>-0.43720178776302532</v>
+        <v>-2.2464092116999255</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8">
@@ -4486,7 +4315,7 @@
       </c>
       <c r="C21" s="8">
         <f ca="1">SINH(C20)</f>
-        <v>-0.45126369595867344</v>
+        <v>-4.6739750537499569</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8">
@@ -4520,7 +4349,7 @@
       </c>
       <c r="C22" s="8">
         <f ca="1">POWER($C$21,B22)</f>
-        <v>-0.45126369595867344</v>
+        <v>-4.6739750537499569</v>
       </c>
       <c r="D22" s="8" cm="1">
         <f t="array" ref="D22">_xll.JOHNSON.Esinh_k(Johnson,B22)</f>
@@ -4560,7 +4389,7 @@
       </c>
       <c r="C23" s="8">
         <f ca="1">POWER($C$21,B23)</f>
-        <v>0.20363892329028208</v>
+        <v>21.846042803076912</v>
       </c>
       <c r="D23" s="8" cm="1">
         <f t="array" ref="D23">_xll.JOHNSON.Esinh_k(Johnson,B23)</f>
@@ -4600,7 +4429,7 @@
       </c>
       <c r="C24" s="8">
         <f ca="1">POWER($C$21,B24)</f>
-        <v>-9.189485316501747E-2</v>
+        <v>-102.10785908473527</v>
       </c>
       <c r="D24" s="8" cm="1">
         <f t="array" ref="D24">_xll.JOHNSON.Esinh_k(Johnson,B24)</f>
@@ -4640,7 +4469,7 @@
       </c>
       <c r="C25" s="8">
         <f ca="1">POWER($C$21,B25)</f>
-        <v>4.1468811078825385E-2</v>
+        <v>477.24958615386856</v>
       </c>
       <c r="D25" s="8" cm="1">
         <f t="array" ref="D25">_xll.JOHNSON.Esinh_k(Johnson,B25)</f>
@@ -4702,23 +4531,23 @@
       </c>
       <c r="C27" s="9" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">_xll.JOHNSON.X(Johnson,Z)</f>
-        <v>5.5487363040413262</v>
+        <v>1.326024946250044</v>
       </c>
       <c r="D27" s="9">
         <f>m_1</f>
         <v>5.1408590857704777</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="9" t="e">
         <f t="array" aca="1" ref="E27:F27" ca="1">_xll.MONTE.STDEV(C27)</f>
-        <v>5.1259821497097802</v>
-      </c>
-      <c r="F27" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" s="9" t="e">
         <f ca="1"/>
-        <v>2.1493283963817182</v>
-      </c>
-      <c r="G27" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" s="9" t="e">
         <f ca="1">(D27-E27)/F27</f>
-        <v>6.9216672918582627E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H27">
         <v>3.4000000000000021</v>
@@ -4742,7 +4571,7 @@
       </c>
       <c r="C28" s="9">
         <f ca="1">f*EXP(s*Z-s*s/2)</f>
-        <v>4.8744614573715781</v>
+        <v>2.3853702424959686</v>
       </c>
       <c r="D28" s="9">
         <f>D27</f>
@@ -4804,23 +4633,23 @@
       </c>
       <c r="C30" s="9">
         <f ca="1">MAX(k-C27,0)</f>
-        <v>0</v>
+        <v>3.673975053749956</v>
       </c>
       <c r="D30" s="9" cm="1">
         <f t="array" ref="D30">_xll.JOHNSON.PUT.VALUE(Johnson, k)</f>
         <v>0.60152666142269706</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="9" t="e">
         <f t="array" aca="1" ref="E30:F30" ca="1">_xll.MONTE.STDEV(C30)</f>
-        <v>0.61389201203556942</v>
-      </c>
-      <c r="F30" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="9" t="e">
         <f ca="1"/>
-        <v>1.6680599848690432</v>
-      </c>
-      <c r="G30" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G30" s="9" t="e">
         <f t="shared" ref="G30:G31" ca="1" si="0">(D30-E30)/F30</f>
-        <v>-7.4130131560245695E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H30">
         <v>3.7000000000000024</v>
@@ -4844,7 +4673,7 @@
       </c>
       <c r="C31" s="9">
         <f ca="1">MAX(k-C28,0)</f>
-        <v>0.1255385426284219</v>
+        <v>2.6146297575040314</v>
       </c>
       <c r="D31" s="9" cm="1">
         <f t="array" ref="D31">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
@@ -7474,9 +7303,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F1E49-69B3-41E4-B5F7-85CA4F6581D0}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7484,7 +7313,7 @@
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7500,13 +7329,16 @@
       <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>90</v>
@@ -7517,19 +7349,27 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3:G23">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.JOHNSON.PUT.VALUE(Johnson,_xlpm.k)))</f>
-        <v>6.9638663695983816E-2</v>
+        <v>1.0840196264441095</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3:H23">_xlfn.MAP(strike,_xlfn.LAMBDA(_xlpm.k,_xll.NORMAL.PUT.VALUE(f,s,_xlpm.k)))</f>
-        <v>2.3868424467606286E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+        <v>10.130455484630225</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3:I23">_xlfn.MAP(jput,strike,_xlfn.LAMBDA(_xlpm.p,_xlpm.k,_xll.NORMAL.PUT.IMPLIED(f,_xlpm.p,_xlpm.k)))</f>
+        <v>0.13527687972292396</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3:J23">_xlfn.MAP(nput,strike,_xlfn.LAMBDA(_xlpm.p,_xlpm.k,_xll.NORMAL.PUT.IMPLIED(f,_xlpm.p,_xlpm.k)))</f>
+        <v>0.41389360063484915</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="E4">
         <v>110</v>
@@ -7538,18 +7378,24 @@
         <v>91</v>
       </c>
       <c r="G4">
-        <v>8.4993948410896802E-2</v>
+        <v>1.1311655297909802</v>
       </c>
       <c r="H4">
-        <v>6.4816119800858996E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+        <v>10.588058147772312</v>
+      </c>
+      <c r="I4">
+        <v>0.1296670935113855</v>
+      </c>
+      <c r="J4">
+        <v>0.41389360063474429</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7558,282 +7404,396 @@
         <v>92</v>
       </c>
       <c r="G5">
-        <v>0.10508011038182286</v>
+        <v>1.184016803276287</v>
       </c>
       <c r="H5">
-        <v>1.6091692090441034E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+        <v>11.05620652799152</v>
+      </c>
+      <c r="I5">
+        <v>0.12410797383302234</v>
+      </c>
+      <c r="J5">
+        <v>0.41389360063474168</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.\VARIATE.JOHNSON(xi, lambda, gamma, delta)</f>
-        <v>1619888405008</v>
+        <v>2510353502224</v>
       </c>
       <c r="F6">
         <v>93</v>
       </c>
       <c r="G6">
-        <v>0.13187002093433797</v>
+        <v>1.2439198702602727</v>
       </c>
       <c r="H6">
-        <v>3.6689488131572467E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+        <v>11.534808070212144</v>
+      </c>
+      <c r="I6">
+        <v>0.11861172417662311</v>
+      </c>
+      <c r="J6">
+        <v>0.41389360818900689</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="4" cm="1">
         <f t="array" ref="C7">_xll.JOHNSON.MOMENT(Johnson,1)</f>
-        <v>99.669705897250765</v>
+        <v>103.03507197812324</v>
       </c>
       <c r="D7">
         <f>xi-SQRT(EXP(1))*lambda*gamma/delta</f>
-        <v>99.670255745859976</v>
+        <v>100.65948850828005</v>
       </c>
       <c r="F7">
         <v>94</v>
       </c>
       <c r="G7">
-        <v>0.16842119074878958</v>
+        <v>1.3127485031931734</v>
       </c>
       <c r="H7">
-        <v>7.7177216935841564E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+        <v>12.02376491303653</v>
+      </c>
+      <c r="I7">
+        <v>0.11319898919079628</v>
+      </c>
+      <c r="J7">
+        <v>0.41389360153858662</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="4" cm="1">
         <f t="array" ref="C8">_xll.JOHNSON.MOMENT(Johnson,2) - mean^2</f>
-        <v>12.965566769535144</v>
+        <v>1983.7070307556878</v>
       </c>
       <c r="F8">
         <v>95</v>
       </c>
       <c r="G8">
-        <v>0.21964104664022965</v>
+        <v>1.393220595625654</v>
       </c>
       <c r="H8">
-        <v>0.15047516015719964</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <v>12.522974257802353</v>
+      </c>
+      <c r="I8">
+        <v>0.10790505617115692</v>
+      </c>
+      <c r="J8">
+        <v>0.41389360041665318</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4">
         <f>mean</f>
-        <v>99.669705897250765</v>
+        <v>103.03507197812324</v>
       </c>
       <c r="F9">
         <v>96</v>
       </c>
       <c r="G9">
-        <v>0.29371700965105951</v>
+        <v>1.4894957591557141</v>
       </c>
       <c r="H9">
-        <v>0.27323255315290318</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+        <v>13.03232872855385</v>
+      </c>
+      <c r="I9">
+        <v>0.10279230561503147</v>
+      </c>
+      <c r="J9">
+        <v>0.41389360039525658</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4">
         <f>SQRT(LN(1+variance/(mean*mean)))</f>
-        <v>3.6115276722036238E-2</v>
+        <v>0.41389360063474157</v>
       </c>
       <c r="F10">
         <v>97</v>
       </c>
       <c r="G10">
-        <v>0.40485038926779637</v>
+        <v>1.6084151811313241</v>
       </c>
       <c r="H10">
-        <v>0.46430618247089228</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+        <v>13.551716722369143</v>
+      </c>
+      <c r="I10">
+        <v>9.7977295490642893E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.4138936005209326</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="4">
         <f>f</f>
-        <v>99.669705897250765</v>
+        <v>103.03507197812324</v>
       </c>
       <c r="F11">
         <v>98</v>
       </c>
       <c r="G11">
-        <v>0.5783109449391155</v>
+        <v>1.7624109105531467</v>
       </c>
       <c r="H11">
-        <v>0.74206810660077238</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+        <v>14.081022749576618</v>
+      </c>
+      <c r="I11">
+        <v>9.3696951230839168E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.41389360060034452</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="4" cm="1">
         <f t="array" ref="C12">_xll.NORMAL.PUT.VALUE(f, s, k)</f>
-        <v>1.4359541979520429</v>
+        <v>16.892455163369242</v>
       </c>
       <c r="F12">
         <v>99</v>
       </c>
       <c r="G12">
-        <v>0.85749011579833478</v>
+        <v>1.9773366228687266</v>
       </c>
       <c r="H12">
-        <v>1.1211384892197884</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+        <v>14.620127763478877</v>
+      </c>
+      <c r="I12">
+        <v>9.0491250094402398E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.41389360062863373</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="4" cm="1">
         <f t="array" ref="C13">_xll.NORMAL.PUT.DELTA(f, s, k)</f>
-        <v>-0.49279643606336931</v>
+        <v>-0.4180257030976991</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
-        <v>1.3003336793219376</v>
+        <v>2.3109041172848208</v>
       </c>
       <c r="H13">
-        <v>1.6095107827846178</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+        <v>15.16890947928011</v>
+      </c>
+      <c r="I13">
+        <v>8.9624079506752052E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.41389360063429309</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4" cm="1">
         <f t="array" ref="C14">_xll.NORMAL.PUT.IMPLIED(f, value, k)</f>
-        <v>3.6115276714757762E-2</v>
+        <v>0.4138936006347364</v>
       </c>
       <c r="F14">
         <v>101</v>
       </c>
       <c r="G14">
-        <v>1.9340968825215015</v>
+        <v>2.8242065333530846</v>
       </c>
       <c r="H14">
-        <v>2.2070064174084365</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+        <v>15.72724268198516</v>
+      </c>
+      <c r="I14">
+        <v>9.2281004638321007E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.41389360063473868</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="4" cm="1">
         <f t="array" ref="C15">_xll.JOHNSON.PUT.VALUE(Johnson,k)</f>
-        <v>1.13286858585289</v>
+        <v>4.235314699868951</v>
       </c>
       <c r="F15">
         <v>102</v>
       </c>
       <c r="G15">
-        <v>2.7175624881759006</v>
+        <v>3.4762175776619841</v>
       </c>
       <c r="H15">
-        <v>2.9055415213955911</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+        <v>16.294999523104224</v>
+      </c>
+      <c r="I15">
+        <v>9.7164900524721848E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.41389360063474095</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F16">
         <v>103</v>
       </c>
       <c r="G16">
-        <v>3.5903697274681434</v>
+        <v>4.2085981621060142</v>
       </c>
       <c r="H16">
-        <v>3.6910306629170435</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
+        <v>16.872049806056651</v>
+      </c>
+      <c r="I16">
+        <v>0.10287531000542198</v>
+      </c>
+      <c r="J16">
+        <v>0.41389360063473629</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F17">
         <v>104</v>
       </c>
       <c r="G17">
-        <v>4.5125670111857374</v>
+        <v>4.9911154979002106</v>
       </c>
       <c r="H17">
-        <v>4.5462182555494337</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
+        <v>17.458261260222471</v>
+      </c>
+      <c r="I17">
+        <v>0.10883019081730265</v>
+      </c>
+      <c r="J17">
+        <v>0.41389360063474068</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F18">
         <v>105</v>
       </c>
       <c r="G18">
-        <v>5.4626589026709382</v>
+        <v>5.8079238825969384</v>
       </c>
       <c r="H18">
-        <v>5.4535456694156039</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.35">
+        <v>18.053499803639134</v>
+      </c>
+      <c r="I18">
+        <v>0.11479937712099826</v>
+      </c>
+      <c r="J18">
+        <v>0.41389360063474073</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F19">
         <v>106</v>
       </c>
       <c r="G19">
-        <v>6.4292498301286258</v>
+        <v>6.6497610209421794</v>
       </c>
       <c r="H19">
-        <v>6.3973465981347459</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.35">
+        <v>18.65762979438523</v>
+      </c>
+      <c r="I19">
+        <v>0.12068689235545629</v>
+      </c>
+      <c r="J19">
+        <v>0.41389360063447816</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F20">
         <v>107</v>
       </c>
       <c r="G20">
-        <v>7.4060648866560967</v>
+        <v>7.5107267763521151</v>
       </c>
       <c r="H20">
-        <v>7.3650513577205459</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
+        <v>19.270514270733109</v>
+      </c>
+      <c r="I20">
+        <v>0.12645238195007327</v>
+      </c>
+      <c r="J20">
+        <v>0.41389360063092739</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F21">
         <v>108</v>
       </c>
       <c r="G21">
-        <v>8.3894823637536433</v>
+        <v>8.3868168097606599</v>
       </c>
       <c r="H21">
-        <v>8.3474600000989767</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.35">
+        <v>19.8920151801874</v>
+      </c>
+      <c r="I21">
+        <v>0.13208039530520457</v>
+      </c>
+      <c r="J21">
+        <v>0.4138936006128347</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F22">
         <v>109</v>
       </c>
       <c r="G22">
-        <v>9.3773169042700744</v>
+        <v>9.2751804336698171</v>
       </c>
       <c r="H22">
-        <v>9.3383729275395382</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.35">
+        <v>20.521993597557866</v>
+      </c>
+      <c r="I22">
+        <v>0.13756715783887596</v>
+      </c>
+      <c r="J22">
+        <v>0.41389360055999752</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F23">
         <v>110</v>
       </c>
       <c r="G23">
-        <v>10.368197017941426</v>
+        <v>10.17371151152382</v>
       </c>
       <c r="H23">
-        <v>10.333918471004608</v>
+        <v>21.16030993224274</v>
+      </c>
+      <c r="I23">
+        <v>0.14291451268624053</v>
+      </c>
+      <c r="J23">
+        <v>0.4138936004608505</v>
       </c>
     </row>
   </sheetData>
